--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77239A3-00B7-4D49-A635-4FE4A5239F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC2F6DF-30F8-4DF1-8DDB-DDB6A4888B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="840" windowWidth="27555" windowHeight="14415" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="2895" yWindow="1725" windowWidth="21840" windowHeight="14715" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>愛知県</t>
   </si>
   <si>
-    <t>海部郡飛島村</t>
-  </si>
-  <si>
     <t>埼玉県</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>東広島市黒瀬町乃美尾</t>
+  </si>
+  <si>
+    <t>栗東市安養寺</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F783F1-693B-40FB-B54E-2CFAE0B1ADB5}">
   <dimension ref="A1:I3761"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -642,57 +642,57 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>愛知県海部郡飛島村</v>
+        <v>滋賀県栗東市安養寺</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%B5%B7%E9%83%A8%E9%83%A1%E9%A3%9B%E5%B3%B6%E6%9D%91</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E6%A0%97%E6%9D%B1%E5%B8%82%E5%AE%89%E9%A4%8A%E5%AF%BA</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;愛知県海部郡飛島村&lt;/query&gt;
+&lt;query&gt;滋賀県栗東市安養寺&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県海部郡飛島村&lt;/converted&gt;
+&lt;converted&gt;滋賀県栗東市安養寺&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;愛知県/海部郡/飛島村&lt;/address&gt;
-&lt;longitude&gt;136.791153&lt;/longitude&gt;
-&lt;latitude&gt;35.078804&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;address&gt;滋賀県/栗東市/安養寺&lt;/address&gt;
+&lt;longitude&gt;136.002060&lt;/longitude&gt;
+&lt;latitude&gt;35.014442&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>35.078803999999998</v>
+        <v>35.014442000000003</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>136.79115300000001</v>
+        <v>136.00206</v>
       </c>
       <c r="H2">
-        <v>35.078803999999998</v>
+        <v>35.014442000000003</v>
       </c>
       <c r="I2">
-        <v>136.79115300000001</v>
+        <v>136.00206</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C8" si="0">+A3&amp;B3</f>
@@ -739,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -792,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -836,10 +836,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1521,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -1568,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ref="C9:C21" si="4">+A9&amp;B9</f>
@@ -1612,10 +1612,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="4"/>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="4"/>
@@ -1709,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="4"/>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="4"/>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="4"/>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="4"/>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="4"/>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="4"/>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="4"/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC2F6DF-30F8-4DF1-8DDB-DDB6A4888B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C388FB3-F8A2-49C1-960A-98EABEC7F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1725" windowWidth="21840" windowHeight="14715" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="31380" yWindow="1335" windowWidth="24765" windowHeight="13335" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
   <si>
     <t>jio0</t>
   </si>
@@ -190,6 +190,324 @@
   </si>
   <si>
     <t>栗東市安養寺</t>
+  </si>
+  <si>
+    <t>兵庫県</t>
+  </si>
+  <si>
+    <t>神戸市灘区水道筋</t>
+  </si>
+  <si>
+    <t>海部郡飛島村</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>京都市中京区上一文字町</t>
+  </si>
+  <si>
+    <t>東大和市狭山</t>
+  </si>
+  <si>
+    <t>池田市</t>
+  </si>
+  <si>
+    <t>大阪市此花区島屋</t>
+  </si>
+  <si>
+    <t>吹田市千里丘北</t>
+  </si>
+  <si>
+    <t>愛媛県</t>
+  </si>
+  <si>
+    <t>新居浜市坂井町</t>
+  </si>
+  <si>
+    <t>江南市赤童子町福住</t>
+  </si>
+  <si>
+    <t>石川県</t>
+  </si>
+  <si>
+    <t>金沢市駅西本町</t>
+  </si>
+  <si>
+    <t>宮城県</t>
+  </si>
+  <si>
+    <t>仙台市泉区館</t>
+  </si>
+  <si>
+    <t>文京区本駒込</t>
+  </si>
+  <si>
+    <t>会津若松市</t>
+  </si>
+  <si>
+    <t>富田林市桜ケ丘町</t>
+  </si>
+  <si>
+    <t>八潮市伊勢野215-1</t>
+  </si>
+  <si>
+    <t>岡崎市南明大寺町</t>
+  </si>
+  <si>
+    <t>高槻市赤大路町</t>
+  </si>
+  <si>
+    <t>中野区南台</t>
+  </si>
+  <si>
+    <t>上川郡清水町御影</t>
+  </si>
+  <si>
+    <t>大阪市中央区内久宝寺町</t>
+  </si>
+  <si>
+    <t>新宿区</t>
+  </si>
+  <si>
+    <t>さいたま市中央区</t>
+  </si>
+  <si>
+    <t>神戸市兵庫区菊水町10-39-18</t>
+  </si>
+  <si>
+    <t>長野県</t>
+  </si>
+  <si>
+    <t>上伊那郡飯島町七久保</t>
+  </si>
+  <si>
+    <t>津市芸濃町椋本</t>
+  </si>
+  <si>
+    <t>香川県</t>
+  </si>
+  <si>
+    <t>小豆郡土庄町黒岩</t>
+  </si>
+  <si>
+    <t>尾張旭市</t>
+  </si>
+  <si>
+    <t>金沢市</t>
+  </si>
+  <si>
+    <t>徳島県</t>
+  </si>
+  <si>
+    <t>鳴門市大麻町市場字大畑</t>
+  </si>
+  <si>
+    <t>沖縄県</t>
+  </si>
+  <si>
+    <t>中頭郡北谷町砂辺</t>
+  </si>
+  <si>
+    <t>渋谷区代々木</t>
+  </si>
+  <si>
+    <t>那覇市宇栄原</t>
+  </si>
+  <si>
+    <t>うるま市石川伊波</t>
+  </si>
+  <si>
+    <t>松阪市白粉町</t>
+  </si>
+  <si>
+    <t>宮崎県</t>
+  </si>
+  <si>
+    <t>宮崎市吉村町中原甲</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>浜松市中央区入野町</t>
+  </si>
+  <si>
+    <t>横浜市鶴見区東寺尾</t>
+  </si>
+  <si>
+    <t>相模原市南区古淵</t>
+  </si>
+  <si>
+    <t>大阪市東成区中道</t>
+  </si>
+  <si>
+    <t>糸満市西川町</t>
+  </si>
+  <si>
+    <t>茨城県</t>
+  </si>
+  <si>
+    <t>結城市結城</t>
+  </si>
+  <si>
+    <t>山梨県</t>
+  </si>
+  <si>
+    <t>富士吉田市大明見</t>
+  </si>
+  <si>
+    <t>越谷市越ケ谷</t>
+  </si>
+  <si>
+    <t>大田区蒲田</t>
+  </si>
+  <si>
+    <t>大阪府豊中市上野西3</t>
+  </si>
+  <si>
+    <t>知多郡阿久比町白沢西石根</t>
+  </si>
+  <si>
+    <t>二本松市上川崎字宮ノ脇</t>
+  </si>
+  <si>
+    <t>荒川区東日暮里</t>
+  </si>
+  <si>
+    <t>尼崎市</t>
+  </si>
+  <si>
+    <t>船橋市金杉台</t>
+  </si>
+  <si>
+    <t>福岡県</t>
+  </si>
+  <si>
+    <t>福岡市博多区比恵町</t>
+  </si>
+  <si>
+    <t>山口県</t>
+  </si>
+  <si>
+    <t>山口市小郡高砂町</t>
+  </si>
+  <si>
+    <t>三島市西本町</t>
+  </si>
+  <si>
+    <t>伊勢原市串橋</t>
+  </si>
+  <si>
+    <t>鶴ヶ島市鶴ヶ丘</t>
+  </si>
+  <si>
+    <t>横浜市旭区二俣川</t>
+  </si>
+  <si>
+    <t>飯田市川路</t>
+  </si>
+  <si>
+    <t>長岡京市泉が丘</t>
+  </si>
+  <si>
+    <t>尼崎市大島</t>
+  </si>
+  <si>
+    <t>和歌山県</t>
+  </si>
+  <si>
+    <t>海南市</t>
+  </si>
+  <si>
+    <t>江東区大島</t>
+  </si>
+  <si>
+    <t>さいたま市見沼区蓮沼５７４－１</t>
+  </si>
+  <si>
+    <t>富士市</t>
+  </si>
+  <si>
+    <t>国立市西</t>
+  </si>
+  <si>
+    <t>那覇市</t>
+  </si>
+  <si>
+    <t>大分県</t>
+  </si>
+  <si>
+    <t>大分市公園通り</t>
+  </si>
+  <si>
+    <t>京田辺市</t>
+  </si>
+  <si>
+    <t>阿南市津乃峰町</t>
+  </si>
+  <si>
+    <t>武蔵野市八幡町</t>
+  </si>
+  <si>
+    <t>泉南郡熊取町つばさが丘西</t>
+  </si>
+  <si>
+    <t>岐阜県</t>
+  </si>
+  <si>
+    <t>中津川市</t>
+  </si>
+  <si>
+    <t>名古屋市緑区大清水</t>
+  </si>
+  <si>
+    <t>中野区中央</t>
+  </si>
+  <si>
+    <t>名古屋市中川区愛知町</t>
+  </si>
+  <si>
+    <t>行田市樋上</t>
+  </si>
+  <si>
+    <t>志木市柏町</t>
+  </si>
+  <si>
+    <t>習志野市津田沼</t>
+  </si>
+  <si>
+    <t>熊谷市新堀</t>
+  </si>
+  <si>
+    <t>練馬区桜台</t>
+  </si>
+  <si>
+    <t>奈良県</t>
+  </si>
+  <si>
+    <t>桜井市粟殿</t>
+  </si>
+  <si>
+    <t>宇部市文京町</t>
+  </si>
+  <si>
+    <t>印西市</t>
+  </si>
+  <si>
+    <t>横浜市都筑区荏田南</t>
+  </si>
+  <si>
+    <t>豊島区東池袋</t>
+  </si>
+  <si>
+    <t>浦添市</t>
+  </si>
+  <si>
+    <t>平塚市南原</t>
+  </si>
+  <si>
+    <t>尼崎市武庫川町4丁目</t>
   </si>
 </sst>
 </file>
@@ -598,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F783F1-693B-40FB-B54E-2CFAE0B1ADB5}">
   <dimension ref="A1:I3761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -642,21 +960,68 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>滋賀県栗東市安養寺</v>
+        <v>兵庫県神戸市灘区水道筋</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E6%A0%97%E6%9D%B1%E5%B8%82%E5%AE%89%E9%A4%8A%E5%AF%BA</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E6%B0%B4%E9%81%93%E7%AD%8B</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県神戸市灘区水道筋&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県神戸市灘区水道筋&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/神戸市/灘区/水道筋&lt;/address&gt;
+&lt;longitude&gt;135.227188&lt;/longitude&gt;
+&lt;latitude&gt;34.713982&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>34.713982000000001</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>135.22718800000001</v>
+      </c>
+      <c r="H2">
+        <v>34.713982000000001</v>
+      </c>
+      <c r="I2">
+        <v>135.22718800000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C8" si="0">+A3&amp;B3</f>
+        <v>滋賀県栗東市安養寺</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E6%A0%97%E6%9D%B1%E5%B8%82%E5%AE%89%E9%A4%8A%E5%AF%BA</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E8" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;滋賀県栗東市安養寺&lt;/query&gt;
@@ -672,38 +1037,85 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
         <v>35.014442000000003</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
         <v>136.00206</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>35.014442000000003</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>136.00206</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>愛知県海部郡飛島村</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%B5%B7%E9%83%A8%E9%83%A1%E9%A3%9B%E5%B3%B6%E6%9D%91</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県海部郡飛島村&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県海部郡飛島村&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/海部郡/飛島村&lt;/address&gt;
+&lt;longitude&gt;136.791153&lt;/longitude&gt;
+&lt;latitude&gt;35.078804&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.078803999999998</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>136.79115300000001</v>
+      </c>
+      <c r="H4">
+        <v>35.078803999999998</v>
+      </c>
+      <c r="I4">
+        <v>136.79115300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">+A3&amp;B3</f>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
         <v>埼玉県越谷市赤山町</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5:D8" si="3" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%B5%A4%E5%B1%B1%E7%94%BA</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E8" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県越谷市赤山町&lt;/query&gt;
@@ -719,37 +1131,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
         <v>35.888950000000001</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
         <v>139.78208900000001</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>35.888950000000001</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>139.78208900000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>神奈川県横浜市新横浜</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E6%96%B0%E6%A8%AA%E6%B5%9C</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -772,37 +1184,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>35.436194999999998</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>139.51054400000001</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>35.436194999999998</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>139.51054400000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>愛知県瀬戸市</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:D8" si="3" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%80%AC%E6%88%B8%E5%B8%82</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -819,37 +1231,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
         <v>35.223621000000001</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
         <v>137.08412200000001</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>35.223621000000001</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>137.08412200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>富山県富山市婦中町</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AF%8C%E5%B1%B1%E7%9C%8C%E5%AF%8C%E5%B1%B1%E5%B8%82%E5%A9%A6%E4%B8%AD%E7%94%BA</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1454,38 +1866,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>36.629936000000001</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>137.11914100000001</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>36.629936000000001</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>137.11914100000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C72" si="4">+A9&amp;B9</f>
         <v>埼玉県入間市豊岡</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="D9" s="2" t="str">
+        <f t="shared" ref="D9:D21" si="5" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C9)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%85%A5%E9%96%93%E5%B8%82%E8%B1%8A%E5%B2%A1</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="2"/>
+      <c r="E9" t="str">
+        <f t="shared" ref="E9:E21" si="6" xml:space="preserve"> _xlfn.WEBSERVICE(D9)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県入間市豊岡&lt;/query&gt;
@@ -1501,38 +1913,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>35.838379000000003</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>139.38848899999999</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>35.838379000000003</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>139.38848899999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
+      <c r="C10" t="str">
+        <f t="shared" si="4"/>
         <v>神奈川県横浜市中区山下町</v>
       </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E4%B8%AD%E5%8C%BA%E5%B1%B1%E4%B8%8B%E7%94%BA</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
+      <c r="E10" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市中区山下町&lt;/query&gt;
@@ -1548,38 +1960,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.446007000000002</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>139.65695199999999</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>35.446007000000002</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>139.65695199999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C21" si="4">+A9&amp;B9</f>
+      <c r="C11" t="str">
+        <f t="shared" si="4"/>
         <v>神奈川県川崎市宮前区菅生</v>
       </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" ref="D9:D21" si="5" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C9)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E5%AE%AE%E5%89%8D%E5%8C%BA%E8%8F%85%E7%94%9F</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" ref="E9:E21" si="6" xml:space="preserve"> _xlfn.WEBSERVICE(D9)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県川崎市宮前区菅生&lt;/query&gt;
@@ -1595,37 +2007,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.599854000000001</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>139.555374</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>35.599854000000001</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>139.555374</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="4"/>
         <v>千葉県船橋市海神</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82%E6%B5%B7%E7%A5%9E</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1642,37 +2054,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>35.700184</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>139.978531</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>35.700184</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>139.978531</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="4"/>
         <v>大阪府大阪市中央区鎗屋町1-2-12</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E9%8E%97%E5%B1%8B%E7%94%BA1-2-12</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1689,37 +2101,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>34.682696999999997</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>135.51676900000001</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>34.682696999999997</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>135.51676900000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="4"/>
         <v>東京都品川区</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1736,37 +2148,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>35.609065999999999</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>139.730255</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>35.609065999999999</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>139.730255</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="4"/>
         <v>滋賀県大津市皇子が丘二丁目</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%A4%A7%E6%B4%A5%E5%B8%82%E7%9A%87%E5%AD%90%E3%81%8C%E4%B8%98%E4%BA%8C%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1783,37 +2195,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>35.023524999999999</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>135.85670500000001</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>35.023524999999999</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>135.85670500000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="4"/>
         <v>福島県須賀川市大町</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E9%A0%88%E8%B3%80%E5%B7%9D%E5%B8%82%E5%A4%A7%E7%94%BA</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1830,37 +2242,84 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>37.283245000000001</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>140.376114</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>37.283245000000001</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>140.376114</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="4"/>
+        <v>京都府京都市中京区上一文字町</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E9%83%BD%E5%B8%82%E4%B8%AD%E4%BA%AC%E5%8C%BA%E4%B8%8A%E4%B8%80%E6%96%87%E5%AD%97%E7%94%BA</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;京都府京都市中京区上一文字町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;京都府京都市中京区上一文字町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;京都府/京都市/中京区/上一文字町&lt;/address&gt;
+&lt;longitude&gt;135.749680&lt;/longitude&gt;
+&lt;latitude&gt;35.009178&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+        <v>35.009177999999999</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+        <v>135.74968000000001</v>
+      </c>
+      <c r="H17">
+        <v>35.009177999999999</v>
+      </c>
+      <c r="I17">
+        <v>135.74968000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="4"/>
         <v>高知県高知市鵜来巣</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%B5%9C%E6%9D%A5%E5%B7%A3</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1877,37 +2336,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>33.541130000000003</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>133.48567199999999</v>
       </c>
-      <c r="H15">
+      <c r="H18">
         <v>33.541130000000003</v>
       </c>
-      <c r="I15">
+      <c r="I18">
         <v>133.48567199999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="4"/>
         <v>北海道札幌市東区北六条東5丁目1-3-1411</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%9C%AD%E5%B9%8C%E5%B8%82%E6%9D%B1%E5%8C%BA%E5%8C%97%E5%85%AD%E6%9D%A1%E6%9D%B15%E4%B8%81%E7%9B%AE1-3-1411</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1924,37 +2383,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>43.07011</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>141.36225899999999</v>
       </c>
-      <c r="H16">
+      <c r="H19">
         <v>43.07011</v>
       </c>
-      <c r="I16">
+      <c r="I19">
         <v>141.36225899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="4"/>
         <v>三重県鈴鹿市若松西</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E9%88%B4%E9%B9%BF%E5%B8%82%E8%8B%A5%E6%9D%BE%E8%A5%BF</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1971,37 +2430,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>34.863064000000001</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>136.61016799999999</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>34.863064000000001</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>136.61016799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="4"/>
         <v>広島県東広島市黒瀬町乃美尾</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="5"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E6%9D%B1%E5%BA%83%E5%B3%B6%E5%B8%82%E9%BB%92%E7%80%AC%E7%94%BA%E4%B9%83%E7%BE%8E%E5%B0%BE</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2018,38 +2477,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>34.331837</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>132.693207</v>
       </c>
-      <c r="H18">
+      <c r="H21">
         <v>34.331837</v>
       </c>
-      <c r="I18">
+      <c r="I21">
         <v>132.693207</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="4"/>
         <v>神奈川県相模原市中央区宮下本町</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="D22" s="2" t="str">
+        <f t="shared" ref="D22:D85" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C22)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E7%9B%B8%E6%A8%A1%E5%8E%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%AE%AE%E4%B8%8B%E6%9C%AC%E7%94%BA</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="6"/>
+      <c r="E22" t="str">
+        <f t="shared" ref="E22:E85" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D22)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県相模原市中央区宮下本町&lt;/query&gt;
@@ -2065,38 +2524,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>35.591079999999998</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>139.37553399999999</v>
       </c>
-      <c r="H19">
+      <c r="H22">
         <v>35.591079999999998</v>
       </c>
-      <c r="I19">
+      <c r="I22">
         <v>139.37553399999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="4"/>
         <v>東京都港区麻布十番</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="7"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%AF%E5%8C%BA%E9%BA%BB%E5%B8%83%E5%8D%81%E7%95%AA</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="6"/>
+      <c r="E23" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都港区麻布十番&lt;/query&gt;
@@ -2112,38 +2571,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>35.656672999999998</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>139.73509200000001</v>
       </c>
-      <c r="H20">
+      <c r="H23">
         <v>35.656672999999998</v>
       </c>
-      <c r="I20">
+      <c r="I23">
         <v>139.73509200000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="4"/>
         <v>福井県南条郡南越前町</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="7"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E4%BA%95%E7%9C%8C%E5%8D%97%E6%9D%A1%E9%83%A1%E5%8D%97%E8%B6%8A%E5%89%8D%E7%94%BA</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="6"/>
+      <c r="E24" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;福井県南条郡南越前町&lt;/query&gt;
@@ -2159,292 +2618,4067 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>35.835152000000001</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>136.19442699999999</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>35.835152000000001</v>
       </c>
-      <c r="I21">
+      <c r="I24">
         <v>136.19442699999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D24" s="2"/>
-    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D25" s="2"/>
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都東大和市狭山</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%9D%B1%E5%A4%A7%E5%92%8C%E5%B8%82%E7%8B%AD%E5%B1%B1</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都東大和市狭山&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都東大和市狭山&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/東大和市/狭山&lt;/address&gt;
+&lt;longitude&gt;139.436981&lt;/longitude&gt;
+&lt;latitude&gt;35.759354&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+        <v>35.759354000000002</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+        <v>139.436981</v>
+      </c>
+      <c r="H25">
+        <v>35.759354000000002</v>
+      </c>
+      <c r="I25">
+        <v>139.436981</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D26" s="2"/>
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府池田市</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E6%B1%A0%E7%94%B0%E5%B8%82</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府池田市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府池田市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/池田市&lt;/address&gt;
+&lt;longitude&gt;135.428558&lt;/longitude&gt;
+&lt;latitude&gt;34.821686&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+        <v>34.821686</v>
+      </c>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+        <v>135.42855800000001</v>
+      </c>
+      <c r="H26">
+        <v>34.821686</v>
+      </c>
+      <c r="I26">
+        <v>135.42855800000001</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D27" s="2"/>
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府大阪市此花区島屋</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%AD%A4%E8%8A%B1%E5%8C%BA%E5%B3%B6%E5%B1%8B</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪市此花区島屋&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市此花区島屋&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市/此花区/島屋&lt;/address&gt;
+&lt;longitude&gt;135.442123&lt;/longitude&gt;
+&lt;latitude&gt;34.679108&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+        <v>34.679107999999999</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+        <v>135.44212300000001</v>
+      </c>
+      <c r="H27">
+        <v>34.679107999999999</v>
+      </c>
+      <c r="I27">
+        <v>135.44212300000001</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D28" s="2"/>
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府吹田市千里丘北</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82%E5%8D%83%E9%87%8C%E4%B8%98%E5%8C%97</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府吹田市千里丘北&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府吹田市千里丘北&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/吹田市/千里丘北&lt;/address&gt;
+&lt;longitude&gt;135.545303&lt;/longitude&gt;
+&lt;latitude&gt;34.801529&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+        <v>34.801529000000002</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+        <v>135.54530299999999</v>
+      </c>
+      <c r="H28">
+        <v>34.801529000000002</v>
+      </c>
+      <c r="I28">
+        <v>135.54530299999999</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D29" s="2"/>
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="4"/>
+        <v>愛媛県新居浜市坂井町</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%9D%82%E4%BA%95%E7%94%BA</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛媛県新居浜市坂井町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛媛県新居浜市坂井町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛媛県/新居浜市/坂井町&lt;/address&gt;
+&lt;longitude&gt;133.290375&lt;/longitude&gt;
+&lt;latitude&gt;33.947559&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+        <v>33.947558999999998</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+        <v>133.29037500000001</v>
+      </c>
+      <c r="H29">
+        <v>33.947558999999998</v>
+      </c>
+      <c r="I29">
+        <v>133.29037500000001</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D30" s="2"/>
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="4"/>
+        <v>愛知県江南市赤童子町福住</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%B1%9F%E5%8D%97%E5%B8%82%E8%B5%A4%E7%AB%A5%E5%AD%90%E7%94%BA%E7%A6%8F%E4%BD%8F</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県江南市赤童子町福住&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県江南市赤童子町福住&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/江南市/赤童子町福住&lt;/address&gt;
+&lt;longitude&gt;136.873322&lt;/longitude&gt;
+&lt;latitude&gt;35.329716&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+        <v>35.329715999999998</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+        <v>136.873322</v>
+      </c>
+      <c r="H30">
+        <v>35.329715999999998</v>
+      </c>
+      <c r="I30">
+        <v>136.873322</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D31" s="2"/>
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="4"/>
+        <v>石川県金沢市駅西本町</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82%E9%A7%85%E8%A5%BF%E6%9C%AC%E7%94%BA</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;石川県金沢市駅西本町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;石川県金沢市駅西本町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;石川県/金沢市/駅西本町&lt;/address&gt;
+&lt;longitude&gt;136.639862&lt;/longitude&gt;
+&lt;latitude&gt;36.580048&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+        <v>36.580047999999998</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+        <v>136.63986199999999</v>
+      </c>
+      <c r="H31">
+        <v>36.580047999999998</v>
+      </c>
+      <c r="I31">
+        <v>136.63986199999999</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="4"/>
+        <v>宮城県仙台市泉区館</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E4%BB%99%E5%8F%B0%E5%B8%82%E6%B3%89%E5%8C%BA%E9%A4%A8</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;宮城県仙台市泉区館&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;宮城県仙台市泉区館&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;宮城県/仙台市/泉区/館&lt;/address&gt;
+&lt;longitude&gt;140.794769&lt;/longitude&gt;
+&lt;latitude&gt;38.310085&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
+        <v>38.310085000000001</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
+        <v>140.794769</v>
+      </c>
+      <c r="H32">
+        <v>38.310085000000001</v>
+      </c>
+      <c r="I32">
+        <v>140.794769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都文京区本駒込</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都文京区本駒込&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都文京区本駒込&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/文京区/本駒込&lt;/address&gt;
+&lt;longitude&gt;139.751480&lt;/longitude&gt;
+&lt;latitude&gt;35.725502&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
+        <v>35.725501999999999</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
+        <v>139.75147999999999</v>
+      </c>
+      <c r="H33">
+        <v>35.725501999999999</v>
+      </c>
+      <c r="I33">
+        <v>139.75147999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="4"/>
+        <v>福島県会津若松市</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BC%9A%E6%B4%A5%E8%8B%A5%E6%9D%BE%E5%B8%82</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;福島県会津若松市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;福島県会津若松市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;福島県/会津若松市&lt;/address&gt;
+&lt;longitude&gt;139.929703&lt;/longitude&gt;
+&lt;latitude&gt;37.494843&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
+        <v>37.494843000000003</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
+        <v>139.92970299999999</v>
+      </c>
+      <c r="H34">
+        <v>37.494843000000003</v>
+      </c>
+      <c r="I34">
+        <v>139.92970299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府富田林市桜ケ丘町</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%8C%E7%94%B0%E6%9E%97%E5%B8%82%E6%A1%9C%E3%82%B1%E4%B8%98%E7%94%BA</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府富田林市桜ケ丘町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府富田林市桜ケ丘町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/富田林市/桜ケ丘町&lt;/address&gt;
+&lt;longitude&gt;135.585175&lt;/longitude&gt;
+&lt;latitude&gt;34.494350&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
+        <v>34.494349999999997</v>
+      </c>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
+        <v>135.58517499999999</v>
+      </c>
+      <c r="H35">
+        <v>34.494349999999997</v>
+      </c>
+      <c r="I35">
+        <v>135.58517499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="4"/>
+        <v>埼玉県八潮市伊勢野215-1</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%85%AB%E6%BD%AE%E5%B8%82%E4%BC%8A%E5%8B%A2%E9%87%8E215-1</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県八潮市伊勢野215-1&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県八潮市伊勢野215-&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/八潮市/伊勢野/２１５番地&lt;/address&gt;
+&lt;longitude&gt;139.853485&lt;/longitude&gt;
+&lt;latitude&gt;35.808628&lt;/latitude&gt;
+&lt;iLvl&gt;7&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
+        <v>35.808627999999999</v>
+      </c>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
+        <v>139.85348500000001</v>
+      </c>
+      <c r="H36">
+        <v>35.808627999999999</v>
+      </c>
+      <c r="I36">
+        <v>139.85348500000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="4"/>
+        <v>愛知県岡崎市南明大寺町</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%B2%A1%E5%B4%8E%E5%B8%82%E5%8D%97%E6%98%8E%E5%A4%A7%E5%AF%BA%E7%94%BA</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県岡崎市南明大寺町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県岡崎市南明大寺町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/岡崎市/南明大寺町&lt;/address&gt;
+&lt;longitude&gt;137.162064&lt;/longitude&gt;
+&lt;latitude&gt;34.943874&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
+        <v>34.943874000000001</v>
+      </c>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
+        <v>137.16206399999999</v>
+      </c>
+      <c r="H37">
+        <v>34.943874000000001</v>
+      </c>
+      <c r="I37">
+        <v>137.16206399999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府高槻市赤大路町</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%B5%A4%E5%A4%A7%E8%B7%AF%E7%94%BA</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府高槻市赤大路町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府高槻市赤大路町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/高槻市/赤大路町&lt;/address&gt;
+&lt;longitude&gt;135.584717&lt;/longitude&gt;
+&lt;latitude&gt;34.835884&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
+        <v>34.835884</v>
+      </c>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
+        <v>135.58471700000001</v>
+      </c>
+      <c r="H38">
+        <v>34.835884</v>
+      </c>
+      <c r="I38">
+        <v>135.58471700000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都中野区南台</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%AD%E9%87%8E%E5%8C%BA%E5%8D%97%E5%8F%B0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都中野区南台&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都中野区南台&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/中野区/南台&lt;/address&gt;
+&lt;longitude&gt;139.674179&lt;/longitude&gt;
+&lt;latitude&gt;35.685539&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
+        <v>35.685538999999999</v>
+      </c>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
+        <v>139.67417900000001</v>
+      </c>
+      <c r="H39">
+        <v>35.685538999999999</v>
+      </c>
+      <c r="I39">
+        <v>139.67417900000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="4"/>
+        <v>福島県会津若松市</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BC%9A%E6%B4%A5%E8%8B%A5%E6%9D%BE%E5%B8%82</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;福島県会津若松市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;福島県会津若松市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;福島県/会津若松市&lt;/address&gt;
+&lt;longitude&gt;139.929703&lt;/longitude&gt;
+&lt;latitude&gt;37.494843&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
+        <v>37.494843000000003</v>
+      </c>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
+        <v>139.92970299999999</v>
+      </c>
+      <c r="H40">
+        <v>37.494843000000003</v>
+      </c>
+      <c r="I40">
+        <v>139.92970299999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="4"/>
+        <v>北海道上川郡清水町御影</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E4%B8%8A%E5%B7%9D%E9%83%A1%E6%B8%85%E6%B0%B4%E7%94%BA%E5%BE%A1%E5%BD%B1</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;北海道上川郡清水町御影&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;北海道上川郡清水町御影&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;北海道/上川郡/清水町/御影&lt;/address&gt;
+&lt;longitude&gt;142.951462&lt;/longitude&gt;
+&lt;latitude&gt;42.964840&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
+        <v>42.964840000000002</v>
+      </c>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
+        <v>142.95146199999999</v>
+      </c>
+      <c r="H41">
+        <v>42.964840000000002</v>
+      </c>
+      <c r="I41">
+        <v>142.95146199999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府大阪市中央区内久宝寺町</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%86%85%E4%B9%85%E5%AE%9D%E5%AF%BA%E7%94%BA</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪市中央区内久宝寺町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市中央区内久宝寺町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市/中央区/内久宝寺町&lt;/address&gt;
+&lt;longitude&gt;135.519196&lt;/longitude&gt;
+&lt;latitude&gt;34.677696&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
+        <v>34.677695999999997</v>
+      </c>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
+        <v>135.51919599999999</v>
+      </c>
+      <c r="H42">
+        <v>34.677695999999997</v>
+      </c>
+      <c r="I42">
+        <v>135.51919599999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都新宿区</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%B0%E5%AE%BF%E5%8C%BA</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都新宿区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都新宿区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/新宿区&lt;/address&gt;
+&lt;longitude&gt;139.703461&lt;/longitude&gt;
+&lt;latitude&gt;35.693890&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
+        <v>35.693890000000003</v>
+      </c>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
+        <v>139.703461</v>
+      </c>
+      <c r="H43">
+        <v>35.693890000000003</v>
+      </c>
+      <c r="I43">
+        <v>139.703461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="4"/>
+        <v>埼玉県さいたま市中央区</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県さいたま市中央区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県さいたま市中央区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/さいたま市/中央区&lt;/address&gt;
+&lt;longitude&gt;139.626175&lt;/longitude&gt;
+&lt;latitude&gt;35.883965&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
+        <v>35.883965000000003</v>
+      </c>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
+        <v>139.62617499999999</v>
+      </c>
+      <c r="H44">
+        <v>35.883965000000003</v>
+      </c>
+      <c r="I44">
+        <v>139.62617499999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="4"/>
+        <v>兵庫県神戸市兵庫区菊水町10-39-18</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E5%85%B5%E5%BA%AB%E5%8C%BA%E8%8F%8A%E6%B0%B4%E7%94%BA10-39-18</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県神戸市兵庫区菊水町10-39-18&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県神戸市兵庫区菊水町10-39-&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/神戸市/兵庫区/菊水町/十丁目/３９番地&lt;/address&gt;
+&lt;longitude&gt;135.151794&lt;/longitude&gt;
+&lt;latitude&gt;34.682190&lt;/latitude&gt;
+&lt;iLvl&gt;7&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
+        <v>34.682189999999999</v>
+      </c>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
+        <v>135.151794</v>
+      </c>
+      <c r="H45">
+        <v>34.682189999999999</v>
+      </c>
+      <c r="I45">
+        <v>135.151794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="4"/>
+        <v>長野県上伊那郡飯島町七久保</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長野県上伊那郡飯島町七久保&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長野県上伊那郡飯島町七久保&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長野県/上伊那郡/飯島町/七久保&lt;/address&gt;
+&lt;longitude&gt;137.890472&lt;/longitude&gt;
+&lt;latitude&gt;35.658588&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
+        <v>35.658588000000002</v>
+      </c>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
+        <v>137.89047199999999</v>
+      </c>
+      <c r="H46">
+        <v>35.658588000000002</v>
+      </c>
+      <c r="I46">
+        <v>137.89047199999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="4"/>
+        <v>長野県上伊那郡飯島町七久保</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長野県上伊那郡飯島町七久保&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長野県上伊那郡飯島町七久保&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長野県/上伊那郡/飯島町/七久保&lt;/address&gt;
+&lt;longitude&gt;137.890472&lt;/longitude&gt;
+&lt;latitude&gt;35.658588&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
+        <v>35.658588000000002</v>
+      </c>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
+        <v>137.89047199999999</v>
+      </c>
+      <c r="H47">
+        <v>35.658588000000002</v>
+      </c>
+      <c r="I47">
+        <v>137.89047199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="4"/>
+        <v>三重県津市芸濃町椋本</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E6%B4%A5%E5%B8%82%E8%8A%B8%E6%BF%83%E7%94%BA%E6%A4%8B%E6%9C%AC</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;三重県津市芸濃町椋本&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;三重県津市芸濃町椋本&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;三重県/津市/芸濃町椋本&lt;/address&gt;
+&lt;longitude&gt;136.432480&lt;/longitude&gt;
+&lt;latitude&gt;34.811752&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
+        <v>34.811751999999998</v>
+      </c>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
+        <v>136.43248</v>
+      </c>
+      <c r="H48">
+        <v>34.811751999999998</v>
+      </c>
+      <c r="I48">
+        <v>136.43248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="4"/>
+        <v>香川県小豆郡土庄町黒岩</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E5%B0%8F%E8%B1%86%E9%83%A1%E5%9C%9F%E5%BA%84%E7%94%BA%E9%BB%92%E5%B2%A9</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;香川県小豆郡土庄町黒岩&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;香川県小豆郡土庄町黒岩&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;香川県/小豆郡/土庄町/黒岩&lt;/address&gt;
+&lt;longitude&gt;134.214142&lt;/longitude&gt;
+&lt;latitude&gt;34.502163&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
+        <v>34.502163000000003</v>
+      </c>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
+        <v>134.21414200000001</v>
+      </c>
+      <c r="H49">
+        <v>34.502163000000003</v>
+      </c>
+      <c r="I49">
+        <v>134.21414200000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="4"/>
+        <v>愛知県尾張旭市</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%B0%BE%E5%BC%B5%E6%97%AD%E5%B8%82</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県尾張旭市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県尾張旭市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/尾張旭市&lt;/address&gt;
+&lt;longitude&gt;137.035416&lt;/longitude&gt;
+&lt;latitude&gt;35.216568&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
+        <v>35.216568000000002</v>
+      </c>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
+        <v>137.035416</v>
+      </c>
+      <c r="H50">
+        <v>35.216568000000002</v>
+      </c>
+      <c r="I50">
+        <v>137.035416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="4"/>
+        <v>石川県金沢市</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;石川県金沢市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;石川県金沢市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;石川県/金沢市&lt;/address&gt;
+&lt;longitude&gt;136.656631&lt;/longitude&gt;
+&lt;latitude&gt;36.561050&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
+        <v>36.561050000000002</v>
+      </c>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
+        <v>136.656631</v>
+      </c>
+      <c r="H51">
+        <v>36.561050000000002</v>
+      </c>
+      <c r="I51">
+        <v>136.656631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="4"/>
+        <v>徳島県鳴門市大麻町市場字大畑</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BE%B3%E5%B3%B6%E7%9C%8C%E9%B3%B4%E9%96%80%E5%B8%82%E5%A4%A7%E9%BA%BB%E7%94%BA%E5%B8%82%E5%A0%B4%E5%AD%97%E5%A4%A7%E7%95%91</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;徳島県鳴門市大麻町市場字大畑&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;徳島県鳴門市大麻町市場字大畑&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;徳島県/鳴門市/大麻町市場/大畑&lt;/address&gt;
+&lt;longitude&gt;134.537354&lt;/longitude&gt;
+&lt;latitude&gt;34.139561&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
+        <v>34.139561</v>
+      </c>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
+        <v>134.53735399999999</v>
+      </c>
+      <c r="H52">
+        <v>34.139561</v>
+      </c>
+      <c r="I52">
+        <v>134.53735399999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="4"/>
+        <v>沖縄県中頭郡北谷町砂辺</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E4%B8%AD%E9%A0%AD%E9%83%A1%E5%8C%97%E8%B0%B7%E7%94%BA%E7%A0%82%E8%BE%BA</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県中頭郡北谷町砂辺&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県中頭郡北谷町砂辺&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/中頭郡/北谷町/砂辺&lt;/address&gt;
+&lt;longitude&gt;127.749786&lt;/longitude&gt;
+&lt;latitude&gt;26.337044&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
+        <v>26.337043999999999</v>
+      </c>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
+        <v>127.749786</v>
+      </c>
+      <c r="H53">
+        <v>26.337043999999999</v>
+      </c>
+      <c r="I53">
+        <v>127.749786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都渋谷区代々木</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E4%BB%A3%E3%80%85%E6%9C%A8</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都渋谷区代々木&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都渋谷区代々木&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/渋谷区/代々木&lt;/address&gt;
+&lt;longitude&gt;139.700043&lt;/longitude&gt;
+&lt;latitude&gt;35.681885&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+        <v>35.681885000000001</v>
+      </c>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+        <v>139.70004299999999</v>
+      </c>
+      <c r="H54">
+        <v>35.681885000000001</v>
+      </c>
+      <c r="I54">
+        <v>139.70004299999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="4"/>
+        <v>沖縄県那覇市宇栄原</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E9%82%A3%E8%A6%87%E5%B8%82%E5%AE%87%E6%A0%84%E5%8E%9F</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県那覇市宇栄原&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県那覇市宇栄原&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/那覇市/宇栄原&lt;/address&gt;
+&lt;longitude&gt;127.663490&lt;/longitude&gt;
+&lt;latitude&gt;26.192034&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
+        <v>26.192034</v>
+      </c>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
+        <v>127.66349</v>
+      </c>
+      <c r="H55">
+        <v>26.192034</v>
+      </c>
+      <c r="I55">
+        <v>127.66349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="4"/>
+        <v>沖縄県うるま市石川伊波</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E3%81%86%E3%82%8B%E3%81%BE%E5%B8%82%E7%9F%B3%E5%B7%9D%E4%BC%8A%E6%B3%A2</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県うるま市石川伊波&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県うるま市石川伊波&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/うるま市/石川伊波&lt;/address&gt;
+&lt;longitude&gt;127.811211&lt;/longitude&gt;
+&lt;latitude&gt;26.425596&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
+        <v>26.425595999999999</v>
+      </c>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
+        <v>127.811211</v>
+      </c>
+      <c r="H56">
+        <v>26.425595999999999</v>
+      </c>
+      <c r="I56">
+        <v>127.811211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="4"/>
+        <v>三重県松阪市白粉町</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E6%9D%BE%E9%98%AA%E5%B8%82%E7%99%BD%E7%B2%89%E7%94%BA</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;三重県松阪市白粉町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;三重県松阪市白粉町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;三重県/松阪市/白粉町&lt;/address&gt;
+&lt;longitude&gt;136.531586&lt;/longitude&gt;
+&lt;latitude&gt;34.571232&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
+        <v>34.571232000000002</v>
+      </c>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
+        <v>136.531586</v>
+      </c>
+      <c r="H57">
+        <v>34.571232000000002</v>
+      </c>
+      <c r="I57">
+        <v>136.531586</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="4"/>
+        <v>宮崎県宮崎市吉村町中原甲</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%B4%8E%E7%9C%8C%E5%AE%AE%E5%B4%8E%E5%B8%82%E5%90%89%E6%9D%91%E7%94%BA%E4%B8%AD%E5%8E%9F%E7%94%B2</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;宮崎県宮崎市吉村町中原甲&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;宮崎県宮崎市吉村町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;宮崎県/宮崎市/吉村町&lt;/address&gt;
+&lt;longitude&gt;131.443954&lt;/longitude&gt;
+&lt;latitude&gt;31.919971&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+        <v>31.919971</v>
+      </c>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+        <v>131.44395399999999</v>
+      </c>
+      <c r="H58">
+        <v>31.919971</v>
+      </c>
+      <c r="I58">
+        <v>131.44395399999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="4"/>
+        <v>静岡県浜松市中央区入野町</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E6%B5%9C%E6%9D%BE%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%85%A5%E9%87%8E%E7%94%BA</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;静岡県浜松市中央区入野町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;静岡県浜松市中央区入野町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;静岡県/浜松市/中央区/入野町&lt;/address&gt;
+&lt;longitude&gt;137.682983&lt;/longitude&gt;
+&lt;latitude&gt;34.701485&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+        <v>34.701484999999998</v>
+      </c>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+        <v>137.68298300000001</v>
+      </c>
+      <c r="H59">
+        <v>34.701484999999998</v>
+      </c>
+      <c r="I59">
+        <v>137.68298300000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="4"/>
+        <v>神奈川県横浜市鶴見区東寺尾</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%B6%B4%E8%A6%8B%E5%8C%BA%E6%9D%B1%E5%AF%BA%E5%B0%BE</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市鶴見区東寺尾&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市鶴見区東寺尾&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/鶴見区/東寺尾&lt;/address&gt;
+&lt;longitude&gt;139.649170&lt;/longitude&gt;
+&lt;latitude&gt;35.502663&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
+        <v>35.502662999999998</v>
+      </c>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
+        <v>139.64917</v>
+      </c>
+      <c r="H60">
+        <v>35.502662999999998</v>
+      </c>
+      <c r="I60">
+        <v>139.64917</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="4"/>
+        <v>神奈川県相模原市南区古淵</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E7%9B%B8%E6%A8%A1%E5%8E%9F%E5%B8%82%E5%8D%97%E5%8C%BA%E5%8F%A4%E6%B7%B5</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県相模原市南区古淵&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県相模原市南区古淵&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/相模原市/南区/古淵&lt;/address&gt;
+&lt;longitude&gt;139.420471&lt;/longitude&gt;
+&lt;latitude&gt;35.558971&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
+        <v>35.558971</v>
+      </c>
+      <c r="G61" cm="1">
+        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
+        <v>139.42047099999999</v>
+      </c>
+      <c r="H61">
+        <v>35.558971</v>
+      </c>
+      <c r="I61">
+        <v>139.42047099999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府大阪市東成区中道</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%9D%B1%E6%88%90%E5%8C%BA%E4%B8%AD%E9%81%93</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪市東成区中道&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市東成区中道&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市/東成区/中道&lt;/address&gt;
+&lt;longitude&gt;135.535675&lt;/longitude&gt;
+&lt;latitude&gt;34.679665&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
+        <v>34.679665</v>
+      </c>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
+        <v>135.535675</v>
+      </c>
+      <c r="H62">
+        <v>34.679665</v>
+      </c>
+      <c r="I62">
+        <v>135.535675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="4"/>
+        <v>沖縄県糸満市西川町</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E7%B3%B8%E6%BA%80%E5%B8%82%E8%A5%BF%E5%B7%9D%E7%94%BA</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県糸満市西川町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県糸満市西川町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/糸満市/西川町&lt;/address&gt;
+&lt;longitude&gt;127.668350&lt;/longitude&gt;
+&lt;latitude&gt;26.136572&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
+        <v>26.136572000000001</v>
+      </c>
+      <c r="G63" cm="1">
+        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
+        <v>127.66835</v>
+      </c>
+      <c r="H63">
+        <v>26.136572000000001</v>
+      </c>
+      <c r="I63">
+        <v>127.66835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="4"/>
+        <v>茨城県結城市結城</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E7%B5%90%E5%9F%8E%E5%B8%82%E7%B5%90%E5%9F%8E</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;茨城県結城市結城&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;茨城県結城市結城&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;茨城県/結城市/結城&lt;/address&gt;
+&lt;longitude&gt;139.872223&lt;/longitude&gt;
+&lt;latitude&gt;36.297340&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
+        <v>36.297339999999998</v>
+      </c>
+      <c r="G64" cm="1">
+        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
+        <v>139.87222299999999</v>
+      </c>
+      <c r="H64">
+        <v>36.297339999999998</v>
+      </c>
+      <c r="I64">
+        <v>139.87222299999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="4"/>
+        <v>山梨県富士吉田市大明見</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E6%A2%A8%E7%9C%8C%E5%AF%8C%E5%A3%AB%E5%90%89%E7%94%B0%E5%B8%82%E5%A4%A7%E6%98%8E%E8%A6%8B</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;山梨県富士吉田市大明見&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;山梨県富士吉田市大明見&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;山梨県/富士吉田市/大明見&lt;/address&gt;
+&lt;longitude&gt;138.825958&lt;/longitude&gt;
+&lt;latitude&gt;35.484444&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
+        <v>35.484444000000003</v>
+      </c>
+      <c r="G65" cm="1">
+        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
+        <v>138.82595800000001</v>
+      </c>
+      <c r="H65">
+        <v>35.484444000000003</v>
+      </c>
+      <c r="I65">
+        <v>138.82595800000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都越谷市越ケ谷</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%B6%8A%E3%82%B1%E8%B0%B7</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都越谷市越ケ谷&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;3&lt;/iConf&gt;
+&lt;converted&gt;東京都&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都&lt;/address&gt;
+&lt;longitude&gt;139.753632&lt;/longitude&gt;
+&lt;latitude&gt;35.694004&lt;/latitude&gt;
+&lt;iLvl&gt;1&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
+        <v>35.694004</v>
+      </c>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
+        <v>139.75363200000001</v>
+      </c>
+      <c r="H66">
+        <v>35.694004</v>
+      </c>
+      <c r="I66">
+        <v>139.75363200000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都大田区蒲田</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E8%92%B2%E7%94%B0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都大田区蒲田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都大田区蒲田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/大田区/蒲田&lt;/address&gt;
+&lt;longitude&gt;139.719849&lt;/longitude&gt;
+&lt;latitude&gt;35.565697&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
+        <v>35.565697</v>
+      </c>
+      <c r="G67" cm="1">
+        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
+        <v>139.71984900000001</v>
+      </c>
+      <c r="H67">
+        <v>35.565697</v>
+      </c>
+      <c r="I67">
+        <v>139.71984900000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="4"/>
+        <v>大阪府大阪府豊中市上野西3</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%BA%9C%E8%B1%8A%E4%B8%AD%E5%B8%82%E4%B8%8A%E9%87%8E%E8%A5%BF3</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪府豊中市上野西3&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市&lt;/address&gt;
+&lt;longitude&gt;135.502045&lt;/longitude&gt;
+&lt;latitude&gt;34.693890&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
+        <v>34.693890000000003</v>
+      </c>
+      <c r="G68" cm="1">
+        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
+        <v>135.50204500000001</v>
+      </c>
+      <c r="H68">
+        <v>34.693890000000003</v>
+      </c>
+      <c r="I68">
+        <v>135.50204500000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="4"/>
+        <v>愛知県知多郡阿久比町白沢西石根</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E9%98%BF%E4%B9%85%E6%AF%94%E7%94%BA%E7%99%BD%E6%B2%A2%E8%A5%BF%E7%9F%B3%E6%A0%B9</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県知多郡阿久比町白沢西石根&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県知多郡阿久比町白沢西石根&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/知多郡/阿久比町/大字白沢/西石根&lt;/address&gt;
+&lt;longitude&gt;136.914871&lt;/longitude&gt;
+&lt;latitude&gt;34.959820&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
+        <v>34.959820000000001</v>
+      </c>
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
+        <v>136.91487100000001</v>
+      </c>
+      <c r="H69">
+        <v>34.959820000000001</v>
+      </c>
+      <c r="I69">
+        <v>136.91487100000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="4"/>
+        <v>福島県二本松市上川崎字宮ノ脇</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BA%8C%E6%9C%AC%E6%9D%BE%E5%B8%82%E4%B8%8A%E5%B7%9D%E5%B4%8E%E5%AD%97%E5%AE%AE%E3%83%8E%E8%84%87</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;福島県二本松市上川崎字宮ノ脇&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;福島県二本松市上川崎字&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;福島県/二本松市/上川崎&lt;/address&gt;
+&lt;longitude&gt;140.494934&lt;/longitude&gt;
+&lt;latitude&gt;37.604580&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F70" cm="1">
+        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
+        <v>37.604579999999999</v>
+      </c>
+      <c r="G70" cm="1">
+        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
+        <v>140.494934</v>
+      </c>
+      <c r="H70">
+        <v>37.604579999999999</v>
+      </c>
+      <c r="I70">
+        <v>140.494934</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="4"/>
+        <v>東京都荒川区東日暮里</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%8D%92%E5%B7%9D%E5%8C%BA%E6%9D%B1%E6%97%A5%E6%9A%AE%E9%87%8C</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都荒川区東日暮里&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都荒川区東日暮里&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/荒川区/東日暮里&lt;/address&gt;
+&lt;longitude&gt;139.788727&lt;/longitude&gt;
+&lt;latitude&gt;35.730019&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F71" cm="1">
+        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
+        <v>35.730018999999999</v>
+      </c>
+      <c r="G71" cm="1">
+        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
+        <v>139.78872699999999</v>
+      </c>
+      <c r="H71">
+        <v>35.730018999999999</v>
+      </c>
+      <c r="I71">
+        <v>139.78872699999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="4"/>
+        <v>兵庫県尼崎市</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県尼崎市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県尼崎市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/尼崎市&lt;/address&gt;
+&lt;longitude&gt;135.406387&lt;/longitude&gt;
+&lt;latitude&gt;34.733555&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
+        <v>34.733555000000003</v>
+      </c>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
+        <v>135.406387</v>
+      </c>
+      <c r="H72">
+        <v>34.733555000000003</v>
+      </c>
+      <c r="I72">
+        <v>135.406387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ref="C73:C110" si="9">+A73&amp;B73</f>
+        <v>千葉県船橋市金杉台</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82%E9%87%91%E6%9D%89%E5%8F%B0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県船橋市金杉台&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県船橋市金杉台&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/船橋市/金杉台&lt;/address&gt;
+&lt;longitude&gt;140.010513&lt;/longitude&gt;
+&lt;latitude&gt;35.736229&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
+        <v>35.736229000000002</v>
+      </c>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
+        <v>140.010513</v>
+      </c>
+      <c r="H73">
+        <v>35.736229000000002</v>
+      </c>
+      <c r="I73">
+        <v>140.010513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="9"/>
+        <v>福岡県福岡市博多区比恵町</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E7%A6%8F%E5%B2%A1%E5%B8%82%E5%8D%9A%E5%A4%9A%E5%8C%BA%E6%AF%94%E6%81%B5%E7%94%BA</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;福岡県福岡市博多区比恵町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;福岡県福岡市博多区比恵町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;福岡県/福岡市/博多区/比恵町&lt;/address&gt;
+&lt;longitude&gt;130.429474&lt;/longitude&gt;
+&lt;latitude&gt;33.585552&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
+        <v>33.585552</v>
+      </c>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
+        <v>130.429474</v>
+      </c>
+      <c r="H74">
+        <v>33.585552</v>
+      </c>
+      <c r="I74">
+        <v>130.429474</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="9"/>
+        <v>山口県山口市小郡高砂町</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E5%8F%A3%E7%9C%8C%E5%B1%B1%E5%8F%A3%E5%B8%82%E5%B0%8F%E9%83%A1%E9%AB%98%E7%A0%82%E7%94%BA</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;山口県山口市小郡高砂町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;山口県山口市小郡高砂町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;山口県/山口市/小郡高砂町&lt;/address&gt;
+&lt;longitude&gt;131.400284&lt;/longitude&gt;
+&lt;latitude&gt;34.092606&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
+        <v>34.092606000000004</v>
+      </c>
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
+        <v>131.400284</v>
+      </c>
+      <c r="H75">
+        <v>34.092606000000004</v>
+      </c>
+      <c r="I75">
+        <v>131.400284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="9"/>
+        <v>静岡県三島市西本町</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E4%B8%89%E5%B3%B6%E5%B8%82%E8%A5%BF%E6%9C%AC%E7%94%BA</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;静岡県三島市西本町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;静岡県三島市西本町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;静岡県/三島市/西本町&lt;/address&gt;
+&lt;longitude&gt;138.908768&lt;/longitude&gt;
+&lt;latitude&gt;35.117626&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
+        <v>35.117626000000001</v>
+      </c>
+      <c r="G76" cm="1">
+        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
+        <v>138.90876800000001</v>
+      </c>
+      <c r="H76">
+        <v>35.117626000000001</v>
+      </c>
+      <c r="I76">
+        <v>138.90876800000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県伊勢原市串橋</v>
+      </c>
+      <c r="D77" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%8E%9F%E5%B8%82%E4%B8%B2%E6%A9%8B</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県伊勢原市串橋&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県伊勢原市串橋&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/伊勢原市/串橋&lt;/address&gt;
+&lt;longitude&gt;139.288956&lt;/longitude&gt;
+&lt;latitude&gt;35.388004&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F77" cm="1">
+        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
+        <v>35.388004000000002</v>
+      </c>
+      <c r="G77" cm="1">
+        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
+        <v>139.28895600000001</v>
+      </c>
+      <c r="H77">
+        <v>35.388004000000002</v>
+      </c>
+      <c r="I77">
+        <v>139.28895600000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="9"/>
+        <v>埼玉県鶴ヶ島市鶴ヶ丘</v>
+      </c>
+      <c r="D78" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E9%B6%B4%E3%83%B6%E5%B3%B6%E5%B8%82%E9%B6%B4%E3%83%B6%E4%B8%98</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県鶴ヶ島市鶴ヶ丘&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県鶴ヶ島市鶴ヶ丘&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/鶴ヶ島市/鶴ヶ丘&lt;/address&gt;
+&lt;longitude&gt;139.413406&lt;/longitude&gt;
+&lt;latitude&gt;35.934158&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F78" cm="1">
+        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
+        <v>35.934157999999996</v>
+      </c>
+      <c r="G78" cm="1">
+        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
+        <v>139.41340600000001</v>
+      </c>
+      <c r="H78">
+        <v>35.934157999999996</v>
+      </c>
+      <c r="I78">
+        <v>139.41340600000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県横浜市旭区二俣川</v>
+      </c>
+      <c r="D79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E6%97%AD%E5%8C%BA%E4%BA%8C%E4%BF%A3%E5%B7%9D</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市旭区二俣川&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市旭区二俣川&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/旭区/二俣川&lt;/address&gt;
+&lt;longitude&gt;139.528091&lt;/longitude&gt;
+&lt;latitude&gt;35.464924&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F79" cm="1">
+        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
+        <v>35.464924000000003</v>
+      </c>
+      <c r="G79" cm="1">
+        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
+        <v>139.52809099999999</v>
+      </c>
+      <c r="H79">
+        <v>35.464924000000003</v>
+      </c>
+      <c r="I79">
+        <v>139.52809099999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="9"/>
+        <v>長野県飯田市川路</v>
+      </c>
+      <c r="D80" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%A3%AF%E7%94%B0%E5%B8%82%E5%B7%9D%E8%B7%AF</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長野県飯田市川路&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長野県飯田市川路&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長野県/飯田市/川路&lt;/address&gt;
+&lt;longitude&gt;137.809174&lt;/longitude&gt;
+&lt;latitude&gt;35.446320&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F80" cm="1">
+        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
+        <v>35.44632</v>
+      </c>
+      <c r="G80" cm="1">
+        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
+        <v>137.80917400000001</v>
+      </c>
+      <c r="H80">
+        <v>35.44632</v>
+      </c>
+      <c r="I80">
+        <v>137.80917400000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="9"/>
+        <v>京都府長岡京市泉が丘</v>
+      </c>
+      <c r="D81" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E9%95%B7%E5%B2%A1%E4%BA%AC%E5%B8%82%E6%B3%89%E3%81%8C%E4%B8%98</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;京都府長岡京市泉が丘&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;京都府長岡京市泉が丘&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;京都府/長岡京市/泉が丘&lt;/address&gt;
+&lt;longitude&gt;135.683624&lt;/longitude&gt;
+&lt;latitude&gt;34.914593&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F81" cm="1">
+        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
+        <v>34.914593000000004</v>
+      </c>
+      <c r="G81" cm="1">
+        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
+        <v>135.68362400000001</v>
+      </c>
+      <c r="H81">
+        <v>34.914593000000004</v>
+      </c>
+      <c r="I81">
+        <v>135.68362400000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="9"/>
+        <v>兵庫県尼崎市大島</v>
+      </c>
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E5%A4%A7%E5%B3%B6</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県尼崎市大島&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県尼崎市大島&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/尼崎市/大島&lt;/address&gt;
+&lt;longitude&gt;135.383591&lt;/longitude&gt;
+&lt;latitude&gt;34.729553&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F82" cm="1">
+        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
+        <v>34.729553000000003</v>
+      </c>
+      <c r="G82" cm="1">
+        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
+        <v>135.383591</v>
+      </c>
+      <c r="H82">
+        <v>34.729553000000003</v>
+      </c>
+      <c r="I82">
+        <v>135.383591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="9"/>
+        <v>和歌山県海南市</v>
+      </c>
+      <c r="D83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%92%8C%E6%AD%8C%E5%B1%B1%E7%9C%8C%E6%B5%B7%E5%8D%97%E5%B8%82</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;和歌山県海南市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;和歌山県海南市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;和歌山県/海南市&lt;/address&gt;
+&lt;longitude&gt;135.209183&lt;/longitude&gt;
+&lt;latitude&gt;34.155312&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F83" cm="1">
+        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
+        <v>34.155312000000002</v>
+      </c>
+      <c r="G83" cm="1">
+        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
+        <v>135.209183</v>
+      </c>
+      <c r="H83">
+        <v>34.155312000000002</v>
+      </c>
+      <c r="I83">
+        <v>135.209183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都江東区大島</v>
+      </c>
+      <c r="D84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E5%A4%A7%E5%B3%B6</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都江東区大島&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都江東区大島&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/江東区/大島&lt;/address&gt;
+&lt;longitude&gt;139.823425&lt;/longitude&gt;
+&lt;latitude&gt;35.687180&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F84" cm="1">
+        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
+        <v>35.687179999999998</v>
+      </c>
+      <c r="G84" cm="1">
+        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
+        <v>139.82342499999999</v>
+      </c>
+      <c r="H84">
+        <v>35.687179999999998</v>
+      </c>
+      <c r="I84">
+        <v>139.82342499999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="9"/>
+        <v>埼玉県さいたま市見沼区蓮沼５７４－１</v>
+      </c>
+      <c r="D85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E8%A6%8B%E6%B2%BC%E5%8C%BA%E8%93%AE%E6%B2%BC%EF%BC%95%EF%BC%97%EF%BC%94%EF%BC%8D%EF%BC%91</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県さいたま市見沼区蓮沼５７４−１&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県さいたま市見沼区蓮沼５７４−&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/さいたま市/見沼区/蓮沼/５７４番地&lt;/address&gt;
+&lt;longitude&gt;139.661163&lt;/longitude&gt;
+&lt;latitude&gt;35.929134&lt;/latitude&gt;
+&lt;iLvl&gt;7&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F85" cm="1">
+        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
+        <v>35.929133999999998</v>
+      </c>
+      <c r="G85" cm="1">
+        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
+        <v>139.66116299999999</v>
+      </c>
+      <c r="H85">
+        <v>35.929133999999998</v>
+      </c>
+      <c r="I85">
+        <v>139.66116299999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="9"/>
+        <v>静岡県富士市</v>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f t="shared" ref="D86:D110" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C86)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E5%AF%8C%E5%A3%AB%E5%B8%82</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ref="E86:E110" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D86)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;静岡県富士市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;静岡県富士市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;静岡県/富士市&lt;/address&gt;
+&lt;longitude&gt;138.676315&lt;/longitude&gt;
+&lt;latitude&gt;35.161385&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F86" cm="1">
+        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
+        <v>35.161385000000003</v>
+      </c>
+      <c r="G86" cm="1">
+        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
+        <v>138.67631499999999</v>
+      </c>
+      <c r="H86">
+        <v>35.161385000000003</v>
+      </c>
+      <c r="I86">
+        <v>138.67631499999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都国立市西</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%9B%BD%E7%AB%8B%E5%B8%82%E8%A5%BF</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都国立市西&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都国立市西&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/国立市/西&lt;/address&gt;
+&lt;longitude&gt;139.433334&lt;/longitude&gt;
+&lt;latitude&gt;35.697250&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F87" cm="1">
+        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
+        <v>35.697249999999997</v>
+      </c>
+      <c r="G87" cm="1">
+        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
+        <v>139.433334</v>
+      </c>
+      <c r="H87">
+        <v>35.697249999999997</v>
+      </c>
+      <c r="I87">
+        <v>139.433334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="9"/>
+        <v>沖縄県那覇市</v>
+      </c>
+      <c r="D88" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E9%82%A3%E8%A6%87%E5%B8%82</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県那覇市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県那覇市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/那覇市&lt;/address&gt;
+&lt;longitude&gt;127.679214&lt;/longitude&gt;
+&lt;latitude&gt;26.212296&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F88" cm="1">
+        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
+        <v>26.212295999999998</v>
+      </c>
+      <c r="G88" cm="1">
+        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
+        <v>127.679214</v>
+      </c>
+      <c r="H88">
+        <v>26.212295999999998</v>
+      </c>
+      <c r="I88">
+        <v>127.679214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="9"/>
+        <v>大分県大分市公園通り</v>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E5%88%86%E7%9C%8C%E5%A4%A7%E5%88%86%E5%B8%82%E5%85%AC%E5%9C%92%E9%80%9A%E3%82%8A</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大分県大分市公園通り&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大分県大分市公園通り&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大分県/大分市/公園通り&lt;/address&gt;
+&lt;longitude&gt;131.655121&lt;/longitude&gt;
+&lt;latitude&gt;33.188915&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F89" cm="1">
+        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
+        <v>33.188915000000001</v>
+      </c>
+      <c r="G89" cm="1">
+        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
+        <v>131.65512100000001</v>
+      </c>
+      <c r="H89">
+        <v>33.188915000000001</v>
+      </c>
+      <c r="I89">
+        <v>131.65512100000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="9"/>
+        <v>京都府京田辺市</v>
+      </c>
+      <c r="D90" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E7%94%B0%E8%BE%BA%E5%B8%82</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;京都府京田辺市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;京都府京田辺市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;京都府/京田辺市&lt;/address&gt;
+&lt;longitude&gt;135.767838&lt;/longitude&gt;
+&lt;latitude&gt;34.814442&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F90" cm="1">
+        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
+        <v>34.814442</v>
+      </c>
+      <c r="G90" cm="1">
+        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
+        <v>135.76783800000001</v>
+      </c>
+      <c r="H90">
+        <v>34.814442</v>
+      </c>
+      <c r="I90">
+        <v>135.76783800000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="9"/>
+        <v>徳島県阿南市津乃峰町</v>
+      </c>
+      <c r="D91" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BE%B3%E5%B3%B6%E7%9C%8C%E9%98%BF%E5%8D%97%E5%B8%82%E6%B4%A5%E4%B9%83%E5%B3%B0%E7%94%BA</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;徳島県阿南市津乃峰町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;徳島県阿南市津乃峰町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;徳島県/阿南市/津乃峰町&lt;/address&gt;
+&lt;longitude&gt;134.650513&lt;/longitude&gt;
+&lt;latitude&gt;33.888573&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F91" cm="1">
+        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
+        <v>33.888573000000001</v>
+      </c>
+      <c r="G91" cm="1">
+        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
+        <v>134.65051299999999</v>
+      </c>
+      <c r="H91">
+        <v>33.888573000000001</v>
+      </c>
+      <c r="I91">
+        <v>134.65051299999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都武蔵野市八幡町</v>
+      </c>
+      <c r="D92" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%AD%A6%E8%94%B5%E9%87%8E%E5%B8%82%E5%85%AB%E5%B9%A1%E7%94%BA</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都武蔵野市八幡町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都武蔵野市八幡町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/武蔵野市/八幡町&lt;/address&gt;
+&lt;longitude&gt;139.556534&lt;/longitude&gt;
+&lt;latitude&gt;35.715908&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F92" cm="1">
+        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
+        <v>35.715907999999999</v>
+      </c>
+      <c r="G92" cm="1">
+        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
+        <v>139.556534</v>
+      </c>
+      <c r="H92">
+        <v>35.715907999999999</v>
+      </c>
+      <c r="I92">
+        <v>139.556534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="9"/>
+        <v>大阪府泉南郡熊取町つばさが丘西</v>
+      </c>
+      <c r="D93" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E6%B3%89%E5%8D%97%E9%83%A1%E7%86%8A%E5%8F%96%E7%94%BA%E3%81%A4%E3%81%B0%E3%81%95%E3%81%8C%E4%B8%98%E8%A5%BF</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府泉南郡熊取町つばさが丘西&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府泉南郡熊取町つばさが丘西&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/泉南郡/熊取町/つばさが丘西&lt;/address&gt;
+&lt;longitude&gt;135.367981&lt;/longitude&gt;
+&lt;latitude&gt;34.383347&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F93" cm="1">
+        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
+        <v>34.383347000000001</v>
+      </c>
+      <c r="G93" cm="1">
+        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
+        <v>135.36798099999999</v>
+      </c>
+      <c r="H93">
+        <v>34.383347000000001</v>
+      </c>
+      <c r="I93">
+        <v>135.36798099999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="9"/>
+        <v>岐阜県中津川市</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E4%B8%AD%E6%B4%A5%E5%B7%9D%E5%B8%82</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;岐阜県中津川市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;岐阜県中津川市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;岐阜県/中津川市&lt;/address&gt;
+&lt;longitude&gt;137.500610&lt;/longitude&gt;
+&lt;latitude&gt;35.487492&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F94" cm="1">
+        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
+        <v>35.487492000000003</v>
+      </c>
+      <c r="G94" cm="1">
+        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
+        <v>137.50060999999999</v>
+      </c>
+      <c r="H94">
+        <v>35.487492000000003</v>
+      </c>
+      <c r="I94">
+        <v>137.50060999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="9"/>
+        <v>愛知県名古屋市緑区大清水</v>
+      </c>
+      <c r="D95" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E5%A4%A7%E6%B8%85%E6%B0%B4</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県名古屋市緑区大清水&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県名古屋市緑区大清水&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/名古屋市/緑区/大清水&lt;/address&gt;
+&lt;longitude&gt;136.987823&lt;/longitude&gt;
+&lt;latitude&gt;35.080688&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F95" cm="1">
+        <f t="array" ref="F95">INDEX(_xlfn.FILTERXML(E95,"//latitude"),1)</f>
+        <v>35.080688000000002</v>
+      </c>
+      <c r="G95" cm="1">
+        <f t="array" ref="G95">INDEX(_xlfn.FILTERXML(E95,"//longitude"),1)</f>
+        <v>136.98782299999999</v>
+      </c>
+      <c r="H95">
+        <v>35.080688000000002</v>
+      </c>
+      <c r="I95">
+        <v>136.98782299999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都中野区中央</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%AD%E9%87%8E%E5%8C%BA%E4%B8%AD%E5%A4%AE</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都中野区中央&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都中野区中央&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/中野区/中央&lt;/address&gt;
+&lt;longitude&gt;139.685654&lt;/longitude&gt;
+&lt;latitude&gt;35.698994&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F96" cm="1">
+        <f t="array" ref="F96">INDEX(_xlfn.FILTERXML(E96,"//latitude"),1)</f>
+        <v>35.698993999999999</v>
+      </c>
+      <c r="G96" cm="1">
+        <f t="array" ref="G96">INDEX(_xlfn.FILTERXML(E96,"//longitude"),1)</f>
+        <v>139.685654</v>
+      </c>
+      <c r="H96">
+        <v>35.698993999999999</v>
+      </c>
+      <c r="I96">
+        <v>139.685654</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="9"/>
+        <v>愛知県名古屋市中川区愛知町</v>
+      </c>
+      <c r="D97" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E4%B8%AD%E5%B7%9D%E5%8C%BA%E6%84%9B%E7%9F%A5%E7%94%BA</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県名古屋市中川区愛知町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県名古屋市中川区愛知町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/名古屋市/中川区/愛知町&lt;/address&gt;
+&lt;longitude&gt;136.876175&lt;/longitude&gt;
+&lt;latitude&gt;35.154072&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F97" cm="1">
+        <f t="array" ref="F97">INDEX(_xlfn.FILTERXML(E97,"//latitude"),1)</f>
+        <v>35.154071999999999</v>
+      </c>
+      <c r="G97" cm="1">
+        <f t="array" ref="G97">INDEX(_xlfn.FILTERXML(E97,"//longitude"),1)</f>
+        <v>136.87617499999999</v>
+      </c>
+      <c r="H97">
+        <v>35.154071999999999</v>
+      </c>
+      <c r="I97">
+        <v>136.87617499999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="9"/>
+        <v>埼玉県行田市樋上</v>
+      </c>
+      <c r="D98" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%A1%8C%E7%94%B0%E5%B8%82%E6%A8%8B%E4%B8%8A</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県行田市樋上&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県行田市樋上&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/行田市/樋上&lt;/address&gt;
+&lt;longitude&gt;139.470596&lt;/longitude&gt;
+&lt;latitude&gt;36.117146&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F98" cm="1">
+        <f t="array" ref="F98">INDEX(_xlfn.FILTERXML(E98,"//latitude"),1)</f>
+        <v>36.117145999999998</v>
+      </c>
+      <c r="G98" cm="1">
+        <f t="array" ref="G98">INDEX(_xlfn.FILTERXML(E98,"//longitude"),1)</f>
+        <v>139.470596</v>
+      </c>
+      <c r="H98">
+        <v>36.117145999999998</v>
+      </c>
+      <c r="I98">
+        <v>139.470596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="9"/>
+        <v>埼玉県志木市柏町</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%BF%97%E6%9C%A8%E5%B8%82%E6%9F%8F%E7%94%BA</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県志木市柏町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県志木市柏町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/志木市/柏町&lt;/address&gt;
+&lt;longitude&gt;139.575455&lt;/longitude&gt;
+&lt;latitude&gt;35.834698&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F99" cm="1">
+        <f t="array" ref="F99">INDEX(_xlfn.FILTERXML(E99,"//latitude"),1)</f>
+        <v>35.834698000000003</v>
+      </c>
+      <c r="G99" cm="1">
+        <f t="array" ref="G99">INDEX(_xlfn.FILTERXML(E99,"//longitude"),1)</f>
+        <v>139.57545500000001</v>
+      </c>
+      <c r="H99">
+        <v>35.834698000000003</v>
+      </c>
+      <c r="I99">
+        <v>139.57545500000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="9"/>
+        <v>千葉県習志野市津田沼</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E7%BF%92%E5%BF%97%E9%87%8E%E5%B8%82%E6%B4%A5%E7%94%B0%E6%B2%BC</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県習志野市津田沼&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県習志野市津田沼&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/習志野市/津田沼&lt;/address&gt;
+&lt;longitude&gt;140.024994&lt;/longitude&gt;
+&lt;latitude&gt;35.689049&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F100" cm="1">
+        <f t="array" ref="F100">INDEX(_xlfn.FILTERXML(E100,"//latitude"),1)</f>
+        <v>35.689048999999997</v>
+      </c>
+      <c r="G100" cm="1">
+        <f t="array" ref="G100">INDEX(_xlfn.FILTERXML(E100,"//longitude"),1)</f>
+        <v>140.02499399999999</v>
+      </c>
+      <c r="H100">
+        <v>35.689048999999997</v>
+      </c>
+      <c r="I100">
+        <v>140.02499399999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>138</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="9"/>
+        <v>埼玉県熊谷市新堀</v>
+      </c>
+      <c r="D101" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県熊谷市新堀&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県熊谷市新堀&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/熊谷市/新堀&lt;/address&gt;
+&lt;longitude&gt;139.335297&lt;/longitude&gt;
+&lt;latitude&gt;36.175068&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F101" cm="1">
+        <f t="array" ref="F101">INDEX(_xlfn.FILTERXML(E101,"//latitude"),1)</f>
+        <v>36.175068000000003</v>
+      </c>
+      <c r="G101" cm="1">
+        <f t="array" ref="G101">INDEX(_xlfn.FILTERXML(E101,"//longitude"),1)</f>
+        <v>139.335297</v>
+      </c>
+      <c r="H101">
+        <v>36.175068000000003</v>
+      </c>
+      <c r="I101">
+        <v>139.335297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都練馬区桜台</v>
+      </c>
+      <c r="D102" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E6%A1%9C%E5%8F%B0</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都練馬区桜台&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都練馬区桜台&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/練馬区/桜台&lt;/address&gt;
+&lt;longitude&gt;139.664520&lt;/longitude&gt;
+&lt;latitude&gt;35.740005&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F102" cm="1">
+        <f t="array" ref="F102">INDEX(_xlfn.FILTERXML(E102,"//latitude"),1)</f>
+        <v>35.740004999999996</v>
+      </c>
+      <c r="G102" cm="1">
+        <f t="array" ref="G102">INDEX(_xlfn.FILTERXML(E102,"//longitude"),1)</f>
+        <v>139.66452000000001</v>
+      </c>
+      <c r="H102">
+        <v>35.740004999999996</v>
+      </c>
+      <c r="I102">
+        <v>139.66452000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="9"/>
+        <v>奈良県桜井市粟殿</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E6%A1%9C%E4%BA%95%E5%B8%82%E7%B2%9F%E6%AE%BF</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;奈良県桜井市粟殿&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;奈良県桜井市粟殿&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;奈良県/桜井市/粟殿&lt;/address&gt;
+&lt;longitude&gt;135.847763&lt;/longitude&gt;
+&lt;latitude&gt;34.518940&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F103" cm="1">
+        <f t="array" ref="F103">INDEX(_xlfn.FILTERXML(E103,"//latitude"),1)</f>
+        <v>34.518940000000001</v>
+      </c>
+      <c r="G103" cm="1">
+        <f t="array" ref="G103">INDEX(_xlfn.FILTERXML(E103,"//longitude"),1)</f>
+        <v>135.84776299999999</v>
+      </c>
+      <c r="H103">
+        <v>34.518940000000001</v>
+      </c>
+      <c r="I103">
+        <v>135.84776299999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="9"/>
+        <v>山口県宇部市文京町</v>
+      </c>
+      <c r="D104" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E5%8F%A3%E7%9C%8C%E5%AE%87%E9%83%A8%E5%B8%82%E6%96%87%E4%BA%AC%E7%94%BA</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;山口県宇部市文京町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;山口県宇部市文京町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;山口県/宇部市/文京町&lt;/address&gt;
+&lt;longitude&gt;131.230927&lt;/longitude&gt;
+&lt;latitude&gt;33.972588&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F104" cm="1">
+        <f t="array" ref="F104">INDEX(_xlfn.FILTERXML(E104,"//latitude"),1)</f>
+        <v>33.972588000000002</v>
+      </c>
+      <c r="G104" cm="1">
+        <f t="array" ref="G104">INDEX(_xlfn.FILTERXML(E104,"//longitude"),1)</f>
+        <v>131.23092700000001</v>
+      </c>
+      <c r="H104">
+        <v>33.972588000000002</v>
+      </c>
+      <c r="I104">
+        <v>131.23092700000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="9"/>
+        <v>千葉県印西市</v>
+      </c>
+      <c r="D105" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県印西市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県印西市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/印西市&lt;/address&gt;
+&lt;longitude&gt;140.145767&lt;/longitude&gt;
+&lt;latitude&gt;35.832333&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F105" cm="1">
+        <f t="array" ref="F105">INDEX(_xlfn.FILTERXML(E105,"//latitude"),1)</f>
+        <v>35.832332999999998</v>
+      </c>
+      <c r="G105" cm="1">
+        <f t="array" ref="G105">INDEX(_xlfn.FILTERXML(E105,"//longitude"),1)</f>
+        <v>140.14576700000001</v>
+      </c>
+      <c r="H105">
+        <v>35.832332999999998</v>
+      </c>
+      <c r="I105">
+        <v>140.14576700000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県横浜市都筑区荏田南</v>
+      </c>
+      <c r="D106" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%83%BD%E7%AD%91%E5%8C%BA%E8%8D%8F%E7%94%B0%E5%8D%97</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市都筑区荏田南&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市都筑区荏田南&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/都筑区/荏田南&lt;/address&gt;
+&lt;longitude&gt;139.560120&lt;/longitude&gt;
+&lt;latitude&gt;35.541790&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F106" cm="1">
+        <f t="array" ref="F106">INDEX(_xlfn.FILTERXML(E106,"//latitude"),1)</f>
+        <v>35.541789999999999</v>
+      </c>
+      <c r="G106" cm="1">
+        <f t="array" ref="G106">INDEX(_xlfn.FILTERXML(E106,"//longitude"),1)</f>
+        <v>139.56012000000001</v>
+      </c>
+      <c r="H106">
+        <v>35.541789999999999</v>
+      </c>
+      <c r="I106">
+        <v>139.56012000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都豊島区東池袋</v>
+      </c>
+      <c r="D107" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E6%9D%B1%E6%B1%A0%E8%A2%8B</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都豊島区東池袋&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都豊島区東池袋&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/豊島区/東池袋&lt;/address&gt;
+&lt;longitude&gt;139.715302&lt;/longitude&gt;
+&lt;latitude&gt;35.731373&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F107" cm="1">
+        <f t="array" ref="F107">INDEX(_xlfn.FILTERXML(E107,"//latitude"),1)</f>
+        <v>35.731372999999998</v>
+      </c>
+      <c r="G107" cm="1">
+        <f t="array" ref="G107">INDEX(_xlfn.FILTERXML(E107,"//longitude"),1)</f>
+        <v>139.71530200000001</v>
+      </c>
+      <c r="H107">
+        <v>35.731372999999998</v>
+      </c>
+      <c r="I107">
+        <v>139.71530200000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="9"/>
+        <v>沖縄県浦添市</v>
+      </c>
+      <c r="D108" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E6%B5%A6%E6%B7%BB%E5%B8%82</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県浦添市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県浦添市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/浦添市&lt;/address&gt;
+&lt;longitude&gt;127.721802&lt;/longitude&gt;
+&lt;latitude&gt;26.245815&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F108" cm="1">
+        <f t="array" ref="F108">INDEX(_xlfn.FILTERXML(E108,"//latitude"),1)</f>
+        <v>26.245815</v>
+      </c>
+      <c r="G108" cm="1">
+        <f t="array" ref="G108">INDEX(_xlfn.FILTERXML(E108,"//longitude"),1)</f>
+        <v>127.721802</v>
+      </c>
+      <c r="H108">
+        <v>26.245815</v>
+      </c>
+      <c r="I108">
+        <v>127.721802</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県平塚市南原</v>
+      </c>
+      <c r="D109" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県平塚市南原&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県平塚市南原&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/平塚市/南原&lt;/address&gt;
+&lt;longitude&gt;139.326263&lt;/longitude&gt;
+&lt;latitude&gt;35.337265&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F109" cm="1">
+        <f t="array" ref="F109">INDEX(_xlfn.FILTERXML(E109,"//latitude"),1)</f>
+        <v>35.337265000000002</v>
+      </c>
+      <c r="G109" cm="1">
+        <f t="array" ref="G109">INDEX(_xlfn.FILTERXML(E109,"//longitude"),1)</f>
+        <v>139.32626300000001</v>
+      </c>
+      <c r="H109">
+        <v>35.337265000000002</v>
+      </c>
+      <c r="I109">
+        <v>139.32626300000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="9"/>
+        <v>兵庫県尼崎市武庫川町4丁目</v>
+      </c>
+      <c r="D110" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E6%AD%A6%E5%BA%AB%E5%B7%9D%E7%94%BA4%E4%B8%81%E7%9B%AE</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県尼崎市武庫川町4丁目&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県尼崎市武庫川町4丁目&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/尼崎市/武庫川町/四丁目&lt;/address&gt;
+&lt;longitude&gt;135.383438&lt;/longitude&gt;
+&lt;latitude&gt;34.716335&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F110" cm="1">
+        <f t="array" ref="F110">INDEX(_xlfn.FILTERXML(E110,"//latitude"),1)</f>
+        <v>34.716335000000001</v>
+      </c>
+      <c r="G110" cm="1">
+        <f t="array" ref="G110">INDEX(_xlfn.FILTERXML(E110,"//longitude"),1)</f>
+        <v>135.38343800000001</v>
+      </c>
+      <c r="H110">
+        <v>34.716335000000001</v>
+      </c>
+      <c r="I110">
+        <v>135.38343800000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C388FB3-F8A2-49C1-960A-98EABEC7F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A8BDB-7A38-4C16-A37E-F9279BA9AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="1335" windowWidth="24765" windowHeight="13335" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="26085" windowHeight="14505" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>jio0</t>
   </si>
@@ -93,421 +93,19 @@
     <t>東京都</t>
   </si>
   <si>
-    <t>神奈川県</t>
-  </si>
-  <si>
-    <t>相模原市中央区宮下本町</t>
-  </si>
-  <si>
-    <t>港区麻布十番</t>
-  </si>
-  <si>
-    <t>福井県</t>
-  </si>
-  <si>
-    <t>南条郡南越前町</t>
-  </si>
-  <si>
-    <t>愛知県</t>
-  </si>
-  <si>
-    <t>埼玉県</t>
-  </si>
-  <si>
-    <t>越谷市赤山町</t>
-  </si>
-  <si>
-    <t>横浜市新横浜</t>
-  </si>
-  <si>
-    <t>瀬戸市</t>
-  </si>
-  <si>
-    <t>富山県</t>
-  </si>
-  <si>
-    <t>富山市婦中町</t>
-  </si>
-  <si>
-    <t>入間市豊岡</t>
-  </si>
-  <si>
-    <t>横浜市中区山下町</t>
-  </si>
-  <si>
-    <t>川崎市宮前区菅生</t>
-  </si>
-  <si>
-    <t>千葉県</t>
-  </si>
-  <si>
-    <t>船橋市海神</t>
-  </si>
-  <si>
-    <t>大阪府</t>
-  </si>
-  <si>
-    <t>大阪市中央区鎗屋町1-2-12</t>
-  </si>
-  <si>
-    <t>品川区</t>
-  </si>
-  <si>
-    <t>滋賀県</t>
-  </si>
-  <si>
-    <t>大津市皇子が丘二丁目</t>
-  </si>
-  <si>
-    <t>福島県</t>
-  </si>
-  <si>
-    <t>須賀川市大町</t>
-  </si>
-  <si>
-    <t>高知県</t>
-  </si>
-  <si>
-    <t>高知市鵜来巣</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>札幌市東区北六条東5丁目1-3-1411</t>
-  </si>
-  <si>
-    <t>三重県</t>
-  </si>
-  <si>
-    <t>鈴鹿市若松西</t>
-  </si>
-  <si>
-    <t>広島県</t>
-  </si>
-  <si>
-    <t>東広島市黒瀬町乃美尾</t>
-  </si>
-  <si>
-    <t>栗東市安養寺</t>
-  </si>
-  <si>
-    <t>兵庫県</t>
-  </si>
-  <si>
-    <t>神戸市灘区水道筋</t>
-  </si>
-  <si>
-    <t>海部郡飛島村</t>
-  </si>
-  <si>
-    <t>京都府</t>
-  </si>
-  <si>
-    <t>京都市中京区上一文字町</t>
-  </si>
-  <si>
-    <t>東大和市狭山</t>
-  </si>
-  <si>
-    <t>池田市</t>
-  </si>
-  <si>
-    <t>大阪市此花区島屋</t>
-  </si>
-  <si>
-    <t>吹田市千里丘北</t>
-  </si>
-  <si>
-    <t>愛媛県</t>
-  </si>
-  <si>
-    <t>新居浜市坂井町</t>
-  </si>
-  <si>
-    <t>江南市赤童子町福住</t>
-  </si>
-  <si>
-    <t>石川県</t>
-  </si>
-  <si>
-    <t>金沢市駅西本町</t>
-  </si>
-  <si>
-    <t>宮城県</t>
-  </si>
-  <si>
-    <t>仙台市泉区館</t>
-  </si>
-  <si>
-    <t>文京区本駒込</t>
-  </si>
-  <si>
-    <t>会津若松市</t>
-  </si>
-  <si>
-    <t>富田林市桜ケ丘町</t>
-  </si>
-  <si>
-    <t>八潮市伊勢野215-1</t>
-  </si>
-  <si>
-    <t>岡崎市南明大寺町</t>
-  </si>
-  <si>
-    <t>高槻市赤大路町</t>
-  </si>
-  <si>
-    <t>中野区南台</t>
-  </si>
-  <si>
-    <t>上川郡清水町御影</t>
-  </si>
-  <si>
-    <t>大阪市中央区内久宝寺町</t>
-  </si>
-  <si>
-    <t>新宿区</t>
-  </si>
-  <si>
-    <t>さいたま市中央区</t>
-  </si>
-  <si>
-    <t>神戸市兵庫区菊水町10-39-18</t>
-  </si>
-  <si>
-    <t>長野県</t>
-  </si>
-  <si>
-    <t>上伊那郡飯島町七久保</t>
-  </si>
-  <si>
-    <t>津市芸濃町椋本</t>
-  </si>
-  <si>
-    <t>香川県</t>
-  </si>
-  <si>
-    <t>小豆郡土庄町黒岩</t>
-  </si>
-  <si>
-    <t>尾張旭市</t>
-  </si>
-  <si>
-    <t>金沢市</t>
-  </si>
-  <si>
-    <t>徳島県</t>
-  </si>
-  <si>
-    <t>鳴門市大麻町市場字大畑</t>
-  </si>
-  <si>
-    <t>沖縄県</t>
-  </si>
-  <si>
-    <t>中頭郡北谷町砂辺</t>
-  </si>
-  <si>
     <t>渋谷区代々木</t>
   </si>
   <si>
-    <t>那覇市宇栄原</t>
+    <t>新潟県</t>
   </si>
   <si>
-    <t>うるま市石川伊波</t>
+    <t>長岡市宮原３丁目</t>
   </si>
   <si>
-    <t>松阪市白粉町</t>
+    <t>山形県</t>
   </si>
   <si>
-    <t>宮崎県</t>
-  </si>
-  <si>
-    <t>宮崎市吉村町中原甲</t>
-  </si>
-  <si>
-    <t>静岡県</t>
-  </si>
-  <si>
-    <t>浜松市中央区入野町</t>
-  </si>
-  <si>
-    <t>横浜市鶴見区東寺尾</t>
-  </si>
-  <si>
-    <t>相模原市南区古淵</t>
-  </si>
-  <si>
-    <t>大阪市東成区中道</t>
-  </si>
-  <si>
-    <t>糸満市西川町</t>
-  </si>
-  <si>
-    <t>茨城県</t>
-  </si>
-  <si>
-    <t>結城市結城</t>
-  </si>
-  <si>
-    <t>山梨県</t>
-  </si>
-  <si>
-    <t>富士吉田市大明見</t>
-  </si>
-  <si>
-    <t>越谷市越ケ谷</t>
-  </si>
-  <si>
-    <t>大田区蒲田</t>
-  </si>
-  <si>
-    <t>大阪府豊中市上野西3</t>
-  </si>
-  <si>
-    <t>知多郡阿久比町白沢西石根</t>
-  </si>
-  <si>
-    <t>二本松市上川崎字宮ノ脇</t>
-  </si>
-  <si>
-    <t>荒川区東日暮里</t>
-  </si>
-  <si>
-    <t>尼崎市</t>
-  </si>
-  <si>
-    <t>船橋市金杉台</t>
-  </si>
-  <si>
-    <t>福岡県</t>
-  </si>
-  <si>
-    <t>福岡市博多区比恵町</t>
-  </si>
-  <si>
-    <t>山口県</t>
-  </si>
-  <si>
-    <t>山口市小郡高砂町</t>
-  </si>
-  <si>
-    <t>三島市西本町</t>
-  </si>
-  <si>
-    <t>伊勢原市串橋</t>
-  </si>
-  <si>
-    <t>鶴ヶ島市鶴ヶ丘</t>
-  </si>
-  <si>
-    <t>横浜市旭区二俣川</t>
-  </si>
-  <si>
-    <t>飯田市川路</t>
-  </si>
-  <si>
-    <t>長岡京市泉が丘</t>
-  </si>
-  <si>
-    <t>尼崎市大島</t>
-  </si>
-  <si>
-    <t>和歌山県</t>
-  </si>
-  <si>
-    <t>海南市</t>
-  </si>
-  <si>
-    <t>江東区大島</t>
-  </si>
-  <si>
-    <t>さいたま市見沼区蓮沼５７４－１</t>
-  </si>
-  <si>
-    <t>富士市</t>
-  </si>
-  <si>
-    <t>国立市西</t>
-  </si>
-  <si>
-    <t>那覇市</t>
-  </si>
-  <si>
-    <t>大分県</t>
-  </si>
-  <si>
-    <t>大分市公園通り</t>
-  </si>
-  <si>
-    <t>京田辺市</t>
-  </si>
-  <si>
-    <t>阿南市津乃峰町</t>
-  </si>
-  <si>
-    <t>武蔵野市八幡町</t>
-  </si>
-  <si>
-    <t>泉南郡熊取町つばさが丘西</t>
-  </si>
-  <si>
-    <t>岐阜県</t>
-  </si>
-  <si>
-    <t>中津川市</t>
-  </si>
-  <si>
-    <t>名古屋市緑区大清水</t>
-  </si>
-  <si>
-    <t>中野区中央</t>
-  </si>
-  <si>
-    <t>名古屋市中川区愛知町</t>
-  </si>
-  <si>
-    <t>行田市樋上</t>
-  </si>
-  <si>
-    <t>志木市柏町</t>
-  </si>
-  <si>
-    <t>習志野市津田沼</t>
-  </si>
-  <si>
-    <t>熊谷市新堀</t>
-  </si>
-  <si>
-    <t>練馬区桜台</t>
-  </si>
-  <si>
-    <t>奈良県</t>
-  </si>
-  <si>
-    <t>桜井市粟殿</t>
-  </si>
-  <si>
-    <t>宇部市文京町</t>
-  </si>
-  <si>
-    <t>印西市</t>
-  </si>
-  <si>
-    <t>横浜市都筑区荏田南</t>
-  </si>
-  <si>
-    <t>豊島区東池袋</t>
-  </si>
-  <si>
-    <t>浦添市</t>
-  </si>
-  <si>
-    <t>平塚市南原</t>
-  </si>
-  <si>
-    <t>尼崎市武庫川町4丁目</t>
+    <t>米沢市御廟</t>
   </si>
 </sst>
 </file>
@@ -917,7 +515,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I110"/>
+      <selection activeCell="H2" sqref="H2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -960,3059 +558,21 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>兵庫県神戸市灘区水道筋</v>
+        <v>東京都渋谷区代々木</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E6%B0%B4%E9%81%93%E7%AD%8B</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E4%BB%A3%E3%80%85%E6%9C%A8</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;兵庫県神戸市灘区水道筋&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;兵庫県神戸市灘区水道筋&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;兵庫県/神戸市/灘区/水道筋&lt;/address&gt;
-&lt;longitude&gt;135.227188&lt;/longitude&gt;
-&lt;latitude&gt;34.713982&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>34.713982000000001</v>
-      </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>135.22718800000001</v>
-      </c>
-      <c r="H2">
-        <v>34.713982000000001</v>
-      </c>
-      <c r="I2">
-        <v>135.22718800000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">+A3&amp;B3</f>
-        <v>滋賀県栗東市安養寺</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E6%A0%97%E6%9D%B1%E5%B8%82%E5%AE%89%E9%A4%8A%E5%AF%BA</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E8" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;滋賀県栗東市安養寺&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;滋賀県栗東市安養寺&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;滋賀県/栗東市/安養寺&lt;/address&gt;
-&lt;longitude&gt;136.002060&lt;/longitude&gt;
-&lt;latitude&gt;35.014442&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
-        <v>35.014442000000003</v>
-      </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
-        <v>136.00206</v>
-      </c>
-      <c r="H3">
-        <v>35.014442000000003</v>
-      </c>
-      <c r="I3">
-        <v>136.00206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>愛知県海部郡飛島村</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%B5%B7%E9%83%A8%E9%83%A1%E9%A3%9B%E5%B3%B6%E6%9D%91</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県海部郡飛島村&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県海部郡飛島村&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/海部郡/飛島村&lt;/address&gt;
-&lt;longitude&gt;136.791153&lt;/longitude&gt;
-&lt;latitude&gt;35.078804&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
-        <v>35.078803999999998</v>
-      </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
-        <v>136.79115300000001</v>
-      </c>
-      <c r="H4">
-        <v>35.078803999999998</v>
-      </c>
-      <c r="I4">
-        <v>136.79115300000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>埼玉県越谷市赤山町</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:D8" si="3" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%B5%A4%E5%B1%B1%E7%94%BA</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県越谷市赤山町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県越谷市赤山町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/越谷市/赤山町&lt;/address&gt;
-&lt;longitude&gt;139.782089&lt;/longitude&gt;
-&lt;latitude&gt;35.888950&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
-        <v>35.888950000000001</v>
-      </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
-        <v>139.78208900000001</v>
-      </c>
-      <c r="H5">
-        <v>35.888950000000001</v>
-      </c>
-      <c r="I5">
-        <v>139.78208900000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>神奈川県横浜市新横浜</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E6%96%B0%E6%A8%AA%E6%B5%9C</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県横浜市新横浜&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;4&lt;/iConf&gt;
-&lt;converted&gt;神奈川県横浜市新&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/横浜市/新橋町&lt;/address&gt;
-&lt;longitude&gt;139.510544&lt;/longitude&gt;
-&lt;latitude&gt;35.436195&lt;/latitude&gt;
-&lt;iLvl&gt;0&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/横浜市/新石川&lt;/address&gt;
-&lt;longitude&gt;139.557877&lt;/longitude&gt;
-&lt;latitude&gt;35.567936&lt;/latitude&gt;
-&lt;iLvl&gt;0&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
-        <v>35.436194999999998</v>
-      </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
-        <v>139.51054400000001</v>
-      </c>
-      <c r="H6">
-        <v>35.436194999999998</v>
-      </c>
-      <c r="I6">
-        <v>139.51054400000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>愛知県瀬戸市</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%80%AC%E6%88%B8%E5%B8%82</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県瀬戸市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県瀬戸市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/瀬戸市&lt;/address&gt;
-&lt;longitude&gt;137.084122&lt;/longitude&gt;
-&lt;latitude&gt;35.223621&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
-        <v>35.223621000000001</v>
-      </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
-        <v>137.08412200000001</v>
-      </c>
-      <c r="H7">
-        <v>35.223621000000001</v>
-      </c>
-      <c r="I7">
-        <v>137.08412200000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>富山県富山市婦中町</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AF%8C%E5%B1%B1%E7%9C%8C%E5%AF%8C%E5%B1%B1%E5%B8%82%E5%A9%A6%E4%B8%AD%E7%94%BA</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;富山県富山市婦中町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;4&lt;/iConf&gt;
-&lt;converted&gt;富山県富山市婦中町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町千里&lt;/address&gt;
-&lt;longitude&gt;137.119141&lt;/longitude&gt;
-&lt;latitude&gt;36.629936&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町十五丁&lt;/address&gt;
-&lt;longitude&gt;137.174759&lt;/longitude&gt;
-&lt;latitude&gt;36.629349&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町三屋&lt;/address&gt;
-&lt;longitude&gt;137.109406&lt;/longitude&gt;
-&lt;latitude&gt;36.638046&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町三瀬&lt;/address&gt;
-&lt;longitude&gt;137.093521&lt;/longitude&gt;
-&lt;latitude&gt;36.622307&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町ねむの木&lt;/address&gt;
-&lt;longitude&gt;137.175186&lt;/longitude&gt;
-&lt;latitude&gt;36.639549&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町安田&lt;/address&gt;
-&lt;longitude&gt;137.156876&lt;/longitude&gt;
-&lt;latitude&gt;36.682693&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町為成新&lt;/address&gt;
-&lt;longitude&gt;137.178757&lt;/longitude&gt;
-&lt;latitude&gt;36.626282&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町羽根&lt;/address&gt;
-&lt;longitude&gt;137.135239&lt;/longitude&gt;
-&lt;latitude&gt;36.656437&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町羽根新&lt;/address&gt;
-&lt;longitude&gt;137.180344&lt;/longitude&gt;
-&lt;latitude&gt;36.675854&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町鵜坂&lt;/address&gt;
-&lt;longitude&gt;137.188492&lt;/longitude&gt;
-&lt;latitude&gt;36.672291&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町横野&lt;/address&gt;
-&lt;longitude&gt;137.178787&lt;/longitude&gt;
-&lt;latitude&gt;36.620754&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町下井沢&lt;/address&gt;
-&lt;longitude&gt;137.156799&lt;/longitude&gt;
-&lt;latitude&gt;36.643566&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町下吉川&lt;/address&gt;
-&lt;longitude&gt;137.143753&lt;/longitude&gt;
-&lt;latitude&gt;36.646461&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町下轡田&lt;/address&gt;
-&lt;longitude&gt;137.174973&lt;/longitude&gt;
-&lt;latitude&gt;36.662491&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町下坂倉&lt;/address&gt;
-&lt;longitude&gt;137.169800&lt;/longitude&gt;
-&lt;latitude&gt;36.663620&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町下条&lt;/address&gt;
-&lt;longitude&gt;137.150238&lt;/longitude&gt;
-&lt;latitude&gt;36.670822&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町下瀬&lt;/address&gt;
-&lt;longitude&gt;137.104324&lt;/longitude&gt;
-&lt;latitude&gt;36.636871&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町下邑&lt;/address&gt;
-&lt;longitude&gt;137.136597&lt;/longitude&gt;
-&lt;latitude&gt;36.660519&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町河原町&lt;/address&gt;
-&lt;longitude&gt;137.129852&lt;/longitude&gt;
-&lt;latitude&gt;36.643517&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町皆杓&lt;/address&gt;
-&lt;longitude&gt;137.080643&lt;/longitude&gt;
-&lt;latitude&gt;36.602577&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町外輪野&lt;/address&gt;
-&lt;longitude&gt;137.095123&lt;/longitude&gt;
-&lt;latitude&gt;36.635834&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町希望ケ丘&lt;/address&gt;
-&lt;longitude&gt;137.178040&lt;/longitude&gt;
-&lt;latitude&gt;36.677223&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町吉住&lt;/address&gt;
-&lt;longitude&gt;137.089584&lt;/longitude&gt;
-&lt;latitude&gt;36.637615&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町吉谷&lt;/address&gt;
-&lt;longitude&gt;137.073151&lt;/longitude&gt;
-&lt;latitude&gt;36.634163&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町宮ケ谷&lt;/address&gt;
-&lt;longitude&gt;137.080597&lt;/longitude&gt;
-&lt;latitude&gt;36.660297&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町宮ケ島&lt;/address&gt;
-&lt;longitude&gt;137.169388&lt;/longitude&gt;
-&lt;latitude&gt;36.668007&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町牛滑&lt;/address&gt;
-&lt;longitude&gt;137.076630&lt;/longitude&gt;
-&lt;latitude&gt;36.614162&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町響の杜&lt;/address&gt;
-&lt;longitude&gt;137.159485&lt;/longitude&gt;
-&lt;latitude&gt;36.652054&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町熊野道&lt;/address&gt;
-&lt;longitude&gt;137.140167&lt;/longitude&gt;
-&lt;latitude&gt;36.626606&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町蛍川&lt;/address&gt;
-&lt;longitude&gt;137.166351&lt;/longitude&gt;
-&lt;latitude&gt;36.650661&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町古沢&lt;/address&gt;
-&lt;longitude&gt;137.138199&lt;/longitude&gt;
-&lt;latitude&gt;36.676857&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町広田&lt;/address&gt;
-&lt;longitude&gt;137.165436&lt;/longitude&gt;
-&lt;latitude&gt;36.623474&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町高山&lt;/address&gt;
-&lt;longitude&gt;137.086838&lt;/longitude&gt;
-&lt;latitude&gt;36.617256&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町高塚&lt;/address&gt;
-&lt;longitude&gt;137.091797&lt;/longitude&gt;
-&lt;latitude&gt;36.647987&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町高田&lt;/address&gt;
-&lt;longitude&gt;137.151703&lt;/longitude&gt;
-&lt;latitude&gt;36.649059&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町高日附&lt;/address&gt;
-&lt;longitude&gt;137.139725&lt;/longitude&gt;
-&lt;latitude&gt;36.634743&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町砂子田&lt;/address&gt;
-&lt;longitude&gt;137.162979&lt;/longitude&gt;
-&lt;latitude&gt;36.653057&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町笹倉&lt;/address&gt;
-&lt;longitude&gt;137.157791&lt;/longitude&gt;
-&lt;latitude&gt;36.667076&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町持田&lt;/address&gt;
-&lt;longitude&gt;137.171677&lt;/longitude&gt;
-&lt;latitude&gt;36.639641&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町小泉&lt;/address&gt;
-&lt;longitude&gt;137.157318&lt;/longitude&gt;
-&lt;latitude&gt;36.673439&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町小倉&lt;/address&gt;
-&lt;longitude&gt;137.134903&lt;/longitude&gt;
-&lt;latitude&gt;36.628315&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町小長沢&lt;/address&gt;
-&lt;longitude&gt;137.130692&lt;/longitude&gt;
-&lt;latitude&gt;36.665661&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町小野島&lt;/address&gt;
-&lt;longitude&gt;137.145416&lt;/longitude&gt;
-&lt;latitude&gt;36.655609&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町上井沢&lt;/address&gt;
-&lt;longitude&gt;137.145737&lt;/longitude&gt;
-&lt;latitude&gt;36.627987&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町上吉川&lt;/address&gt;
-&lt;longitude&gt;137.141098&lt;/longitude&gt;
-&lt;latitude&gt;36.641449&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町上轡田&lt;/address&gt;
-&lt;longitude&gt;137.181763&lt;/longitude&gt;
-&lt;latitude&gt;36.655369&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町上新屋&lt;/address&gt;
-&lt;longitude&gt;137.176483&lt;/longitude&gt;
-&lt;latitude&gt;36.629066&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町上瀬&lt;/address&gt;
-&lt;longitude&gt;137.100266&lt;/longitude&gt;
-&lt;latitude&gt;36.622623&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町上田島&lt;/address&gt;
-&lt;longitude&gt;137.174530&lt;/longitude&gt;
-&lt;latitude&gt;36.670338&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町上野&lt;/address&gt;
-&lt;longitude&gt;137.088699&lt;/longitude&gt;
-&lt;latitude&gt;36.602081&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町新屋&lt;/address&gt;
-&lt;longitude&gt;137.174591&lt;/longitude&gt;
-&lt;latitude&gt;36.624866&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町新町&lt;/address&gt;
-&lt;longitude&gt;137.124756&lt;/longitude&gt;
-&lt;latitude&gt;36.659573&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町新町村西&lt;/address&gt;
-&lt;longitude&gt;137.122055&lt;/longitude&gt;
-&lt;latitude&gt;36.659527&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町成子&lt;/address&gt;
-&lt;longitude&gt;137.179260&lt;/longitude&gt;
-&lt;latitude&gt;36.612167&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町清水島&lt;/address&gt;
-&lt;longitude&gt;137.163696&lt;/longitude&gt;
-&lt;latitude&gt;36.636417&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町西ヶ丘&lt;/address&gt;
-&lt;longitude&gt;137.170654&lt;/longitude&gt;
-&lt;latitude&gt;36.658360&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町西本郷&lt;/address&gt;
-&lt;longitude&gt;137.166260&lt;/longitude&gt;
-&lt;latitude&gt;36.678928&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町青島&lt;/address&gt;
-&lt;longitude&gt;137.183258&lt;/longitude&gt;
-&lt;latitude&gt;36.630848&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町増田&lt;/address&gt;
-&lt;longitude&gt;137.174561&lt;/longitude&gt;
-&lt;latitude&gt;36.653954&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町蔵島&lt;/address&gt;
-&lt;longitude&gt;137.171860&lt;/longitude&gt;
-&lt;latitude&gt;36.645615&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町速星&lt;/address&gt;
-&lt;longitude&gt;137.164124&lt;/longitude&gt;
-&lt;latitude&gt;36.662090&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町袋&lt;/address&gt;
-&lt;longitude&gt;137.154816&lt;/longitude&gt;
-&lt;latitude&gt;36.654621&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町大瀬谷&lt;/address&gt;
-&lt;longitude&gt;137.063370&lt;/longitude&gt;
-&lt;latitude&gt;36.611118&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町沢田&lt;/address&gt;
-&lt;longitude&gt;137.128952&lt;/longitude&gt;
-&lt;latitude&gt;36.634430&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町地角&lt;/address&gt;
-&lt;longitude&gt;137.168045&lt;/longitude&gt;
-&lt;latitude&gt;36.631630&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町中島&lt;/address&gt;
-&lt;longitude&gt;137.146957&lt;/longitude&gt;
-&lt;latitude&gt;36.618900&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町中名&lt;/address&gt;
-&lt;longitude&gt;137.166534&lt;/longitude&gt;
-&lt;latitude&gt;36.643028&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町長沢&lt;/address&gt;
-&lt;longitude&gt;137.126373&lt;/longitude&gt;
-&lt;latitude&gt;36.648869&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町塚原&lt;/address&gt;
-&lt;longitude&gt;137.186020&lt;/longitude&gt;
-&lt;latitude&gt;36.663219&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町添島&lt;/address&gt;
-&lt;longitude&gt;137.178452&lt;/longitude&gt;
-&lt;latitude&gt;36.644478&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町田屋&lt;/address&gt;
-&lt;longitude&gt;137.155411&lt;/longitude&gt;
-&lt;latitude&gt;36.630165&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町田島&lt;/address&gt;
-&lt;longitude&gt;137.176636&lt;/longitude&gt;
-&lt;latitude&gt;36.673161&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町島田&lt;/address&gt;
-&lt;longitude&gt;137.138000&lt;/longitude&gt;
-&lt;latitude&gt;36.631538&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町島本郷&lt;/address&gt;
-&lt;longitude&gt;137.170975&lt;/longitude&gt;
-&lt;latitude&gt;36.678421&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町東谷&lt;/address&gt;
-&lt;longitude&gt;137.082703&lt;/longitude&gt;
-&lt;latitude&gt;36.626556&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町東本郷&lt;/address&gt;
-&lt;longitude&gt;137.168213&lt;/longitude&gt;
-&lt;latitude&gt;36.672791&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町道喜島&lt;/address&gt;
-&lt;longitude&gt;137.171509&lt;/longitude&gt;
-&lt;latitude&gt;36.631508&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町道場&lt;/address&gt;
-&lt;longitude&gt;137.159958&lt;/longitude&gt;
-&lt;latitude&gt;36.645618&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町道島&lt;/address&gt;
-&lt;longitude&gt;137.087234&lt;/longitude&gt;
-&lt;latitude&gt;36.608967&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町南下瀬&lt;/address&gt;
-&lt;longitude&gt;137.099396&lt;/longitude&gt;
-&lt;latitude&gt;36.629498&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町萩島&lt;/address&gt;
-&lt;longitude&gt;137.176758&lt;/longitude&gt;
-&lt;latitude&gt;36.633217&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町麦島&lt;/address&gt;
-&lt;longitude&gt;137.152115&lt;/longitude&gt;
-&lt;latitude&gt;36.656586&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町板倉&lt;/address&gt;
-&lt;longitude&gt;137.169510&lt;/longitude&gt;
-&lt;latitude&gt;36.652969&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町板倉新&lt;/address&gt;
-&lt;longitude&gt;137.175995&lt;/longitude&gt;
-&lt;latitude&gt;36.648865&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町浜子&lt;/address&gt;
-&lt;longitude&gt;137.155945&lt;/longitude&gt;
-&lt;latitude&gt;36.619576&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町富崎&lt;/address&gt;
-&lt;longitude&gt;137.122711&lt;/longitude&gt;
-&lt;latitude&gt;36.638786&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町富川&lt;/address&gt;
-&lt;longitude&gt;137.147354&lt;/longitude&gt;
-&lt;latitude&gt;36.651623&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町分田&lt;/address&gt;
-&lt;longitude&gt;137.182632&lt;/longitude&gt;
-&lt;latitude&gt;36.670090&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町平等&lt;/address&gt;
-&lt;longitude&gt;137.068390&lt;/longitude&gt;
-&lt;latitude&gt;36.647709&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町鉾木&lt;/address&gt;
-&lt;longitude&gt;137.121567&lt;/longitude&gt;
-&lt;latitude&gt;36.630768&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町北下瀬&lt;/address&gt;
-&lt;longitude&gt;137.100510&lt;/longitude&gt;
-&lt;latitude&gt;36.632492&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町北上瀬&lt;/address&gt;
-&lt;longitude&gt;137.100372&lt;/longitude&gt;
-&lt;latitude&gt;36.631500&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町堀&lt;/address&gt;
-&lt;longitude&gt;137.168579&lt;/longitude&gt;
-&lt;latitude&gt;36.636593&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町夢ケ丘&lt;/address&gt;
-&lt;longitude&gt;137.173782&lt;/longitude&gt;
-&lt;latitude&gt;36.676422&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町友坂&lt;/address&gt;
-&lt;longitude&gt;137.142471&lt;/longitude&gt;
-&lt;latitude&gt;36.676170&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町余川&lt;/address&gt;
-&lt;longitude&gt;137.154480&lt;/longitude&gt;
-&lt;latitude&gt;36.639992&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町葎原&lt;/address&gt;
-&lt;longitude&gt;137.064453&lt;/longitude&gt;
-&lt;latitude&gt;36.621445&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町蓮花寺&lt;/address&gt;
-&lt;longitude&gt;137.113007&lt;/longitude&gt;
-&lt;latitude&gt;36.641907&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;candidate&gt;
-&lt;address&gt;富山県/富山市/婦中町鶚谷&lt;/address&gt;
-&lt;longitude&gt;137.067474&lt;/longitude&gt;
-&lt;latitude&gt;36.628166&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
-        <v>36.629936000000001</v>
-      </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
-        <v>137.11914100000001</v>
-      </c>
-      <c r="H8">
-        <v>36.629936000000001</v>
-      </c>
-      <c r="I8">
-        <v>137.11914100000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ref="C9:C72" si="4">+A9&amp;B9</f>
-        <v>埼玉県入間市豊岡</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" ref="D9:D21" si="5" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C9)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%85%A5%E9%96%93%E5%B8%82%E8%B1%8A%E5%B2%A1</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" ref="E9:E21" si="6" xml:space="preserve"> _xlfn.WEBSERVICE(D9)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県入間市豊岡&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県入間市豊岡&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/入間市/豊岡&lt;/address&gt;
-&lt;longitude&gt;139.388489&lt;/longitude&gt;
-&lt;latitude&gt;35.838379&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
-        <v>35.838379000000003</v>
-      </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
-        <v>139.38848899999999</v>
-      </c>
-      <c r="H9">
-        <v>35.838379000000003</v>
-      </c>
-      <c r="I9">
-        <v>139.38848899999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="4"/>
-        <v>神奈川県横浜市中区山下町</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E4%B8%AD%E5%8C%BA%E5%B1%B1%E4%B8%8B%E7%94%BA</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県横浜市中区山下町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県横浜市中区山下町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/横浜市/中区/山下町&lt;/address&gt;
-&lt;longitude&gt;139.656952&lt;/longitude&gt;
-&lt;latitude&gt;35.446007&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
-        <v>35.446007000000002</v>
-      </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
-        <v>139.65695199999999</v>
-      </c>
-      <c r="H10">
-        <v>35.446007000000002</v>
-      </c>
-      <c r="I10">
-        <v>139.65695199999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="4"/>
-        <v>神奈川県川崎市宮前区菅生</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E5%AE%AE%E5%89%8D%E5%8C%BA%E8%8F%85%E7%94%9F</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県川崎市宮前区菅生&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県川崎市宮前区菅生&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/川崎市/宮前区/菅生&lt;/address&gt;
-&lt;longitude&gt;139.555374&lt;/longitude&gt;
-&lt;latitude&gt;35.599854&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
-        <v>35.599854000000001</v>
-      </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
-        <v>139.555374</v>
-      </c>
-      <c r="H11">
-        <v>35.599854000000001</v>
-      </c>
-      <c r="I11">
-        <v>139.555374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="4"/>
-        <v>千葉県船橋市海神</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82%E6%B5%B7%E7%A5%9E</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;千葉県船橋市海神&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;千葉県船橋市海神&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;千葉県/船橋市/海神&lt;/address&gt;
-&lt;longitude&gt;139.978531&lt;/longitude&gt;
-&lt;latitude&gt;35.700184&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
-        <v>35.700184</v>
-      </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
-        <v>139.978531</v>
-      </c>
-      <c r="H12">
-        <v>35.700184</v>
-      </c>
-      <c r="I12">
-        <v>139.978531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府大阪市中央区鎗屋町1-2-12</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E9%8E%97%E5%B1%8B%E7%94%BA1-2-12</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府大阪市中央区鎗屋町1-2-12&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府大阪市中央区鎗屋町1-2-12&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/大阪市/中央区/鎗屋町/一丁目/２番/１２号&lt;/address&gt;
-&lt;longitude&gt;135.516769&lt;/longitude&gt;
-&lt;latitude&gt;34.682697&lt;/latitude&gt;
-&lt;iLvl&gt;8&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
-        <v>34.682696999999997</v>
-      </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
-        <v>135.51676900000001</v>
-      </c>
-      <c r="H13">
-        <v>34.682696999999997</v>
-      </c>
-      <c r="I13">
-        <v>135.51676900000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都品川区</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都品川区&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都品川区&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/品川区&lt;/address&gt;
-&lt;longitude&gt;139.730255&lt;/longitude&gt;
-&lt;latitude&gt;35.609066&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
-        <v>35.609065999999999</v>
-      </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
-        <v>139.730255</v>
-      </c>
-      <c r="H14">
-        <v>35.609065999999999</v>
-      </c>
-      <c r="I14">
-        <v>139.730255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="4"/>
-        <v>滋賀県大津市皇子が丘二丁目</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%A4%A7%E6%B4%A5%E5%B8%82%E7%9A%87%E5%AD%90%E3%81%8C%E4%B8%98%E4%BA%8C%E4%B8%81%E7%9B%AE</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;滋賀県大津市皇子が丘二丁目&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;滋賀県大津市皇子が丘二丁目&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;滋賀県/大津市/皇子が丘/二丁目&lt;/address&gt;
-&lt;longitude&gt;135.856705&lt;/longitude&gt;
-&lt;latitude&gt;35.023525&lt;/latitude&gt;
-&lt;iLvl&gt;6&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
-        <v>35.023524999999999</v>
-      </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
-        <v>135.85670500000001</v>
-      </c>
-      <c r="H15">
-        <v>35.023524999999999</v>
-      </c>
-      <c r="I15">
-        <v>135.85670500000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="4"/>
-        <v>福島県須賀川市大町</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E9%A0%88%E8%B3%80%E5%B7%9D%E5%B8%82%E5%A4%A7%E7%94%BA</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;福島県須賀川市大町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;福島県須賀川市大町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;福島県/須賀川市/大町&lt;/address&gt;
-&lt;longitude&gt;140.376114&lt;/longitude&gt;
-&lt;latitude&gt;37.283245&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
-        <v>37.283245000000001</v>
-      </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
-        <v>140.376114</v>
-      </c>
-      <c r="H16">
-        <v>37.283245000000001</v>
-      </c>
-      <c r="I16">
-        <v>140.376114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="4"/>
-        <v>京都府京都市中京区上一文字町</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E9%83%BD%E5%B8%82%E4%B8%AD%E4%BA%AC%E5%8C%BA%E4%B8%8A%E4%B8%80%E6%96%87%E5%AD%97%E7%94%BA</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;京都府京都市中京区上一文字町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;京都府京都市中京区上一文字町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;京都府/京都市/中京区/上一文字町&lt;/address&gt;
-&lt;longitude&gt;135.749680&lt;/longitude&gt;
-&lt;latitude&gt;35.009178&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
-        <v>35.009177999999999</v>
-      </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
-        <v>135.74968000000001</v>
-      </c>
-      <c r="H17">
-        <v>35.009177999999999</v>
-      </c>
-      <c r="I17">
-        <v>135.74968000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="4"/>
-        <v>高知県高知市鵜来巣</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%B5%9C%E6%9D%A5%E5%B7%A3</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;高知県高知市鵜来巣&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;高知県高知市鵜来巣&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;高知県/高知市/鵜来巣&lt;/address&gt;
-&lt;longitude&gt;133.485672&lt;/longitude&gt;
-&lt;latitude&gt;33.541130&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
-        <v>33.541130000000003</v>
-      </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
-        <v>133.48567199999999</v>
-      </c>
-      <c r="H18">
-        <v>33.541130000000003</v>
-      </c>
-      <c r="I18">
-        <v>133.48567199999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="4"/>
-        <v>北海道札幌市東区北六条東5丁目1-3-1411</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%9C%AD%E5%B9%8C%E5%B8%82%E6%9D%B1%E5%8C%BA%E5%8C%97%E5%85%AD%E6%9D%A1%E6%9D%B15%E4%B8%81%E7%9B%AE1-3-1411</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;北海道札幌市東区北六条東5丁目1-3-1411&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;北海道札幌市東区北六条東5丁目1-&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;北海道/札幌市/東区/北六条/東五丁目/１番地&lt;/address&gt;
-&lt;longitude&gt;141.362259&lt;/longitude&gt;
-&lt;latitude&gt;43.070110&lt;/latitude&gt;
-&lt;iLvl&gt;7&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
-        <v>43.07011</v>
-      </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
-        <v>141.36225899999999</v>
-      </c>
-      <c r="H19">
-        <v>43.07011</v>
-      </c>
-      <c r="I19">
-        <v>141.36225899999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="4"/>
-        <v>三重県鈴鹿市若松西</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E9%88%B4%E9%B9%BF%E5%B8%82%E8%8B%A5%E6%9D%BE%E8%A5%BF</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;三重県鈴鹿市若松西&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;三重県鈴鹿市若松西&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;三重県/鈴鹿市/若松西&lt;/address&gt;
-&lt;longitude&gt;136.610168&lt;/longitude&gt;
-&lt;latitude&gt;34.863064&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
-        <v>34.863064000000001</v>
-      </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
-        <v>136.61016799999999</v>
-      </c>
-      <c r="H20">
-        <v>34.863064000000001</v>
-      </c>
-      <c r="I20">
-        <v>136.61016799999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="4"/>
-        <v>広島県東広島市黒瀬町乃美尾</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E6%9D%B1%E5%BA%83%E5%B3%B6%E5%B8%82%E9%BB%92%E7%80%AC%E7%94%BA%E4%B9%83%E7%BE%8E%E5%B0%BE</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;広島県東広島市黒瀬町乃美尾&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;広島県東広島市黒瀬町乃美尾&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;広島県/東広島市/黒瀬町乃美尾&lt;/address&gt;
-&lt;longitude&gt;132.693207&lt;/longitude&gt;
-&lt;latitude&gt;34.331837&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
-        <v>34.331837</v>
-      </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
-        <v>132.693207</v>
-      </c>
-      <c r="H21">
-        <v>34.331837</v>
-      </c>
-      <c r="I21">
-        <v>132.693207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="4"/>
-        <v>神奈川県相模原市中央区宮下本町</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" ref="D22:D85" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C22)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E7%9B%B8%E6%A8%A1%E5%8E%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%AE%AE%E4%B8%8B%E6%9C%AC%E7%94%BA</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" ref="E22:E85" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D22)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県相模原市中央区宮下本町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県相模原市中央区宮下本町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/相模原市/中央区/宮下本町&lt;/address&gt;
-&lt;longitude&gt;139.375534&lt;/longitude&gt;
-&lt;latitude&gt;35.591080&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
-        <v>35.591079999999998</v>
-      </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
-        <v>139.37553399999999</v>
-      </c>
-      <c r="H22">
-        <v>35.591079999999998</v>
-      </c>
-      <c r="I22">
-        <v>139.37553399999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都港区麻布十番</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%AF%E5%8C%BA%E9%BA%BB%E5%B8%83%E5%8D%81%E7%95%AA</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都港区麻布十番&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都港区麻布十番&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/港区/麻布十番&lt;/address&gt;
-&lt;longitude&gt;139.735092&lt;/longitude&gt;
-&lt;latitude&gt;35.656673&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
-        <v>35.656672999999998</v>
-      </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
-        <v>139.73509200000001</v>
-      </c>
-      <c r="H23">
-        <v>35.656672999999998</v>
-      </c>
-      <c r="I23">
-        <v>139.73509200000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="4"/>
-        <v>福井県南条郡南越前町</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E4%BA%95%E7%9C%8C%E5%8D%97%E6%9D%A1%E9%83%A1%E5%8D%97%E8%B6%8A%E5%89%8D%E7%94%BA</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;福井県南条郡南越前町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;福井県南条郡南越前町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;福井県/南条郡/南越前町&lt;/address&gt;
-&lt;longitude&gt;136.194427&lt;/longitude&gt;
-&lt;latitude&gt;35.835152&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
-        <v>35.835152000000001</v>
-      </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
-        <v>136.19442699999999</v>
-      </c>
-      <c r="H24">
-        <v>35.835152000000001</v>
-      </c>
-      <c r="I24">
-        <v>136.19442699999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都東大和市狭山</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%9D%B1%E5%A4%A7%E5%92%8C%E5%B8%82%E7%8B%AD%E5%B1%B1</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都東大和市狭山&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都東大和市狭山&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/東大和市/狭山&lt;/address&gt;
-&lt;longitude&gt;139.436981&lt;/longitude&gt;
-&lt;latitude&gt;35.759354&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
-        <v>35.759354000000002</v>
-      </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
-        <v>139.436981</v>
-      </c>
-      <c r="H25">
-        <v>35.759354000000002</v>
-      </c>
-      <c r="I25">
-        <v>139.436981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府池田市</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E6%B1%A0%E7%94%B0%E5%B8%82</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府池田市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府池田市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/池田市&lt;/address&gt;
-&lt;longitude&gt;135.428558&lt;/longitude&gt;
-&lt;latitude&gt;34.821686&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
-        <v>34.821686</v>
-      </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
-        <v>135.42855800000001</v>
-      </c>
-      <c r="H26">
-        <v>34.821686</v>
-      </c>
-      <c r="I26">
-        <v>135.42855800000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府大阪市此花区島屋</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%AD%A4%E8%8A%B1%E5%8C%BA%E5%B3%B6%E5%B1%8B</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府大阪市此花区島屋&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府大阪市此花区島屋&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/大阪市/此花区/島屋&lt;/address&gt;
-&lt;longitude&gt;135.442123&lt;/longitude&gt;
-&lt;latitude&gt;34.679108&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
-        <v>34.679107999999999</v>
-      </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
-        <v>135.44212300000001</v>
-      </c>
-      <c r="H27">
-        <v>34.679107999999999</v>
-      </c>
-      <c r="I27">
-        <v>135.44212300000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府吹田市千里丘北</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82%E5%8D%83%E9%87%8C%E4%B8%98%E5%8C%97</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府吹田市千里丘北&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府吹田市千里丘北&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/吹田市/千里丘北&lt;/address&gt;
-&lt;longitude&gt;135.545303&lt;/longitude&gt;
-&lt;latitude&gt;34.801529&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
-        <v>34.801529000000002</v>
-      </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
-        <v>135.54530299999999</v>
-      </c>
-      <c r="H28">
-        <v>34.801529000000002</v>
-      </c>
-      <c r="I28">
-        <v>135.54530299999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="4"/>
-        <v>愛媛県新居浜市坂井町</v>
-      </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%9D%82%E4%BA%95%E7%94%BA</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛媛県新居浜市坂井町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛媛県新居浜市坂井町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛媛県/新居浜市/坂井町&lt;/address&gt;
-&lt;longitude&gt;133.290375&lt;/longitude&gt;
-&lt;latitude&gt;33.947559&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
-        <v>33.947558999999998</v>
-      </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
-        <v>133.29037500000001</v>
-      </c>
-      <c r="H29">
-        <v>33.947558999999998</v>
-      </c>
-      <c r="I29">
-        <v>133.29037500000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="4"/>
-        <v>愛知県江南市赤童子町福住</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%B1%9F%E5%8D%97%E5%B8%82%E8%B5%A4%E7%AB%A5%E5%AD%90%E7%94%BA%E7%A6%8F%E4%BD%8F</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県江南市赤童子町福住&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県江南市赤童子町福住&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/江南市/赤童子町福住&lt;/address&gt;
-&lt;longitude&gt;136.873322&lt;/longitude&gt;
-&lt;latitude&gt;35.329716&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
-        <v>35.329715999999998</v>
-      </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
-        <v>136.873322</v>
-      </c>
-      <c r="H30">
-        <v>35.329715999999998</v>
-      </c>
-      <c r="I30">
-        <v>136.873322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="4"/>
-        <v>石川県金沢市駅西本町</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82%E9%A7%85%E8%A5%BF%E6%9C%AC%E7%94%BA</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;石川県金沢市駅西本町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;石川県金沢市駅西本町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;石川県/金沢市/駅西本町&lt;/address&gt;
-&lt;longitude&gt;136.639862&lt;/longitude&gt;
-&lt;latitude&gt;36.580048&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
-        <v>36.580047999999998</v>
-      </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
-        <v>136.63986199999999</v>
-      </c>
-      <c r="H31">
-        <v>36.580047999999998</v>
-      </c>
-      <c r="I31">
-        <v>136.63986199999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="4"/>
-        <v>宮城県仙台市泉区館</v>
-      </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E4%BB%99%E5%8F%B0%E5%B8%82%E6%B3%89%E5%8C%BA%E9%A4%A8</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;宮城県仙台市泉区館&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;宮城県仙台市泉区館&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;宮城県/仙台市/泉区/館&lt;/address&gt;
-&lt;longitude&gt;140.794769&lt;/longitude&gt;
-&lt;latitude&gt;38.310085&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
-        <v>38.310085000000001</v>
-      </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
-        <v>140.794769</v>
-      </c>
-      <c r="H32">
-        <v>38.310085000000001</v>
-      </c>
-      <c r="I32">
-        <v>140.794769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都文京区本駒込</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都文京区本駒込&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都文京区本駒込&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/文京区/本駒込&lt;/address&gt;
-&lt;longitude&gt;139.751480&lt;/longitude&gt;
-&lt;latitude&gt;35.725502&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
-        <v>35.725501999999999</v>
-      </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
-        <v>139.75147999999999</v>
-      </c>
-      <c r="H33">
-        <v>35.725501999999999</v>
-      </c>
-      <c r="I33">
-        <v>139.75147999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="4"/>
-        <v>福島県会津若松市</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BC%9A%E6%B4%A5%E8%8B%A5%E6%9D%BE%E5%B8%82</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;福島県会津若松市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;福島県会津若松市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;福島県/会津若松市&lt;/address&gt;
-&lt;longitude&gt;139.929703&lt;/longitude&gt;
-&lt;latitude&gt;37.494843&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
-        <v>37.494843000000003</v>
-      </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
-        <v>139.92970299999999</v>
-      </c>
-      <c r="H34">
-        <v>37.494843000000003</v>
-      </c>
-      <c r="I34">
-        <v>139.92970299999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府富田林市桜ケ丘町</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%8C%E7%94%B0%E6%9E%97%E5%B8%82%E6%A1%9C%E3%82%B1%E4%B8%98%E7%94%BA</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府富田林市桜ケ丘町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府富田林市桜ケ丘町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/富田林市/桜ケ丘町&lt;/address&gt;
-&lt;longitude&gt;135.585175&lt;/longitude&gt;
-&lt;latitude&gt;34.494350&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
-        <v>34.494349999999997</v>
-      </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
-        <v>135.58517499999999</v>
-      </c>
-      <c r="H35">
-        <v>34.494349999999997</v>
-      </c>
-      <c r="I35">
-        <v>135.58517499999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="4"/>
-        <v>埼玉県八潮市伊勢野215-1</v>
-      </c>
-      <c r="D36" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%85%AB%E6%BD%AE%E5%B8%82%E4%BC%8A%E5%8B%A2%E9%87%8E215-1</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県八潮市伊勢野215-1&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県八潮市伊勢野215-&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/八潮市/伊勢野/２１５番地&lt;/address&gt;
-&lt;longitude&gt;139.853485&lt;/longitude&gt;
-&lt;latitude&gt;35.808628&lt;/latitude&gt;
-&lt;iLvl&gt;7&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
-        <v>35.808627999999999</v>
-      </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
-        <v>139.85348500000001</v>
-      </c>
-      <c r="H36">
-        <v>35.808627999999999</v>
-      </c>
-      <c r="I36">
-        <v>139.85348500000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="4"/>
-        <v>愛知県岡崎市南明大寺町</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%B2%A1%E5%B4%8E%E5%B8%82%E5%8D%97%E6%98%8E%E5%A4%A7%E5%AF%BA%E7%94%BA</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県岡崎市南明大寺町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県岡崎市南明大寺町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/岡崎市/南明大寺町&lt;/address&gt;
-&lt;longitude&gt;137.162064&lt;/longitude&gt;
-&lt;latitude&gt;34.943874&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
-        <v>34.943874000000001</v>
-      </c>
-      <c r="G37" cm="1">
-        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
-        <v>137.16206399999999</v>
-      </c>
-      <c r="H37">
-        <v>34.943874000000001</v>
-      </c>
-      <c r="I37">
-        <v>137.16206399999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府高槻市赤大路町</v>
-      </c>
-      <c r="D38" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%B5%A4%E5%A4%A7%E8%B7%AF%E7%94%BA</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府高槻市赤大路町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府高槻市赤大路町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/高槻市/赤大路町&lt;/address&gt;
-&lt;longitude&gt;135.584717&lt;/longitude&gt;
-&lt;latitude&gt;34.835884&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
-        <v>34.835884</v>
-      </c>
-      <c r="G38" cm="1">
-        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
-        <v>135.58471700000001</v>
-      </c>
-      <c r="H38">
-        <v>34.835884</v>
-      </c>
-      <c r="I38">
-        <v>135.58471700000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都中野区南台</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%AD%E9%87%8E%E5%8C%BA%E5%8D%97%E5%8F%B0</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都中野区南台&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都中野区南台&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/中野区/南台&lt;/address&gt;
-&lt;longitude&gt;139.674179&lt;/longitude&gt;
-&lt;latitude&gt;35.685539&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
-        <v>35.685538999999999</v>
-      </c>
-      <c r="G39" cm="1">
-        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
-        <v>139.67417900000001</v>
-      </c>
-      <c r="H39">
-        <v>35.685538999999999</v>
-      </c>
-      <c r="I39">
-        <v>139.67417900000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="4"/>
-        <v>福島県会津若松市</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BC%9A%E6%B4%A5%E8%8B%A5%E6%9D%BE%E5%B8%82</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;福島県会津若松市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;福島県会津若松市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;福島県/会津若松市&lt;/address&gt;
-&lt;longitude&gt;139.929703&lt;/longitude&gt;
-&lt;latitude&gt;37.494843&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
-        <v>37.494843000000003</v>
-      </c>
-      <c r="G40" cm="1">
-        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
-        <v>139.92970299999999</v>
-      </c>
-      <c r="H40">
-        <v>37.494843000000003</v>
-      </c>
-      <c r="I40">
-        <v>139.92970299999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="4"/>
-        <v>北海道上川郡清水町御影</v>
-      </c>
-      <c r="D41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E4%B8%8A%E5%B7%9D%E9%83%A1%E6%B8%85%E6%B0%B4%E7%94%BA%E5%BE%A1%E5%BD%B1</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;北海道上川郡清水町御影&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;北海道上川郡清水町御影&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;北海道/上川郡/清水町/御影&lt;/address&gt;
-&lt;longitude&gt;142.951462&lt;/longitude&gt;
-&lt;latitude&gt;42.964840&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
-        <v>42.964840000000002</v>
-      </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
-        <v>142.95146199999999</v>
-      </c>
-      <c r="H41">
-        <v>42.964840000000002</v>
-      </c>
-      <c r="I41">
-        <v>142.95146199999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府大阪市中央区内久宝寺町</v>
-      </c>
-      <c r="D42" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%86%85%E4%B9%85%E5%AE%9D%E5%AF%BA%E7%94%BA</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府大阪市中央区内久宝寺町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府大阪市中央区内久宝寺町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/大阪市/中央区/内久宝寺町&lt;/address&gt;
-&lt;longitude&gt;135.519196&lt;/longitude&gt;
-&lt;latitude&gt;34.677696&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
-        <v>34.677695999999997</v>
-      </c>
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
-        <v>135.51919599999999</v>
-      </c>
-      <c r="H42">
-        <v>34.677695999999997</v>
-      </c>
-      <c r="I42">
-        <v>135.51919599999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都新宿区</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%B0%E5%AE%BF%E5%8C%BA</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都新宿区&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都新宿区&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/新宿区&lt;/address&gt;
-&lt;longitude&gt;139.703461&lt;/longitude&gt;
-&lt;latitude&gt;35.693890&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
-        <v>35.693890000000003</v>
-      </c>
-      <c r="G43" cm="1">
-        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
-        <v>139.703461</v>
-      </c>
-      <c r="H43">
-        <v>35.693890000000003</v>
-      </c>
-      <c r="I43">
-        <v>139.703461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="4"/>
-        <v>埼玉県さいたま市中央区</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県さいたま市中央区&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県さいたま市中央区&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/さいたま市/中央区&lt;/address&gt;
-&lt;longitude&gt;139.626175&lt;/longitude&gt;
-&lt;latitude&gt;35.883965&lt;/latitude&gt;
-&lt;iLvl&gt;4&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
-        <v>35.883965000000003</v>
-      </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
-        <v>139.62617499999999</v>
-      </c>
-      <c r="H44">
-        <v>35.883965000000003</v>
-      </c>
-      <c r="I44">
-        <v>139.62617499999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="4"/>
-        <v>兵庫県神戸市兵庫区菊水町10-39-18</v>
-      </c>
-      <c r="D45" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E5%85%B5%E5%BA%AB%E5%8C%BA%E8%8F%8A%E6%B0%B4%E7%94%BA10-39-18</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;兵庫県神戸市兵庫区菊水町10-39-18&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;兵庫県神戸市兵庫区菊水町10-39-&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;兵庫県/神戸市/兵庫区/菊水町/十丁目/３９番地&lt;/address&gt;
-&lt;longitude&gt;135.151794&lt;/longitude&gt;
-&lt;latitude&gt;34.682190&lt;/latitude&gt;
-&lt;iLvl&gt;7&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
-        <v>34.682189999999999</v>
-      </c>
-      <c r="G45" cm="1">
-        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
-        <v>135.151794</v>
-      </c>
-      <c r="H45">
-        <v>34.682189999999999</v>
-      </c>
-      <c r="I45">
-        <v>135.151794</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="4"/>
-        <v>長野県上伊那郡飯島町七久保</v>
-      </c>
-      <c r="D46" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;長野県上伊那郡飯島町七久保&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;長野県上伊那郡飯島町七久保&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;長野県/上伊那郡/飯島町/七久保&lt;/address&gt;
-&lt;longitude&gt;137.890472&lt;/longitude&gt;
-&lt;latitude&gt;35.658588&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
-        <v>35.658588000000002</v>
-      </c>
-      <c r="G46" cm="1">
-        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
-        <v>137.89047199999999</v>
-      </c>
-      <c r="H46">
-        <v>35.658588000000002</v>
-      </c>
-      <c r="I46">
-        <v>137.89047199999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="4"/>
-        <v>長野県上伊那郡飯島町七久保</v>
-      </c>
-      <c r="D47" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;長野県上伊那郡飯島町七久保&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;長野県上伊那郡飯島町七久保&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;長野県/上伊那郡/飯島町/七久保&lt;/address&gt;
-&lt;longitude&gt;137.890472&lt;/longitude&gt;
-&lt;latitude&gt;35.658588&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
-        <v>35.658588000000002</v>
-      </c>
-      <c r="G47" cm="1">
-        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
-        <v>137.89047199999999</v>
-      </c>
-      <c r="H47">
-        <v>35.658588000000002</v>
-      </c>
-      <c r="I47">
-        <v>137.89047199999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="4"/>
-        <v>三重県津市芸濃町椋本</v>
-      </c>
-      <c r="D48" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E6%B4%A5%E5%B8%82%E8%8A%B8%E6%BF%83%E7%94%BA%E6%A4%8B%E6%9C%AC</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;三重県津市芸濃町椋本&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;三重県津市芸濃町椋本&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;三重県/津市/芸濃町椋本&lt;/address&gt;
-&lt;longitude&gt;136.432480&lt;/longitude&gt;
-&lt;latitude&gt;34.811752&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
-        <v>34.811751999999998</v>
-      </c>
-      <c r="G48" cm="1">
-        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
-        <v>136.43248</v>
-      </c>
-      <c r="H48">
-        <v>34.811751999999998</v>
-      </c>
-      <c r="I48">
-        <v>136.43248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="4"/>
-        <v>香川県小豆郡土庄町黒岩</v>
-      </c>
-      <c r="D49" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E5%B0%8F%E8%B1%86%E9%83%A1%E5%9C%9F%E5%BA%84%E7%94%BA%E9%BB%92%E5%B2%A9</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;香川県小豆郡土庄町黒岩&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;香川県小豆郡土庄町黒岩&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;香川県/小豆郡/土庄町/黒岩&lt;/address&gt;
-&lt;longitude&gt;134.214142&lt;/longitude&gt;
-&lt;latitude&gt;34.502163&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
-        <v>34.502163000000003</v>
-      </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
-        <v>134.21414200000001</v>
-      </c>
-      <c r="H49">
-        <v>34.502163000000003</v>
-      </c>
-      <c r="I49">
-        <v>134.21414200000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="4"/>
-        <v>愛知県尾張旭市</v>
-      </c>
-      <c r="D50" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%B0%BE%E5%BC%B5%E6%97%AD%E5%B8%82</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県尾張旭市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県尾張旭市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/尾張旭市&lt;/address&gt;
-&lt;longitude&gt;137.035416&lt;/longitude&gt;
-&lt;latitude&gt;35.216568&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
-        <v>35.216568000000002</v>
-      </c>
-      <c r="G50" cm="1">
-        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
-        <v>137.035416</v>
-      </c>
-      <c r="H50">
-        <v>35.216568000000002</v>
-      </c>
-      <c r="I50">
-        <v>137.035416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="4"/>
-        <v>石川県金沢市</v>
-      </c>
-      <c r="D51" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;石川県金沢市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;石川県金沢市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;石川県/金沢市&lt;/address&gt;
-&lt;longitude&gt;136.656631&lt;/longitude&gt;
-&lt;latitude&gt;36.561050&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
-        <v>36.561050000000002</v>
-      </c>
-      <c r="G51" cm="1">
-        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
-        <v>136.656631</v>
-      </c>
-      <c r="H51">
-        <v>36.561050000000002</v>
-      </c>
-      <c r="I51">
-        <v>136.656631</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="4"/>
-        <v>徳島県鳴門市大麻町市場字大畑</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BE%B3%E5%B3%B6%E7%9C%8C%E9%B3%B4%E9%96%80%E5%B8%82%E5%A4%A7%E9%BA%BB%E7%94%BA%E5%B8%82%E5%A0%B4%E5%AD%97%E5%A4%A7%E7%95%91</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;徳島県鳴門市大麻町市場字大畑&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;徳島県鳴門市大麻町市場字大畑&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;徳島県/鳴門市/大麻町市場/大畑&lt;/address&gt;
-&lt;longitude&gt;134.537354&lt;/longitude&gt;
-&lt;latitude&gt;34.139561&lt;/latitude&gt;
-&lt;iLvl&gt;6&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
-        <v>34.139561</v>
-      </c>
-      <c r="G52" cm="1">
-        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
-        <v>134.53735399999999</v>
-      </c>
-      <c r="H52">
-        <v>34.139561</v>
-      </c>
-      <c r="I52">
-        <v>134.53735399999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="4"/>
-        <v>沖縄県中頭郡北谷町砂辺</v>
-      </c>
-      <c r="D53" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E4%B8%AD%E9%A0%AD%E9%83%A1%E5%8C%97%E8%B0%B7%E7%94%BA%E7%A0%82%E8%BE%BA</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;沖縄県中頭郡北谷町砂辺&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;沖縄県中頭郡北谷町砂辺&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;沖縄県/中頭郡/北谷町/砂辺&lt;/address&gt;
-&lt;longitude&gt;127.749786&lt;/longitude&gt;
-&lt;latitude&gt;26.337044&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
-        <v>26.337043999999999</v>
-      </c>
-      <c r="G53" cm="1">
-        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
-        <v>127.749786</v>
-      </c>
-      <c r="H53">
-        <v>26.337043999999999</v>
-      </c>
-      <c r="I53">
-        <v>127.749786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都渋谷区代々木</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E4%BB%A3%E3%80%85%E6%9C%A8</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="8"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都渋谷区代々木&lt;/query&gt;
@@ -4028,61 +588,567 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
         <v>35.681885000000001</v>
       </c>
-      <c r="G54" cm="1">
-        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
         <v>139.70004299999999</v>
       </c>
-      <c r="H54">
+      <c r="H2">
         <v>35.681885000000001</v>
       </c>
-      <c r="I54">
+      <c r="I2">
         <v>139.70004299999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="4"/>
-        <v>沖縄県那覇市宇栄原</v>
-      </c>
-      <c r="D55" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E9%82%A3%E8%A6%87%E5%B8%82%E5%AE%87%E6%A0%84%E5%8E%9F</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="8"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C8" si="0">+A3&amp;B3</f>
+        <v>新潟県長岡市宮原３丁目</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E9%95%B7%E5%B2%A1%E5%B8%82%E5%AE%AE%E5%8E%9F%EF%BC%93%E4%B8%81%E7%9B%AE</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E8" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;沖縄県那覇市宇栄原&lt;/query&gt;
+&lt;query&gt;新潟県長岡市宮原３丁目&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;沖縄県那覇市宇栄原&lt;/converted&gt;
+&lt;converted&gt;新潟県長岡市宮原３丁目&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;沖縄県/那覇市/宇栄原&lt;/address&gt;
-&lt;longitude&gt;127.663490&lt;/longitude&gt;
-&lt;latitude&gt;26.192034&lt;/latitude&gt;
+&lt;address&gt;新潟県/長岡市/宮原/三丁目&lt;/address&gt;
+&lt;longitude&gt;138.843964&lt;/longitude&gt;
+&lt;latitude&gt;37.437866&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>37.437866</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>138.843964</v>
+      </c>
+      <c r="H3">
+        <v>37.437866</v>
+      </c>
+      <c r="I3">
+        <v>138.843964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>山形県米沢市御廟</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E5%BD%A2%E7%9C%8C%E7%B1%B3%E6%B2%A2%E5%B8%82%E5%BE%A1%E5%BB%9F</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;山形県米沢市御廟&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;山形県米沢市御廟&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;山形県/米沢市/御廟&lt;/address&gt;
+&lt;longitude&gt;140.091995&lt;/longitude&gt;
+&lt;latitude&gt;37.914330&lt;/latitude&gt;
 &lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
-        <v>26.192034</v>
-      </c>
-      <c r="G55" cm="1">
-        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
-        <v>127.66349</v>
-      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>37.91433</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>140.091995</v>
+      </c>
+      <c r="H4">
+        <v>37.91433</v>
+      </c>
+      <c r="I4">
+        <v>140.091995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="2"/>
+      <c r="H5">
+        <v>35.888950000000001</v>
+      </c>
+      <c r="I5">
+        <v>139.78208900000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="2"/>
+      <c r="H6">
+        <v>35.436194999999998</v>
+      </c>
+      <c r="I6">
+        <v>139.51054400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="2"/>
+      <c r="H7">
+        <v>35.223621000000001</v>
+      </c>
+      <c r="I7">
+        <v>137.08412200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D8" s="2"/>
+      <c r="H8">
+        <v>36.629936000000001</v>
+      </c>
+      <c r="I8">
+        <v>137.11914100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="2"/>
+      <c r="H9">
+        <v>35.838379000000003</v>
+      </c>
+      <c r="I9">
+        <v>139.38848899999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D10" s="2"/>
+      <c r="H10">
+        <v>35.446007000000002</v>
+      </c>
+      <c r="I10">
+        <v>139.65695199999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D11" s="2"/>
+      <c r="H11">
+        <v>35.599854000000001</v>
+      </c>
+      <c r="I11">
+        <v>139.555374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D12" s="2"/>
+      <c r="H12">
+        <v>35.700184</v>
+      </c>
+      <c r="I12">
+        <v>139.978531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D13" s="2"/>
+      <c r="H13">
+        <v>34.682696999999997</v>
+      </c>
+      <c r="I13">
+        <v>135.51676900000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D14" s="2"/>
+      <c r="H14">
+        <v>35.609065999999999</v>
+      </c>
+      <c r="I14">
+        <v>139.730255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D15" s="2"/>
+      <c r="H15">
+        <v>35.023524999999999</v>
+      </c>
+      <c r="I15">
+        <v>135.85670500000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D16" s="2"/>
+      <c r="H16">
+        <v>37.283245000000001</v>
+      </c>
+      <c r="I16">
+        <v>140.376114</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D17" s="2"/>
+      <c r="H17">
+        <v>35.009177999999999</v>
+      </c>
+      <c r="I17">
+        <v>135.74968000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D18" s="2"/>
+      <c r="H18">
+        <v>33.541130000000003</v>
+      </c>
+      <c r="I18">
+        <v>133.48567199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D19" s="2"/>
+      <c r="H19">
+        <v>43.07011</v>
+      </c>
+      <c r="I19">
+        <v>141.36225899999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D20" s="2"/>
+      <c r="H20">
+        <v>34.863064000000001</v>
+      </c>
+      <c r="I20">
+        <v>136.61016799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D21" s="2"/>
+      <c r="H21">
+        <v>34.331837</v>
+      </c>
+      <c r="I21">
+        <v>132.693207</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D22" s="2"/>
+      <c r="H22">
+        <v>35.591079999999998</v>
+      </c>
+      <c r="I22">
+        <v>139.37553399999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D23" s="2"/>
+      <c r="H23">
+        <v>35.656672999999998</v>
+      </c>
+      <c r="I23">
+        <v>139.73509200000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D24" s="2"/>
+      <c r="H24">
+        <v>35.835152000000001</v>
+      </c>
+      <c r="I24">
+        <v>136.19442699999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D25" s="2"/>
+      <c r="H25">
+        <v>35.759354000000002</v>
+      </c>
+      <c r="I25">
+        <v>139.436981</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D26" s="2"/>
+      <c r="H26">
+        <v>34.821686</v>
+      </c>
+      <c r="I26">
+        <v>135.42855800000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D27" s="2"/>
+      <c r="H27">
+        <v>34.679107999999999</v>
+      </c>
+      <c r="I27">
+        <v>135.44212300000001</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D28" s="2"/>
+      <c r="H28">
+        <v>34.801529000000002</v>
+      </c>
+      <c r="I28">
+        <v>135.54530299999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D29" s="2"/>
+      <c r="H29">
+        <v>33.947558999999998</v>
+      </c>
+      <c r="I29">
+        <v>133.29037500000001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D30" s="2"/>
+      <c r="H30">
+        <v>35.329715999999998</v>
+      </c>
+      <c r="I30">
+        <v>136.873322</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D31" s="2"/>
+      <c r="H31">
+        <v>36.580047999999998</v>
+      </c>
+      <c r="I31">
+        <v>136.63986199999999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D32" s="2"/>
+      <c r="H32">
+        <v>38.310085000000001</v>
+      </c>
+      <c r="I32">
+        <v>140.794769</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D33" s="2"/>
+      <c r="H33">
+        <v>35.725501999999999</v>
+      </c>
+      <c r="I33">
+        <v>139.75147999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D34" s="2"/>
+      <c r="H34">
+        <v>37.494843000000003</v>
+      </c>
+      <c r="I34">
+        <v>139.92970299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D35" s="2"/>
+      <c r="H35">
+        <v>34.494349999999997</v>
+      </c>
+      <c r="I35">
+        <v>135.58517499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D36" s="2"/>
+      <c r="H36">
+        <v>35.808627999999999</v>
+      </c>
+      <c r="I36">
+        <v>139.85348500000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D37" s="2"/>
+      <c r="H37">
+        <v>34.943874000000001</v>
+      </c>
+      <c r="I37">
+        <v>137.16206399999999</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D38" s="2"/>
+      <c r="H38">
+        <v>34.835884</v>
+      </c>
+      <c r="I38">
+        <v>135.58471700000001</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D39" s="2"/>
+      <c r="H39">
+        <v>35.685538999999999</v>
+      </c>
+      <c r="I39">
+        <v>139.67417900000001</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D40" s="2"/>
+      <c r="H40">
+        <v>37.494843000000003</v>
+      </c>
+      <c r="I40">
+        <v>139.92970299999999</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D41" s="2"/>
+      <c r="H41">
+        <v>42.964840000000002</v>
+      </c>
+      <c r="I41">
+        <v>142.95146199999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D42" s="2"/>
+      <c r="H42">
+        <v>34.677695999999997</v>
+      </c>
+      <c r="I42">
+        <v>135.51919599999999</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D43" s="2"/>
+      <c r="H43">
+        <v>35.693890000000003</v>
+      </c>
+      <c r="I43">
+        <v>139.703461</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D44" s="2"/>
+      <c r="H44">
+        <v>35.883965000000003</v>
+      </c>
+      <c r="I44">
+        <v>139.62617499999999</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D45" s="2"/>
+      <c r="H45">
+        <v>34.682189999999999</v>
+      </c>
+      <c r="I45">
+        <v>135.151794</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D46" s="2"/>
+      <c r="H46">
+        <v>35.658588000000002</v>
+      </c>
+      <c r="I46">
+        <v>137.89047199999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D47" s="2"/>
+      <c r="H47">
+        <v>35.658588000000002</v>
+      </c>
+      <c r="I47">
+        <v>137.89047199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D48" s="2"/>
+      <c r="H48">
+        <v>34.811751999999998</v>
+      </c>
+      <c r="I48">
+        <v>136.43248</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D49" s="2"/>
+      <c r="H49">
+        <v>34.502163000000003</v>
+      </c>
+      <c r="I49">
+        <v>134.21414200000001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D50" s="2"/>
+      <c r="H50">
+        <v>35.216568000000002</v>
+      </c>
+      <c r="I50">
+        <v>137.035416</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D51" s="2"/>
+      <c r="H51">
+        <v>36.561050000000002</v>
+      </c>
+      <c r="I51">
+        <v>136.656631</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D52" s="2"/>
+      <c r="H52">
+        <v>34.139561</v>
+      </c>
+      <c r="I52">
+        <v>134.53735399999999</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D53" s="2"/>
+      <c r="H53">
+        <v>26.337043999999999</v>
+      </c>
+      <c r="I53">
+        <v>127.749786</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D54" s="2"/>
+      <c r="H54">
+        <v>35.681885000000001</v>
+      </c>
+      <c r="I54">
+        <v>139.70004299999999</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D55" s="2"/>
       <c r="H55">
         <v>26.192034</v>
       </c>
@@ -4090,46 +1156,8 @@
         <v>127.66349</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="4"/>
-        <v>沖縄県うるま市石川伊波</v>
-      </c>
-      <c r="D56" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E3%81%86%E3%82%8B%E3%81%BE%E5%B8%82%E7%9F%B3%E5%B7%9D%E4%BC%8A%E6%B3%A2</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;沖縄県うるま市石川伊波&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;沖縄県うるま市石川伊波&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;沖縄県/うるま市/石川伊波&lt;/address&gt;
-&lt;longitude&gt;127.811211&lt;/longitude&gt;
-&lt;latitude&gt;26.425596&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
-        <v>26.425595999999999</v>
-      </c>
-      <c r="G56" cm="1">
-        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
-        <v>127.811211</v>
-      </c>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D56" s="2"/>
       <c r="H56">
         <v>26.425595999999999</v>
       </c>
@@ -4137,46 +1165,8 @@
         <v>127.811211</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="4"/>
-        <v>三重県松阪市白粉町</v>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E6%9D%BE%E9%98%AA%E5%B8%82%E7%99%BD%E7%B2%89%E7%94%BA</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;三重県松阪市白粉町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;三重県松阪市白粉町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;三重県/松阪市/白粉町&lt;/address&gt;
-&lt;longitude&gt;136.531586&lt;/longitude&gt;
-&lt;latitude&gt;34.571232&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
-        <v>34.571232000000002</v>
-      </c>
-      <c r="G57" cm="1">
-        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
-        <v>136.531586</v>
-      </c>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D57" s="2"/>
       <c r="H57">
         <v>34.571232000000002</v>
       </c>
@@ -4184,46 +1174,8 @@
         <v>136.531586</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="4"/>
-        <v>宮崎県宮崎市吉村町中原甲</v>
-      </c>
-      <c r="D58" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%B4%8E%E7%9C%8C%E5%AE%AE%E5%B4%8E%E5%B8%82%E5%90%89%E6%9D%91%E7%94%BA%E4%B8%AD%E5%8E%9F%E7%94%B2</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;宮崎県宮崎市吉村町中原甲&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;宮崎県宮崎市吉村町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;宮崎県/宮崎市/吉村町&lt;/address&gt;
-&lt;longitude&gt;131.443954&lt;/longitude&gt;
-&lt;latitude&gt;31.919971&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F58" cm="1">
-        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
-        <v>31.919971</v>
-      </c>
-      <c r="G58" cm="1">
-        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
-        <v>131.44395399999999</v>
-      </c>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D58" s="2"/>
       <c r="H58">
         <v>31.919971</v>
       </c>
@@ -4231,46 +1183,8 @@
         <v>131.44395399999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="4"/>
-        <v>静岡県浜松市中央区入野町</v>
-      </c>
-      <c r="D59" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E6%B5%9C%E6%9D%BE%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%85%A5%E9%87%8E%E7%94%BA</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;静岡県浜松市中央区入野町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;静岡県浜松市中央区入野町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;静岡県/浜松市/中央区/入野町&lt;/address&gt;
-&lt;longitude&gt;137.682983&lt;/longitude&gt;
-&lt;latitude&gt;34.701485&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F59" cm="1">
-        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
-        <v>34.701484999999998</v>
-      </c>
-      <c r="G59" cm="1">
-        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
-        <v>137.68298300000001</v>
-      </c>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D59" s="2"/>
       <c r="H59">
         <v>34.701484999999998</v>
       </c>
@@ -4278,46 +1192,8 @@
         <v>137.68298300000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="4"/>
-        <v>神奈川県横浜市鶴見区東寺尾</v>
-      </c>
-      <c r="D60" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%B6%B4%E8%A6%8B%E5%8C%BA%E6%9D%B1%E5%AF%BA%E5%B0%BE</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県横浜市鶴見区東寺尾&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県横浜市鶴見区東寺尾&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/横浜市/鶴見区/東寺尾&lt;/address&gt;
-&lt;longitude&gt;139.649170&lt;/longitude&gt;
-&lt;latitude&gt;35.502663&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F60" cm="1">
-        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
-        <v>35.502662999999998</v>
-      </c>
-      <c r="G60" cm="1">
-        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
-        <v>139.64917</v>
-      </c>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D60" s="2"/>
       <c r="H60">
         <v>35.502662999999998</v>
       </c>
@@ -4325,46 +1201,8 @@
         <v>139.64917</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="4"/>
-        <v>神奈川県相模原市南区古淵</v>
-      </c>
-      <c r="D61" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E7%9B%B8%E6%A8%A1%E5%8E%9F%E5%B8%82%E5%8D%97%E5%8C%BA%E5%8F%A4%E6%B7%B5</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県相模原市南区古淵&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県相模原市南区古淵&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/相模原市/南区/古淵&lt;/address&gt;
-&lt;longitude&gt;139.420471&lt;/longitude&gt;
-&lt;latitude&gt;35.558971&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F61" cm="1">
-        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
-        <v>35.558971</v>
-      </c>
-      <c r="G61" cm="1">
-        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
-        <v>139.42047099999999</v>
-      </c>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D61" s="2"/>
       <c r="H61">
         <v>35.558971</v>
       </c>
@@ -4372,46 +1210,8 @@
         <v>139.42047099999999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府大阪市東成区中道</v>
-      </c>
-      <c r="D62" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%9D%B1%E6%88%90%E5%8C%BA%E4%B8%AD%E9%81%93</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府大阪市東成区中道&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府大阪市東成区中道&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/大阪市/東成区/中道&lt;/address&gt;
-&lt;longitude&gt;135.535675&lt;/longitude&gt;
-&lt;latitude&gt;34.679665&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F62" cm="1">
-        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
-        <v>34.679665</v>
-      </c>
-      <c r="G62" cm="1">
-        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
-        <v>135.535675</v>
-      </c>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D62" s="2"/>
       <c r="H62">
         <v>34.679665</v>
       </c>
@@ -4419,46 +1219,8 @@
         <v>135.535675</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="4"/>
-        <v>沖縄県糸満市西川町</v>
-      </c>
-      <c r="D63" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E7%B3%B8%E6%BA%80%E5%B8%82%E8%A5%BF%E5%B7%9D%E7%94%BA</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;沖縄県糸満市西川町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;沖縄県糸満市西川町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;沖縄県/糸満市/西川町&lt;/address&gt;
-&lt;longitude&gt;127.668350&lt;/longitude&gt;
-&lt;latitude&gt;26.136572&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F63" cm="1">
-        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
-        <v>26.136572000000001</v>
-      </c>
-      <c r="G63" cm="1">
-        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
-        <v>127.66835</v>
-      </c>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D63" s="2"/>
       <c r="H63">
         <v>26.136572000000001</v>
       </c>
@@ -4466,46 +1228,8 @@
         <v>127.66835</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="4"/>
-        <v>茨城県結城市結城</v>
-      </c>
-      <c r="D64" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E7%B5%90%E5%9F%8E%E5%B8%82%E7%B5%90%E5%9F%8E</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;茨城県結城市結城&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;茨城県結城市結城&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;茨城県/結城市/結城&lt;/address&gt;
-&lt;longitude&gt;139.872223&lt;/longitude&gt;
-&lt;latitude&gt;36.297340&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F64" cm="1">
-        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
-        <v>36.297339999999998</v>
-      </c>
-      <c r="G64" cm="1">
-        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
-        <v>139.87222299999999</v>
-      </c>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D64" s="2"/>
       <c r="H64">
         <v>36.297339999999998</v>
       </c>
@@ -4513,46 +1237,8 @@
         <v>139.87222299999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="4"/>
-        <v>山梨県富士吉田市大明見</v>
-      </c>
-      <c r="D65" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E6%A2%A8%E7%9C%8C%E5%AF%8C%E5%A3%AB%E5%90%89%E7%94%B0%E5%B8%82%E5%A4%A7%E6%98%8E%E8%A6%8B</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;山梨県富士吉田市大明見&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;山梨県富士吉田市大明見&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;山梨県/富士吉田市/大明見&lt;/address&gt;
-&lt;longitude&gt;138.825958&lt;/longitude&gt;
-&lt;latitude&gt;35.484444&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F65" cm="1">
-        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
-        <v>35.484444000000003</v>
-      </c>
-      <c r="G65" cm="1">
-        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
-        <v>138.82595800000001</v>
-      </c>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D65" s="2"/>
       <c r="H65">
         <v>35.484444000000003</v>
       </c>
@@ -4560,46 +1246,8 @@
         <v>138.82595800000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都越谷市越ケ谷</v>
-      </c>
-      <c r="D66" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%B6%8A%E3%82%B1%E8%B0%B7</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都越谷市越ケ谷&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;3&lt;/iConf&gt;
-&lt;converted&gt;東京都&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都&lt;/address&gt;
-&lt;longitude&gt;139.753632&lt;/longitude&gt;
-&lt;latitude&gt;35.694004&lt;/latitude&gt;
-&lt;iLvl&gt;1&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F66" cm="1">
-        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
-        <v>35.694004</v>
-      </c>
-      <c r="G66" cm="1">
-        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
-        <v>139.75363200000001</v>
-      </c>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D66" s="2"/>
       <c r="H66">
         <v>35.694004</v>
       </c>
@@ -4607,46 +1255,8 @@
         <v>139.75363200000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都大田区蒲田</v>
-      </c>
-      <c r="D67" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E8%92%B2%E7%94%B0</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都大田区蒲田&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都大田区蒲田&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/大田区/蒲田&lt;/address&gt;
-&lt;longitude&gt;139.719849&lt;/longitude&gt;
-&lt;latitude&gt;35.565697&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F67" cm="1">
-        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
-        <v>35.565697</v>
-      </c>
-      <c r="G67" cm="1">
-        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
-        <v>139.71984900000001</v>
-      </c>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D67" s="2"/>
       <c r="H67">
         <v>35.565697</v>
       </c>
@@ -4654,46 +1264,8 @@
         <v>139.71984900000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="4"/>
-        <v>大阪府大阪府豊中市上野西3</v>
-      </c>
-      <c r="D68" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%BA%9C%E8%B1%8A%E4%B8%AD%E5%B8%82%E4%B8%8A%E9%87%8E%E8%A5%BF3</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府大阪府豊中市上野西3&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府大阪&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/大阪市&lt;/address&gt;
-&lt;longitude&gt;135.502045&lt;/longitude&gt;
-&lt;latitude&gt;34.693890&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F68" cm="1">
-        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
-        <v>34.693890000000003</v>
-      </c>
-      <c r="G68" cm="1">
-        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
-        <v>135.50204500000001</v>
-      </c>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D68" s="2"/>
       <c r="H68">
         <v>34.693890000000003</v>
       </c>
@@ -4701,46 +1273,8 @@
         <v>135.50204500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="4"/>
-        <v>愛知県知多郡阿久比町白沢西石根</v>
-      </c>
-      <c r="D69" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E9%98%BF%E4%B9%85%E6%AF%94%E7%94%BA%E7%99%BD%E6%B2%A2%E8%A5%BF%E7%9F%B3%E6%A0%B9</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県知多郡阿久比町白沢西石根&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県知多郡阿久比町白沢西石根&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/知多郡/阿久比町/大字白沢/西石根&lt;/address&gt;
-&lt;longitude&gt;136.914871&lt;/longitude&gt;
-&lt;latitude&gt;34.959820&lt;/latitude&gt;
-&lt;iLvl&gt;6&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F69" cm="1">
-        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
-        <v>34.959820000000001</v>
-      </c>
-      <c r="G69" cm="1">
-        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
-        <v>136.91487100000001</v>
-      </c>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D69" s="2"/>
       <c r="H69">
         <v>34.959820000000001</v>
       </c>
@@ -4748,46 +1282,8 @@
         <v>136.91487100000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="4"/>
-        <v>福島県二本松市上川崎字宮ノ脇</v>
-      </c>
-      <c r="D70" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BA%8C%E6%9C%AC%E6%9D%BE%E5%B8%82%E4%B8%8A%E5%B7%9D%E5%B4%8E%E5%AD%97%E5%AE%AE%E3%83%8E%E8%84%87</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;福島県二本松市上川崎字宮ノ脇&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;福島県二本松市上川崎字&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;福島県/二本松市/上川崎&lt;/address&gt;
-&lt;longitude&gt;140.494934&lt;/longitude&gt;
-&lt;latitude&gt;37.604580&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F70" cm="1">
-        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
-        <v>37.604579999999999</v>
-      </c>
-      <c r="G70" cm="1">
-        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
-        <v>140.494934</v>
-      </c>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D70" s="2"/>
       <c r="H70">
         <v>37.604579999999999</v>
       </c>
@@ -4795,46 +1291,8 @@
         <v>140.494934</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="4"/>
-        <v>東京都荒川区東日暮里</v>
-      </c>
-      <c r="D71" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%8D%92%E5%B7%9D%E5%8C%BA%E6%9D%B1%E6%97%A5%E6%9A%AE%E9%87%8C</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都荒川区東日暮里&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都荒川区東日暮里&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/荒川区/東日暮里&lt;/address&gt;
-&lt;longitude&gt;139.788727&lt;/longitude&gt;
-&lt;latitude&gt;35.730019&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F71" cm="1">
-        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
-        <v>35.730018999999999</v>
-      </c>
-      <c r="G71" cm="1">
-        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
-        <v>139.78872699999999</v>
-      </c>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D71" s="2"/>
       <c r="H71">
         <v>35.730018999999999</v>
       </c>
@@ -4842,46 +1300,8 @@
         <v>139.78872699999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="4"/>
-        <v>兵庫県尼崎市</v>
-      </c>
-      <c r="D72" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;兵庫県尼崎市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;兵庫県尼崎市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;兵庫県/尼崎市&lt;/address&gt;
-&lt;longitude&gt;135.406387&lt;/longitude&gt;
-&lt;latitude&gt;34.733555&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F72" cm="1">
-        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
-        <v>34.733555000000003</v>
-      </c>
-      <c r="G72" cm="1">
-        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
-        <v>135.406387</v>
-      </c>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D72" s="2"/>
       <c r="H72">
         <v>34.733555000000003</v>
       </c>
@@ -4889,46 +1309,8 @@
         <v>135.406387</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" ref="C73:C110" si="9">+A73&amp;B73</f>
-        <v>千葉県船橋市金杉台</v>
-      </c>
-      <c r="D73" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82%E9%87%91%E6%9D%89%E5%8F%B0</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;千葉県船橋市金杉台&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;千葉県船橋市金杉台&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;千葉県/船橋市/金杉台&lt;/address&gt;
-&lt;longitude&gt;140.010513&lt;/longitude&gt;
-&lt;latitude&gt;35.736229&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F73" cm="1">
-        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
-        <v>35.736229000000002</v>
-      </c>
-      <c r="G73" cm="1">
-        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
-        <v>140.010513</v>
-      </c>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D73" s="2"/>
       <c r="H73">
         <v>35.736229000000002</v>
       </c>
@@ -4936,46 +1318,8 @@
         <v>140.010513</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="9"/>
-        <v>福岡県福岡市博多区比恵町</v>
-      </c>
-      <c r="D74" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E7%A6%8F%E5%B2%A1%E5%B8%82%E5%8D%9A%E5%A4%9A%E5%8C%BA%E6%AF%94%E6%81%B5%E7%94%BA</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;福岡県福岡市博多区比恵町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;福岡県福岡市博多区比恵町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;福岡県/福岡市/博多区/比恵町&lt;/address&gt;
-&lt;longitude&gt;130.429474&lt;/longitude&gt;
-&lt;latitude&gt;33.585552&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F74" cm="1">
-        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
-        <v>33.585552</v>
-      </c>
-      <c r="G74" cm="1">
-        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
-        <v>130.429474</v>
-      </c>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D74" s="2"/>
       <c r="H74">
         <v>33.585552</v>
       </c>
@@ -4983,46 +1327,8 @@
         <v>130.429474</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="9"/>
-        <v>山口県山口市小郡高砂町</v>
-      </c>
-      <c r="D75" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E5%8F%A3%E7%9C%8C%E5%B1%B1%E5%8F%A3%E5%B8%82%E5%B0%8F%E9%83%A1%E9%AB%98%E7%A0%82%E7%94%BA</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;山口県山口市小郡高砂町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;山口県山口市小郡高砂町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;山口県/山口市/小郡高砂町&lt;/address&gt;
-&lt;longitude&gt;131.400284&lt;/longitude&gt;
-&lt;latitude&gt;34.092606&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F75" cm="1">
-        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
-        <v>34.092606000000004</v>
-      </c>
-      <c r="G75" cm="1">
-        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
-        <v>131.400284</v>
-      </c>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D75" s="2"/>
       <c r="H75">
         <v>34.092606000000004</v>
       </c>
@@ -5030,46 +1336,8 @@
         <v>131.400284</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="9"/>
-        <v>静岡県三島市西本町</v>
-      </c>
-      <c r="D76" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E4%B8%89%E5%B3%B6%E5%B8%82%E8%A5%BF%E6%9C%AC%E7%94%BA</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;静岡県三島市西本町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;静岡県三島市西本町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;静岡県/三島市/西本町&lt;/address&gt;
-&lt;longitude&gt;138.908768&lt;/longitude&gt;
-&lt;latitude&gt;35.117626&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F76" cm="1">
-        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
-        <v>35.117626000000001</v>
-      </c>
-      <c r="G76" cm="1">
-        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
-        <v>138.90876800000001</v>
-      </c>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D76" s="2"/>
       <c r="H76">
         <v>35.117626000000001</v>
       </c>
@@ -5077,46 +1345,8 @@
         <v>138.90876800000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="9"/>
-        <v>神奈川県伊勢原市串橋</v>
-      </c>
-      <c r="D77" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%8E%9F%E5%B8%82%E4%B8%B2%E6%A9%8B</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県伊勢原市串橋&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県伊勢原市串橋&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/伊勢原市/串橋&lt;/address&gt;
-&lt;longitude&gt;139.288956&lt;/longitude&gt;
-&lt;latitude&gt;35.388004&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F77" cm="1">
-        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
-        <v>35.388004000000002</v>
-      </c>
-      <c r="G77" cm="1">
-        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
-        <v>139.28895600000001</v>
-      </c>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D77" s="2"/>
       <c r="H77">
         <v>35.388004000000002</v>
       </c>
@@ -5124,46 +1354,8 @@
         <v>139.28895600000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s">
-        <v>112</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="9"/>
-        <v>埼玉県鶴ヶ島市鶴ヶ丘</v>
-      </c>
-      <c r="D78" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E9%B6%B4%E3%83%B6%E5%B3%B6%E5%B8%82%E9%B6%B4%E3%83%B6%E4%B8%98</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県鶴ヶ島市鶴ヶ丘&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県鶴ヶ島市鶴ヶ丘&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/鶴ヶ島市/鶴ヶ丘&lt;/address&gt;
-&lt;longitude&gt;139.413406&lt;/longitude&gt;
-&lt;latitude&gt;35.934158&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F78" cm="1">
-        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
-        <v>35.934157999999996</v>
-      </c>
-      <c r="G78" cm="1">
-        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
-        <v>139.41340600000001</v>
-      </c>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D78" s="2"/>
       <c r="H78">
         <v>35.934157999999996</v>
       </c>
@@ -5171,46 +1363,8 @@
         <v>139.41340600000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="9"/>
-        <v>神奈川県横浜市旭区二俣川</v>
-      </c>
-      <c r="D79" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E6%97%AD%E5%8C%BA%E4%BA%8C%E4%BF%A3%E5%B7%9D</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県横浜市旭区二俣川&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県横浜市旭区二俣川&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/横浜市/旭区/二俣川&lt;/address&gt;
-&lt;longitude&gt;139.528091&lt;/longitude&gt;
-&lt;latitude&gt;35.464924&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F79" cm="1">
-        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
-        <v>35.464924000000003</v>
-      </c>
-      <c r="G79" cm="1">
-        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
-        <v>139.52809099999999</v>
-      </c>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D79" s="2"/>
       <c r="H79">
         <v>35.464924000000003</v>
       </c>
@@ -5218,46 +1372,8 @@
         <v>139.52809099999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="9"/>
-        <v>長野県飯田市川路</v>
-      </c>
-      <c r="D80" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%A3%AF%E7%94%B0%E5%B8%82%E5%B7%9D%E8%B7%AF</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;長野県飯田市川路&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;長野県飯田市川路&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;長野県/飯田市/川路&lt;/address&gt;
-&lt;longitude&gt;137.809174&lt;/longitude&gt;
-&lt;latitude&gt;35.446320&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F80" cm="1">
-        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
-        <v>35.44632</v>
-      </c>
-      <c r="G80" cm="1">
-        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
-        <v>137.80917400000001</v>
-      </c>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D80" s="2"/>
       <c r="H80">
         <v>35.44632</v>
       </c>
@@ -5265,46 +1381,8 @@
         <v>137.80917400000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="9"/>
-        <v>京都府長岡京市泉が丘</v>
-      </c>
-      <c r="D81" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E9%95%B7%E5%B2%A1%E4%BA%AC%E5%B8%82%E6%B3%89%E3%81%8C%E4%B8%98</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;京都府長岡京市泉が丘&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;京都府長岡京市泉が丘&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;京都府/長岡京市/泉が丘&lt;/address&gt;
-&lt;longitude&gt;135.683624&lt;/longitude&gt;
-&lt;latitude&gt;34.914593&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F81" cm="1">
-        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
-        <v>34.914593000000004</v>
-      </c>
-      <c r="G81" cm="1">
-        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
-        <v>135.68362400000001</v>
-      </c>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D81" s="2"/>
       <c r="H81">
         <v>34.914593000000004</v>
       </c>
@@ -5312,46 +1390,8 @@
         <v>135.68362400000001</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="9"/>
-        <v>兵庫県尼崎市大島</v>
-      </c>
-      <c r="D82" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E5%A4%A7%E5%B3%B6</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;兵庫県尼崎市大島&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;兵庫県尼崎市大島&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;兵庫県/尼崎市/大島&lt;/address&gt;
-&lt;longitude&gt;135.383591&lt;/longitude&gt;
-&lt;latitude&gt;34.729553&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F82" cm="1">
-        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
-        <v>34.729553000000003</v>
-      </c>
-      <c r="G82" cm="1">
-        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
-        <v>135.383591</v>
-      </c>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D82" s="2"/>
       <c r="H82">
         <v>34.729553000000003</v>
       </c>
@@ -5359,46 +1399,8 @@
         <v>135.383591</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="9"/>
-        <v>和歌山県海南市</v>
-      </c>
-      <c r="D83" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%92%8C%E6%AD%8C%E5%B1%B1%E7%9C%8C%E6%B5%B7%E5%8D%97%E5%B8%82</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;和歌山県海南市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;和歌山県海南市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;和歌山県/海南市&lt;/address&gt;
-&lt;longitude&gt;135.209183&lt;/longitude&gt;
-&lt;latitude&gt;34.155312&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F83" cm="1">
-        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
-        <v>34.155312000000002</v>
-      </c>
-      <c r="G83" cm="1">
-        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
-        <v>135.209183</v>
-      </c>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D83" s="2"/>
       <c r="H83">
         <v>34.155312000000002</v>
       </c>
@@ -5406,46 +1408,8 @@
         <v>135.209183</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="9"/>
-        <v>東京都江東区大島</v>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E5%A4%A7%E5%B3%B6</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都江東区大島&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都江東区大島&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/江東区/大島&lt;/address&gt;
-&lt;longitude&gt;139.823425&lt;/longitude&gt;
-&lt;latitude&gt;35.687180&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F84" cm="1">
-        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
-        <v>35.687179999999998</v>
-      </c>
-      <c r="G84" cm="1">
-        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
-        <v>139.82342499999999</v>
-      </c>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D84" s="2"/>
       <c r="H84">
         <v>35.687179999999998</v>
       </c>
@@ -5453,46 +1417,8 @@
         <v>139.82342499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="9"/>
-        <v>埼玉県さいたま市見沼区蓮沼５７４－１</v>
-      </c>
-      <c r="D85" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E8%A6%8B%E6%B2%BC%E5%8C%BA%E8%93%AE%E6%B2%BC%EF%BC%95%EF%BC%97%EF%BC%94%EF%BC%8D%EF%BC%91</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県さいたま市見沼区蓮沼５７４−１&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県さいたま市見沼区蓮沼５７４−&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/さいたま市/見沼区/蓮沼/５７４番地&lt;/address&gt;
-&lt;longitude&gt;139.661163&lt;/longitude&gt;
-&lt;latitude&gt;35.929134&lt;/latitude&gt;
-&lt;iLvl&gt;7&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F85" cm="1">
-        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
-        <v>35.929133999999998</v>
-      </c>
-      <c r="G85" cm="1">
-        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
-        <v>139.66116299999999</v>
-      </c>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D85" s="2"/>
       <c r="H85">
         <v>35.929133999999998</v>
       </c>
@@ -5500,46 +1426,8 @@
         <v>139.66116299999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="9"/>
-        <v>静岡県富士市</v>
-      </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" ref="D86:D110" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C86)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E5%AF%8C%E5%A3%AB%E5%B8%82</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" ref="E86:E110" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D86)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;静岡県富士市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;静岡県富士市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;静岡県/富士市&lt;/address&gt;
-&lt;longitude&gt;138.676315&lt;/longitude&gt;
-&lt;latitude&gt;35.161385&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F86" cm="1">
-        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
-        <v>35.161385000000003</v>
-      </c>
-      <c r="G86" cm="1">
-        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
-        <v>138.67631499999999</v>
-      </c>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D86" s="2"/>
       <c r="H86">
         <v>35.161385000000003</v>
       </c>
@@ -5547,46 +1435,8 @@
         <v>138.67631499999999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="9"/>
-        <v>東京都国立市西</v>
-      </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%9B%BD%E7%AB%8B%E5%B8%82%E8%A5%BF</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都国立市西&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都国立市西&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/国立市/西&lt;/address&gt;
-&lt;longitude&gt;139.433334&lt;/longitude&gt;
-&lt;latitude&gt;35.697250&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F87" cm="1">
-        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
-        <v>35.697249999999997</v>
-      </c>
-      <c r="G87" cm="1">
-        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
-        <v>139.433334</v>
-      </c>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D87" s="2"/>
       <c r="H87">
         <v>35.697249999999997</v>
       </c>
@@ -5594,46 +1444,8 @@
         <v>139.433334</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="9"/>
-        <v>沖縄県那覇市</v>
-      </c>
-      <c r="D88" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E9%82%A3%E8%A6%87%E5%B8%82</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;沖縄県那覇市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;沖縄県那覇市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;沖縄県/那覇市&lt;/address&gt;
-&lt;longitude&gt;127.679214&lt;/longitude&gt;
-&lt;latitude&gt;26.212296&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F88" cm="1">
-        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
-        <v>26.212295999999998</v>
-      </c>
-      <c r="G88" cm="1">
-        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
-        <v>127.679214</v>
-      </c>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D88" s="2"/>
       <c r="H88">
         <v>26.212295999999998</v>
       </c>
@@ -5641,46 +1453,8 @@
         <v>127.679214</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="9"/>
-        <v>大分県大分市公園通り</v>
-      </c>
-      <c r="D89" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E5%88%86%E7%9C%8C%E5%A4%A7%E5%88%86%E5%B8%82%E5%85%AC%E5%9C%92%E9%80%9A%E3%82%8A</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大分県大分市公園通り&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大分県大分市公園通り&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大分県/大分市/公園通り&lt;/address&gt;
-&lt;longitude&gt;131.655121&lt;/longitude&gt;
-&lt;latitude&gt;33.188915&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F89" cm="1">
-        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
-        <v>33.188915000000001</v>
-      </c>
-      <c r="G89" cm="1">
-        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
-        <v>131.65512100000001</v>
-      </c>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D89" s="2"/>
       <c r="H89">
         <v>33.188915000000001</v>
       </c>
@@ -5688,46 +1462,8 @@
         <v>131.65512100000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="9"/>
-        <v>京都府京田辺市</v>
-      </c>
-      <c r="D90" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E7%94%B0%E8%BE%BA%E5%B8%82</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;京都府京田辺市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;京都府京田辺市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;京都府/京田辺市&lt;/address&gt;
-&lt;longitude&gt;135.767838&lt;/longitude&gt;
-&lt;latitude&gt;34.814442&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F90" cm="1">
-        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
-        <v>34.814442</v>
-      </c>
-      <c r="G90" cm="1">
-        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
-        <v>135.76783800000001</v>
-      </c>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D90" s="2"/>
       <c r="H90">
         <v>34.814442</v>
       </c>
@@ -5735,46 +1471,8 @@
         <v>135.76783800000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="9"/>
-        <v>徳島県阿南市津乃峰町</v>
-      </c>
-      <c r="D91" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BE%B3%E5%B3%B6%E7%9C%8C%E9%98%BF%E5%8D%97%E5%B8%82%E6%B4%A5%E4%B9%83%E5%B3%B0%E7%94%BA</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;徳島県阿南市津乃峰町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;徳島県阿南市津乃峰町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;徳島県/阿南市/津乃峰町&lt;/address&gt;
-&lt;longitude&gt;134.650513&lt;/longitude&gt;
-&lt;latitude&gt;33.888573&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F91" cm="1">
-        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
-        <v>33.888573000000001</v>
-      </c>
-      <c r="G91" cm="1">
-        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
-        <v>134.65051299999999</v>
-      </c>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D91" s="2"/>
       <c r="H91">
         <v>33.888573000000001</v>
       </c>
@@ -5782,46 +1480,8 @@
         <v>134.65051299999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="9"/>
-        <v>東京都武蔵野市八幡町</v>
-      </c>
-      <c r="D92" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%AD%A6%E8%94%B5%E9%87%8E%E5%B8%82%E5%85%AB%E5%B9%A1%E7%94%BA</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都武蔵野市八幡町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都武蔵野市八幡町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/武蔵野市/八幡町&lt;/address&gt;
-&lt;longitude&gt;139.556534&lt;/longitude&gt;
-&lt;latitude&gt;35.715908&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F92" cm="1">
-        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
-        <v>35.715907999999999</v>
-      </c>
-      <c r="G92" cm="1">
-        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
-        <v>139.556534</v>
-      </c>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D92" s="2"/>
       <c r="H92">
         <v>35.715907999999999</v>
       </c>
@@ -5829,46 +1489,8 @@
         <v>139.556534</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" si="9"/>
-        <v>大阪府泉南郡熊取町つばさが丘西</v>
-      </c>
-      <c r="D93" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E6%B3%89%E5%8D%97%E9%83%A1%E7%86%8A%E5%8F%96%E7%94%BA%E3%81%A4%E3%81%B0%E3%81%95%E3%81%8C%E4%B8%98%E8%A5%BF</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府泉南郡熊取町つばさが丘西&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府泉南郡熊取町つばさが丘西&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/泉南郡/熊取町/つばさが丘西&lt;/address&gt;
-&lt;longitude&gt;135.367981&lt;/longitude&gt;
-&lt;latitude&gt;34.383347&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F93" cm="1">
-        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
-        <v>34.383347000000001</v>
-      </c>
-      <c r="G93" cm="1">
-        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
-        <v>135.36798099999999</v>
-      </c>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D93" s="2"/>
       <c r="H93">
         <v>34.383347000000001</v>
       </c>
@@ -5876,46 +1498,8 @@
         <v>135.36798099999999</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>130</v>
-      </c>
-      <c r="B94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" si="9"/>
-        <v>岐阜県中津川市</v>
-      </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E4%B8%AD%E6%B4%A5%E5%B7%9D%E5%B8%82</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;岐阜県中津川市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;岐阜県中津川市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;岐阜県/中津川市&lt;/address&gt;
-&lt;longitude&gt;137.500610&lt;/longitude&gt;
-&lt;latitude&gt;35.487492&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F94" cm="1">
-        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
-        <v>35.487492000000003</v>
-      </c>
-      <c r="G94" cm="1">
-        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
-        <v>137.50060999999999</v>
-      </c>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D94" s="2"/>
       <c r="H94">
         <v>35.487492000000003</v>
       </c>
@@ -5923,46 +1507,8 @@
         <v>137.50060999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" si="9"/>
-        <v>愛知県名古屋市緑区大清水</v>
-      </c>
-      <c r="D95" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E5%A4%A7%E6%B8%85%E6%B0%B4</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県名古屋市緑区大清水&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県名古屋市緑区大清水&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/名古屋市/緑区/大清水&lt;/address&gt;
-&lt;longitude&gt;136.987823&lt;/longitude&gt;
-&lt;latitude&gt;35.080688&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F95" cm="1">
-        <f t="array" ref="F95">INDEX(_xlfn.FILTERXML(E95,"//latitude"),1)</f>
-        <v>35.080688000000002</v>
-      </c>
-      <c r="G95" cm="1">
-        <f t="array" ref="G95">INDEX(_xlfn.FILTERXML(E95,"//longitude"),1)</f>
-        <v>136.98782299999999</v>
-      </c>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D95" s="2"/>
       <c r="H95">
         <v>35.080688000000002</v>
       </c>
@@ -5970,46 +1516,8 @@
         <v>136.98782299999999</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" si="9"/>
-        <v>東京都中野区中央</v>
-      </c>
-      <c r="D96" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%AD%E9%87%8E%E5%8C%BA%E4%B8%AD%E5%A4%AE</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都中野区中央&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都中野区中央&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/中野区/中央&lt;/address&gt;
-&lt;longitude&gt;139.685654&lt;/longitude&gt;
-&lt;latitude&gt;35.698994&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F96" cm="1">
-        <f t="array" ref="F96">INDEX(_xlfn.FILTERXML(E96,"//latitude"),1)</f>
-        <v>35.698993999999999</v>
-      </c>
-      <c r="G96" cm="1">
-        <f t="array" ref="G96">INDEX(_xlfn.FILTERXML(E96,"//longitude"),1)</f>
-        <v>139.685654</v>
-      </c>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D96" s="2"/>
       <c r="H96">
         <v>35.698993999999999</v>
       </c>
@@ -6017,46 +1525,8 @@
         <v>139.685654</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" si="9"/>
-        <v>愛知県名古屋市中川区愛知町</v>
-      </c>
-      <c r="D97" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E4%B8%AD%E5%B7%9D%E5%8C%BA%E6%84%9B%E7%9F%A5%E7%94%BA</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県名古屋市中川区愛知町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県名古屋市中川区愛知町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/名古屋市/中川区/愛知町&lt;/address&gt;
-&lt;longitude&gt;136.876175&lt;/longitude&gt;
-&lt;latitude&gt;35.154072&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F97" cm="1">
-        <f t="array" ref="F97">INDEX(_xlfn.FILTERXML(E97,"//latitude"),1)</f>
-        <v>35.154071999999999</v>
-      </c>
-      <c r="G97" cm="1">
-        <f t="array" ref="G97">INDEX(_xlfn.FILTERXML(E97,"//longitude"),1)</f>
-        <v>136.87617499999999</v>
-      </c>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D97" s="2"/>
       <c r="H97">
         <v>35.154071999999999</v>
       </c>
@@ -6064,46 +1534,8 @@
         <v>136.87617499999999</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" si="9"/>
-        <v>埼玉県行田市樋上</v>
-      </c>
-      <c r="D98" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%A1%8C%E7%94%B0%E5%B8%82%E6%A8%8B%E4%B8%8A</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県行田市樋上&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県行田市樋上&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/行田市/樋上&lt;/address&gt;
-&lt;longitude&gt;139.470596&lt;/longitude&gt;
-&lt;latitude&gt;36.117146&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F98" cm="1">
-        <f t="array" ref="F98">INDEX(_xlfn.FILTERXML(E98,"//latitude"),1)</f>
-        <v>36.117145999999998</v>
-      </c>
-      <c r="G98" cm="1">
-        <f t="array" ref="G98">INDEX(_xlfn.FILTERXML(E98,"//longitude"),1)</f>
-        <v>139.470596</v>
-      </c>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D98" s="2"/>
       <c r="H98">
         <v>36.117145999999998</v>
       </c>
@@ -6111,46 +1543,8 @@
         <v>139.470596</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>16</v>
-      </c>
-      <c r="B99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="9"/>
-        <v>埼玉県志木市柏町</v>
-      </c>
-      <c r="D99" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%BF%97%E6%9C%A8%E5%B8%82%E6%9F%8F%E7%94%BA</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県志木市柏町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県志木市柏町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/志木市/柏町&lt;/address&gt;
-&lt;longitude&gt;139.575455&lt;/longitude&gt;
-&lt;latitude&gt;35.834698&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F99" cm="1">
-        <f t="array" ref="F99">INDEX(_xlfn.FILTERXML(E99,"//latitude"),1)</f>
-        <v>35.834698000000003</v>
-      </c>
-      <c r="G99" cm="1">
-        <f t="array" ref="G99">INDEX(_xlfn.FILTERXML(E99,"//longitude"),1)</f>
-        <v>139.57545500000001</v>
-      </c>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D99" s="2"/>
       <c r="H99">
         <v>35.834698000000003</v>
       </c>
@@ -6158,46 +1552,8 @@
         <v>139.57545500000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C100" t="str">
-        <f t="shared" si="9"/>
-        <v>千葉県習志野市津田沼</v>
-      </c>
-      <c r="D100" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E7%BF%92%E5%BF%97%E9%87%8E%E5%B8%82%E6%B4%A5%E7%94%B0%E6%B2%BC</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;千葉県習志野市津田沼&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;千葉県習志野市津田沼&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;千葉県/習志野市/津田沼&lt;/address&gt;
-&lt;longitude&gt;140.024994&lt;/longitude&gt;
-&lt;latitude&gt;35.689049&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F100" cm="1">
-        <f t="array" ref="F100">INDEX(_xlfn.FILTERXML(E100,"//latitude"),1)</f>
-        <v>35.689048999999997</v>
-      </c>
-      <c r="G100" cm="1">
-        <f t="array" ref="G100">INDEX(_xlfn.FILTERXML(E100,"//longitude"),1)</f>
-        <v>140.02499399999999</v>
-      </c>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D100" s="2"/>
       <c r="H100">
         <v>35.689048999999997</v>
       </c>
@@ -6205,46 +1561,8 @@
         <v>140.02499399999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>16</v>
-      </c>
-      <c r="B101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101" t="str">
-        <f t="shared" si="9"/>
-        <v>埼玉県熊谷市新堀</v>
-      </c>
-      <c r="D101" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県熊谷市新堀&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県熊谷市新堀&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/熊谷市/新堀&lt;/address&gt;
-&lt;longitude&gt;139.335297&lt;/longitude&gt;
-&lt;latitude&gt;36.175068&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F101" cm="1">
-        <f t="array" ref="F101">INDEX(_xlfn.FILTERXML(E101,"//latitude"),1)</f>
-        <v>36.175068000000003</v>
-      </c>
-      <c r="G101" cm="1">
-        <f t="array" ref="G101">INDEX(_xlfn.FILTERXML(E101,"//longitude"),1)</f>
-        <v>139.335297</v>
-      </c>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D101" s="2"/>
       <c r="H101">
         <v>36.175068000000003</v>
       </c>
@@ -6252,46 +1570,8 @@
         <v>139.335297</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" t="s">
-        <v>139</v>
-      </c>
-      <c r="C102" t="str">
-        <f t="shared" si="9"/>
-        <v>東京都練馬区桜台</v>
-      </c>
-      <c r="D102" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E6%A1%9C%E5%8F%B0</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都練馬区桜台&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都練馬区桜台&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/練馬区/桜台&lt;/address&gt;
-&lt;longitude&gt;139.664520&lt;/longitude&gt;
-&lt;latitude&gt;35.740005&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F102" cm="1">
-        <f t="array" ref="F102">INDEX(_xlfn.FILTERXML(E102,"//latitude"),1)</f>
-        <v>35.740004999999996</v>
-      </c>
-      <c r="G102" cm="1">
-        <f t="array" ref="G102">INDEX(_xlfn.FILTERXML(E102,"//longitude"),1)</f>
-        <v>139.66452000000001</v>
-      </c>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D102" s="2"/>
       <c r="H102">
         <v>35.740004999999996</v>
       </c>
@@ -6299,46 +1579,8 @@
         <v>139.66452000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" t="s">
-        <v>141</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="9"/>
-        <v>奈良県桜井市粟殿</v>
-      </c>
-      <c r="D103" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E6%A1%9C%E4%BA%95%E5%B8%82%E7%B2%9F%E6%AE%BF</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;奈良県桜井市粟殿&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;奈良県桜井市粟殿&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;奈良県/桜井市/粟殿&lt;/address&gt;
-&lt;longitude&gt;135.847763&lt;/longitude&gt;
-&lt;latitude&gt;34.518940&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F103" cm="1">
-        <f t="array" ref="F103">INDEX(_xlfn.FILTERXML(E103,"//latitude"),1)</f>
-        <v>34.518940000000001</v>
-      </c>
-      <c r="G103" cm="1">
-        <f t="array" ref="G103">INDEX(_xlfn.FILTERXML(E103,"//longitude"),1)</f>
-        <v>135.84776299999999</v>
-      </c>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D103" s="2"/>
       <c r="H103">
         <v>34.518940000000001</v>
       </c>
@@ -6346,46 +1588,8 @@
         <v>135.84776299999999</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" t="s">
-        <v>142</v>
-      </c>
-      <c r="C104" t="str">
-        <f t="shared" si="9"/>
-        <v>山口県宇部市文京町</v>
-      </c>
-      <c r="D104" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E5%8F%A3%E7%9C%8C%E5%AE%87%E9%83%A8%E5%B8%82%E6%96%87%E4%BA%AC%E7%94%BA</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;山口県宇部市文京町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;山口県宇部市文京町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;山口県/宇部市/文京町&lt;/address&gt;
-&lt;longitude&gt;131.230927&lt;/longitude&gt;
-&lt;latitude&gt;33.972588&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F104" cm="1">
-        <f t="array" ref="F104">INDEX(_xlfn.FILTERXML(E104,"//latitude"),1)</f>
-        <v>33.972588000000002</v>
-      </c>
-      <c r="G104" cm="1">
-        <f t="array" ref="G104">INDEX(_xlfn.FILTERXML(E104,"//longitude"),1)</f>
-        <v>131.23092700000001</v>
-      </c>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D104" s="2"/>
       <c r="H104">
         <v>33.972588000000002</v>
       </c>
@@ -6393,46 +1597,8 @@
         <v>131.23092700000001</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>143</v>
-      </c>
-      <c r="C105" t="str">
-        <f t="shared" si="9"/>
-        <v>千葉県印西市</v>
-      </c>
-      <c r="D105" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;千葉県印西市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;千葉県印西市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;千葉県/印西市&lt;/address&gt;
-&lt;longitude&gt;140.145767&lt;/longitude&gt;
-&lt;latitude&gt;35.832333&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F105" cm="1">
-        <f t="array" ref="F105">INDEX(_xlfn.FILTERXML(E105,"//latitude"),1)</f>
-        <v>35.832332999999998</v>
-      </c>
-      <c r="G105" cm="1">
-        <f t="array" ref="G105">INDEX(_xlfn.FILTERXML(E105,"//longitude"),1)</f>
-        <v>140.14576700000001</v>
-      </c>
+    <row r="105" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D105" s="2"/>
       <c r="H105">
         <v>35.832332999999998</v>
       </c>
@@ -6440,46 +1606,8 @@
         <v>140.14576700000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="9"/>
-        <v>神奈川県横浜市都筑区荏田南</v>
-      </c>
-      <c r="D106" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%83%BD%E7%AD%91%E5%8C%BA%E8%8D%8F%E7%94%B0%E5%8D%97</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県横浜市都筑区荏田南&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県横浜市都筑区荏田南&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/横浜市/都筑区/荏田南&lt;/address&gt;
-&lt;longitude&gt;139.560120&lt;/longitude&gt;
-&lt;latitude&gt;35.541790&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F106" cm="1">
-        <f t="array" ref="F106">INDEX(_xlfn.FILTERXML(E106,"//latitude"),1)</f>
-        <v>35.541789999999999</v>
-      </c>
-      <c r="G106" cm="1">
-        <f t="array" ref="G106">INDEX(_xlfn.FILTERXML(E106,"//longitude"),1)</f>
-        <v>139.56012000000001</v>
-      </c>
+    <row r="106" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D106" s="2"/>
       <c r="H106">
         <v>35.541789999999999</v>
       </c>
@@ -6487,46 +1615,8 @@
         <v>139.56012000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" t="str">
-        <f t="shared" si="9"/>
-        <v>東京都豊島区東池袋</v>
-      </c>
-      <c r="D107" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E6%9D%B1%E6%B1%A0%E8%A2%8B</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都豊島区東池袋&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都豊島区東池袋&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/豊島区/東池袋&lt;/address&gt;
-&lt;longitude&gt;139.715302&lt;/longitude&gt;
-&lt;latitude&gt;35.731373&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F107" cm="1">
-        <f t="array" ref="F107">INDEX(_xlfn.FILTERXML(E107,"//latitude"),1)</f>
-        <v>35.731372999999998</v>
-      </c>
-      <c r="G107" cm="1">
-        <f t="array" ref="G107">INDEX(_xlfn.FILTERXML(E107,"//longitude"),1)</f>
-        <v>139.71530200000001</v>
-      </c>
+    <row r="107" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D107" s="2"/>
       <c r="H107">
         <v>35.731372999999998</v>
       </c>
@@ -6534,46 +1624,8 @@
         <v>139.71530200000001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" t="str">
-        <f t="shared" si="9"/>
-        <v>沖縄県浦添市</v>
-      </c>
-      <c r="D108" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E6%B5%A6%E6%B7%BB%E5%B8%82</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;沖縄県浦添市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;沖縄県浦添市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;沖縄県/浦添市&lt;/address&gt;
-&lt;longitude&gt;127.721802&lt;/longitude&gt;
-&lt;latitude&gt;26.245815&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F108" cm="1">
-        <f t="array" ref="F108">INDEX(_xlfn.FILTERXML(E108,"//latitude"),1)</f>
-        <v>26.245815</v>
-      </c>
-      <c r="G108" cm="1">
-        <f t="array" ref="G108">INDEX(_xlfn.FILTERXML(E108,"//longitude"),1)</f>
-        <v>127.721802</v>
-      </c>
+    <row r="108" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D108" s="2"/>
       <c r="H108">
         <v>26.245815</v>
       </c>
@@ -6581,46 +1633,8 @@
         <v>127.721802</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" t="str">
-        <f t="shared" si="9"/>
-        <v>神奈川県平塚市南原</v>
-      </c>
-      <c r="D109" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県平塚市南原&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県平塚市南原&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/平塚市/南原&lt;/address&gt;
-&lt;longitude&gt;139.326263&lt;/longitude&gt;
-&lt;latitude&gt;35.337265&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F109" cm="1">
-        <f t="array" ref="F109">INDEX(_xlfn.FILTERXML(E109,"//latitude"),1)</f>
-        <v>35.337265000000002</v>
-      </c>
-      <c r="G109" cm="1">
-        <f t="array" ref="G109">INDEX(_xlfn.FILTERXML(E109,"//longitude"),1)</f>
-        <v>139.32626300000001</v>
-      </c>
+    <row r="109" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D109" s="2"/>
       <c r="H109">
         <v>35.337265000000002</v>
       </c>
@@ -6628,46 +1642,8 @@
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" t="str">
-        <f t="shared" si="9"/>
-        <v>兵庫県尼崎市武庫川町4丁目</v>
-      </c>
-      <c r="D110" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E6%AD%A6%E5%BA%AB%E5%B7%9D%E7%94%BA4%E4%B8%81%E7%9B%AE</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;兵庫県尼崎市武庫川町4丁目&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;兵庫県尼崎市武庫川町4丁目&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;兵庫県/尼崎市/武庫川町/四丁目&lt;/address&gt;
-&lt;longitude&gt;135.383438&lt;/longitude&gt;
-&lt;latitude&gt;34.716335&lt;/latitude&gt;
-&lt;iLvl&gt;6&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F110" cm="1">
-        <f t="array" ref="F110">INDEX(_xlfn.FILTERXML(E110,"//latitude"),1)</f>
-        <v>34.716335000000001</v>
-      </c>
-      <c r="G110" cm="1">
-        <f t="array" ref="G110">INDEX(_xlfn.FILTERXML(E110,"//longitude"),1)</f>
-        <v>135.38343800000001</v>
-      </c>
+    <row r="110" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D110" s="2"/>
       <c r="H110">
         <v>34.716335000000001</v>
       </c>
@@ -6675,10 +1651,10 @@
         <v>135.38343800000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482A8BDB-7A38-4C16-A37E-F9279BA9AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F8A91-3A35-4317-A116-2AE52B58BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="26085" windowHeight="14505" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="3840" yWindow="1440" windowWidth="23565" windowHeight="14505" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,19 +93,19 @@
     <t>東京都</t>
   </si>
   <si>
-    <t>渋谷区代々木</t>
-  </si>
-  <si>
-    <t>新潟県</t>
-  </si>
-  <si>
-    <t>長岡市宮原３丁目</t>
-  </si>
-  <si>
     <t>山形県</t>
   </si>
   <si>
     <t>米沢市御廟</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>静岡市駿河区高松</t>
+  </si>
+  <si>
+    <t>三鷹市下連雀</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I4"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -558,31 +558,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>東京都渋谷区代々木</v>
+        <v>静岡県静岡市駿河区高松</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E4%BB%A3%E3%80%85%E6%9C%A8</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E9%9D%99%E5%B2%A1%E5%B8%82%E9%A7%BF%E6%B2%B3%E5%8C%BA%E9%AB%98%E6%9D%BE</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;東京都渋谷区代々木&lt;/query&gt;
+&lt;query&gt;静岡県静岡市駿河区高松&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都渋谷区代々木&lt;/converted&gt;
+&lt;converted&gt;静岡県静岡市駿河区高松&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;東京都/渋谷区/代々木&lt;/address&gt;
-&lt;longitude&gt;139.700043&lt;/longitude&gt;
-&lt;latitude&gt;35.681885&lt;/latitude&gt;
+&lt;address&gt;静岡県/静岡市/駿河区/高松&lt;/address&gt;
+&lt;longitude&gt;138.419785&lt;/longitude&gt;
+&lt;latitude&gt;34.946938&lt;/latitude&gt;
 &lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
@@ -590,72 +590,72 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>35.681885000000001</v>
+        <v>34.946938000000003</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>139.70004299999999</v>
+        <v>138.41978499999999</v>
       </c>
       <c r="H2">
-        <v>35.681885000000001</v>
+        <v>34.946938000000003</v>
       </c>
       <c r="I2">
-        <v>139.70004299999999</v>
+        <v>138.41978499999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">+A3&amp;B3</f>
-        <v>新潟県長岡市宮原３丁目</v>
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>東京都三鷹市下連雀</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E9%95%B7%E5%B2%A1%E5%B8%82%E5%AE%AE%E5%8E%9F%EF%BC%93%E4%B8%81%E7%9B%AE</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%89%E9%B7%B9%E5%B8%82%E4%B8%8B%E9%80%A3%E9%9B%80</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E8" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;新潟県長岡市宮原３丁目&lt;/query&gt;
+&lt;query&gt;東京都三鷹市下連雀&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;新潟県長岡市宮原３丁目&lt;/converted&gt;
+&lt;converted&gt;東京都三鷹市下連雀&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;新潟県/長岡市/宮原/三丁目&lt;/address&gt;
-&lt;longitude&gt;138.843964&lt;/longitude&gt;
-&lt;latitude&gt;37.437866&lt;/latitude&gt;
-&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;address&gt;東京都/三鷹市/下連雀&lt;/address&gt;
+&lt;longitude&gt;139.570160&lt;/longitude&gt;
+&lt;latitude&gt;35.695240&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
-        <v>37.437866</v>
+        <v>35.695239999999998</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
-        <v>138.843964</v>
+        <v>139.57015999999999</v>
       </c>
       <c r="H3">
-        <v>37.437866</v>
+        <v>35.695239999999998</v>
       </c>
       <c r="I3">
-        <v>138.843964</v>
+        <v>139.57015999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F8A91-3A35-4317-A116-2AE52B58BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8F27B-2CB0-4D04-9209-3C43B83E27FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1440" windowWidth="23565" windowHeight="14505" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="25365" windowHeight="14505" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,13 @@
     <t>米沢市御廟</t>
   </si>
   <si>
-    <t>静岡県</t>
+    <t>三鷹市下連雀</t>
   </si>
   <si>
-    <t>静岡市駿河区高松</t>
+    <t>埼玉県</t>
   </si>
   <si>
-    <t>三鷹市下連雀</t>
+    <t>さいたま市南区大谷口</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -558,31 +558,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>静岡県静岡市駿河区高松</v>
+        <v>埼玉県さいたま市南区大谷口</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E9%9D%99%E5%B2%A1%E5%B8%82%E9%A7%BF%E6%B2%B3%E5%8C%BA%E9%AB%98%E6%9D%BE</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E5%8D%97%E5%8C%BA%E5%A4%A7%E8%B0%B7%E5%8F%A3</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;静岡県静岡市駿河区高松&lt;/query&gt;
+&lt;query&gt;埼玉県さいたま市南区大谷口&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;静岡県静岡市駿河区高松&lt;/converted&gt;
+&lt;converted&gt;埼玉県さいたま市南区大谷口&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;静岡県/静岡市/駿河区/高松&lt;/address&gt;
-&lt;longitude&gt;138.419785&lt;/longitude&gt;
-&lt;latitude&gt;34.946938&lt;/latitude&gt;
+&lt;address&gt;埼玉県/さいたま市/南区/大谷口&lt;/address&gt;
+&lt;longitude&gt;139.691330&lt;/longitude&gt;
+&lt;latitude&gt;35.859741&lt;/latitude&gt;
 &lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
@@ -590,17 +590,17 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>34.946938000000003</v>
+        <v>35.859741</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>138.41978499999999</v>
+        <v>139.69132999999999</v>
       </c>
       <c r="H2">
-        <v>34.946938000000003</v>
+        <v>35.859741</v>
       </c>
       <c r="I2">
-        <v>138.41978499999999</v>
+        <v>139.69132999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8F27B-2CB0-4D04-9209-3C43B83E27FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD93A3AB-591C-44BE-AE72-448B41C65E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="25365" windowHeight="14505" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="30450" yWindow="4050" windowWidth="24240" windowHeight="15210" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>jio0</t>
   </si>
@@ -93,19 +93,76 @@
     <t>東京都</t>
   </si>
   <si>
-    <t>山形県</t>
-  </si>
-  <si>
-    <t>米沢市御廟</t>
-  </si>
-  <si>
-    <t>三鷹市下連雀</t>
-  </si>
-  <si>
     <t>埼玉県</t>
   </si>
   <si>
-    <t>さいたま市南区大谷口</t>
+    <t>川越市</t>
+  </si>
+  <si>
+    <t>新潟県</t>
+  </si>
+  <si>
+    <t>三条市島田</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>北見市春光町</t>
+  </si>
+  <si>
+    <t>愛知県</t>
+  </si>
+  <si>
+    <t>岡崎市材木町</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>向日市物集女町五ノ坪</t>
+  </si>
+  <si>
+    <t>千葉県</t>
+  </si>
+  <si>
+    <t>市原市潤井戸</t>
+  </si>
+  <si>
+    <t>岡山県</t>
+  </si>
+  <si>
+    <t>倉敷市西富井</t>
+  </si>
+  <si>
+    <t>深谷市東方</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+  </si>
+  <si>
+    <t>横浜市都筑区茅ケ崎東</t>
+  </si>
+  <si>
+    <t>滋賀県</t>
+  </si>
+  <si>
+    <t>大津市青山</t>
+  </si>
+  <si>
+    <t>香川県</t>
+  </si>
+  <si>
+    <t>坂出市西大浜南3丁目</t>
+  </si>
+  <si>
+    <t>北区神谷</t>
+  </si>
+  <si>
+    <t>三重県</t>
+  </si>
+  <si>
+    <t>伊賀市上野忍町</t>
   </si>
 </sst>
 </file>
@@ -515,7 +572,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection activeCell="H2" sqref="H2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -558,78 +615,78 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>埼玉県さいたま市南区大谷口</v>
+        <v>埼玉県川越市</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E5%8D%97%E5%8C%BA%E5%A4%A7%E8%B0%B7%E5%8F%A3</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%B7%9D%E8%B6%8A%E5%B8%82</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;埼玉県さいたま市南区大谷口&lt;/query&gt;
+&lt;query&gt;埼玉県川越市&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県さいたま市南区大谷口&lt;/converted&gt;
+&lt;converted&gt;埼玉県川越市&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;埼玉県/さいたま市/南区/大谷口&lt;/address&gt;
-&lt;longitude&gt;139.691330&lt;/longitude&gt;
-&lt;latitude&gt;35.859741&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;address&gt;埼玉県/川越市&lt;/address&gt;
+&lt;longitude&gt;139.485840&lt;/longitude&gt;
+&lt;latitude&gt;35.925114&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>35.859741</v>
+        <v>35.925114000000001</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>139.69132999999999</v>
+        <v>139.48584</v>
       </c>
       <c r="H2">
-        <v>35.859741</v>
+        <v>35.925114000000001</v>
       </c>
       <c r="I2">
-        <v>139.69132999999999</v>
+        <v>139.48584</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
-        <v>東京都三鷹市下連雀</v>
+        <v>新潟県三条市島田</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%89%E9%B7%B9%E5%B8%82%E4%B8%8B%E9%80%A3%E9%9B%80</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E4%B8%89%E6%9D%A1%E5%B8%82%E5%B3%B6%E7%94%B0</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;東京都三鷹市下連雀&lt;/query&gt;
+&lt;query&gt;新潟県三条市島田&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都三鷹市下連雀&lt;/converted&gt;
+&lt;converted&gt;新潟県三条市島田&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;東京都/三鷹市/下連雀&lt;/address&gt;
-&lt;longitude&gt;139.570160&lt;/longitude&gt;
-&lt;latitude&gt;35.695240&lt;/latitude&gt;
+&lt;address&gt;新潟県/三条市/島田&lt;/address&gt;
+&lt;longitude&gt;138.947311&lt;/longitude&gt;
+&lt;latitude&gt;37.628372&lt;/latitude&gt;
 &lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
@@ -637,46 +694,46 @@
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
-        <v>35.695239999999998</v>
+        <v>37.628371999999999</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
-        <v>139.57015999999999</v>
+        <v>138.94731100000001</v>
       </c>
       <c r="H3">
-        <v>35.695239999999998</v>
+        <v>37.628371999999999</v>
       </c>
       <c r="I3">
-        <v>139.57015999999999</v>
+        <v>138.94731100000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>山形県米沢市御廟</v>
+        <v>北海道北見市春光町</v>
       </c>
       <c r="D4" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E5%BD%A2%E7%9C%8C%E7%B1%B3%E6%B2%A2%E5%B8%82%E5%BE%A1%E5%BB%9F</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E5%8C%97%E8%A6%8B%E5%B8%82%E6%98%A5%E5%85%89%E7%94%BA</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;山形県米沢市御廟&lt;/query&gt;
+&lt;query&gt;北海道北見市春光町&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;山形県米沢市御廟&lt;/converted&gt;
+&lt;converted&gt;北海道北見市春光町&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;山形県/米沢市/御廟&lt;/address&gt;
-&lt;longitude&gt;140.091995&lt;/longitude&gt;
-&lt;latitude&gt;37.914330&lt;/latitude&gt;
+&lt;address&gt;北海道/北見市/春光町&lt;/address&gt;
+&lt;longitude&gt;143.915222&lt;/longitude&gt;
+&lt;latitude&gt;43.822224&lt;/latitude&gt;
 &lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
@@ -684,977 +741,781 @@
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
-        <v>37.91433</v>
+        <v>43.822223999999999</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
-        <v>140.091995</v>
+        <v>143.915222</v>
       </c>
       <c r="H4">
-        <v>37.91433</v>
+        <v>43.822223999999999</v>
       </c>
       <c r="I4">
-        <v>140.091995</v>
+        <v>143.915222</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D5" s="2"/>
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C68" si="3">+A5&amp;B5</f>
+        <v>愛知県岡崎市材木町</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5:D68" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%B2%A1%E5%B4%8E%E5%B8%82%E6%9D%90%E6%9C%A8%E7%94%BA</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E68" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県岡崎市材木町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県岡崎市材木町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/岡崎市/材木町&lt;/address&gt;
+&lt;longitude&gt;137.160217&lt;/longitude&gt;
+&lt;latitude&gt;34.962055&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>34.962054999999999</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>137.16021699999999</v>
+      </c>
       <c r="H5">
-        <v>35.888950000000001</v>
+        <v>34.962054999999999</v>
       </c>
       <c r="I5">
-        <v>139.78208900000001</v>
+        <v>137.16021699999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D6" s="2"/>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="3"/>
+        <v>京都府向日市物集女町五ノ坪</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E5%90%91%E6%97%A5%E5%B8%82%E7%89%A9%E9%9B%86%E5%A5%B3%E7%94%BA%E4%BA%94%E3%83%8E%E5%9D%AA</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;京都府向日市物集女町五ノ坪&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;京都府向日市物集女町五ノ坪&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;京都府/向日市/物集女町/五ノ坪&lt;/address&gt;
+&lt;longitude&gt;135.698410&lt;/longitude&gt;
+&lt;latitude&gt;34.963943&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+        <v>34.963943</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+        <v>135.69841</v>
+      </c>
       <c r="H6">
-        <v>35.436194999999998</v>
+        <v>34.963943</v>
       </c>
       <c r="I6">
-        <v>139.51054400000001</v>
+        <v>135.69841</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D7" s="2"/>
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="3"/>
+        <v>千葉県市原市潤井戸</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%B8%82%E5%8E%9F%E5%B8%82%E6%BD%A4%E4%BA%95%E6%88%B8</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県市原市潤井戸&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県市原市潤井戸&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/市原市/潤井戸&lt;/address&gt;
+&lt;longitude&gt;140.172241&lt;/longitude&gt;
+&lt;latitude&gt;35.519585&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>35.519584999999999</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>140.17224100000001</v>
+      </c>
       <c r="H7">
-        <v>35.223621000000001</v>
+        <v>35.519584999999999</v>
       </c>
       <c r="I7">
-        <v>137.08412200000001</v>
+        <v>140.17224100000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="2"/>
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="3"/>
+        <v>岡山県倉敷市西富井</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%80%89%E6%95%B7%E5%B8%82%E8%A5%BF%E5%AF%8C%E4%BA%95</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;岡山県倉敷市西富井&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;岡山県倉敷市西富井&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;岡山県/倉敷市/西富井&lt;/address&gt;
+&lt;longitude&gt;133.747406&lt;/longitude&gt;
+&lt;latitude&gt;34.574116&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+        <v>34.574115999999997</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+        <v>133.74740600000001</v>
+      </c>
       <c r="H8">
-        <v>36.629936000000001</v>
+        <v>34.574115999999997</v>
       </c>
       <c r="I8">
-        <v>137.11914100000001</v>
+        <v>133.74740600000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D9" s="2"/>
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="3"/>
+        <v>埼玉県深谷市東方</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E6%B7%B1%E8%B0%B7%E5%B8%82%E6%9D%B1%E6%96%B9</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県深谷市東方&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県深谷市東方&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/深谷市/東方&lt;/address&gt;
+&lt;longitude&gt;139.319855&lt;/longitude&gt;
+&lt;latitude&gt;36.194305&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+        <v>36.194305</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+        <v>139.31985499999999</v>
+      </c>
       <c r="H9">
-        <v>35.838379000000003</v>
+        <v>36.194305</v>
       </c>
       <c r="I9">
-        <v>139.38848899999999</v>
+        <v>139.31985499999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D10" s="2"/>
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="3"/>
+        <v>神奈川県横浜市都筑区茅ケ崎東</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%83%BD%E7%AD%91%E5%8C%BA%E8%8C%85%E3%82%B1%E5%B4%8E%E6%9D%B1</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市都筑区茅ケ崎東&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市都筑区茅ケ崎東&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/都筑区/茅ケ崎東&lt;/address&gt;
+&lt;longitude&gt;139.584396&lt;/longitude&gt;
+&lt;latitude&gt;35.543636&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+        <v>35.543635999999999</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+        <v>139.584396</v>
+      </c>
       <c r="H10">
-        <v>35.446007000000002</v>
+        <v>35.543635999999999</v>
       </c>
       <c r="I10">
-        <v>139.65695199999999</v>
+        <v>139.584396</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D11" s="2"/>
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="3"/>
+        <v>滋賀県大津市青山</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%A4%A7%E6%B4%A5%E5%B8%82%E9%9D%92%E5%B1%B1</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;滋賀県大津市青山&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;滋賀県大津市青山&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;滋賀県/大津市/青山&lt;/address&gt;
+&lt;longitude&gt;135.968781&lt;/longitude&gt;
+&lt;latitude&gt;34.982738&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+        <v>34.982737999999998</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+        <v>135.96878100000001</v>
+      </c>
       <c r="H11">
-        <v>35.599854000000001</v>
+        <v>34.982737999999998</v>
       </c>
       <c r="I11">
-        <v>139.555374</v>
+        <v>135.96878100000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D12" s="2"/>
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="3"/>
+        <v>香川県坂出市西大浜南3丁目</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E5%9D%82%E5%87%BA%E5%B8%82%E8%A5%BF%E5%A4%A7%E6%B5%9C%E5%8D%973%E4%B8%81%E7%9B%AE</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;香川県坂出市西大浜南3丁目&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;香川県坂出市西大浜南3丁目&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;香川県/坂出市/西大浜南/三丁目&lt;/address&gt;
+&lt;longitude&gt;133.840591&lt;/longitude&gt;
+&lt;latitude&gt;34.320213&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+        <v>34.320213000000003</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+        <v>133.84059099999999</v>
+      </c>
       <c r="H12">
-        <v>35.700184</v>
+        <v>34.320213000000003</v>
       </c>
       <c r="I12">
-        <v>139.978531</v>
+        <v>133.84059099999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D13" s="2"/>
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="3"/>
+        <v>東京都北区神谷</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%8C%97%E5%8C%BA%E7%A5%9E%E8%B0%B7</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都北区神谷&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都北区神谷&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/北区/神谷&lt;/address&gt;
+&lt;longitude&gt;139.734116&lt;/longitude&gt;
+&lt;latitude&gt;35.768532&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+        <v>35.768532</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+        <v>139.734116</v>
+      </c>
       <c r="H13">
-        <v>34.682696999999997</v>
+        <v>35.768532</v>
       </c>
       <c r="I13">
-        <v>135.51676900000001</v>
+        <v>139.734116</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D14" s="2"/>
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="3"/>
+        <v>三重県伊賀市上野忍町</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E4%BC%8A%E8%B3%80%E5%B8%82%E4%B8%8A%E9%87%8E%E5%BF%8D%E7%94%BA</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;三重県伊賀市上野忍町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;三重県伊賀市上野忍町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;三重県/伊賀市/上野忍町&lt;/address&gt;
+&lt;longitude&gt;136.130295&lt;/longitude&gt;
+&lt;latitude&gt;34.763241&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+        <v>34.763241000000001</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+        <v>136.13029499999999</v>
+      </c>
       <c r="H14">
-        <v>35.609065999999999</v>
+        <v>34.763241000000001</v>
       </c>
       <c r="I14">
-        <v>139.730255</v>
+        <v>136.13029499999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D15" s="2"/>
-      <c r="H15">
-        <v>35.023524999999999</v>
-      </c>
-      <c r="I15">
-        <v>135.85670500000001</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D16" s="2"/>
-      <c r="H16">
-        <v>37.283245000000001</v>
-      </c>
-      <c r="I16">
-        <v>140.376114</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D17" s="2"/>
-      <c r="H17">
-        <v>35.009177999999999</v>
-      </c>
-      <c r="I17">
-        <v>135.74968000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D18" s="2"/>
-      <c r="H18">
-        <v>33.541130000000003</v>
-      </c>
-      <c r="I18">
-        <v>133.48567199999999</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D19" s="2"/>
-      <c r="H19">
-        <v>43.07011</v>
-      </c>
-      <c r="I19">
-        <v>141.36225899999999</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D20" s="2"/>
-      <c r="H20">
-        <v>34.863064000000001</v>
-      </c>
-      <c r="I20">
-        <v>136.61016799999999</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D21" s="2"/>
-      <c r="H21">
-        <v>34.331837</v>
-      </c>
-      <c r="I21">
-        <v>132.693207</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D22" s="2"/>
-      <c r="H22">
-        <v>35.591079999999998</v>
-      </c>
-      <c r="I22">
-        <v>139.37553399999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D23" s="2"/>
-      <c r="H23">
-        <v>35.656672999999998</v>
-      </c>
-      <c r="I23">
-        <v>139.73509200000001</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D24" s="2"/>
-      <c r="H24">
-        <v>35.835152000000001</v>
-      </c>
-      <c r="I24">
-        <v>136.19442699999999</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
-      <c r="H25">
-        <v>35.759354000000002</v>
-      </c>
-      <c r="I25">
-        <v>139.436981</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
-      <c r="H26">
-        <v>34.821686</v>
-      </c>
-      <c r="I26">
-        <v>135.42855800000001</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D27" s="2"/>
-      <c r="H27">
-        <v>34.679107999999999</v>
-      </c>
-      <c r="I27">
-        <v>135.44212300000001</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D28" s="2"/>
-      <c r="H28">
-        <v>34.801529000000002</v>
-      </c>
-      <c r="I28">
-        <v>135.54530299999999</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D29" s="2"/>
-      <c r="H29">
-        <v>33.947558999999998</v>
-      </c>
-      <c r="I29">
-        <v>133.29037500000001</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D30" s="2"/>
-      <c r="H30">
-        <v>35.329715999999998</v>
-      </c>
-      <c r="I30">
-        <v>136.873322</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D31" s="2"/>
-      <c r="H31">
-        <v>36.580047999999998</v>
-      </c>
-      <c r="I31">
-        <v>136.63986199999999</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D32" s="2"/>
-      <c r="H32">
-        <v>38.310085000000001</v>
-      </c>
-      <c r="I32">
-        <v>140.794769</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D33" s="2"/>
-      <c r="H33">
-        <v>35.725501999999999</v>
-      </c>
-      <c r="I33">
-        <v>139.75147999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D34" s="2"/>
-      <c r="H34">
-        <v>37.494843000000003</v>
-      </c>
-      <c r="I34">
-        <v>139.92970299999999</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D35" s="2"/>
-      <c r="H35">
-        <v>34.494349999999997</v>
-      </c>
-      <c r="I35">
-        <v>135.58517499999999</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D36" s="2"/>
-      <c r="H36">
-        <v>35.808627999999999</v>
-      </c>
-      <c r="I36">
-        <v>139.85348500000001</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D37" s="2"/>
-      <c r="H37">
-        <v>34.943874000000001</v>
-      </c>
-      <c r="I37">
-        <v>137.16206399999999</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D38" s="2"/>
-      <c r="H38">
-        <v>34.835884</v>
-      </c>
-      <c r="I38">
-        <v>135.58471700000001</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D39" s="2"/>
-      <c r="H39">
-        <v>35.685538999999999</v>
-      </c>
-      <c r="I39">
-        <v>139.67417900000001</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D40" s="2"/>
-      <c r="H40">
-        <v>37.494843000000003</v>
-      </c>
-      <c r="I40">
-        <v>139.92970299999999</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D41" s="2"/>
-      <c r="H41">
-        <v>42.964840000000002</v>
-      </c>
-      <c r="I41">
-        <v>142.95146199999999</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D42" s="2"/>
-      <c r="H42">
-        <v>34.677695999999997</v>
-      </c>
-      <c r="I42">
-        <v>135.51919599999999</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D43" s="2"/>
-      <c r="H43">
-        <v>35.693890000000003</v>
-      </c>
-      <c r="I43">
-        <v>139.703461</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D44" s="2"/>
-      <c r="H44">
-        <v>35.883965000000003</v>
-      </c>
-      <c r="I44">
-        <v>139.62617499999999</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D45" s="2"/>
-      <c r="H45">
-        <v>34.682189999999999</v>
-      </c>
-      <c r="I45">
-        <v>135.151794</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D46" s="2"/>
-      <c r="H46">
-        <v>35.658588000000002</v>
-      </c>
-      <c r="I46">
-        <v>137.89047199999999</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D47" s="2"/>
-      <c r="H47">
-        <v>35.658588000000002</v>
-      </c>
-      <c r="I47">
-        <v>137.89047199999999</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D48" s="2"/>
-      <c r="H48">
-        <v>34.811751999999998</v>
-      </c>
-      <c r="I48">
-        <v>136.43248</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="2"/>
-      <c r="H49">
-        <v>34.502163000000003</v>
-      </c>
-      <c r="I49">
-        <v>134.21414200000001</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="2"/>
-      <c r="H50">
-        <v>35.216568000000002</v>
-      </c>
-      <c r="I50">
-        <v>137.035416</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="2"/>
-      <c r="H51">
-        <v>36.561050000000002</v>
-      </c>
-      <c r="I51">
-        <v>136.656631</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="2"/>
-      <c r="H52">
-        <v>34.139561</v>
-      </c>
-      <c r="I52">
-        <v>134.53735399999999</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="2"/>
-      <c r="H53">
-        <v>26.337043999999999</v>
-      </c>
-      <c r="I53">
-        <v>127.749786</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="2"/>
-      <c r="H54">
-        <v>35.681885000000001</v>
-      </c>
-      <c r="I54">
-        <v>139.70004299999999</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="2"/>
-      <c r="H55">
-        <v>26.192034</v>
-      </c>
-      <c r="I55">
-        <v>127.66349</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="2"/>
-      <c r="H56">
-        <v>26.425595999999999</v>
-      </c>
-      <c r="I56">
-        <v>127.811211</v>
-      </c>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="2"/>
-      <c r="H57">
-        <v>34.571232000000002</v>
-      </c>
-      <c r="I57">
-        <v>136.531586</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D58" s="2"/>
-      <c r="H58">
-        <v>31.919971</v>
-      </c>
-      <c r="I58">
-        <v>131.44395399999999</v>
-      </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D59" s="2"/>
-      <c r="H59">
-        <v>34.701484999999998</v>
-      </c>
-      <c r="I59">
-        <v>137.68298300000001</v>
-      </c>
-    </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D60" s="2"/>
-      <c r="H60">
-        <v>35.502662999999998</v>
-      </c>
-      <c r="I60">
-        <v>139.64917</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D61" s="2"/>
-      <c r="H61">
-        <v>35.558971</v>
-      </c>
-      <c r="I61">
-        <v>139.42047099999999</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D62" s="2"/>
-      <c r="H62">
-        <v>34.679665</v>
-      </c>
-      <c r="I62">
-        <v>135.535675</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D63" s="2"/>
-      <c r="H63">
-        <v>26.136572000000001</v>
-      </c>
-      <c r="I63">
-        <v>127.66835</v>
-      </c>
-    </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D64" s="2"/>
-      <c r="H64">
-        <v>36.297339999999998</v>
-      </c>
-      <c r="I64">
-        <v>139.87222299999999</v>
-      </c>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D65" s="2"/>
-      <c r="H65">
-        <v>35.484444000000003</v>
-      </c>
-      <c r="I65">
-        <v>138.82595800000001</v>
-      </c>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D66" s="2"/>
-      <c r="H66">
-        <v>35.694004</v>
-      </c>
-      <c r="I66">
-        <v>139.75363200000001</v>
-      </c>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D67" s="2"/>
-      <c r="H67">
-        <v>35.565697</v>
-      </c>
-      <c r="I67">
-        <v>139.71984900000001</v>
-      </c>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D68" s="2"/>
-      <c r="H68">
-        <v>34.693890000000003</v>
-      </c>
-      <c r="I68">
-        <v>135.50204500000001</v>
-      </c>
-    </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D69" s="2"/>
-      <c r="H69">
-        <v>34.959820000000001</v>
-      </c>
-      <c r="I69">
-        <v>136.91487100000001</v>
-      </c>
-    </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D70" s="2"/>
-      <c r="H70">
-        <v>37.604579999999999</v>
-      </c>
-      <c r="I70">
-        <v>140.494934</v>
-      </c>
-    </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D71" s="2"/>
-      <c r="H71">
-        <v>35.730018999999999</v>
-      </c>
-      <c r="I71">
-        <v>139.78872699999999</v>
-      </c>
-    </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D72" s="2"/>
-      <c r="H72">
-        <v>34.733555000000003</v>
-      </c>
-      <c r="I72">
-        <v>135.406387</v>
-      </c>
-    </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D73" s="2"/>
-      <c r="H73">
-        <v>35.736229000000002</v>
-      </c>
-      <c r="I73">
-        <v>140.010513</v>
-      </c>
-    </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D74" s="2"/>
-      <c r="H74">
-        <v>33.585552</v>
-      </c>
-      <c r="I74">
-        <v>130.429474</v>
-      </c>
-    </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D75" s="2"/>
-      <c r="H75">
-        <v>34.092606000000004</v>
-      </c>
-      <c r="I75">
-        <v>131.400284</v>
-      </c>
-    </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D76" s="2"/>
-      <c r="H76">
-        <v>35.117626000000001</v>
-      </c>
-      <c r="I76">
-        <v>138.90876800000001</v>
-      </c>
-    </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D77" s="2"/>
-      <c r="H77">
-        <v>35.388004000000002</v>
-      </c>
-      <c r="I77">
-        <v>139.28895600000001</v>
-      </c>
-    </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D78" s="2"/>
-      <c r="H78">
-        <v>35.934157999999996</v>
-      </c>
-      <c r="I78">
-        <v>139.41340600000001</v>
-      </c>
-    </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D79" s="2"/>
-      <c r="H79">
-        <v>35.464924000000003</v>
-      </c>
-      <c r="I79">
-        <v>139.52809099999999</v>
-      </c>
-    </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D80" s="2"/>
-      <c r="H80">
-        <v>35.44632</v>
-      </c>
-      <c r="I80">
-        <v>137.80917400000001</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D81" s="2"/>
-      <c r="H81">
-        <v>34.914593000000004</v>
-      </c>
-      <c r="I81">
-        <v>135.68362400000001</v>
-      </c>
-    </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D82" s="2"/>
-      <c r="H82">
-        <v>34.729553000000003</v>
-      </c>
-      <c r="I82">
-        <v>135.383591</v>
-      </c>
-    </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D83" s="2"/>
-      <c r="H83">
-        <v>34.155312000000002</v>
-      </c>
-      <c r="I83">
-        <v>135.209183</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D84" s="2"/>
-      <c r="H84">
-        <v>35.687179999999998</v>
-      </c>
-      <c r="I84">
-        <v>139.82342499999999</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D85" s="2"/>
-      <c r="H85">
-        <v>35.929133999999998</v>
-      </c>
-      <c r="I85">
-        <v>139.66116299999999</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D86" s="2"/>
-      <c r="H86">
-        <v>35.161385000000003</v>
-      </c>
-      <c r="I86">
-        <v>138.67631499999999</v>
-      </c>
-    </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D87" s="2"/>
-      <c r="H87">
-        <v>35.697249999999997</v>
-      </c>
-      <c r="I87">
-        <v>139.433334</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D88" s="2"/>
-      <c r="H88">
-        <v>26.212295999999998</v>
-      </c>
-      <c r="I88">
-        <v>127.679214</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D89" s="2"/>
-      <c r="H89">
-        <v>33.188915000000001</v>
-      </c>
-      <c r="I89">
-        <v>131.65512100000001</v>
-      </c>
-    </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D90" s="2"/>
-      <c r="H90">
-        <v>34.814442</v>
-      </c>
-      <c r="I90">
-        <v>135.76783800000001</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D91" s="2"/>
-      <c r="H91">
-        <v>33.888573000000001</v>
-      </c>
-      <c r="I91">
-        <v>134.65051299999999</v>
-      </c>
-    </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D92" s="2"/>
-      <c r="H92">
-        <v>35.715907999999999</v>
-      </c>
-      <c r="I92">
-        <v>139.556534</v>
-      </c>
-    </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D93" s="2"/>
-      <c r="H93">
-        <v>34.383347000000001</v>
-      </c>
-      <c r="I93">
-        <v>135.36798099999999</v>
-      </c>
-    </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D94" s="2"/>
-      <c r="H94">
-        <v>35.487492000000003</v>
-      </c>
-      <c r="I94">
-        <v>137.50060999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D95" s="2"/>
-      <c r="H95">
-        <v>35.080688000000002</v>
-      </c>
-      <c r="I95">
-        <v>136.98782299999999</v>
-      </c>
-    </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D96" s="2"/>
-      <c r="H96">
-        <v>35.698993999999999</v>
-      </c>
-      <c r="I96">
-        <v>139.685654</v>
-      </c>
-    </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D97" s="2"/>
-      <c r="H97">
-        <v>35.154071999999999</v>
-      </c>
-      <c r="I97">
-        <v>136.87617499999999</v>
-      </c>
-    </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D98" s="2"/>
-      <c r="H98">
-        <v>36.117145999999998</v>
-      </c>
-      <c r="I98">
-        <v>139.470596</v>
-      </c>
-    </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D99" s="2"/>
-      <c r="H99">
-        <v>35.834698000000003</v>
-      </c>
-      <c r="I99">
-        <v>139.57545500000001</v>
-      </c>
-    </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D100" s="2"/>
-      <c r="H100">
-        <v>35.689048999999997</v>
-      </c>
-      <c r="I100">
-        <v>140.02499399999999</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D101" s="2"/>
-      <c r="H101">
-        <v>36.175068000000003</v>
-      </c>
-      <c r="I101">
-        <v>139.335297</v>
-      </c>
-    </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D102" s="2"/>
-      <c r="H102">
-        <v>35.740004999999996</v>
-      </c>
-      <c r="I102">
-        <v>139.66452000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D103" s="2"/>
-      <c r="H103">
-        <v>34.518940000000001</v>
-      </c>
-      <c r="I103">
-        <v>135.84776299999999</v>
-      </c>
-    </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D104" s="2"/>
-      <c r="H104">
-        <v>33.972588000000002</v>
-      </c>
-      <c r="I104">
-        <v>131.23092700000001</v>
-      </c>
-    </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D105" s="2"/>
-      <c r="H105">
-        <v>35.832332999999998</v>
-      </c>
-      <c r="I105">
-        <v>140.14576700000001</v>
-      </c>
-    </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D106" s="2"/>
-      <c r="H106">
-        <v>35.541789999999999</v>
-      </c>
-      <c r="I106">
-        <v>139.56012000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D107" s="2"/>
-      <c r="H107">
-        <v>35.731372999999998</v>
-      </c>
-      <c r="I107">
-        <v>139.71530200000001</v>
-      </c>
-    </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D108" s="2"/>
-      <c r="H108">
-        <v>26.245815</v>
-      </c>
-      <c r="I108">
-        <v>127.721802</v>
-      </c>
-    </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D109" s="2"/>
-      <c r="H109">
-        <v>35.337265000000002</v>
-      </c>
-      <c r="I109">
-        <v>139.32626300000001</v>
-      </c>
-    </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D110" s="2"/>
-      <c r="H110">
-        <v>34.716335000000001</v>
-      </c>
-      <c r="I110">
-        <v>135.38343800000001</v>
-      </c>
-    </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD93A3AB-591C-44BE-AE72-448B41C65E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489911F9-AFBD-421A-9BCA-60DC390C5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30450" yWindow="4050" windowWidth="24240" windowHeight="15210" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="27150" yWindow="3135" windowWidth="24240" windowHeight="15210" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,21 +96,6 @@
     <t>埼玉県</t>
   </si>
   <si>
-    <t>川越市</t>
-  </si>
-  <si>
-    <t>新潟県</t>
-  </si>
-  <si>
-    <t>三条市島田</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>北見市春光町</t>
-  </si>
-  <si>
     <t>愛知県</t>
   </si>
   <si>
@@ -163,6 +148,21 @@
   </si>
   <si>
     <t>伊賀市上野忍町</t>
+  </si>
+  <si>
+    <t>大分県</t>
+  </si>
+  <si>
+    <t>速見郡日出町</t>
+  </si>
+  <si>
+    <t>四街道市みそら</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>静岡市駿河区</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I14"/>
+      <selection activeCell="H2" sqref="H2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -615,31 +615,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>埼玉県川越市</v>
+        <v>大分県速見郡日出町</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%B7%9D%E8%B6%8A%E5%B8%82</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E5%88%86%E7%9C%8C%E9%80%9F%E8%A6%8B%E9%83%A1%E6%97%A5%E5%87%BA%E7%94%BA</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;埼玉県川越市&lt;/query&gt;
+&lt;query&gt;大分県速見郡日出町&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県川越市&lt;/converted&gt;
+&lt;converted&gt;大分県速見郡日出町&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;埼玉県/川越市&lt;/address&gt;
-&lt;longitude&gt;139.485840&lt;/longitude&gt;
-&lt;latitude&gt;35.925114&lt;/latitude&gt;
+&lt;address&gt;大分県/速見郡/日出町&lt;/address&gt;
+&lt;longitude&gt;131.532532&lt;/longitude&gt;
+&lt;latitude&gt;33.369442&lt;/latitude&gt;
 &lt;iLvl&gt;3&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
@@ -647,46 +647,46 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>35.925114000000001</v>
+        <v>33.369441999999999</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>139.48584</v>
+        <v>131.532532</v>
       </c>
       <c r="H2">
-        <v>35.925114000000001</v>
+        <v>33.369441999999999</v>
       </c>
       <c r="I2">
-        <v>139.48584</v>
+        <v>131.532532</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
-        <v>新潟県三条市島田</v>
+        <v>千葉県四街道市みそら</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E4%B8%89%E6%9D%A1%E5%B8%82%E5%B3%B6%E7%94%B0</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%9B%9B%E8%A1%97%E9%81%93%E5%B8%82%E3%81%BF%E3%81%9D%E3%82%89</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;新潟県三条市島田&lt;/query&gt;
+&lt;query&gt;千葉県四街道市みそら&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;新潟県三条市島田&lt;/converted&gt;
+&lt;converted&gt;千葉県四街道市みそら&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;新潟県/三条市/島田&lt;/address&gt;
-&lt;longitude&gt;138.947311&lt;/longitude&gt;
-&lt;latitude&gt;37.628372&lt;/latitude&gt;
+&lt;address&gt;千葉県/四街道市/みそら&lt;/address&gt;
+&lt;longitude&gt;140.195770&lt;/longitude&gt;
+&lt;latitude&gt;35.666645&lt;/latitude&gt;
 &lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
@@ -694,83 +694,83 @@
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
-        <v>37.628371999999999</v>
+        <v>35.666645000000003</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
-        <v>138.94731100000001</v>
+        <v>140.19577000000001</v>
       </c>
       <c r="H3">
-        <v>37.628371999999999</v>
+        <v>35.666645000000003</v>
       </c>
       <c r="I3">
-        <v>138.94731100000001</v>
+        <v>140.19577000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>北海道北見市春光町</v>
+        <v>静岡県静岡市駿河区</v>
       </c>
       <c r="D4" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E5%8C%97%E8%A6%8B%E5%B8%82%E6%98%A5%E5%85%89%E7%94%BA</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E9%9D%99%E5%B2%A1%E5%B8%82%E9%A7%BF%E6%B2%B3%E5%8C%BA</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;北海道北見市春光町&lt;/query&gt;
+&lt;query&gt;静岡県静岡市駿河区&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;北海道北見市春光町&lt;/converted&gt;
+&lt;converted&gt;静岡県静岡市駿河区&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;北海道/北見市/春光町&lt;/address&gt;
-&lt;longitude&gt;143.915222&lt;/longitude&gt;
-&lt;latitude&gt;43.822224&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;address&gt;静岡県/静岡市/駿河区&lt;/address&gt;
+&lt;longitude&gt;138.404053&lt;/longitude&gt;
+&lt;latitude&gt;34.960747&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
-        <v>43.822223999999999</v>
+        <v>34.960746999999998</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
-        <v>143.915222</v>
+        <v>138.404053</v>
       </c>
       <c r="H4">
-        <v>43.822223999999999</v>
+        <v>34.960746999999998</v>
       </c>
       <c r="I4">
-        <v>143.915222</v>
+        <v>138.404053</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ref="C5:C68" si="3">+A5&amp;B5</f>
+        <f t="shared" ref="C5:C14" si="3">+A5&amp;B5</f>
         <v>愛知県岡崎市材木町</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:D68" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <f t="shared" ref="D5:D14" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%B2%A1%E5%B4%8E%E5%B8%82%E6%9D%90%E6%9C%A8%E7%94%BA</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E68" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <f t="shared" ref="E5:E14" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県岡崎市材木町&lt;/query&gt;
@@ -803,10 +803,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="3"/>
@@ -850,10 +850,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="3"/>
@@ -897,10 +897,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="3"/>
@@ -947,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="3"/>
@@ -991,10 +991,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="3"/>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="3"/>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="3"/>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA274DAC-C0FB-4814-BAE3-EDB006D39505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71E137-4DC2-49F9-B221-839B54969A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="1515" windowWidth="21060" windowHeight="14325" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="4320" yWindow="1590" windowWidth="22815" windowHeight="14325" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>jio0</t>
   </si>
@@ -199,6 +199,42 @@
   </si>
   <si>
     <t>岡山市南区福富西2丁目</t>
+  </si>
+  <si>
+    <t>奈良県</t>
+  </si>
+  <si>
+    <t>生駒市萩原町</t>
+  </si>
+  <si>
+    <t>知多郡東浦町緒川</t>
+  </si>
+  <si>
+    <t>練馬区関町北</t>
+  </si>
+  <si>
+    <t>多治見市宝町</t>
+  </si>
+  <si>
+    <t>浦安市</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>福知山市正明寺</t>
+  </si>
+  <si>
+    <t>群馬県</t>
+  </si>
+  <si>
+    <t>太田市城西町</t>
+  </si>
+  <si>
+    <t>世田谷区岡本</t>
+  </si>
+  <si>
+    <t>品川区東五反田</t>
   </si>
 </sst>
 </file>
@@ -607,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F783F1-693B-40FB-B54E-2CFAE0B1ADB5}">
   <dimension ref="A1:I3761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -651,21 +687,397 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>千葉県船橋市</v>
+        <v>奈良県生駒市萩原町</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;奈良県生駒市萩原町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;奈良県生駒市萩原町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;奈良県/生駒市/萩原町&lt;/address&gt;
+&lt;longitude&gt;135.702087&lt;/longitude&gt;
+&lt;latitude&gt;34.665543&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>34.665543</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>135.70208700000001</v>
+      </c>
+      <c r="H2">
+        <v>34.665543</v>
+      </c>
+      <c r="I2">
+        <v>135.70208700000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>愛知県知多郡東浦町緒川</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E6%9D%B1%E6%B5%A6%E7%94%BA%E7%B7%92%E5%B7%9D</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県知多郡東浦町緒川&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県知多郡東浦町緒川&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/知多郡/東浦町/緒川&lt;/address&gt;
+&lt;longitude&gt;136.936691&lt;/longitude&gt;
+&lt;latitude&gt;34.972813&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>34.972813000000002</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>136.936691</v>
+      </c>
+      <c r="H3">
+        <v>34.972813000000002</v>
+      </c>
+      <c r="I3">
+        <v>136.936691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>東京都練馬区関町北</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都練馬区関町北&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都練馬区関町北&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/練馬区/関町北&lt;/address&gt;
+&lt;longitude&gt;139.578949&lt;/longitude&gt;
+&lt;latitude&gt;35.725349&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.725349000000001</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>139.57894899999999</v>
+      </c>
+      <c r="H4">
+        <v>35.725349000000001</v>
+      </c>
+      <c r="I4">
+        <v>139.57894899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>岐阜県多治見市宝町</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;岐阜県多治見市宝町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;岐阜県多治見市宝町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;岐阜県/多治見市/宝町&lt;/address&gt;
+&lt;longitude&gt;137.113083&lt;/longitude&gt;
+&lt;latitude&gt;35.338383&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>35.338383</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>137.11308299999999</v>
+      </c>
+      <c r="H5">
+        <v>35.338383</v>
+      </c>
+      <c r="I5">
+        <v>137.11308299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>千葉県浦安市</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E6%B5%A6%E5%AE%89%E5%B8%82</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県浦安市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県浦安市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/浦安市&lt;/address&gt;
+&lt;longitude&gt;139.902191&lt;/longitude&gt;
+&lt;latitude&gt;35.653988&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+        <v>35.653987999999998</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+        <v>139.90219099999999</v>
+      </c>
+      <c r="H6">
+        <v>35.653987999999998</v>
+      </c>
+      <c r="I6">
+        <v>139.90219099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>京都府福知山市正明寺</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E7%A6%8F%E7%9F%A5%E5%B1%B1%E5%B8%82%E6%AD%A3%E6%98%8E%E5%AF%BA</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;京都府福知山市正明寺&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;京都府福知山市正明寺&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;京都府/福知山市/正明寺&lt;/address&gt;
+&lt;longitude&gt;135.104187&lt;/longitude&gt;
+&lt;latitude&gt;35.286716&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>35.286715999999998</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>135.104187</v>
+      </c>
+      <c r="H7">
+        <v>35.286715999999998</v>
+      </c>
+      <c r="I7">
+        <v>135.104187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
+        <v>群馬県太田市城西町</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E5%A4%AA%E7%94%B0%E5%B8%82%E5%9F%8E%E8%A5%BF%E7%94%BA</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;群馬県太田市城西町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;群馬県太田市城西町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;群馬県/太田市/城西町&lt;/address&gt;
+&lt;longitude&gt;139.337601&lt;/longitude&gt;
+&lt;latitude&gt;36.310654&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+        <v>36.310654</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+        <v>139.33760100000001</v>
+      </c>
+      <c r="H8">
+        <v>36.310654</v>
+      </c>
+      <c r="I8">
+        <v>139.33760100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都世田谷区岡本</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E5%B2%A1%E6%9C%AC</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都世田谷区岡本&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都世田谷区岡本&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/世田谷区/岡本&lt;/address&gt;
+&lt;longitude&gt;139.620575&lt;/longitude&gt;
+&lt;latitude&gt;35.624981&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+        <v>35.624980999999998</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+        <v>139.620575</v>
+      </c>
+      <c r="H9">
+        <v>35.624980999999998</v>
+      </c>
+      <c r="I9">
+        <v>139.620575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
+        <v>千葉県船橋市</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県船橋市&lt;/query&gt;
@@ -681,38 +1093,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H2">
+      <c r="H10">
         <v>35.694710000000001</v>
       </c>
-      <c r="I2">
+      <c r="I10">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>高知県高知市長浜蒔絵台</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%95%B7%E6%B5%9C%E8%92%94%E7%B5%B5%E5%8F%B0</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;高知県高知市長浜蒔絵台&lt;/query&gt;
@@ -728,395 +1140,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
-        <v>33.515532999999998</v>
-      </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
-        <v>133.52641299999999</v>
-      </c>
-      <c r="H3">
-        <v>33.515532999999998</v>
-      </c>
-      <c r="I3">
-        <v>133.52641299999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>兵庫県宝塚市</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;兵庫県宝塚市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;兵庫県宝塚市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;兵庫県/宝塚市&lt;/address&gt;
-&lt;longitude&gt;135.360092&lt;/longitude&gt;
-&lt;latitude&gt;34.799816&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
-        <v>34.799816</v>
-      </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
-        <v>135.36009200000001</v>
-      </c>
-      <c r="H4">
-        <v>34.799816</v>
-      </c>
-      <c r="I4">
-        <v>135.36009200000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
-        <v>東京都世田谷区</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;東京都世田谷区&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都世田谷区&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;東京都/世田谷区&lt;/address&gt;
-&lt;longitude&gt;139.653214&lt;/longitude&gt;
-&lt;latitude&gt;35.646481&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
-        <v>35.646481000000001</v>
-      </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
-        <v>139.65321399999999</v>
-      </c>
-      <c r="H5">
-        <v>35.646481000000001</v>
-      </c>
-      <c r="I5">
-        <v>139.65321399999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
-        <v>大阪府大阪市浪速区桜川</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府大阪市浪速区桜川&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府大阪市浪速区桜川&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/大阪市/浪速区/桜川&lt;/address&gt;
-&lt;longitude&gt;135.492844&lt;/longitude&gt;
-&lt;latitude&gt;34.666893&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
-        <v>34.666893000000002</v>
-      </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
-        <v>135.49284399999999</v>
-      </c>
-      <c r="H6">
-        <v>34.666893000000002</v>
-      </c>
-      <c r="I6">
-        <v>135.49284399999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
-        <v>千葉県野田市親野井</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;千葉県野田市親野井&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;千葉県野田市親野井&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;千葉県/野田市/親野井&lt;/address&gt;
-&lt;longitude&gt;139.813599&lt;/longitude&gt;
-&lt;latitude&gt;36.040676&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
-        <v>36.040675999999998</v>
-      </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
-        <v>139.81359900000001</v>
-      </c>
-      <c r="H7">
-        <v>36.040675999999998</v>
-      </c>
-      <c r="I7">
-        <v>139.81359900000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="9"/>
-        <v>岐阜県岐阜市須賀</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;岐阜県岐阜市須賀&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;岐阜県岐阜市須賀&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;岐阜県/岐阜市/須賀&lt;/address&gt;
-&lt;longitude&gt;136.723984&lt;/longitude&gt;
-&lt;latitude&gt;35.386009&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
-        <v>35.386009000000001</v>
-      </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
-        <v>136.723984</v>
-      </c>
-      <c r="H8">
-        <v>35.386009000000001</v>
-      </c>
-      <c r="I8">
-        <v>136.723984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="9"/>
-        <v>神奈川県横浜市神奈川区</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;神奈川県横浜市神奈川区&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県横浜市神奈川区&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;神奈川県/横浜市/神奈川区&lt;/address&gt;
-&lt;longitude&gt;139.629288&lt;/longitude&gt;
-&lt;latitude&gt;35.477051&lt;/latitude&gt;
-&lt;iLvl&gt;4&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
-        <v>35.477051000000003</v>
-      </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
-        <v>139.629288</v>
-      </c>
-      <c r="H9">
-        <v>35.477051000000003</v>
-      </c>
-      <c r="I9">
-        <v>139.629288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="9"/>
-        <v>広島県広島市佐伯区五日市町</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;広島県広島市佐伯区五日市町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;広島県広島市佐伯区五日市町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;広島県/広島市/佐伯区/五日市町&lt;/address&gt;
-&lt;longitude&gt;132.375351&lt;/longitude&gt;
-&lt;latitude&gt;34.361729&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
-        <v>34.361728999999997</v>
-      </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
-        <v>132.37535099999999</v>
-      </c>
-      <c r="H10">
-        <v>34.361728999999997</v>
-      </c>
-      <c r="I10">
-        <v>132.37535099999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="9"/>
-        <v>千葉県千葉市美浜区</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;千葉県千葉市美浜区&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;千葉県千葉市美浜区&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;千葉県/千葉市/美浜区&lt;/address&gt;
-&lt;longitude&gt;140.063034&lt;/longitude&gt;
-&lt;latitude&gt;35.640553&lt;/latitude&gt;
-&lt;iLvl&gt;4&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
       <c r="F11" cm="1">
         <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
-        <v>35.640552999999997</v>
+        <v>33.515532999999998</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
-        <v>140.06303399999999</v>
+        <v>133.52641299999999</v>
       </c>
       <c r="H11">
-        <v>35.640552999999997</v>
+        <v>33.515532999999998</v>
       </c>
       <c r="I11">
-        <v>140.06303399999999</v>
+        <v>133.52641299999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -1168,20 +1204,396 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="9"/>
-        <v>神奈川県横浜市神奈川区子安台</v>
+        <v>東京都世田谷区</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都世田谷区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都世田谷区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/世田谷区&lt;/address&gt;
+&lt;longitude&gt;139.653214&lt;/longitude&gt;
+&lt;latitude&gt;35.646481&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+        <v>35.646481000000001</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+        <v>139.65321399999999</v>
+      </c>
+      <c r="H13">
+        <v>35.646481000000001</v>
+      </c>
+      <c r="I13">
+        <v>139.65321399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="9"/>
+        <v>大阪府大阪市浪速区桜川</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪市浪速区桜川&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市浪速区桜川&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市/浪速区/桜川&lt;/address&gt;
+&lt;longitude&gt;135.492844&lt;/longitude&gt;
+&lt;latitude&gt;34.666893&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+        <v>34.666893000000002</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+        <v>135.49284399999999</v>
+      </c>
+      <c r="H14">
+        <v>34.666893000000002</v>
+      </c>
+      <c r="I14">
+        <v>135.49284399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="9"/>
+        <v>千葉県野田市親野井</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県野田市親野井&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県野田市親野井&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/野田市/親野井&lt;/address&gt;
+&lt;longitude&gt;139.813599&lt;/longitude&gt;
+&lt;latitude&gt;36.040676&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+        <v>36.040675999999998</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+        <v>139.81359900000001</v>
+      </c>
+      <c r="H15">
+        <v>36.040675999999998</v>
+      </c>
+      <c r="I15">
+        <v>139.81359900000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="9"/>
+        <v>岐阜県岐阜市須賀</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;岐阜県岐阜市須賀&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;岐阜県岐阜市須賀&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;岐阜県/岐阜市/須賀&lt;/address&gt;
+&lt;longitude&gt;136.723984&lt;/longitude&gt;
+&lt;latitude&gt;35.386009&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+        <v>35.386009000000001</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+        <v>136.723984</v>
+      </c>
+      <c r="H16">
+        <v>35.386009000000001</v>
+      </c>
+      <c r="I16">
+        <v>136.723984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県横浜市神奈川区</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市神奈川区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市神奈川区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/神奈川区&lt;/address&gt;
+&lt;longitude&gt;139.629288&lt;/longitude&gt;
+&lt;latitude&gt;35.477051&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+        <v>35.477051000000003</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+        <v>139.629288</v>
+      </c>
+      <c r="H17">
+        <v>35.477051000000003</v>
+      </c>
+      <c r="I17">
+        <v>139.629288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="9"/>
+        <v>広島県広島市佐伯区五日市町</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;広島県広島市佐伯区五日市町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;広島県広島市佐伯区五日市町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;広島県/広島市/佐伯区/五日市町&lt;/address&gt;
+&lt;longitude&gt;132.375351&lt;/longitude&gt;
+&lt;latitude&gt;34.361729&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+        <v>34.361728999999997</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+        <v>132.37535099999999</v>
+      </c>
+      <c r="H18">
+        <v>34.361728999999997</v>
+      </c>
+      <c r="I18">
+        <v>132.37535099999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="9"/>
+        <v>千葉県千葉市美浜区</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県千葉市美浜区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県千葉市美浜区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/千葉市/美浜区&lt;/address&gt;
+&lt;longitude&gt;140.063034&lt;/longitude&gt;
+&lt;latitude&gt;35.640553&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+        <v>35.640552999999997</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+        <v>140.06303399999999</v>
+      </c>
+      <c r="H19">
+        <v>35.640552999999997</v>
+      </c>
+      <c r="I19">
+        <v>140.06303399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="9"/>
+        <v>兵庫県宝塚市</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県宝塚市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県宝塚市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/宝塚市&lt;/address&gt;
+&lt;longitude&gt;135.360092&lt;/longitude&gt;
+&lt;latitude&gt;34.799816&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+        <v>34.799816</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+        <v>135.36009200000001</v>
+      </c>
+      <c r="H20">
+        <v>34.799816</v>
+      </c>
+      <c r="I20">
+        <v>135.36009200000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県横浜市神奈川区子安台</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA%E5%AD%90%E5%AE%89%E5%8F%B0</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1198,37 +1610,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.491627000000001</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>139.658829</v>
       </c>
-      <c r="H13">
+      <c r="H21">
         <v>35.491627000000001</v>
       </c>
-      <c r="I13">
+      <c r="I21">
         <v>139.658829</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1245,37 +1657,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H14">
+      <c r="H22">
         <v>34.759402999999999</v>
       </c>
-      <c r="I14">
+      <c r="I22">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>熊本県葦北郡津奈木町福浜</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E6%B4%A5%E5%A5%88%E6%9C%A8%E7%94%BA%E7%A6%8F%E6%B5%9C</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1292,37 +1704,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>32.268051</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>130.45193499999999</v>
       </c>
-      <c r="H15">
+      <c r="H23">
         <v>32.268051</v>
       </c>
-      <c r="I15">
+      <c r="I23">
         <v>130.45193499999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>秋田県秋田市</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A7%8B%E7%94%B0%E7%9C%8C%E7%A7%8B%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1339,38 +1751,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>39.719929</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>140.102509</v>
       </c>
-      <c r="H16">
+      <c r="H24">
         <v>39.719929</v>
       </c>
-      <c r="I16">
+      <c r="I24">
         <v>140.102509</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>神奈川県川崎市中原区新丸子東</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E4%B8%AD%E5%8E%9F%E5%8C%BA%E6%96%B0%E4%B8%B8%E5%AD%90%E6%9D%B1</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県川崎市中原区新丸子東&lt;/query&gt;
@@ -1386,38 +1798,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>35.580086000000001</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>139.66317699999999</v>
       </c>
-      <c r="H17">
+      <c r="H25">
         <v>35.580086000000001</v>
       </c>
-      <c r="I17">
+      <c r="I25">
         <v>139.66317699999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>大阪府寝屋川市点野</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%9D%E5%B1%8B%E5%B7%9D%E5%B8%82%E7%82%B9%E9%87%8E</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府寝屋川市点野&lt;/query&gt;
@@ -1433,38 +1845,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>34.780231000000001</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>135.605133</v>
       </c>
-      <c r="H18">
+      <c r="H26">
         <v>34.780231000000001</v>
       </c>
-      <c r="I18">
+      <c r="I26">
         <v>135.605133</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="9"/>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>岡山県岡山市南区福富西2丁目</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%B2%A1%E5%B1%B1%E5%B8%82%E5%8D%97%E5%8C%BA%E7%A6%8F%E5%AF%8C%E8%A5%BF2%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岡山県岡山市南区福富西2丁目&lt;/query&gt;
@@ -1480,38 +1892,85 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>34.621516999999997</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>133.93177800000001</v>
       </c>
-      <c r="H19">
+      <c r="H27">
         <v>34.621516999999997</v>
       </c>
-      <c r="I19">
+      <c r="I27">
         <v>133.93177800000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
+        <v>東京都品川区東五反田</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA%E6%9D%B1%E4%BA%94%E5%8F%8D%E7%94%B0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都品川区東五反田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都品川区東五反田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/品川区/東五反田&lt;/address&gt;
+&lt;longitude&gt;139.726425&lt;/longitude&gt;
+&lt;latitude&gt;35.627762&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+        <v>35.627761999999997</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+        <v>139.72642500000001</v>
+      </c>
+      <c r="H28">
+        <v>35.627761999999997</v>
+      </c>
+      <c r="I28">
+        <v>139.72642500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="9"/>
+      <c r="C29" t="str">
+        <f t="shared" si="12"/>
         <v>長野県長野市川中島町上氷鉋</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E5%B7%9D%E4%B8%AD%E5%B3%B6%E7%94%BA%E4%B8%8A%E6%B0%B7%E9%89%8B</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="11"/>
+      <c r="E29" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;長野県長野市川中島町上氷鉋&lt;/query&gt;
@@ -1527,38 +1986,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>36.611911999999997</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>138.157059</v>
       </c>
-      <c r="H20">
+      <c r="H29">
         <v>36.611911999999997</v>
       </c>
-      <c r="I20">
+      <c r="I29">
         <v>138.157059</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
+      <c r="C30" t="str">
+        <f t="shared" si="12"/>
         <v>広島県広島市安佐南区長束西</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E5%AE%89%E4%BD%90%E5%8D%97%E5%8C%BA%E9%95%B7%E6%9D%9F%E8%A5%BF</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
+      <c r="E30" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県広島市安佐南区長束西&lt;/query&gt;
@@ -1574,38 +2033,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>34.427909999999997</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>132.450165</v>
       </c>
-      <c r="H21">
+      <c r="H30">
         <v>34.427909999999997</v>
       </c>
-      <c r="I21">
+      <c r="I30">
         <v>132.450165</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C31" t="str">
+        <f t="shared" si="12"/>
         <v>新潟県新潟市中央区明石</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E6%96%B0%E6%BD%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E6%98%8E%E7%9F%B3</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E31" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;新潟県新潟市中央区明石&lt;/query&gt;
@@ -1621,38 +2080,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
         <v>37.916012000000002</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
         <v>139.065506</v>
       </c>
-      <c r="H22">
+      <c r="H31">
         <v>37.916012000000002</v>
       </c>
-      <c r="I22">
+      <c r="I31">
         <v>139.065506</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+      <c r="C32" t="str">
+        <f t="shared" si="12"/>
         <v>埼玉県秩父市熊木町</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%A7%A9%E7%88%B6%E5%B8%82%E7%86%8A%E6%9C%A8%E7%94%BA</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E32" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県秩父市熊木町&lt;/query&gt;
@@ -1668,38 +2127,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>35.991272000000002</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>139.08822599999999</v>
       </c>
-      <c r="H23">
+      <c r="H32">
         <v>35.991272000000002</v>
       </c>
-      <c r="I23">
+      <c r="I32">
         <v>139.08822599999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C33" t="str">
+        <f t="shared" si="12"/>
         <v>愛知県安城市緑町</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%AE%89%E5%9F%8E%E5%B8%82%E7%B7%91%E7%94%BA</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E33" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県安城市緑町&lt;/query&gt;
@@ -1715,4495 +2174,1516 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
         <v>34.973072000000002</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
         <v>137.05100999999999</v>
       </c>
-      <c r="H24">
+      <c r="H33">
         <v>34.973072000000002</v>
       </c>
-      <c r="I24">
+      <c r="I33">
         <v>137.05100999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D25" s="2"/>
-      <c r="H25">
-        <v>35.201611</v>
-      </c>
-      <c r="I25">
-        <v>136.88632200000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D26" s="2"/>
-      <c r="H26">
-        <v>35.146191000000002</v>
-      </c>
-      <c r="I26">
-        <v>136.87998999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D27" s="2"/>
-      <c r="H27">
-        <v>35.082343999999999</v>
-      </c>
-      <c r="I27">
-        <v>137.15621899999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D28" s="2"/>
-      <c r="H28">
-        <v>36.042164</v>
-      </c>
-      <c r="I28">
-        <v>139.39994799999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D29" s="2"/>
-      <c r="H29">
-        <v>34.629440000000002</v>
-      </c>
-      <c r="I29">
-        <v>136.09515400000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D30" s="2"/>
-      <c r="H30">
-        <v>35.563541000000001</v>
-      </c>
-      <c r="I30">
-        <v>139.56991600000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D31" s="2"/>
-      <c r="H31">
-        <v>35.436321</v>
-      </c>
-      <c r="I31">
-        <v>139.54478499999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D32" s="2"/>
-      <c r="H32">
-        <v>35.855877</v>
-      </c>
-      <c r="I32">
-        <v>139.60977199999999</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D33" s="2"/>
-      <c r="H33">
-        <v>34.995441</v>
-      </c>
-      <c r="I33">
-        <v>137.16250600000001</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D34" s="2"/>
-      <c r="H34">
-        <v>35.891086999999999</v>
-      </c>
-      <c r="I34">
-        <v>139.79093900000001</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D35" s="2"/>
-      <c r="H35">
-        <v>35.785763000000003</v>
-      </c>
-      <c r="I35">
-        <v>139.52642800000001</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D36" s="2"/>
-      <c r="H36">
-        <v>34.710155</v>
-      </c>
-      <c r="I36">
-        <v>137.37210099999999</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D37" s="2"/>
-      <c r="H37">
-        <v>35.545315000000002</v>
-      </c>
-      <c r="I37">
-        <v>139.506134</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D38" s="2"/>
-      <c r="H38">
-        <v>37.423515000000002</v>
-      </c>
-      <c r="I38">
-        <v>138.835938</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D39" s="2"/>
-      <c r="H39">
-        <v>34.686092000000002</v>
-      </c>
-      <c r="I39">
-        <v>135.56184400000001</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D40" s="2"/>
-      <c r="H40">
-        <v>34.825702999999997</v>
-      </c>
-      <c r="I40">
-        <v>138.269363</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D41" s="2"/>
-      <c r="H41">
-        <v>35.201611</v>
-      </c>
-      <c r="I41">
-        <v>136.88632200000001</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D42" s="2"/>
-      <c r="H42">
-        <v>34.693890000000003</v>
-      </c>
-      <c r="I42">
-        <v>135.50204500000001</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D43" s="2"/>
-      <c r="H43">
-        <v>34.838818000000003</v>
-      </c>
-      <c r="I43">
-        <v>135.591354</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D44" s="2"/>
-      <c r="H44">
-        <v>33.951622</v>
-      </c>
-      <c r="I44">
-        <v>131.24676500000001</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D45" s="2"/>
-      <c r="H45">
-        <v>34.145167999999998</v>
-      </c>
-      <c r="I45">
-        <v>134.41107199999999</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D46" s="2"/>
-      <c r="H46">
-        <v>37.760123999999998</v>
-      </c>
-      <c r="I46">
-        <v>139.03286700000001</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D47" s="2"/>
-      <c r="H47">
-        <v>33.935951000000003</v>
-      </c>
-      <c r="I47">
-        <v>133.29092399999999</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D48" s="2"/>
-      <c r="H48">
-        <v>36.544617000000002</v>
-      </c>
-      <c r="I48">
-        <v>136.59773300000001</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D49" s="2"/>
-      <c r="H49">
-        <v>35.689048999999997</v>
-      </c>
-      <c r="I49">
-        <v>140.02499399999999</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D50" s="2"/>
-      <c r="H50">
-        <v>35.545077999999997</v>
-      </c>
-      <c r="I50">
-        <v>139.670151</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D51" s="2"/>
-      <c r="H51">
-        <v>35.680599000000001</v>
-      </c>
-      <c r="I51">
-        <v>139.32048</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D52" s="2"/>
-      <c r="H52">
-        <v>35.991272000000002</v>
-      </c>
-      <c r="I52">
-        <v>139.08822599999999</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D53" s="2"/>
-      <c r="H53">
-        <v>34.74221</v>
-      </c>
-      <c r="I53">
-        <v>135.56294299999999</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D54" s="2"/>
-      <c r="H54">
-        <v>33.766894999999998</v>
-      </c>
-      <c r="I54">
-        <v>130.49104299999999</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D55" s="2"/>
-      <c r="H55">
-        <v>35.517100999999997</v>
-      </c>
-      <c r="I55">
-        <v>137.79310599999999</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D56" s="2"/>
-      <c r="H56">
-        <v>35.668163</v>
-      </c>
-      <c r="I56">
-        <v>139.65330499999999</v>
-      </c>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D57" s="2"/>
-      <c r="H57">
-        <v>35.755833000000003</v>
-      </c>
-      <c r="I57">
-        <v>139.45382699999999</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D58" s="2"/>
-      <c r="H58">
-        <v>38.908127</v>
-      </c>
-      <c r="I58">
-        <v>141.57003800000001</v>
-      </c>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D59" s="2"/>
-      <c r="H59">
-        <v>33.263542000000001</v>
-      </c>
-      <c r="I59">
-        <v>130.30084199999999</v>
-      </c>
-    </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D60" s="2"/>
-      <c r="H60">
-        <v>26.212295999999998</v>
-      </c>
-      <c r="I60">
-        <v>127.679214</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D61" s="2"/>
-      <c r="H61">
-        <v>26.225693</v>
-      </c>
-      <c r="I61">
-        <v>127.721481</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D62" s="2"/>
-      <c r="H62">
-        <v>35.730018999999999</v>
-      </c>
-      <c r="I62">
-        <v>139.78872699999999</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D63" s="2"/>
-      <c r="H63">
-        <v>33.369441999999999</v>
-      </c>
-      <c r="I63">
-        <v>131.532532</v>
-      </c>
-    </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D64" s="2"/>
-      <c r="H64">
-        <v>35.666645000000003</v>
-      </c>
-      <c r="I64">
-        <v>140.19577000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D65" s="2"/>
-      <c r="H65">
-        <v>34.960746999999998</v>
-      </c>
-      <c r="I65">
-        <v>138.404053</v>
-      </c>
-    </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D66" s="2"/>
-      <c r="H66">
-        <v>34.688567999999997</v>
-      </c>
-      <c r="I66">
-        <v>135.47096300000001</v>
-      </c>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D67" s="2"/>
-      <c r="H67">
-        <v>35.925114000000001</v>
-      </c>
-      <c r="I67">
-        <v>139.48584</v>
-      </c>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D68" s="2"/>
-      <c r="H68">
-        <v>37.628371999999999</v>
-      </c>
-      <c r="I68">
-        <v>138.94731100000001</v>
-      </c>
-    </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D69" s="2"/>
-      <c r="H69">
-        <v>43.822223999999999</v>
-      </c>
-      <c r="I69">
-        <v>143.915222</v>
-      </c>
-    </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D70" s="2"/>
-      <c r="H70">
-        <v>34.962054999999999</v>
-      </c>
-      <c r="I70">
-        <v>137.16021699999999</v>
-      </c>
-    </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D71" s="2"/>
-      <c r="H71">
-        <v>34.963943</v>
-      </c>
-      <c r="I71">
-        <v>135.69841</v>
-      </c>
-    </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D72" s="2"/>
-      <c r="H72">
-        <v>35.543491000000003</v>
-      </c>
-      <c r="I72">
-        <v>139.42514</v>
-      </c>
-    </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D73" s="2"/>
-      <c r="H73">
-        <v>35.519584999999999</v>
-      </c>
-      <c r="I73">
-        <v>140.17224100000001</v>
-      </c>
-    </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D74" s="2"/>
-      <c r="H74">
-        <v>34.574115999999997</v>
-      </c>
-      <c r="I74">
-        <v>133.74740600000001</v>
-      </c>
-    </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D75" s="2"/>
-      <c r="H75">
-        <v>35.575245000000002</v>
-      </c>
-      <c r="I75">
-        <v>139.496353</v>
-      </c>
-    </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D76" s="2"/>
-      <c r="H76">
-        <v>36.194305</v>
-      </c>
-      <c r="I76">
-        <v>139.31985499999999</v>
-      </c>
-    </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D77" s="2"/>
-      <c r="H77">
-        <v>35.543635999999999</v>
-      </c>
-      <c r="I77">
-        <v>139.584396</v>
-      </c>
-    </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D78" s="2"/>
-      <c r="H78">
-        <v>34.982737999999998</v>
-      </c>
-      <c r="I78">
-        <v>135.96878100000001</v>
-      </c>
-    </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D79" s="2"/>
-      <c r="H79">
-        <v>34.320213000000003</v>
-      </c>
-      <c r="I79">
-        <v>133.84059099999999</v>
-      </c>
-    </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D80" s="2"/>
-      <c r="H80">
-        <v>35.768532</v>
-      </c>
-      <c r="I80">
-        <v>139.734116</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D81" s="2"/>
-      <c r="H81">
-        <v>34.763241000000001</v>
-      </c>
-      <c r="I81">
-        <v>136.13029499999999</v>
-      </c>
-    </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D82" s="2"/>
-      <c r="H82">
-        <v>35.859741</v>
-      </c>
-      <c r="I82">
-        <v>139.69132999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D83" s="2"/>
-      <c r="H83">
-        <v>34.946938000000003</v>
-      </c>
-      <c r="I83">
-        <v>138.41978499999999</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D84" s="2"/>
-      <c r="H84">
-        <v>35.695239999999998</v>
-      </c>
-      <c r="I84">
-        <v>139.57015999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D85" s="2"/>
-      <c r="H85">
-        <v>35.681885000000001</v>
-      </c>
-      <c r="I85">
-        <v>139.70004299999999</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D86" s="2"/>
-      <c r="H86">
-        <v>37.437866</v>
-      </c>
-      <c r="I86">
-        <v>138.843964</v>
-      </c>
-    </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D87" s="2"/>
-      <c r="H87">
-        <v>37.91433</v>
-      </c>
-      <c r="I87">
-        <v>140.091995</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D88" s="2"/>
-      <c r="H88">
-        <v>34.713982000000001</v>
-      </c>
-      <c r="I88">
-        <v>135.22718800000001</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D89" s="2"/>
-      <c r="H89">
-        <v>35.014442000000003</v>
-      </c>
-      <c r="I89">
-        <v>136.00206</v>
-      </c>
-    </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D90" s="2"/>
-      <c r="H90">
-        <v>34.826439000000001</v>
-      </c>
-      <c r="I90">
-        <v>137.21965</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D91" s="2"/>
-      <c r="H91">
-        <v>35.078803999999998</v>
-      </c>
-      <c r="I91">
-        <v>136.79115300000001</v>
-      </c>
-    </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D92" s="2"/>
-      <c r="H92">
-        <v>35.888950000000001</v>
-      </c>
-      <c r="I92">
-        <v>139.78208900000001</v>
-      </c>
-    </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D93" s="2"/>
-      <c r="H93">
-        <v>35.436194999999998</v>
-      </c>
-      <c r="I93">
-        <v>139.51054400000001</v>
-      </c>
-    </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D94" s="2"/>
-      <c r="H94">
-        <v>35.223621000000001</v>
-      </c>
-      <c r="I94">
-        <v>137.08412200000001</v>
-      </c>
-    </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D95" s="2"/>
-      <c r="H95">
-        <v>36.629936000000001</v>
-      </c>
-      <c r="I95">
-        <v>137.11914100000001</v>
-      </c>
-    </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D96" s="2"/>
-      <c r="H96">
-        <v>35.838379000000003</v>
-      </c>
-      <c r="I96">
-        <v>139.38848899999999</v>
-      </c>
-    </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D97" s="2"/>
-      <c r="H97">
-        <v>35.446007000000002</v>
-      </c>
-      <c r="I97">
-        <v>139.65695199999999</v>
-      </c>
-    </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D98" s="2"/>
-      <c r="H98">
-        <v>34.756897000000002</v>
-      </c>
-      <c r="I98">
-        <v>135.53218100000001</v>
-      </c>
-    </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D99" s="2"/>
-      <c r="H99">
-        <v>35.599854000000001</v>
-      </c>
-      <c r="I99">
-        <v>139.555374</v>
-      </c>
-    </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D100" s="2"/>
-      <c r="H100">
-        <v>35.700184</v>
-      </c>
-      <c r="I100">
-        <v>139.978531</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D101" s="2"/>
-      <c r="H101">
-        <v>34.682696999999997</v>
-      </c>
-      <c r="I101">
-        <v>135.51676900000001</v>
-      </c>
-    </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D102" s="2"/>
-      <c r="H102">
-        <v>35.609065999999999</v>
-      </c>
-      <c r="I102">
-        <v>139.730255</v>
-      </c>
-    </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D103" s="2"/>
-      <c r="H103">
-        <v>34.756537999999999</v>
-      </c>
-      <c r="I103">
-        <v>135.610916</v>
-      </c>
-    </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D104" s="2"/>
-      <c r="H104">
-        <v>35.023524999999999</v>
-      </c>
-      <c r="I104">
-        <v>135.85670500000001</v>
-      </c>
-    </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D105" s="2"/>
-      <c r="H105">
-        <v>37.283245000000001</v>
-      </c>
-      <c r="I105">
-        <v>140.376114</v>
-      </c>
-    </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D106" s="2"/>
-      <c r="H106">
-        <v>35.009177999999999</v>
-      </c>
-      <c r="I106">
-        <v>135.74968000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D107" s="2"/>
-      <c r="H107">
-        <v>33.541130000000003</v>
-      </c>
-      <c r="I107">
-        <v>133.48567199999999</v>
-      </c>
-    </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D108" s="2"/>
-      <c r="H108">
-        <v>43.07011</v>
-      </c>
-      <c r="I108">
-        <v>141.36225899999999</v>
-      </c>
-    </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D109" s="2"/>
-      <c r="H109">
-        <v>34.863064000000001</v>
-      </c>
-      <c r="I109">
-        <v>136.61016799999999</v>
-      </c>
-    </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D110" s="2"/>
-      <c r="H110">
-        <v>34.331837</v>
-      </c>
-      <c r="I110">
-        <v>132.693207</v>
-      </c>
-    </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D111" s="2"/>
-      <c r="H111">
-        <v>35.591079999999998</v>
-      </c>
-      <c r="I111">
-        <v>139.37553399999999</v>
-      </c>
-    </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D112" s="2"/>
-      <c r="H112">
-        <v>35.656672999999998</v>
-      </c>
-      <c r="I112">
-        <v>139.73509200000001</v>
-      </c>
-    </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D113" s="2"/>
-      <c r="H113">
-        <v>35.835152000000001</v>
-      </c>
-      <c r="I113">
-        <v>136.19442699999999</v>
-      </c>
-    </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D114" s="2"/>
-      <c r="H114">
-        <v>34.861888999999998</v>
-      </c>
-      <c r="I114">
-        <v>135.405258</v>
-      </c>
-    </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D115" s="2"/>
-      <c r="H115">
-        <v>35.631199000000002</v>
-      </c>
-      <c r="I115">
-        <v>139.703857</v>
-      </c>
-    </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D116" s="2"/>
-      <c r="H116">
-        <v>34.828578999999998</v>
-      </c>
-      <c r="I116">
-        <v>135.82110599999999</v>
-      </c>
-    </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D117" s="2"/>
-      <c r="H117">
-        <v>34.736378000000002</v>
-      </c>
-      <c r="I117">
-        <v>137.96971099999999</v>
-      </c>
-    </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D118" s="2"/>
-      <c r="H118">
-        <v>35.694710000000001</v>
-      </c>
-      <c r="I118">
-        <v>139.98262</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D119" s="2"/>
-      <c r="H119">
-        <v>35.776501000000003</v>
-      </c>
-      <c r="I119">
-        <v>138.42353800000001</v>
-      </c>
-    </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D120" s="2"/>
-      <c r="H120">
-        <v>35.475738999999997</v>
-      </c>
-      <c r="I120">
-        <v>138.75851399999999</v>
-      </c>
-    </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D121" s="2"/>
-      <c r="H121">
-        <v>35.548881999999999</v>
-      </c>
-      <c r="I121">
-        <v>139.647491</v>
-      </c>
-    </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D122" s="2"/>
-      <c r="H122">
-        <v>35.804217999999999</v>
-      </c>
-      <c r="I122">
-        <v>139.46083100000001</v>
-      </c>
-    </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D123" s="2"/>
-      <c r="H123">
-        <v>35.657257000000001</v>
-      </c>
-      <c r="I123">
-        <v>139.70517000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D124" s="2"/>
-      <c r="H124">
-        <v>32.691738000000001</v>
-      </c>
-      <c r="I124">
-        <v>128.832123</v>
-      </c>
-    </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D125" s="2"/>
-      <c r="H125">
-        <v>35.696162999999999</v>
-      </c>
-      <c r="I125">
-        <v>139.50288399999999</v>
-      </c>
-    </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D126" s="2"/>
-      <c r="H126">
-        <v>43.122211</v>
-      </c>
-      <c r="I126">
-        <v>141.34259</v>
-      </c>
-    </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D127" s="2"/>
-      <c r="H127">
-        <v>35.543315999999997</v>
-      </c>
-      <c r="I127">
-        <v>139.62115499999999</v>
-      </c>
-    </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D128" s="2"/>
-      <c r="H128">
-        <v>26.212295999999998</v>
-      </c>
-      <c r="I128">
-        <v>127.679214</v>
-      </c>
     </row>
     <row r="129" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D129" s="2"/>
-      <c r="H129">
-        <v>35.732353000000003</v>
-      </c>
-      <c r="I129">
-        <v>139.33459500000001</v>
-      </c>
     </row>
     <row r="130" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D130" s="2"/>
-      <c r="H130">
-        <v>35.727226000000002</v>
-      </c>
-      <c r="I130">
-        <v>139.94253499999999</v>
-      </c>
     </row>
     <row r="131" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D131" s="2"/>
-      <c r="H131">
-        <v>35.837494</v>
-      </c>
-      <c r="I131">
-        <v>138.058075</v>
-      </c>
     </row>
     <row r="132" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D132" s="2"/>
-      <c r="H132">
-        <v>34.746913999999997</v>
-      </c>
-      <c r="I132">
-        <v>135.15309099999999</v>
-      </c>
     </row>
     <row r="133" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D133" s="2"/>
-      <c r="H133">
-        <v>37.689739000000003</v>
-      </c>
-      <c r="I133">
-        <v>138.87097199999999</v>
-      </c>
     </row>
     <row r="134" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D134" s="2"/>
-      <c r="H134">
-        <v>43.058487</v>
-      </c>
-      <c r="I134">
-        <v>141.32325700000001</v>
-      </c>
     </row>
     <row r="135" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D135" s="2"/>
-      <c r="H135">
-        <v>35.757992000000002</v>
-      </c>
-      <c r="I135">
-        <v>139.52967799999999</v>
-      </c>
     </row>
     <row r="136" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D136" s="2"/>
-      <c r="H136">
-        <v>33.571815000000001</v>
-      </c>
-      <c r="I136">
-        <v>130.42083700000001</v>
-      </c>
     </row>
     <row r="137" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D137" s="2"/>
-      <c r="H137">
-        <v>33.699001000000003</v>
-      </c>
-      <c r="I137">
-        <v>130.431839</v>
-      </c>
     </row>
     <row r="138" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D138" s="2"/>
-      <c r="H138">
-        <v>39.719929</v>
-      </c>
-      <c r="I138">
-        <v>140.102509</v>
-      </c>
     </row>
     <row r="139" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D139" s="2"/>
-      <c r="H139">
-        <v>34.866905000000003</v>
-      </c>
-      <c r="I139">
-        <v>138.32325700000001</v>
-      </c>
     </row>
     <row r="140" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D140" s="2"/>
-      <c r="H140">
-        <v>35.474761999999998</v>
-      </c>
-      <c r="I140">
-        <v>139.54480000000001</v>
-      </c>
     </row>
     <row r="141" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D141" s="2"/>
-      <c r="H141" s="3">
-        <v>42.315204999999999</v>
-      </c>
-      <c r="I141" s="3">
-        <v>140.97378499999999</v>
-      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
     </row>
     <row r="142" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D142" s="2"/>
-      <c r="H142">
-        <v>36.365859999999998</v>
-      </c>
-      <c r="I142">
-        <v>140.47122200000001</v>
-      </c>
     </row>
     <row r="143" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D143" s="2"/>
-      <c r="H143">
-        <v>33.839157</v>
-      </c>
-      <c r="I143">
-        <v>132.76554899999999</v>
-      </c>
     </row>
     <row r="144" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D144" s="2"/>
-      <c r="H144">
-        <v>35.847270999999999</v>
-      </c>
-      <c r="I144">
-        <v>139.95503199999999</v>
-      </c>
-    </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D145" s="2"/>
-      <c r="H145">
-        <v>35.013123</v>
-      </c>
-      <c r="I145">
-        <v>135.959991</v>
-      </c>
-    </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D146" s="2"/>
-      <c r="H146">
-        <v>33.462898000000003</v>
-      </c>
-      <c r="I146">
-        <v>132.42334</v>
-      </c>
-    </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D147" s="2"/>
-      <c r="H147">
-        <v>34.471007999999998</v>
-      </c>
-      <c r="I147">
-        <v>133.387619</v>
-      </c>
-    </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D148" s="2"/>
-      <c r="H148">
-        <v>35.658070000000002</v>
-      </c>
-      <c r="I148">
-        <v>139.75160199999999</v>
-      </c>
-    </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D149" s="2"/>
-      <c r="H149">
-        <v>35.864162</v>
-      </c>
-      <c r="I149">
-        <v>140.02822900000001</v>
-      </c>
-    </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D150" s="2"/>
-      <c r="H150">
-        <v>35.082343999999999</v>
-      </c>
-      <c r="I150">
-        <v>137.15621899999999</v>
-      </c>
-    </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D151" s="2"/>
-      <c r="H151">
-        <v>36.491073999999998</v>
-      </c>
-      <c r="I151">
-        <v>140.09751900000001</v>
-      </c>
-    </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D152" s="2"/>
-      <c r="H152">
-        <v>34.929175999999998</v>
-      </c>
-      <c r="I152">
-        <v>136.82771299999999</v>
-      </c>
-    </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D153" s="2"/>
-      <c r="H153">
-        <v>34.819935000000001</v>
-      </c>
-      <c r="I153">
-        <v>135.532059</v>
-      </c>
-    </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D154" s="2"/>
-      <c r="H154">
-        <v>35.738852999999999</v>
-      </c>
-      <c r="I154">
-        <v>139.775757</v>
-      </c>
-    </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D155" s="2"/>
-      <c r="H155">
-        <v>34.781238999999999</v>
-      </c>
-      <c r="I155">
-        <v>135.46989400000001</v>
-      </c>
-    </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D156" s="2"/>
-      <c r="H156">
-        <v>34.835892000000001</v>
-      </c>
-      <c r="I156">
-        <v>135.46850599999999</v>
-      </c>
-    </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D157" s="2"/>
-      <c r="H157">
-        <v>36.530681999999999</v>
-      </c>
-      <c r="I157">
-        <v>140.63327000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D158" s="2"/>
-      <c r="H158">
-        <v>35.436321</v>
-      </c>
-      <c r="I158">
-        <v>139.54478499999999</v>
-      </c>
-    </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D159" s="2"/>
-      <c r="H159">
-        <v>34.759402999999999</v>
-      </c>
-      <c r="I159">
-        <v>135.51679999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D160" s="2"/>
-      <c r="H160">
-        <v>31.697590000000002</v>
-      </c>
-      <c r="I160">
-        <v>130.46215799999999</v>
-      </c>
     </row>
     <row r="161" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D161" s="2"/>
-      <c r="H161">
-        <v>33.919617000000002</v>
-      </c>
-      <c r="I161">
-        <v>133.181183</v>
-      </c>
     </row>
     <row r="162" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D162" s="2"/>
-      <c r="H162">
-        <v>34.876491999999999</v>
-      </c>
-      <c r="I162">
-        <v>135.40785199999999</v>
-      </c>
     </row>
     <row r="163" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D163" s="2"/>
-      <c r="H163">
-        <v>35.645527000000001</v>
-      </c>
-      <c r="I163">
-        <v>139.64112900000001</v>
-      </c>
     </row>
     <row r="164" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D164" s="2"/>
-      <c r="H164">
-        <v>32.781211999999996</v>
-      </c>
-      <c r="I164">
-        <v>129.868042</v>
-      </c>
     </row>
     <row r="165" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D165" s="2"/>
-      <c r="H165">
-        <v>36.609219000000003</v>
-      </c>
-      <c r="I165">
-        <v>138.19021599999999</v>
-      </c>
     </row>
     <row r="166" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D166" s="2"/>
-      <c r="H166">
-        <v>36.559975000000001</v>
-      </c>
-      <c r="I166">
-        <v>136.86712600000001</v>
-      </c>
     </row>
     <row r="167" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D167" s="2"/>
-      <c r="H167">
-        <v>34.230514999999997</v>
-      </c>
-      <c r="I167">
-        <v>135.170807</v>
-      </c>
     </row>
     <row r="168" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D168" s="2"/>
-      <c r="H168">
-        <v>33.773215999999998</v>
-      </c>
-      <c r="I168">
-        <v>132.80354299999999</v>
-      </c>
     </row>
     <row r="169" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D169" s="2"/>
-      <c r="H169">
-        <v>34.644500999999998</v>
-      </c>
-      <c r="I169">
-        <v>133.90782200000001</v>
-      </c>
     </row>
     <row r="170" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D170" s="2"/>
-      <c r="H170">
-        <v>34.993426999999997</v>
-      </c>
-      <c r="I170">
-        <v>134.96928399999999</v>
-      </c>
     </row>
     <row r="171" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D171" s="2"/>
-      <c r="H171" s="3">
-        <v>34.314877000000003</v>
-      </c>
-      <c r="I171" s="3">
-        <v>135.605209</v>
-      </c>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
     </row>
     <row r="172" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D172" s="2"/>
-      <c r="H172">
-        <v>35.283695000000002</v>
-      </c>
-      <c r="I172">
-        <v>139.59114099999999</v>
-      </c>
     </row>
     <row r="173" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D173" s="2"/>
-      <c r="H173">
-        <v>28.408747000000002</v>
-      </c>
-      <c r="I173">
-        <v>129.586792</v>
-      </c>
     </row>
     <row r="174" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D174" s="2"/>
-      <c r="H174">
-        <v>35.612651999999997</v>
-      </c>
-      <c r="I174">
-        <v>139.54901100000001</v>
-      </c>
     </row>
     <row r="175" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D175" s="2"/>
-      <c r="H175">
-        <v>40.857849000000002</v>
-      </c>
-      <c r="I175">
-        <v>140.67884799999999</v>
-      </c>
     </row>
     <row r="176" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D176" s="2"/>
-      <c r="H176">
-        <v>36.646191000000002</v>
-      </c>
-      <c r="I176">
-        <v>138.26513700000001</v>
-      </c>
-    </row>
-    <row r="177" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D177" s="2"/>
-      <c r="H177">
-        <v>36.555115000000001</v>
-      </c>
-      <c r="I177">
-        <v>139.882812</v>
-      </c>
-    </row>
-    <row r="178" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D178" s="2"/>
-      <c r="H178">
-        <v>35.699547000000003</v>
-      </c>
-      <c r="I178">
-        <v>139.636414</v>
-      </c>
-    </row>
-    <row r="179" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D179" s="2"/>
-      <c r="H179">
-        <v>34.81485</v>
-      </c>
-      <c r="I179">
-        <v>137.78272999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D180" s="2"/>
-      <c r="H180">
-        <v>35.958393000000001</v>
-      </c>
-      <c r="I180">
-        <v>139.82037399999999</v>
-      </c>
-    </row>
-    <row r="181" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D181" s="2"/>
-      <c r="H181">
-        <v>34.816485999999998</v>
-      </c>
-      <c r="I181">
-        <v>134.47697400000001</v>
-      </c>
-    </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D182" s="2"/>
-      <c r="H182">
-        <v>35.181953</v>
-      </c>
-      <c r="I182">
-        <v>136.91134600000001</v>
-      </c>
-    </row>
-    <row r="183" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D183" s="2"/>
-      <c r="H183">
-        <v>35.475242999999999</v>
-      </c>
-      <c r="I183">
-        <v>139.62876900000001</v>
-      </c>
-    </row>
-    <row r="184" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D184" s="2"/>
-      <c r="H184">
-        <v>36.304340000000003</v>
-      </c>
-      <c r="I184">
-        <v>140.30110199999999</v>
-      </c>
-    </row>
-    <row r="185" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D185" s="2"/>
-      <c r="H185">
-        <v>35.602623000000001</v>
-      </c>
-      <c r="I185">
-        <v>139.64863600000001</v>
-      </c>
-    </row>
-    <row r="186" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D186" s="2"/>
-      <c r="H186">
-        <v>34.633709000000003</v>
-      </c>
-      <c r="I186">
-        <v>133.910965</v>
-      </c>
-    </row>
-    <row r="187" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D187" s="2"/>
-      <c r="H187">
-        <v>36.510334</v>
-      </c>
-      <c r="I187">
-        <v>140.62185700000001</v>
-      </c>
-    </row>
-    <row r="188" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D188" s="2"/>
-      <c r="H188">
-        <v>36.286991</v>
-      </c>
-      <c r="I188">
-        <v>139.117828</v>
-      </c>
-    </row>
-    <row r="189" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D189" s="2"/>
-      <c r="H189">
-        <v>35.735835999999999</v>
-      </c>
-      <c r="I189">
-        <v>139.64724699999999</v>
-      </c>
-    </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D190" s="2"/>
-      <c r="H190">
-        <v>35.721209999999999</v>
-      </c>
-      <c r="I190">
-        <v>139.30798300000001</v>
-      </c>
-    </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D191" s="2"/>
-      <c r="H191">
-        <v>35.611843</v>
-      </c>
-      <c r="I191">
-        <v>139.75398300000001</v>
-      </c>
-    </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D192" s="2"/>
-      <c r="H192">
-        <v>35.837893999999999</v>
-      </c>
-      <c r="I192">
-        <v>139.90644800000001</v>
-      </c>
-    </row>
-    <row r="193" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D193" s="2"/>
-      <c r="H193">
-        <v>35.626038000000001</v>
-      </c>
-      <c r="I193">
-        <v>139.47615099999999</v>
-      </c>
-    </row>
-    <row r="194" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D194" s="2"/>
-      <c r="H194">
-        <v>35.295592999999997</v>
-      </c>
-      <c r="I194">
-        <v>139.58041399999999</v>
-      </c>
-    </row>
-    <row r="195" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D195" s="2"/>
-      <c r="H195">
-        <v>34.767487000000003</v>
-      </c>
-      <c r="I195">
-        <v>135.36445599999999</v>
-      </c>
-    </row>
-    <row r="196" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D196" s="2"/>
-      <c r="H196">
-        <v>38.247795000000004</v>
-      </c>
-      <c r="I196">
-        <v>140.33479299999999</v>
-      </c>
-    </row>
-    <row r="197" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D197" s="2"/>
-      <c r="H197">
-        <v>35.640555999999997</v>
-      </c>
-      <c r="I197">
-        <v>139.73516799999999</v>
-      </c>
-    </row>
-    <row r="198" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D198" s="2"/>
-      <c r="H198">
-        <v>34.814442</v>
-      </c>
-      <c r="I198">
-        <v>135.76783800000001</v>
-      </c>
-    </row>
-    <row r="199" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D199" s="2"/>
-      <c r="H199">
-        <v>34.859935999999998</v>
-      </c>
-      <c r="I199">
-        <v>135.625732</v>
-      </c>
-    </row>
-    <row r="200" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D200" s="2"/>
-      <c r="H200">
-        <v>34.426788000000002</v>
-      </c>
-      <c r="I200">
-        <v>132.74374399999999</v>
-      </c>
-    </row>
-    <row r="201" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D201" s="2"/>
-      <c r="H201">
-        <v>34.491866999999999</v>
-      </c>
-      <c r="I201">
-        <v>136.706985</v>
-      </c>
-    </row>
-    <row r="202" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D202" s="2"/>
-      <c r="H202">
-        <v>43.054718000000001</v>
-      </c>
-      <c r="I202">
-        <v>141.31532300000001</v>
-      </c>
-    </row>
-    <row r="203" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D203" s="2"/>
-      <c r="H203">
-        <v>34.809502000000002</v>
-      </c>
-      <c r="I203">
-        <v>135.56582599999999</v>
-      </c>
-    </row>
-    <row r="204" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D204" s="2"/>
-      <c r="H204">
-        <v>35.694817</v>
-      </c>
-      <c r="I204">
-        <v>139.906204</v>
-      </c>
-    </row>
-    <row r="205" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D205" s="2"/>
-      <c r="H205">
-        <v>34.685116000000001</v>
-      </c>
-      <c r="I205">
-        <v>135.804993</v>
-      </c>
-    </row>
-    <row r="206" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D206" s="2"/>
-      <c r="H206">
-        <v>35.057383999999999</v>
-      </c>
-      <c r="I206">
-        <v>136.99423200000001</v>
-      </c>
-    </row>
-    <row r="207" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D207" s="2"/>
-      <c r="H207">
-        <v>33.583992000000002</v>
-      </c>
-      <c r="I207">
-        <v>130.39419599999999</v>
-      </c>
-    </row>
-    <row r="208" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D208" s="2"/>
-      <c r="H208">
-        <v>35.108009000000003</v>
-      </c>
-      <c r="I208">
-        <v>136.998108</v>
-      </c>
-    </row>
-    <row r="209" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D209" s="2"/>
-      <c r="H209">
-        <v>35.646481000000001</v>
-      </c>
-      <c r="I209">
-        <v>139.65321399999999</v>
-      </c>
-    </row>
-    <row r="210" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D210" s="2"/>
-      <c r="H210">
-        <v>35.527622000000001</v>
-      </c>
-      <c r="I210">
-        <v>139.60934399999999</v>
-      </c>
-    </row>
-    <row r="211" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D211" s="2"/>
-      <c r="H211">
-        <v>35.671230000000001</v>
-      </c>
-      <c r="I211">
-        <v>139.481461</v>
-      </c>
-    </row>
-    <row r="212" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D212" s="2"/>
-      <c r="H212">
-        <v>34.766865000000003</v>
-      </c>
-      <c r="I212">
-        <v>133.931961</v>
-      </c>
-    </row>
-    <row r="213" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D213" s="2"/>
-      <c r="H213">
-        <v>43.060093000000002</v>
-      </c>
-      <c r="I213">
-        <v>141.32414199999999</v>
-      </c>
-    </row>
-    <row r="214" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D214" s="2"/>
-      <c r="H214">
-        <v>35.775902000000002</v>
-      </c>
-      <c r="I214">
-        <v>139.82685900000001</v>
-      </c>
-    </row>
-    <row r="215" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D215" s="2"/>
-      <c r="H215">
-        <v>35.609065999999999</v>
-      </c>
-      <c r="I215">
-        <v>139.730255</v>
-      </c>
-    </row>
-    <row r="216" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D216" s="2"/>
-      <c r="H216">
-        <v>35.503563</v>
-      </c>
-      <c r="I216">
-        <v>134.23541299999999</v>
-      </c>
-    </row>
-    <row r="217" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D217" s="2"/>
-      <c r="H217">
-        <v>34.689425999999997</v>
-      </c>
-      <c r="I217">
-        <v>137.712189</v>
-      </c>
-    </row>
-    <row r="218" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D218" s="2"/>
-      <c r="H218">
-        <v>35.577537999999997</v>
-      </c>
-      <c r="I218">
-        <v>139.72467</v>
-      </c>
-    </row>
-    <row r="219" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D219" s="2"/>
-      <c r="H219">
-        <v>34.884841999999999</v>
-      </c>
-      <c r="I219">
-        <v>135.42190600000001</v>
-      </c>
-    </row>
-    <row r="220" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D220" s="2"/>
-      <c r="H220">
-        <v>35.545386999999998</v>
-      </c>
-      <c r="I220">
-        <v>139.46717799999999</v>
-      </c>
-    </row>
-    <row r="221" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D221" s="2"/>
-      <c r="H221">
-        <v>35.752803999999998</v>
-      </c>
-      <c r="I221">
-        <v>139.73365799999999</v>
-      </c>
-    </row>
-    <row r="222" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D222" s="2"/>
-      <c r="H222">
-        <v>35.776474</v>
-      </c>
-      <c r="I222">
-        <v>139.72380100000001</v>
-      </c>
-    </row>
-    <row r="223" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D223" s="2"/>
-      <c r="H223">
-        <v>34.864384000000001</v>
-      </c>
-      <c r="I223">
-        <v>137.04226700000001</v>
-      </c>
-    </row>
-    <row r="224" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D224" s="2"/>
-      <c r="H224">
-        <v>35.563225000000003</v>
-      </c>
-      <c r="I224">
-        <v>139.735626</v>
-      </c>
-    </row>
-    <row r="225" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D225" s="2"/>
-      <c r="H225">
-        <v>35.33643</v>
-      </c>
-      <c r="I225">
-        <v>139.12318400000001</v>
-      </c>
-    </row>
-    <row r="226" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D226" s="2"/>
-      <c r="H226">
-        <v>26.633284</v>
-      </c>
-      <c r="I226">
-        <v>128.15687600000001</v>
-      </c>
-    </row>
-    <row r="227" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D227" s="2"/>
-      <c r="H227">
-        <v>34.917529999999999</v>
-      </c>
-      <c r="I227">
-        <v>135.730301</v>
-      </c>
-    </row>
-    <row r="228" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D228" s="2"/>
-      <c r="H228">
-        <v>40.230370000000001</v>
-      </c>
-      <c r="I228">
-        <v>140.35974100000001</v>
-      </c>
-    </row>
-    <row r="229" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D229" s="2"/>
-      <c r="H229">
-        <v>36.801845999999998</v>
-      </c>
-      <c r="I229">
-        <v>138.15112300000001</v>
-      </c>
-    </row>
-    <row r="230" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D230" s="2"/>
-      <c r="H230">
-        <v>35.297156999999999</v>
-      </c>
-      <c r="I230">
-        <v>136.96627799999999</v>
-      </c>
-    </row>
-    <row r="231" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D231" s="2"/>
-      <c r="H231">
-        <v>43.041697999999997</v>
-      </c>
-      <c r="I231">
-        <v>141.475616</v>
-      </c>
-    </row>
-    <row r="232" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D232" s="2"/>
-      <c r="H232">
-        <v>35.670586</v>
-      </c>
-      <c r="I232">
-        <v>139.77200300000001</v>
-      </c>
-    </row>
-    <row r="233" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D233" s="2"/>
-      <c r="H233">
-        <v>35.175654999999999</v>
-      </c>
-      <c r="I233">
-        <v>136.940414</v>
-      </c>
-    </row>
-    <row r="234" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D234" s="2"/>
-      <c r="H234">
-        <v>34.580157999999997</v>
-      </c>
-      <c r="I234">
-        <v>135.49345400000001</v>
-      </c>
-    </row>
-    <row r="235" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D235" s="2"/>
-      <c r="H235">
-        <v>34.948127999999997</v>
-      </c>
-      <c r="I235">
-        <v>134.96757500000001</v>
-      </c>
-    </row>
-    <row r="236" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D236" s="2"/>
-      <c r="H236">
-        <v>35.944225000000003</v>
-      </c>
-      <c r="I236">
-        <v>139.477859</v>
-      </c>
-    </row>
-    <row r="237" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D237" s="2"/>
-      <c r="H237">
-        <v>35.668864999999997</v>
-      </c>
-      <c r="I237">
-        <v>139.783356</v>
-      </c>
-    </row>
-    <row r="238" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D238" s="2"/>
-      <c r="H238">
-        <v>35.698993999999999</v>
-      </c>
-      <c r="I238">
-        <v>139.685654</v>
-      </c>
-    </row>
-    <row r="239" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D239" s="2"/>
-      <c r="H239">
-        <v>35.706650000000003</v>
-      </c>
-      <c r="I239">
-        <v>139.86831699999999</v>
-      </c>
-    </row>
-    <row r="240" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D240" s="2"/>
-      <c r="H240">
-        <v>35.181435</v>
-      </c>
-      <c r="I240">
-        <v>136.906418</v>
-      </c>
-    </row>
-    <row r="241" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D241" s="2"/>
-      <c r="H241">
-        <v>34.363852999999999</v>
-      </c>
-      <c r="I241">
-        <v>131.22349500000001</v>
-      </c>
-    </row>
-    <row r="242" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D242" s="2"/>
-      <c r="H242">
-        <v>34.624397000000002</v>
-      </c>
-      <c r="I242">
-        <v>135.58819600000001</v>
-      </c>
-    </row>
-    <row r="243" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D243" s="2"/>
-      <c r="H243">
-        <v>35.638030999999998</v>
-      </c>
-      <c r="I243">
-        <v>139.454071</v>
-      </c>
-    </row>
-    <row r="244" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D244" s="2"/>
-      <c r="H244">
-        <v>34.966633000000002</v>
-      </c>
-      <c r="I244">
-        <v>135.700378</v>
-      </c>
-    </row>
-    <row r="245" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D245" s="2"/>
-      <c r="H245">
-        <v>33.100605000000002</v>
-      </c>
-      <c r="I245">
-        <v>130.45863299999999</v>
-      </c>
-    </row>
-    <row r="246" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D246" s="2"/>
-      <c r="H246">
-        <v>39.439838000000002</v>
-      </c>
-      <c r="I246">
-        <v>141.13052400000001</v>
-      </c>
-    </row>
-    <row r="247" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D247" s="2"/>
-      <c r="H247">
-        <v>35.725833999999999</v>
-      </c>
-      <c r="I247">
-        <v>139.74362199999999</v>
-      </c>
-    </row>
-    <row r="248" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D248" s="2"/>
-      <c r="H248">
-        <v>34.707766999999997</v>
-      </c>
-      <c r="I248">
-        <v>136.517731</v>
-      </c>
-    </row>
-    <row r="249" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D249" s="2"/>
-      <c r="H249">
-        <v>35.706650000000003</v>
-      </c>
-      <c r="I249">
-        <v>139.86831699999999</v>
-      </c>
-    </row>
-    <row r="250" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D250" s="2"/>
-      <c r="H250">
-        <v>35.479838999999998</v>
-      </c>
-      <c r="I250">
-        <v>139.63147000000001</v>
-      </c>
-    </row>
-    <row r="251" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D251" s="2"/>
-      <c r="H251">
-        <v>34.791454000000002</v>
-      </c>
-      <c r="I251">
-        <v>135.505402</v>
-      </c>
-    </row>
-    <row r="252" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D252" s="2"/>
-      <c r="H252">
-        <v>34.908974000000001</v>
-      </c>
-      <c r="I252">
-        <v>135.390366</v>
-      </c>
-    </row>
-    <row r="253" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D253" s="2"/>
-      <c r="H253">
-        <v>35.646481000000001</v>
-      </c>
-      <c r="I253">
-        <v>139.65321399999999</v>
-      </c>
-    </row>
-    <row r="254" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D254" s="2"/>
-      <c r="H254">
-        <v>35.977409000000002</v>
-      </c>
-      <c r="I254">
-        <v>139.59320099999999</v>
-      </c>
-    </row>
-    <row r="255" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D255" s="2"/>
-      <c r="H255">
-        <v>35.512405000000001</v>
-      </c>
-      <c r="I255">
-        <v>139.53801000000001</v>
-      </c>
-    </row>
-    <row r="256" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D256" s="2"/>
-      <c r="H256">
-        <v>34.868617999999998</v>
-      </c>
-      <c r="I256">
-        <v>137.10502600000001</v>
-      </c>
-    </row>
-    <row r="257" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D257" s="2"/>
-      <c r="H257">
-        <v>35.683307999999997</v>
-      </c>
-      <c r="I257">
-        <v>139.55987500000001</v>
-      </c>
-    </row>
-    <row r="258" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D258" s="2"/>
-      <c r="H258">
-        <v>36.302669999999999</v>
-      </c>
-      <c r="I258">
-        <v>136.314682</v>
-      </c>
-    </row>
-    <row r="259" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D259" s="2"/>
-      <c r="H259">
-        <v>34.854336000000004</v>
-      </c>
-      <c r="I259">
-        <v>136.60240200000001</v>
-      </c>
-    </row>
-    <row r="260" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D260" s="2"/>
-      <c r="H260">
-        <v>35.156281</v>
-      </c>
-      <c r="I260">
-        <v>136.83461</v>
-      </c>
-    </row>
-    <row r="261" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D261" s="2"/>
-      <c r="H261">
-        <v>35.631968999999998</v>
-      </c>
-      <c r="I261">
-        <v>139.71339399999999</v>
-      </c>
-    </row>
-    <row r="262" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D262" s="2"/>
-      <c r="H262">
-        <v>35.313828000000001</v>
-      </c>
-      <c r="I262">
-        <v>136.01812699999999</v>
-      </c>
-    </row>
-    <row r="263" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D263" s="2"/>
-      <c r="H263">
-        <v>34.825428000000002</v>
-      </c>
-      <c r="I263">
-        <v>135.30084199999999</v>
-      </c>
-    </row>
-    <row r="264" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D264" s="2"/>
-      <c r="H264">
-        <v>35.703560000000003</v>
-      </c>
-      <c r="I264">
-        <v>139.48916600000001</v>
-      </c>
-    </row>
-    <row r="265" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D265" s="2"/>
-      <c r="H265">
-        <v>35.832332999999998</v>
-      </c>
-      <c r="I265">
-        <v>140.14576700000001</v>
-      </c>
-    </row>
-    <row r="266" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D266" s="2"/>
-      <c r="H266">
-        <v>35.646481000000001</v>
-      </c>
-      <c r="I266">
-        <v>139.65321399999999</v>
-      </c>
-    </row>
-    <row r="267" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D267" s="2"/>
-      <c r="H267">
-        <v>35.772781000000002</v>
-      </c>
-      <c r="I267">
-        <v>139.946136</v>
-      </c>
-    </row>
-    <row r="268" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D268" s="2"/>
-      <c r="H268">
-        <v>35.018355999999997</v>
-      </c>
-      <c r="I268">
-        <v>135.85466</v>
-      </c>
-    </row>
-    <row r="269" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D269" s="2"/>
-      <c r="H269">
-        <v>35.584750999999997</v>
-      </c>
-      <c r="I269">
-        <v>139.593445</v>
-      </c>
-    </row>
-    <row r="270" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D270" s="2"/>
-      <c r="H270">
-        <v>33.919617000000002</v>
-      </c>
-      <c r="I270">
-        <v>133.181183</v>
-      </c>
-    </row>
-    <row r="271" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D271" s="2"/>
-      <c r="H271">
-        <v>34.829856999999997</v>
-      </c>
-      <c r="I271">
-        <v>135.36743200000001</v>
-      </c>
-    </row>
-    <row r="272" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D272" s="2"/>
-      <c r="H272">
-        <v>35.647350000000003</v>
-      </c>
-      <c r="I272">
-        <v>139.80007900000001</v>
-      </c>
-    </row>
-    <row r="273" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D273" s="2"/>
-      <c r="H273">
-        <v>34.663651000000002</v>
-      </c>
-      <c r="I273">
-        <v>135.13793899999999</v>
-      </c>
-    </row>
-    <row r="274" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D274" s="2"/>
-      <c r="H274">
-        <v>34.673462000000001</v>
-      </c>
-      <c r="I274">
-        <v>134.98017899999999</v>
-      </c>
-    </row>
-    <row r="275" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D275" s="2"/>
-      <c r="H275">
-        <v>34.657131</v>
-      </c>
-      <c r="I275">
-        <v>135.09435999999999</v>
-      </c>
-    </row>
-    <row r="276" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D276" s="2"/>
-      <c r="H276">
-        <v>34.736809000000001</v>
-      </c>
-      <c r="I276">
-        <v>135.57510400000001</v>
-      </c>
-    </row>
-    <row r="277" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D277" s="2"/>
-      <c r="H277">
-        <v>34.9482</v>
-      </c>
-      <c r="I277">
-        <v>135.771469</v>
-      </c>
-    </row>
-    <row r="278" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D278" s="2"/>
-      <c r="H278">
-        <v>35.163071000000002</v>
-      </c>
-      <c r="I278">
-        <v>136.95600899999999</v>
-      </c>
-    </row>
-    <row r="279" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D279" s="2"/>
-      <c r="H279">
-        <v>35.178500999999997</v>
-      </c>
-      <c r="I279">
-        <v>136.863754</v>
-      </c>
-    </row>
-    <row r="280" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D280" s="2"/>
-      <c r="H280">
-        <v>36.238093999999997</v>
-      </c>
-      <c r="I280">
-        <v>137.97198499999999</v>
-      </c>
-    </row>
-    <row r="281" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D281" s="2"/>
-      <c r="H281">
-        <v>34.894298999999997</v>
-      </c>
-      <c r="I281">
-        <v>137.502197</v>
-      </c>
-    </row>
-    <row r="282" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D282" s="2"/>
-      <c r="H282">
-        <v>35.807738999999998</v>
-      </c>
-      <c r="I282">
-        <v>139.72416699999999</v>
-      </c>
-    </row>
-    <row r="283" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D283" s="2"/>
-      <c r="H283">
-        <v>34.890864999999998</v>
-      </c>
-      <c r="I283">
-        <v>134.60691800000001</v>
-      </c>
-    </row>
-    <row r="284" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D284" s="2"/>
-      <c r="H284">
-        <v>34.710864999999998</v>
-      </c>
-      <c r="I284">
-        <v>137.72612000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D285" s="2"/>
-      <c r="H285">
-        <v>35.659523</v>
-      </c>
-      <c r="I285">
-        <v>139.78616299999999</v>
-      </c>
-    </row>
-    <row r="286" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D286" s="2"/>
-      <c r="H286">
-        <v>35.374802000000003</v>
-      </c>
-      <c r="I286">
-        <v>139.21994000000001</v>
-      </c>
-    </row>
-    <row r="287" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D287" s="2"/>
-      <c r="H287">
-        <v>35.946055999999999</v>
-      </c>
-      <c r="I287">
-        <v>139.881866</v>
-      </c>
-    </row>
-    <row r="288" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D288" s="2"/>
-      <c r="H288">
-        <v>34.732799999999997</v>
-      </c>
-      <c r="I288">
-        <v>135.350876</v>
-      </c>
     </row>
     <row r="289" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D289" s="2"/>
-      <c r="H289">
-        <v>35.661037</v>
-      </c>
-      <c r="I289">
-        <v>139.61114499999999</v>
-      </c>
     </row>
     <row r="290" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D290" s="2"/>
-      <c r="H290">
-        <v>38.256832000000003</v>
-      </c>
-      <c r="I290">
-        <v>140.87312299999999</v>
-      </c>
     </row>
     <row r="291" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D291" s="2"/>
-      <c r="H291">
-        <v>35.690227999999998</v>
-      </c>
-      <c r="I291">
-        <v>139.49568199999999</v>
-      </c>
     </row>
     <row r="292" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D292" s="2"/>
-      <c r="H292">
-        <v>35.567936000000003</v>
-      </c>
-      <c r="I292">
-        <v>139.55787699999999</v>
-      </c>
     </row>
     <row r="293" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D293" s="2"/>
-      <c r="H293" s="3">
-        <v>35.738602</v>
-      </c>
-      <c r="I293" s="3">
-        <v>139.32673600000001</v>
-      </c>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
     </row>
     <row r="294" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D294" s="2"/>
-      <c r="H294">
-        <v>34.685459000000002</v>
-      </c>
-      <c r="I294">
-        <v>136.22288499999999</v>
-      </c>
     </row>
     <row r="295" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D295" s="2"/>
-      <c r="H295">
-        <v>34.608494</v>
-      </c>
-      <c r="I295">
-        <v>133.947205</v>
-      </c>
     </row>
     <row r="296" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D296" s="2"/>
-      <c r="H296">
-        <v>34.386654</v>
-      </c>
-      <c r="I296">
-        <v>132.461502</v>
-      </c>
     </row>
     <row r="297" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D297" s="2"/>
-      <c r="H297">
-        <v>36.157134999999997</v>
-      </c>
-      <c r="I297">
-        <v>139.650452</v>
-      </c>
     </row>
     <row r="298" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D298" s="2"/>
-      <c r="H298">
-        <v>35.697871999999997</v>
-      </c>
-      <c r="I298">
-        <v>139.74697900000001</v>
-      </c>
     </row>
     <row r="299" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D299" s="2"/>
-      <c r="H299">
-        <v>42.987675000000003</v>
-      </c>
-      <c r="I299">
-        <v>141.314301</v>
-      </c>
     </row>
     <row r="300" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D300" s="2"/>
-      <c r="H300">
-        <v>35.530341999999997</v>
-      </c>
-      <c r="I300">
-        <v>139.43009900000001</v>
-      </c>
     </row>
     <row r="301" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D301" s="2"/>
-      <c r="H301">
-        <v>35.536861000000002</v>
-      </c>
-      <c r="I301">
-        <v>139.58502200000001</v>
-      </c>
     </row>
     <row r="302" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D302" s="2"/>
-      <c r="H302">
-        <v>35.153221000000002</v>
-      </c>
-      <c r="I302">
-        <v>136.86883499999999</v>
-      </c>
     </row>
     <row r="303" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D303" s="2"/>
-      <c r="H303">
-        <v>35.690384000000002</v>
-      </c>
-      <c r="I303">
-        <v>139.697495</v>
-      </c>
     </row>
     <row r="304" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D304" s="2"/>
-      <c r="H304">
-        <v>43.066650000000003</v>
-      </c>
-      <c r="I304">
-        <v>141.33682300000001</v>
-      </c>
-    </row>
-    <row r="305" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D305" s="2"/>
-      <c r="H305">
-        <v>35.771675000000002</v>
-      </c>
-      <c r="I305">
-        <v>139.66551200000001</v>
-      </c>
-    </row>
-    <row r="306" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D306" s="2"/>
-      <c r="H306">
-        <v>34.485928000000001</v>
-      </c>
-      <c r="I306">
-        <v>133.362335</v>
-      </c>
-    </row>
-    <row r="307" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D307" s="2"/>
-      <c r="H307">
-        <v>34.624397000000002</v>
-      </c>
-      <c r="I307">
-        <v>135.58819600000001</v>
-      </c>
-    </row>
-    <row r="308" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D308" s="2"/>
-      <c r="H308">
-        <v>34.737487999999999</v>
-      </c>
-      <c r="I308">
-        <v>135.354736</v>
-      </c>
-    </row>
-    <row r="309" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D309" s="2"/>
-      <c r="H309">
-        <v>36.590164000000001</v>
-      </c>
-      <c r="I309">
-        <v>136.67825300000001</v>
-      </c>
-    </row>
-    <row r="310" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D310" s="2"/>
-      <c r="H310">
-        <v>34.366348000000002</v>
-      </c>
-      <c r="I310">
-        <v>132.35261499999999</v>
-      </c>
-    </row>
-    <row r="311" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D311" s="2"/>
-      <c r="H311">
-        <v>35.495403000000003</v>
-      </c>
-      <c r="I311">
-        <v>139.63493299999999</v>
-      </c>
-    </row>
-    <row r="312" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D312" s="2"/>
-      <c r="H312">
-        <v>36.561050000000002</v>
-      </c>
-      <c r="I312">
-        <v>136.656631</v>
-      </c>
-    </row>
-    <row r="313" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D313" s="2"/>
-      <c r="H313">
-        <v>42.468699999999998</v>
-      </c>
-      <c r="I313">
-        <v>140.869675</v>
-      </c>
-    </row>
-    <row r="314" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D314" s="2"/>
-      <c r="H314">
-        <v>35.751559999999998</v>
-      </c>
-      <c r="I314">
-        <v>139.65885900000001</v>
-      </c>
-    </row>
-    <row r="315" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D315" s="2"/>
-      <c r="H315">
-        <v>35.422736999999998</v>
-      </c>
-      <c r="I315">
-        <v>139.60803200000001</v>
-      </c>
-    </row>
-    <row r="316" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D316" s="2"/>
-      <c r="H316">
-        <v>36.542999000000002</v>
-      </c>
-      <c r="I316">
-        <v>136.646545</v>
-      </c>
-    </row>
-    <row r="317" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D317" s="2"/>
-      <c r="H317">
-        <v>34.561988999999997</v>
-      </c>
-      <c r="I317">
-        <v>135.45713799999999</v>
-      </c>
-    </row>
-    <row r="318" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D318" s="2"/>
-      <c r="H318">
-        <v>34.428516000000002</v>
-      </c>
-      <c r="I318">
-        <v>135.76663199999999</v>
-      </c>
-    </row>
-    <row r="319" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D319" s="2"/>
-      <c r="H319">
-        <v>34.653790000000001</v>
-      </c>
-      <c r="I319">
-        <v>129.45622299999999</v>
-      </c>
-    </row>
-    <row r="320" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D320" s="2"/>
-      <c r="H320">
-        <v>35.672859000000003</v>
-      </c>
-      <c r="I320">
-        <v>139.81736799999999</v>
-      </c>
-    </row>
-    <row r="321" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D321" s="2"/>
-      <c r="H321">
-        <v>34.700561999999998</v>
-      </c>
-      <c r="I321">
-        <v>135.497513</v>
-      </c>
-    </row>
-    <row r="322" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D322" s="2"/>
-      <c r="H322">
-        <v>35.646481000000001</v>
-      </c>
-      <c r="I322">
-        <v>139.65321399999999</v>
-      </c>
-    </row>
-    <row r="323" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D323" s="2"/>
-      <c r="H323">
-        <v>35.694004</v>
-      </c>
-      <c r="I323">
-        <v>139.75363200000001</v>
-      </c>
-    </row>
-    <row r="324" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D324" s="2"/>
-      <c r="H324">
-        <v>35.642077999999998</v>
-      </c>
-      <c r="I324">
-        <v>139.54722599999999</v>
-      </c>
-    </row>
-    <row r="325" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D325" s="2"/>
-      <c r="H325">
-        <v>36.325642000000002</v>
-      </c>
-      <c r="I325">
-        <v>138.869675</v>
-      </c>
-    </row>
-    <row r="326" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D326" s="2"/>
-      <c r="H326">
-        <v>34.241875</v>
-      </c>
-      <c r="I326">
-        <v>135.187805</v>
-      </c>
-    </row>
-    <row r="327" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D327" s="2"/>
-      <c r="H327">
-        <v>35.775902000000002</v>
-      </c>
-      <c r="I327">
-        <v>139.82685900000001</v>
-      </c>
-    </row>
-    <row r="328" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D328" s="2"/>
-      <c r="H328">
-        <v>35.689048999999997</v>
-      </c>
-      <c r="I328">
-        <v>140.02499399999999</v>
-      </c>
-    </row>
-    <row r="329" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D329" s="2"/>
-      <c r="H329">
-        <v>35.655642999999998</v>
-      </c>
-      <c r="I329">
-        <v>139.700638</v>
-      </c>
-    </row>
-    <row r="330" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D330" s="2"/>
-      <c r="H330">
-        <v>35.501133000000003</v>
-      </c>
-      <c r="I330">
-        <v>134.23509200000001</v>
-      </c>
-    </row>
-    <row r="331" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D331" s="2"/>
-      <c r="H331">
-        <v>35.728287000000002</v>
-      </c>
-      <c r="I331">
-        <v>139.930893</v>
-      </c>
-    </row>
-    <row r="332" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D332" s="2"/>
-      <c r="H332">
-        <v>40.512279999999997</v>
-      </c>
-      <c r="I332">
-        <v>141.48840300000001</v>
-      </c>
-    </row>
-    <row r="333" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D333" s="2"/>
-      <c r="H333">
-        <v>34.684348999999997</v>
-      </c>
-      <c r="I333">
-        <v>134.93396000000001</v>
-      </c>
-    </row>
-    <row r="334" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D334" s="2"/>
-      <c r="H334">
-        <v>35.661366000000001</v>
-      </c>
-      <c r="I334">
-        <v>139.877365</v>
-      </c>
-    </row>
-    <row r="335" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D335" s="2"/>
-      <c r="H335">
-        <v>35.738602</v>
-      </c>
-      <c r="I335">
-        <v>139.32673600000001</v>
-      </c>
-    </row>
-    <row r="336" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D336" s="2"/>
-      <c r="H336">
-        <v>34.232731000000001</v>
-      </c>
-      <c r="I336">
-        <v>135.41021699999999</v>
-      </c>
-    </row>
-    <row r="337" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D337" s="2"/>
-      <c r="H337">
-        <v>34.715167999999998</v>
-      </c>
-      <c r="I337">
-        <v>136.92993200000001</v>
-      </c>
-    </row>
-    <row r="338" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D338" s="2"/>
-      <c r="H338">
-        <v>34.553325999999998</v>
-      </c>
-      <c r="I338">
-        <v>135.48031599999999</v>
-      </c>
-    </row>
-    <row r="339" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D339" s="2"/>
-      <c r="H339">
-        <v>32.803108000000002</v>
-      </c>
-      <c r="I339">
-        <v>130.71800200000001</v>
-      </c>
-    </row>
-    <row r="340" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D340" s="2"/>
-      <c r="H340">
-        <v>35.567936000000003</v>
-      </c>
-      <c r="I340">
-        <v>139.55787699999999</v>
-      </c>
-    </row>
-    <row r="341" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D341" s="2"/>
-      <c r="H341">
-        <v>35.707977</v>
-      </c>
-      <c r="I341">
-        <v>139.75247200000001</v>
-      </c>
-    </row>
-    <row r="342" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D342" s="2"/>
-      <c r="H342">
-        <v>35.685921</v>
-      </c>
-      <c r="I342">
-        <v>139.72860700000001</v>
-      </c>
-    </row>
-    <row r="343" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D343" s="2"/>
-      <c r="H343">
-        <v>34.836418000000002</v>
-      </c>
-      <c r="I343">
-        <v>138.17605599999999</v>
-      </c>
-    </row>
-    <row r="344" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D344" s="2"/>
-      <c r="H344">
-        <v>26.296118</v>
-      </c>
-      <c r="I344">
-        <v>127.787598</v>
-      </c>
-    </row>
-    <row r="345" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D345" s="2"/>
-      <c r="H345">
-        <v>36.042164</v>
-      </c>
-      <c r="I345">
-        <v>139.39994799999999</v>
-      </c>
-    </row>
-    <row r="346" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D346" s="2"/>
-      <c r="H346">
-        <v>35.923496</v>
-      </c>
-      <c r="I346">
-        <v>139.64944499999999</v>
-      </c>
-    </row>
-    <row r="347" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D347" s="2"/>
-      <c r="H347">
-        <v>35.258277999999997</v>
-      </c>
-      <c r="I347">
-        <v>136.735535</v>
-      </c>
-    </row>
-    <row r="348" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D348" s="2"/>
-      <c r="H348">
-        <v>34.689129000000001</v>
-      </c>
-      <c r="I348">
-        <v>135.70065299999999</v>
-      </c>
-    </row>
-    <row r="349" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D349" s="2"/>
-      <c r="H349">
-        <v>34.816153999999997</v>
-      </c>
-      <c r="I349">
-        <v>135.56849700000001</v>
-      </c>
-    </row>
-    <row r="350" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D350" s="2"/>
-      <c r="H350">
-        <v>35.710979000000002</v>
-      </c>
-      <c r="I350">
-        <v>139.70642100000001</v>
-      </c>
-    </row>
-    <row r="351" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D351" s="2"/>
-      <c r="H351">
-        <v>34.955993999999997</v>
-      </c>
-      <c r="I351">
-        <v>136.57809399999999</v>
-      </c>
-    </row>
-    <row r="352" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D352" s="2"/>
-      <c r="H352">
-        <v>34.990082000000001</v>
-      </c>
-      <c r="I352">
-        <v>135.91123999999999</v>
-      </c>
-    </row>
-    <row r="353" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D353" s="2"/>
-      <c r="H353">
-        <v>34.751637000000002</v>
-      </c>
-      <c r="I353">
-        <v>135.32028199999999</v>
-      </c>
-    </row>
-    <row r="354" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D354" s="2"/>
-      <c r="H354">
-        <v>34.878273</v>
-      </c>
-      <c r="I354">
-        <v>139.08552599999999</v>
-      </c>
-    </row>
-    <row r="355" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D355" s="2"/>
-      <c r="H355">
-        <v>34.962260999999998</v>
-      </c>
-      <c r="I355">
-        <v>138.37913499999999</v>
-      </c>
-    </row>
-    <row r="356" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D356" s="2"/>
-      <c r="H356">
-        <v>34.664012999999997</v>
-      </c>
-      <c r="I356">
-        <v>135.612335</v>
-      </c>
-    </row>
-    <row r="357" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D357" s="2"/>
-      <c r="H357">
-        <v>35.597110999999998</v>
-      </c>
-      <c r="I357">
-        <v>139.347748</v>
-      </c>
-    </row>
-    <row r="358" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D358" s="2"/>
-      <c r="H358">
-        <v>35.475296</v>
-      </c>
-      <c r="I358">
-        <v>139.45678699999999</v>
-      </c>
-    </row>
-    <row r="359" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D359" s="2"/>
-      <c r="H359">
-        <v>34.665680000000002</v>
-      </c>
-      <c r="I359">
-        <v>134.988235</v>
-      </c>
-    </row>
-    <row r="360" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D360" s="2"/>
-      <c r="H360">
-        <v>35.724293000000003</v>
-      </c>
-      <c r="I360">
-        <v>139.97474700000001</v>
-      </c>
-    </row>
-    <row r="361" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D361" s="2"/>
-      <c r="H361">
-        <v>36.137076999999998</v>
-      </c>
-      <c r="I361">
-        <v>139.391357</v>
-      </c>
-    </row>
-    <row r="362" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D362" s="2"/>
-      <c r="H362">
-        <v>35.475738999999997</v>
-      </c>
-      <c r="I362">
-        <v>138.75851399999999</v>
-      </c>
-    </row>
-    <row r="363" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D363" s="2"/>
-      <c r="H363">
-        <v>35.775157999999998</v>
-      </c>
-      <c r="I363">
-        <v>139.52336099999999</v>
-      </c>
-    </row>
-    <row r="364" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D364" s="2"/>
-      <c r="H364">
-        <v>40.602966000000002</v>
-      </c>
-      <c r="I364">
-        <v>140.46400499999999</v>
-      </c>
-    </row>
-    <row r="365" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D365" s="2"/>
-      <c r="H365">
-        <v>34.726844999999997</v>
-      </c>
-      <c r="I365">
-        <v>135.366455</v>
-      </c>
-    </row>
-    <row r="366" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D366" s="2"/>
-      <c r="H366">
-        <v>35.341335000000001</v>
-      </c>
-      <c r="I366">
-        <v>139.495361</v>
-      </c>
-    </row>
-    <row r="367" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D367" s="2"/>
-      <c r="H367">
-        <v>34.852943000000003</v>
-      </c>
-      <c r="I367">
-        <v>135.581467</v>
-      </c>
-    </row>
-    <row r="368" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D368" s="2"/>
-      <c r="H368">
-        <v>35.661064000000003</v>
-      </c>
-      <c r="I368">
-        <v>139.37876900000001</v>
-      </c>
     </row>
     <row r="369" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D369" s="2"/>
-      <c r="H369">
-        <v>35.443049999999999</v>
-      </c>
-      <c r="I369">
-        <v>139.36244199999999</v>
-      </c>
     </row>
     <row r="370" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D370" s="2"/>
-      <c r="H370">
-        <v>43.807822999999999</v>
-      </c>
-      <c r="I370">
-        <v>143.89437899999999</v>
-      </c>
     </row>
     <row r="371" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D371" s="2"/>
-      <c r="H371">
-        <v>35.793495</v>
-      </c>
-      <c r="I371">
-        <v>139.56532300000001</v>
-      </c>
     </row>
     <row r="372" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D372" s="2"/>
-      <c r="H372">
-        <v>35.340927000000001</v>
-      </c>
-      <c r="I372">
-        <v>139.63353000000001</v>
-      </c>
     </row>
     <row r="373" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D373" s="2"/>
-      <c r="H373">
-        <v>34.366348000000002</v>
-      </c>
-      <c r="I373">
-        <v>132.35261499999999</v>
-      </c>
     </row>
     <row r="374" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D374" s="2"/>
-      <c r="H374">
-        <v>35.247951999999998</v>
-      </c>
-      <c r="I374">
-        <v>139.682907</v>
-      </c>
     </row>
     <row r="375" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D375" s="2"/>
-      <c r="H375">
-        <v>35.495403000000003</v>
-      </c>
-      <c r="I375">
-        <v>139.63493299999999</v>
-      </c>
     </row>
     <row r="376" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D376" s="2"/>
-      <c r="H376">
-        <v>36.551772999999997</v>
-      </c>
-      <c r="I376">
-        <v>139.83895899999999</v>
-      </c>
     </row>
     <row r="377" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D377" s="2"/>
-      <c r="H377">
-        <v>34.386654</v>
-      </c>
-      <c r="I377">
-        <v>132.461502</v>
-      </c>
     </row>
     <row r="378" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D378" s="2"/>
-      <c r="H378">
-        <v>35.655396000000003</v>
-      </c>
-      <c r="I378">
-        <v>139.35656700000001</v>
-      </c>
     </row>
     <row r="379" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D379" s="2"/>
-      <c r="H379">
-        <v>33.579819000000001</v>
-      </c>
-      <c r="I379">
-        <v>130.352814</v>
-      </c>
     </row>
     <row r="380" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D380" s="2"/>
-      <c r="H380">
-        <v>35.699547000000003</v>
-      </c>
-      <c r="I380">
-        <v>139.636414</v>
-      </c>
     </row>
     <row r="381" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D381" s="2"/>
-      <c r="H381" s="3">
-        <v>33.115993000000003</v>
-      </c>
-      <c r="I381" s="3">
-        <v>130.43014500000001</v>
-      </c>
+      <c r="H381" s="3"/>
+      <c r="I381" s="3"/>
     </row>
     <row r="382" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D382" s="2"/>
-      <c r="H382">
-        <v>35.457146000000002</v>
-      </c>
-      <c r="I382">
-        <v>139.59454299999999</v>
-      </c>
     </row>
     <row r="383" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D383" s="2"/>
-      <c r="H383">
-        <v>34.674819999999997</v>
-      </c>
-      <c r="I383">
-        <v>135.47569300000001</v>
-      </c>
     </row>
     <row r="384" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D384" s="2"/>
-      <c r="H384">
-        <v>35.685538999999999</v>
-      </c>
-      <c r="I384">
-        <v>139.67417900000001</v>
-      </c>
-    </row>
-    <row r="385" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D385" s="2"/>
-      <c r="H385">
-        <v>35.856285</v>
-      </c>
-      <c r="I385">
-        <v>139.90258800000001</v>
-      </c>
-    </row>
-    <row r="386" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D386" s="2"/>
-      <c r="H386">
-        <v>35.741249000000003</v>
-      </c>
-      <c r="I386">
-        <v>139.611557</v>
-      </c>
-    </row>
-    <row r="387" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D387" s="2"/>
-      <c r="H387">
-        <v>31.596788</v>
-      </c>
-      <c r="I387">
-        <v>130.557343</v>
-      </c>
-    </row>
-    <row r="388" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D388" s="2"/>
-      <c r="H388">
-        <v>35.335861000000001</v>
-      </c>
-      <c r="I388">
-        <v>139.61196899999999</v>
-      </c>
-    </row>
-    <row r="389" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D389" s="2"/>
-      <c r="H389">
-        <v>34.707980999999997</v>
-      </c>
-      <c r="I389">
-        <v>135.73973100000001</v>
-      </c>
-    </row>
-    <row r="390" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D390" s="2"/>
-      <c r="H390">
-        <v>37.601230999999999</v>
-      </c>
-      <c r="I390">
-        <v>140.91224700000001</v>
-      </c>
-    </row>
-    <row r="391" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D391" s="2"/>
-      <c r="H391">
-        <v>43.066650000000003</v>
-      </c>
-      <c r="I391">
-        <v>141.33682300000001</v>
-      </c>
-    </row>
-    <row r="392" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D392" s="2"/>
-      <c r="H392">
-        <v>35.906483000000001</v>
-      </c>
-      <c r="I392">
-        <v>139.62872300000001</v>
-      </c>
-    </row>
-    <row r="393" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D393" s="2"/>
-      <c r="H393">
-        <v>35.444035</v>
-      </c>
-      <c r="I393">
-        <v>139.63795500000001</v>
-      </c>
-    </row>
-    <row r="394" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D394" s="2"/>
-      <c r="H394">
-        <v>35.247990000000001</v>
-      </c>
-      <c r="I394">
-        <v>139.152649</v>
-      </c>
-    </row>
-    <row r="395" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D395" s="2"/>
-      <c r="H395">
-        <v>35.487513999999997</v>
-      </c>
-      <c r="I395">
-        <v>139.45794699999999</v>
-      </c>
-    </row>
-    <row r="396" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D396" s="2"/>
-      <c r="H396">
-        <v>34.994197999999997</v>
-      </c>
-      <c r="I396">
-        <v>135.77816799999999</v>
-      </c>
-    </row>
-    <row r="397" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D397" s="2"/>
-      <c r="H397">
-        <v>34.931365999999997</v>
-      </c>
-      <c r="I397">
-        <v>137.21830700000001</v>
-      </c>
-    </row>
-    <row r="398" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D398" s="2"/>
-      <c r="H398">
-        <v>35.721912000000003</v>
-      </c>
-      <c r="I398">
-        <v>139.931015</v>
-      </c>
-    </row>
-    <row r="399" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D399" s="2"/>
-      <c r="H399">
-        <v>35.339306000000001</v>
-      </c>
-      <c r="I399">
-        <v>139.45109600000001</v>
-      </c>
-    </row>
-    <row r="400" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D400" s="2"/>
-      <c r="H400">
-        <v>35.749256000000003</v>
-      </c>
-      <c r="I400">
-        <v>139.83471700000001</v>
-      </c>
     </row>
     <row r="401" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D401" s="2"/>
-      <c r="H401">
-        <v>35.134467999999998</v>
-      </c>
-      <c r="I401">
-        <v>137.018494</v>
-      </c>
     </row>
     <row r="402" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D402" s="2"/>
-      <c r="H402">
-        <v>35.759354000000002</v>
-      </c>
-      <c r="I402">
-        <v>139.436981</v>
-      </c>
     </row>
     <row r="403" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D403" s="2"/>
-      <c r="H403" s="3">
-        <v>34.821686</v>
-      </c>
-      <c r="I403" s="3">
-        <v>135.42855800000001</v>
-      </c>
+      <c r="H403" s="3"/>
+      <c r="I403" s="3"/>
     </row>
     <row r="404" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D404" s="2"/>
-      <c r="H404">
-        <v>34.679107999999999</v>
-      </c>
-      <c r="I404">
-        <v>135.44212300000001</v>
-      </c>
     </row>
     <row r="405" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D405" s="2"/>
-      <c r="H405">
-        <v>34.801529000000002</v>
-      </c>
-      <c r="I405">
-        <v>135.54530299999999</v>
-      </c>
     </row>
     <row r="406" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D406" s="2"/>
-      <c r="H406">
-        <v>33.947558999999998</v>
-      </c>
-      <c r="I406">
-        <v>133.29037500000001</v>
-      </c>
     </row>
     <row r="407" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D407" s="2"/>
-      <c r="H407">
-        <v>35.329715999999998</v>
-      </c>
-      <c r="I407">
-        <v>136.873322</v>
-      </c>
     </row>
     <row r="408" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D408" s="2"/>
-      <c r="H408">
-        <v>36.580047999999998</v>
-      </c>
-      <c r="I408">
-        <v>136.63986199999999</v>
-      </c>
     </row>
     <row r="409" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D409" s="2"/>
-      <c r="H409">
-        <v>38.310085000000001</v>
-      </c>
-      <c r="I409">
-        <v>140.794769</v>
-      </c>
     </row>
     <row r="410" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D410" s="2"/>
-      <c r="H410">
-        <v>35.725501999999999</v>
-      </c>
-      <c r="I410">
-        <v>139.75147999999999</v>
-      </c>
     </row>
     <row r="411" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D411" s="2"/>
-      <c r="H411">
-        <v>37.494843000000003</v>
-      </c>
-      <c r="I411">
-        <v>139.92970299999999</v>
-      </c>
     </row>
     <row r="412" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D412" s="2"/>
-      <c r="H412">
-        <v>43.103664000000002</v>
-      </c>
-      <c r="I412">
-        <v>141.536102</v>
-      </c>
     </row>
     <row r="413" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D413" s="2"/>
-      <c r="H413">
-        <v>35.672859000000003</v>
-      </c>
-      <c r="I413">
-        <v>139.81736799999999</v>
-      </c>
     </row>
     <row r="414" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D414" s="2"/>
-      <c r="H414">
-        <v>34.494349999999997</v>
-      </c>
-      <c r="I414">
-        <v>135.58517499999999</v>
-      </c>
     </row>
     <row r="415" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D415" s="2"/>
-      <c r="H415">
-        <v>35.808627999999999</v>
-      </c>
-      <c r="I415">
-        <v>139.85348500000001</v>
-      </c>
     </row>
     <row r="416" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D416" s="2"/>
-      <c r="H416">
-        <v>34.943874000000001</v>
-      </c>
-      <c r="I416">
-        <v>137.16206399999999</v>
-      </c>
-    </row>
-    <row r="417" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D417" s="2"/>
-      <c r="H417">
-        <v>43.055359000000003</v>
-      </c>
-      <c r="I417">
-        <v>141.341003</v>
-      </c>
-    </row>
-    <row r="418" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D418" s="2"/>
-      <c r="H418">
-        <v>36.371524999999998</v>
-      </c>
-      <c r="I418">
-        <v>140.12228400000001</v>
-      </c>
-    </row>
-    <row r="419" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D419" s="2"/>
-      <c r="H419">
-        <v>38.450004999999997</v>
-      </c>
-      <c r="I419">
-        <v>141.26876799999999</v>
-      </c>
-    </row>
-    <row r="420" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D420" s="2"/>
-      <c r="H420">
-        <v>34.486122000000002</v>
-      </c>
-      <c r="I420">
-        <v>133.38996900000001</v>
-      </c>
-    </row>
-    <row r="421" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D421" s="2"/>
-      <c r="H421">
-        <v>34.419730999999999</v>
-      </c>
-      <c r="I421">
-        <v>133.20507799999999</v>
-      </c>
-    </row>
-    <row r="422" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D422" s="2"/>
-      <c r="H422">
-        <v>35.587246</v>
-      </c>
-      <c r="I422">
-        <v>139.72167999999999</v>
-      </c>
-    </row>
-    <row r="423" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D423" s="2"/>
-      <c r="H423">
-        <v>36.043018000000004</v>
-      </c>
-      <c r="I423">
-        <v>140.18580600000001</v>
-      </c>
-    </row>
-    <row r="424" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D424" s="2"/>
-      <c r="H424">
-        <v>35.519016000000001</v>
-      </c>
-      <c r="I424">
-        <v>139.633194</v>
-      </c>
-    </row>
-    <row r="425" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D425" s="2"/>
-      <c r="H425">
-        <v>34.896270999999999</v>
-      </c>
-      <c r="I425">
-        <v>135.78038000000001</v>
-      </c>
-    </row>
-    <row r="426" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D426" s="2"/>
-      <c r="H426">
-        <v>34.696258999999998</v>
-      </c>
-      <c r="I426">
-        <v>135.71032700000001</v>
-      </c>
-    </row>
-    <row r="427" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D427" s="2"/>
-      <c r="H427">
-        <v>34.7547</v>
-      </c>
-      <c r="I427">
-        <v>137.40695199999999</v>
-      </c>
-    </row>
-    <row r="428" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D428" s="2"/>
-      <c r="H428">
-        <v>35.778336000000003</v>
-      </c>
-      <c r="I428">
-        <v>139.90301500000001</v>
-      </c>
-    </row>
-    <row r="429" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D429" s="2"/>
-      <c r="H429">
-        <v>34.810214999999999</v>
-      </c>
-      <c r="I429">
-        <v>135.50968900000001</v>
-      </c>
-    </row>
-    <row r="430" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D430" s="2"/>
-      <c r="H430">
-        <v>34.908199000000003</v>
-      </c>
-      <c r="I430">
-        <v>135.186768</v>
-      </c>
-    </row>
-    <row r="431" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D431" s="2"/>
-      <c r="H431">
-        <v>36.340308999999998</v>
-      </c>
-      <c r="I431">
-        <v>136.38108800000001</v>
-      </c>
-    </row>
-    <row r="432" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D432" s="2"/>
-      <c r="H432">
-        <v>35.582011999999999</v>
-      </c>
-      <c r="I432">
-        <v>139.36781300000001</v>
-      </c>
-    </row>
-    <row r="433" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D433" s="2"/>
-      <c r="H433">
-        <v>35.669693000000002</v>
-      </c>
-      <c r="I433">
-        <v>139.725235</v>
-      </c>
-    </row>
-    <row r="434" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D434" s="2"/>
-      <c r="H434">
-        <v>35.72681</v>
-      </c>
-      <c r="I434">
-        <v>140.34307899999999</v>
-      </c>
-    </row>
-    <row r="435" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D435" s="2"/>
-      <c r="H435">
-        <v>33.723522000000003</v>
-      </c>
-      <c r="I435">
-        <v>130.666718</v>
-      </c>
-    </row>
-    <row r="436" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D436" s="2"/>
-      <c r="H436">
-        <v>34.992924000000002</v>
-      </c>
-      <c r="I436">
-        <v>135.72995</v>
-      </c>
-    </row>
-    <row r="437" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D437" s="2"/>
-      <c r="H437">
-        <v>35.484444000000003</v>
-      </c>
-      <c r="I437">
-        <v>138.82595800000001</v>
-      </c>
-    </row>
-    <row r="438" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D438" s="2"/>
-      <c r="H438">
-        <v>34.835884</v>
-      </c>
-      <c r="I438">
-        <v>135.58471700000001</v>
-      </c>
-    </row>
-    <row r="439" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D439" s="2"/>
-      <c r="H439">
-        <v>35.685538999999999</v>
-      </c>
-      <c r="I439">
-        <v>139.67417900000001</v>
-      </c>
-    </row>
-    <row r="440" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D440" s="2"/>
-      <c r="H440">
-        <v>37.494843000000003</v>
-      </c>
-      <c r="I440">
-        <v>139.92970299999999</v>
-      </c>
-    </row>
-    <row r="441" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D441" s="2"/>
-      <c r="H441">
-        <v>35.609065999999999</v>
-      </c>
-      <c r="I441">
-        <v>139.730255</v>
-      </c>
-    </row>
-    <row r="442" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D442" s="2"/>
-      <c r="H442">
-        <v>38.431292999999997</v>
-      </c>
-      <c r="I442">
-        <v>140.39102199999999</v>
-      </c>
-    </row>
-    <row r="443" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D443" s="2"/>
-      <c r="H443">
-        <v>32.885998000000001</v>
-      </c>
-      <c r="I443">
-        <v>130.78971899999999</v>
-      </c>
-    </row>
-    <row r="444" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D444" s="2"/>
-      <c r="H444">
-        <v>35.758651999999998</v>
-      </c>
-      <c r="I444">
-        <v>139.67764299999999</v>
-      </c>
-    </row>
-    <row r="445" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D445" s="2"/>
-      <c r="H445">
-        <v>35.292164</v>
-      </c>
-      <c r="I445">
-        <v>136.87248199999999</v>
-      </c>
-    </row>
-    <row r="446" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="446" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D446" s="2"/>
-      <c r="H446">
-        <v>34.451850999999998</v>
-      </c>
-      <c r="I446">
-        <v>132.47163399999999</v>
-      </c>
-    </row>
-    <row r="447" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="447" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D447" s="2"/>
-      <c r="H447">
-        <v>34.866512</v>
-      </c>
-      <c r="I447">
-        <v>137.049454</v>
-      </c>
-    </row>
-    <row r="448" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="448" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D448" s="2"/>
-      <c r="H448">
-        <v>34.821686</v>
-      </c>
-      <c r="I448">
-        <v>135.42855800000001</v>
-      </c>
-    </row>
-    <row r="449" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D449" s="2"/>
-      <c r="H449">
-        <v>42.964840000000002</v>
-      </c>
-      <c r="I449">
-        <v>142.95146199999999</v>
-      </c>
-    </row>
-    <row r="450" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D450" s="2"/>
-      <c r="H450">
-        <v>34.677695999999997</v>
-      </c>
-      <c r="I450">
-        <v>135.51919599999999</v>
-      </c>
-    </row>
-    <row r="451" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D451" s="2"/>
-      <c r="H451">
-        <v>35.693890000000003</v>
-      </c>
-      <c r="I451">
-        <v>139.703461</v>
-      </c>
-    </row>
-    <row r="452" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D452" s="2"/>
-      <c r="H452">
-        <v>35.883965000000003</v>
-      </c>
-      <c r="I452">
-        <v>139.62617499999999</v>
-      </c>
-    </row>
-    <row r="453" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D453" s="2"/>
-      <c r="H453">
-        <v>34.682189999999999</v>
-      </c>
-      <c r="I453">
-        <v>135.151794</v>
-      </c>
-    </row>
-    <row r="454" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D454" s="2"/>
-      <c r="H454">
-        <v>35.658588000000002</v>
-      </c>
-      <c r="I454">
-        <v>137.89047199999999</v>
-      </c>
-    </row>
-    <row r="455" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D455" s="2"/>
-      <c r="H455">
-        <v>35.658588000000002</v>
-      </c>
-      <c r="I455">
-        <v>137.89047199999999</v>
-      </c>
-    </row>
-    <row r="456" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D456" s="2"/>
-      <c r="H456">
-        <v>34.811751999999998</v>
-      </c>
-      <c r="I456">
-        <v>136.43248</v>
-      </c>
-    </row>
-    <row r="457" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D457" s="2"/>
-      <c r="H457">
-        <v>34.502163000000003</v>
-      </c>
-      <c r="I457">
-        <v>134.21414200000001</v>
-      </c>
-    </row>
-    <row r="458" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D458" s="2"/>
-      <c r="H458">
-        <v>35.216568000000002</v>
-      </c>
-      <c r="I458">
-        <v>137.035416</v>
-      </c>
-    </row>
-    <row r="459" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D459" s="2"/>
-      <c r="H459">
-        <v>36.561050000000002</v>
-      </c>
-      <c r="I459">
-        <v>136.656631</v>
-      </c>
-    </row>
-    <row r="460" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D460" s="2"/>
-      <c r="H460">
-        <v>34.139561</v>
-      </c>
-      <c r="I460">
-        <v>134.53735399999999</v>
-      </c>
-    </row>
-    <row r="461" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D461" s="2"/>
-      <c r="H461">
-        <v>26.337043999999999</v>
-      </c>
-      <c r="I461">
-        <v>127.749786</v>
-      </c>
-    </row>
-    <row r="462" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D462" s="2"/>
-      <c r="H462">
-        <v>35.681885000000001</v>
-      </c>
-      <c r="I462">
-        <v>139.70004299999999</v>
-      </c>
-    </row>
-    <row r="463" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D463" s="2"/>
-      <c r="H463">
-        <v>26.192034</v>
-      </c>
-      <c r="I463">
-        <v>127.66349</v>
-      </c>
-    </row>
-    <row r="464" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D464" s="2"/>
-      <c r="H464">
-        <v>26.425595999999999</v>
-      </c>
-      <c r="I464">
-        <v>127.811211</v>
-      </c>
-    </row>
-    <row r="465" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D465" s="2"/>
-      <c r="H465">
-        <v>34.571232000000002</v>
-      </c>
-      <c r="I465">
-        <v>136.531586</v>
-      </c>
-    </row>
-    <row r="466" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D466" s="2"/>
-      <c r="H466">
-        <v>31.919971</v>
-      </c>
-      <c r="I466">
-        <v>131.44395399999999</v>
-      </c>
-    </row>
-    <row r="467" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D467" s="2"/>
-      <c r="H467">
-        <v>34.701484999999998</v>
-      </c>
-      <c r="I467">
-        <v>137.68298300000001</v>
-      </c>
-    </row>
-    <row r="468" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D468" s="2"/>
-      <c r="H468">
-        <v>35.502662999999998</v>
-      </c>
-      <c r="I468">
-        <v>139.64917</v>
-      </c>
-    </row>
-    <row r="469" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D469" s="2"/>
-      <c r="H469">
-        <v>35.558971</v>
-      </c>
-      <c r="I469">
-        <v>139.42047099999999</v>
-      </c>
-    </row>
-    <row r="470" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D470" s="2"/>
-      <c r="H470">
-        <v>34.679665</v>
-      </c>
-      <c r="I470">
-        <v>135.535675</v>
-      </c>
-    </row>
-    <row r="471" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D471" s="2"/>
-      <c r="H471">
-        <v>26.136572000000001</v>
-      </c>
-      <c r="I471">
-        <v>127.66835</v>
-      </c>
-    </row>
-    <row r="472" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D472" s="2"/>
-      <c r="H472">
-        <v>36.297339999999998</v>
-      </c>
-      <c r="I472">
-        <v>139.87222299999999</v>
-      </c>
-    </row>
-    <row r="473" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D473" s="2"/>
-      <c r="H473">
-        <v>35.484444000000003</v>
-      </c>
-      <c r="I473">
-        <v>138.82595800000001</v>
-      </c>
-    </row>
-    <row r="474" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D474" s="2"/>
-      <c r="H474">
-        <v>35.694004</v>
-      </c>
-      <c r="I474">
-        <v>139.75363200000001</v>
-      </c>
-    </row>
-    <row r="475" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D475" s="2"/>
-      <c r="H475">
-        <v>35.565697</v>
-      </c>
-      <c r="I475">
-        <v>139.71984900000001</v>
-      </c>
-    </row>
-    <row r="476" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D476" s="2"/>
-      <c r="H476">
-        <v>34.693890000000003</v>
-      </c>
-      <c r="I476">
-        <v>135.50204500000001</v>
-      </c>
-    </row>
-    <row r="477" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D477" s="2"/>
-      <c r="H477">
-        <v>34.959820000000001</v>
-      </c>
-      <c r="I477">
-        <v>136.91487100000001</v>
-      </c>
-    </row>
-    <row r="478" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D478" s="2"/>
-      <c r="H478">
-        <v>37.604579999999999</v>
-      </c>
-      <c r="I478">
-        <v>140.494934</v>
-      </c>
-    </row>
-    <row r="479" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D479" s="2"/>
-      <c r="H479">
-        <v>35.730018999999999</v>
-      </c>
-      <c r="I479">
-        <v>139.78872699999999</v>
-      </c>
-    </row>
-    <row r="480" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D480" s="2"/>
-      <c r="H480">
-        <v>34.733555000000003</v>
-      </c>
-      <c r="I480">
-        <v>135.406387</v>
-      </c>
     </row>
     <row r="481" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D481" s="2"/>
-      <c r="H481" s="3">
-        <v>35.736229000000002</v>
-      </c>
-      <c r="I481" s="3">
-        <v>140.010513</v>
-      </c>
+      <c r="H481" s="3"/>
+      <c r="I481" s="3"/>
     </row>
     <row r="482" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D482" s="2"/>
-      <c r="H482">
-        <v>33.585552</v>
-      </c>
-      <c r="I482">
-        <v>130.429474</v>
-      </c>
     </row>
     <row r="483" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D483" s="2"/>
-      <c r="H483">
-        <v>34.092606000000004</v>
-      </c>
-      <c r="I483">
-        <v>131.400284</v>
-      </c>
     </row>
     <row r="484" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D484" s="2"/>
-      <c r="H484">
-        <v>35.117626000000001</v>
-      </c>
-      <c r="I484">
-        <v>138.90876800000001</v>
-      </c>
     </row>
     <row r="485" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D485" s="2"/>
-      <c r="H485">
-        <v>35.388004000000002</v>
-      </c>
-      <c r="I485">
-        <v>139.28895600000001</v>
-      </c>
     </row>
     <row r="486" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D486" s="2"/>
-      <c r="H486">
-        <v>35.934157999999996</v>
-      </c>
-      <c r="I486">
-        <v>139.41340600000001</v>
-      </c>
     </row>
     <row r="487" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D487" s="2"/>
-      <c r="H487">
-        <v>35.464924000000003</v>
-      </c>
-      <c r="I487">
-        <v>139.52809099999999</v>
-      </c>
     </row>
     <row r="488" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D488" s="2"/>
-      <c r="H488">
-        <v>35.44632</v>
-      </c>
-      <c r="I488">
-        <v>137.80917400000001</v>
-      </c>
     </row>
     <row r="489" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D489" s="2"/>
-      <c r="H489">
-        <v>34.914593000000004</v>
-      </c>
-      <c r="I489">
-        <v>135.68362400000001</v>
-      </c>
     </row>
     <row r="490" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D490" s="2"/>
-      <c r="H490">
-        <v>34.729553000000003</v>
-      </c>
-      <c r="I490">
-        <v>135.383591</v>
-      </c>
     </row>
     <row r="491" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D491" s="2"/>
-      <c r="H491">
-        <v>34.155312000000002</v>
-      </c>
-      <c r="I491">
-        <v>135.209183</v>
-      </c>
     </row>
     <row r="492" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D492" s="2"/>
-      <c r="H492">
-        <v>35.687179999999998</v>
-      </c>
-      <c r="I492">
-        <v>139.82342499999999</v>
-      </c>
     </row>
     <row r="493" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D493" s="2"/>
-      <c r="H493">
-        <v>35.929133999999998</v>
-      </c>
-      <c r="I493">
-        <v>139.66116299999999</v>
-      </c>
     </row>
     <row r="494" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D494" s="2"/>
-      <c r="H494">
-        <v>35.161385000000003</v>
-      </c>
-      <c r="I494">
-        <v>138.67631499999999</v>
-      </c>
     </row>
     <row r="495" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D495" s="2"/>
-      <c r="H495">
-        <v>35.697249999999997</v>
-      </c>
-      <c r="I495">
-        <v>139.433334</v>
-      </c>
     </row>
     <row r="496" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D496" s="2"/>
-      <c r="H496">
-        <v>26.212295999999998</v>
-      </c>
-      <c r="I496">
-        <v>127.679214</v>
-      </c>
-    </row>
-    <row r="497" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D497" s="2"/>
-      <c r="H497">
-        <v>33.188915000000001</v>
-      </c>
-      <c r="I497">
-        <v>131.65512100000001</v>
-      </c>
-    </row>
-    <row r="498" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D498" s="2"/>
-      <c r="H498">
-        <v>34.814442</v>
-      </c>
-      <c r="I498">
-        <v>135.76783800000001</v>
-      </c>
-    </row>
-    <row r="499" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D499" s="2"/>
-      <c r="H499">
-        <v>33.888573000000001</v>
-      </c>
-      <c r="I499">
-        <v>134.65051299999999</v>
-      </c>
-    </row>
-    <row r="500" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D500" s="2"/>
-      <c r="H500">
-        <v>35.715907999999999</v>
-      </c>
-      <c r="I500">
-        <v>139.556534</v>
-      </c>
-    </row>
-    <row r="501" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D501" s="2"/>
-      <c r="H501">
-        <v>34.383347000000001</v>
-      </c>
-      <c r="I501">
-        <v>135.36798099999999</v>
-      </c>
-    </row>
-    <row r="502" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D502" s="2"/>
-      <c r="H502">
-        <v>35.487492000000003</v>
-      </c>
-      <c r="I502">
-        <v>137.50060999999999</v>
-      </c>
-    </row>
-    <row r="503" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D503" s="2"/>
-      <c r="H503">
-        <v>35.080688000000002</v>
-      </c>
-      <c r="I503">
-        <v>136.98782299999999</v>
-      </c>
-    </row>
-    <row r="504" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D504" s="2"/>
-      <c r="H504">
-        <v>35.698993999999999</v>
-      </c>
-      <c r="I504">
-        <v>139.685654</v>
-      </c>
-    </row>
-    <row r="505" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D505" s="2"/>
-      <c r="H505">
-        <v>35.154071999999999</v>
-      </c>
-      <c r="I505">
-        <v>136.87617499999999</v>
-      </c>
-    </row>
-    <row r="506" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D506" s="2"/>
-      <c r="H506">
-        <v>36.117145999999998</v>
-      </c>
-      <c r="I506">
-        <v>139.470596</v>
-      </c>
-    </row>
-    <row r="507" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D507" s="2"/>
-      <c r="H507">
-        <v>35.834698000000003</v>
-      </c>
-      <c r="I507">
-        <v>139.57545500000001</v>
-      </c>
-    </row>
-    <row r="508" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D508" s="2"/>
-      <c r="H508">
-        <v>35.689048999999997</v>
-      </c>
-      <c r="I508">
-        <v>140.02499399999999</v>
-      </c>
-    </row>
-    <row r="509" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D509" s="2"/>
-      <c r="H509">
-        <v>36.175068000000003</v>
-      </c>
-      <c r="I509">
-        <v>139.335297</v>
-      </c>
-    </row>
-    <row r="510" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D510" s="2"/>
-      <c r="H510">
-        <v>35.740004999999996</v>
-      </c>
-      <c r="I510">
-        <v>139.66452000000001</v>
-      </c>
-    </row>
-    <row r="511" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D511" s="2"/>
-      <c r="H511">
-        <v>34.518940000000001</v>
-      </c>
-      <c r="I511">
-        <v>135.84776299999999</v>
-      </c>
-    </row>
-    <row r="512" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D512" s="2"/>
-      <c r="H512">
-        <v>33.972588000000002</v>
-      </c>
-      <c r="I512">
-        <v>131.23092700000001</v>
-      </c>
-    </row>
-    <row r="513" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D513" s="2"/>
-      <c r="H513">
-        <v>35.832332999999998</v>
-      </c>
-      <c r="I513">
-        <v>140.14576700000001</v>
-      </c>
-    </row>
-    <row r="514" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D514" s="2"/>
-      <c r="H514">
-        <v>35.541789999999999</v>
-      </c>
-      <c r="I514">
-        <v>139.56012000000001</v>
-      </c>
-    </row>
-    <row r="515" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D515" s="2"/>
-      <c r="H515">
-        <v>35.731372999999998</v>
-      </c>
-      <c r="I515">
-        <v>139.71530200000001</v>
-      </c>
-    </row>
-    <row r="516" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D516" s="2"/>
-      <c r="H516">
-        <v>26.245815</v>
-      </c>
-      <c r="I516">
-        <v>127.721802</v>
-      </c>
-    </row>
-    <row r="517" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D517" s="2"/>
-      <c r="H517">
-        <v>35.337265000000002</v>
-      </c>
-      <c r="I517">
-        <v>139.32626300000001</v>
-      </c>
-    </row>
-    <row r="518" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D518" s="2"/>
-      <c r="H518">
-        <v>34.716335000000001</v>
-      </c>
-      <c r="I518">
-        <v>135.38343800000001</v>
-      </c>
-    </row>
-    <row r="519" spans="4:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D519" s="2"/>
     </row>
-    <row r="520" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D520" s="2"/>
     </row>
-    <row r="521" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D521" s="2"/>
     </row>
-    <row r="522" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D522" s="2"/>
     </row>
-    <row r="523" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D523" s="2"/>
     </row>
-    <row r="524" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D524" s="2"/>
     </row>
-    <row r="525" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D525" s="2"/>
     </row>
-    <row r="526" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D526" s="2"/>
     </row>
-    <row r="527" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D527" s="2"/>
     </row>
-    <row r="528" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D528" s="2"/>
     </row>
     <row r="529" spans="4:4" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB1F04B-20E5-4543-BEDA-B058ACD08ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C8E38-F038-4E94-8875-C8A2CAAC0C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1035" windowWidth="24690" windowHeight="14325" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="29775" yWindow="3000" windowWidth="24690" windowHeight="14325" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>jio0</t>
   </si>
@@ -295,6 +295,39 @@
   </si>
   <si>
     <t>大田区多摩川2-24-62</t>
+  </si>
+  <si>
+    <t>大阪市生野区巽東</t>
+  </si>
+  <si>
+    <t>神戸市灘区六甲台町8-47</t>
+  </si>
+  <si>
+    <t>茨城県</t>
+  </si>
+  <si>
+    <t>日立市久慈町</t>
+  </si>
+  <si>
+    <t>名古屋市緑区鏡田</t>
+  </si>
+  <si>
+    <t>北区</t>
+  </si>
+  <si>
+    <t>西宮市甲陽園若江町</t>
+  </si>
+  <si>
+    <t>三田市</t>
+  </si>
+  <si>
+    <t>堺市西区浜寺船尾町西1丁</t>
+  </si>
+  <si>
+    <t>大阪市</t>
+  </si>
+  <si>
+    <t>春日部市備後西</t>
   </si>
 </sst>
 </file>
@@ -703,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F783F1-693B-40FB-B54E-2CFAE0B1ADB5}">
   <dimension ref="A1:I3761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -747,21 +780,350 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>北海道旭川市永山５条</v>
+        <v>大阪府大阪市生野区巽東</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%AD%E5%B7%9D%E5%B8%82%E6%B0%B8%E5%B1%B1%EF%BC%95%E6%9D%A1</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E7%94%9F%E9%87%8E%E5%8C%BA%E5%B7%BD%E6%9D%B1</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪市生野区巽東&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市生野区巽東&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市/生野区/巽東&lt;/address&gt;
+&lt;longitude&gt;135.555740&lt;/longitude&gt;
+&lt;latitude&gt;34.650810&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>34.65081</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>135.55573999999999</v>
+      </c>
+      <c r="H2">
+        <v>34.65081</v>
+      </c>
+      <c r="I2">
+        <v>135.55573999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>兵庫県神戸市灘区六甲台町8-47</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E5%85%AD%E7%94%B2%E5%8F%B0%E7%94%BA8-47</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県神戸市灘区六甲台町8-47&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県神戸市灘区六甲台町8-47&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/神戸市/灘区/六甲台町/８番/４７号&lt;/address&gt;
+&lt;longitude&gt;135.232025&lt;/longitude&gt;
+&lt;latitude&gt;34.730652&lt;/latitude&gt;
+&lt;iLvl&gt;8&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>34.730651999999999</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>135.23202499999999</v>
+      </c>
+      <c r="H3">
+        <v>34.730651999999999</v>
+      </c>
+      <c r="I3">
+        <v>135.23202499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>茨城県日立市久慈町</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;茨城県日立市久慈町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;茨城県日立市久慈町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;茨城県/日立市/久慈町&lt;/address&gt;
+&lt;longitude&gt;140.622589&lt;/longitude&gt;
+&lt;latitude&gt;36.498386&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>36.498386000000004</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>140.622589</v>
+      </c>
+      <c r="H4">
+        <v>36.498386000000004</v>
+      </c>
+      <c r="I4">
+        <v>140.622589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>愛知県名古屋市緑区鏡田</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E9%8F%A1%E7%94%B0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県名古屋市緑区鏡田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県名古屋市緑区鏡田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/名古屋市/緑区/鏡田&lt;/address&gt;
+&lt;longitude&gt;137.013138&lt;/longitude&gt;
+&lt;latitude&gt;35.092873&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>35.092872999999997</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>137.013138</v>
+      </c>
+      <c r="H5">
+        <v>35.092872999999997</v>
+      </c>
+      <c r="I5">
+        <v>137.013138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>東京都北区</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%8C%97%E5%8C%BA</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都北区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都北区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/北区&lt;/address&gt;
+&lt;longitude&gt;139.733658&lt;/longitude&gt;
+&lt;latitude&gt;35.752804&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+        <v>35.752803999999998</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+        <v>139.73365799999999</v>
+      </c>
+      <c r="H6">
+        <v>35.752803999999998</v>
+      </c>
+      <c r="I6">
+        <v>139.73365799999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>兵庫県西宮市甲陽園若江町</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E8%A5%BF%E5%AE%AE%E5%B8%82%E7%94%B2%E9%99%BD%E5%9C%92%E8%8B%A5%E6%B1%9F%E7%94%BA</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県西宮市甲陽園若江町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県西宮市甲陽園若江町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/西宮市/甲陽園若江町&lt;/address&gt;
+&lt;longitude&gt;135.330902&lt;/longitude&gt;
+&lt;latitude&gt;34.759026&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>34.759025999999999</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>135.33090200000001</v>
+      </c>
+      <c r="H7">
+        <v>34.759025999999999</v>
+      </c>
+      <c r="I7">
+        <v>135.33090200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
+        <v>兵庫県三田市</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E4%B8%89%E7%94%B0%E5%B8%82</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県三田市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県三田市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/三田市&lt;/address&gt;
+&lt;longitude&gt;135.225296&lt;/longitude&gt;
+&lt;latitude&gt;34.889671&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+        <v>34.889671</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+        <v>135.22529599999999</v>
+      </c>
+      <c r="H8">
+        <v>34.889671</v>
+      </c>
+      <c r="I8">
+        <v>135.22529599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
+        <v>北海道旭川市永山５条</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%AD%E5%B7%9D%E5%B8%82%E6%B0%B8%E5%B1%B1%EF%BC%95%E6%9D%A1</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;北海道旭川市永山５条&lt;/query&gt;
@@ -777,38 +1139,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>43.784568999999998</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>142.39909399999999</v>
       </c>
-      <c r="H2">
+      <c r="H9">
         <v>43.784568999999998</v>
       </c>
-      <c r="I2">
+      <c r="I9">
         <v>142.39909399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>岐阜県岐阜市弁天町２－１－２</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E5%BC%81%E5%A4%A9%E7%94%BA%EF%BC%92%EF%BC%8D%EF%BC%91%EF%BC%8D%EF%BC%92</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岐阜県岐阜市弁天町２−１−２&lt;/query&gt;
@@ -824,38 +1186,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.420315000000002</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>136.74797100000001</v>
       </c>
-      <c r="H3">
+      <c r="H10">
         <v>35.420315000000002</v>
       </c>
-      <c r="I3">
+      <c r="I10">
         <v>136.74797100000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府吹田市&lt;/query&gt;
@@ -871,38 +1233,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H4">
+      <c r="H11">
         <v>34.759402999999999</v>
       </c>
-      <c r="I4">
+      <c r="I11">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C12" t="str">
+        <f t="shared" si="9"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E12" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都稲城市若葉台&lt;/query&gt;
@@ -918,38 +1280,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H5">
+      <c r="H12">
         <v>35.626038000000001</v>
       </c>
-      <c r="I5">
+      <c r="I12">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C13" t="str">
+        <f t="shared" si="9"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E13" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;香川県高松市川島東町&lt;/query&gt;
@@ -965,38 +1327,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H6">
+      <c r="H13">
         <v>34.266705000000002</v>
       </c>
-      <c r="I6">
+      <c r="I13">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C14" t="str">
+        <f t="shared" si="9"/>
         <v>埼玉県越谷市</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E14" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県越谷市&lt;/query&gt;
@@ -1012,37 +1374,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>35.891086999999999</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>139.79093900000001</v>
       </c>
-      <c r="H7">
+      <c r="H14">
         <v>35.891086999999999</v>
       </c>
-      <c r="I7">
+      <c r="I14">
         <v>139.79093900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>広島県府中市出口町</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%9C%E4%B8%AD%E5%B8%82%E5%87%BA%E5%8F%A3%E7%94%BA</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1059,37 +1421,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>34.586570999999999</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>133.225449</v>
       </c>
-      <c r="H8">
+      <c r="H15">
         <v>34.586570999999999</v>
       </c>
-      <c r="I8">
+      <c r="I15">
         <v>133.225449</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>愛知県名古屋市東区</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1106,37 +1468,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>35.179313999999998</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>136.926041</v>
       </c>
-      <c r="H9">
+      <c r="H16">
         <v>35.179313999999998</v>
       </c>
-      <c r="I9">
+      <c r="I16">
         <v>136.926041</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1153,37 +1515,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H10">
+      <c r="H17">
         <v>35.460503000000003</v>
       </c>
-      <c r="I10">
+      <c r="I17">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>愛媛県新居浜市八幡</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%85%AB%E5%B9%A1</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1200,37 +1562,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>33.978043</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>133.309921</v>
       </c>
-      <c r="H11">
+      <c r="H18">
         <v>33.978043</v>
       </c>
-      <c r="I11">
+      <c r="I18">
         <v>133.309921</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>福岡県大野城市月の浦</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E5%A4%A7%E9%87%8E%E5%9F%8E%E5%B8%82%E6%9C%88%E3%81%AE%E6%B5%A6</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1247,37 +1609,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>33.500689999999999</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>130.46286000000001</v>
       </c>
-      <c r="H12">
+      <c r="H19">
         <v>33.500689999999999</v>
       </c>
-      <c r="I12">
+      <c r="I19">
         <v>130.46286000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>大阪府高槻市芝谷町</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%8A%9D%E8%B0%B7%E7%94%BA</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1294,37 +1656,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>34.868862</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>135.607956</v>
       </c>
-      <c r="H13">
+      <c r="H20">
         <v>34.868862</v>
       </c>
-      <c r="I13">
+      <c r="I20">
         <v>135.607956</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>千葉県千葉市　美浜区　磯辺</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E3%80%80%E7%BE%8E%E6%B5%9C%E5%8C%BA%E3%80%80%E7%A3%AF%E8%BE%BA</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1341,37 +1703,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.629711</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>140.06405599999999</v>
       </c>
-      <c r="H14">
+      <c r="H21">
         <v>35.629711</v>
       </c>
-      <c r="I14">
+      <c r="I21">
         <v>140.06405599999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1388,37 +1750,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H15">
+      <c r="H22">
         <v>34.660412000000001</v>
       </c>
-      <c r="I15">
+      <c r="I22">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1435,37 +1797,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H16">
+      <c r="H23">
         <v>34.665543</v>
       </c>
-      <c r="I16">
+      <c r="I23">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>愛知県知多郡東浦町緒川</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E6%9D%B1%E6%B5%A6%E7%94%BA%E7%B7%92%E5%B7%9D</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1482,38 +1844,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>34.972813000000002</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>136.936691</v>
       </c>
-      <c r="H17">
+      <c r="H24">
         <v>34.972813000000002</v>
       </c>
-      <c r="I17">
+      <c r="I24">
         <v>136.936691</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都練馬区関町北&lt;/query&gt;
@@ -1529,38 +1891,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H18">
+      <c r="H25">
         <v>35.725349000000001</v>
       </c>
-      <c r="I18">
+      <c r="I25">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岐阜県多治見市宝町&lt;/query&gt;
@@ -1576,38 +1938,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H19">
+      <c r="H26">
         <v>35.338383</v>
       </c>
-      <c r="I19">
+      <c r="I26">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="9"/>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>千葉県浦安市</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E6%B5%A6%E5%AE%89%E5%B8%82</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県浦安市&lt;/query&gt;
@@ -1623,38 +1985,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>35.653987999999998</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>139.90219099999999</v>
       </c>
-      <c r="H20">
+      <c r="H27">
         <v>35.653987999999998</v>
       </c>
-      <c r="I20">
+      <c r="I27">
         <v>139.90219099999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
         <v>京都府福知山市正明寺</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E7%A6%8F%E7%9F%A5%E5%B1%B1%E5%B8%82%E6%AD%A3%E6%98%8E%E5%AF%BA</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;京都府福知山市正明寺&lt;/query&gt;
@@ -1670,38 +2032,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>35.286715999999998</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>135.104187</v>
       </c>
-      <c r="H21">
+      <c r="H28">
         <v>35.286715999999998</v>
       </c>
-      <c r="I21">
+      <c r="I28">
         <v>135.104187</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C29" t="str">
+        <f t="shared" si="12"/>
         <v>群馬県太田市城西町</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E5%A4%AA%E7%94%B0%E5%B8%82%E5%9F%8E%E8%A5%BF%E7%94%BA</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E29" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;群馬県太田市城西町&lt;/query&gt;
@@ -1717,38 +2079,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>36.310654</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>139.33760100000001</v>
       </c>
-      <c r="H22">
+      <c r="H29">
         <v>36.310654</v>
       </c>
-      <c r="I22">
+      <c r="I29">
         <v>139.33760100000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+      <c r="C30" t="str">
+        <f t="shared" si="12"/>
         <v>東京都世田谷区岡本</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E5%B2%A1%E6%9C%AC</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E30" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都世田谷区岡本&lt;/query&gt;
@@ -1764,38 +2126,85 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>35.624980999999998</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>139.620575</v>
       </c>
-      <c r="H23">
+      <c r="H30">
         <v>35.624980999999998</v>
       </c>
-      <c r="I23">
+      <c r="I30">
         <v>139.620575</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="12"/>
+        <v>大阪府堺市西区浜寺船尾町西1丁</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E8%A5%BF%E5%8C%BA%E6%B5%9C%E5%AF%BA%E8%88%B9%E5%B0%BE%E7%94%BA%E8%A5%BF1%E4%B8%81</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府堺市西区浜寺船尾町西1丁&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府堺市西区浜寺船尾町西1丁&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/堺市/西区/浜寺船尾町西一丁&lt;/address&gt;
+&lt;longitude&gt;135.456009&lt;/longitude&gt;
+&lt;latitude&gt;34.550938&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+        <v>34.550938000000002</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+        <v>135.45600899999999</v>
+      </c>
+      <c r="H31">
+        <v>34.550938000000002</v>
+      </c>
+      <c r="I31">
+        <v>135.45600899999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C32" t="str">
+        <f t="shared" si="12"/>
         <v>愛知県名古屋市守山区青山台</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E5%AE%88%E5%B1%B1%E5%8C%BA%E9%9D%92%E5%B1%B1%E5%8F%B0</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E32" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県名古屋市守山区青山台&lt;/query&gt;
@@ -1811,38 +2220,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>35.229061000000002</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>137.01525899999999</v>
       </c>
-      <c r="H24">
+      <c r="H32">
         <v>35.229061000000002</v>
       </c>
-      <c r="I24">
+      <c r="I32">
         <v>137.01525899999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C33" t="str">
+        <f t="shared" si="12"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E33" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県船橋市&lt;/query&gt;
@@ -1858,38 +2267,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H25">
+      <c r="H33">
         <v>35.694710000000001</v>
       </c>
-      <c r="I25">
+      <c r="I33">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="12"/>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
         <v>高知県高知市長浜蒔絵台</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D34" s="2" t="str">
+        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%95%B7%E6%B5%9C%E8%92%94%E7%B5%B5%E5%8F%B0</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="14"/>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;高知県高知市長浜蒔絵台&lt;/query&gt;
@@ -1905,38 +2314,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
         <v>33.515532999999998</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
         <v>133.52641299999999</v>
       </c>
-      <c r="H26">
+      <c r="H34">
         <v>33.515532999999998</v>
       </c>
-      <c r="I26">
+      <c r="I34">
         <v>133.52641299999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="12"/>
+      <c r="C35" t="str">
+        <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="14"/>
+      <c r="E35" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県宝塚市&lt;/query&gt;
@@ -1952,38 +2361,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H27">
+      <c r="H35">
         <v>34.799816</v>
       </c>
-      <c r="I27">
+      <c r="I35">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="12"/>
+      <c r="C36" t="str">
+        <f t="shared" si="15"/>
         <v>東京都世田谷区</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="14"/>
+      <c r="E36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都世田谷区&lt;/query&gt;
@@ -1999,38 +2408,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
         <v>35.646481000000001</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
         <v>139.65321399999999</v>
       </c>
-      <c r="H28">
+      <c r="H36">
         <v>35.646481000000001</v>
       </c>
-      <c r="I28">
+      <c r="I36">
         <v>139.65321399999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="12"/>
+      <c r="C37" t="str">
+        <f t="shared" si="15"/>
         <v>大阪府大阪市浪速区桜川</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="14"/>
+      <c r="E37" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府大阪市浪速区桜川&lt;/query&gt;
@@ -2046,38 +2455,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
         <v>34.666893000000002</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
         <v>135.49284399999999</v>
       </c>
-      <c r="H29">
+      <c r="H37">
         <v>34.666893000000002</v>
       </c>
-      <c r="I29">
+      <c r="I37">
         <v>135.49284399999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="12"/>
+      <c r="C38" t="str">
+        <f t="shared" si="15"/>
         <v>千葉県野田市親野井</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="14"/>
+      <c r="E38" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県野田市親野井&lt;/query&gt;
@@ -2093,38 +2502,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
         <v>36.040675999999998</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
         <v>139.81359900000001</v>
       </c>
-      <c r="H30">
+      <c r="H38">
         <v>36.040675999999998</v>
       </c>
-      <c r="I30">
+      <c r="I38">
         <v>139.81359900000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="12"/>
+      <c r="C39" t="str">
+        <f t="shared" si="15"/>
         <v>岐阜県岐阜市須賀</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="14"/>
+      <c r="E39" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岐阜県岐阜市須賀&lt;/query&gt;
@@ -2140,38 +2549,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
         <v>35.386009000000001</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
         <v>136.723984</v>
       </c>
-      <c r="H31">
+      <c r="H39">
         <v>35.386009000000001</v>
       </c>
-      <c r="I31">
+      <c r="I39">
         <v>136.723984</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="12"/>
+      <c r="C40" t="str">
+        <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="14"/>
+      <c r="E40" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市神奈川区&lt;/query&gt;
@@ -2187,38 +2596,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
         <v>35.477051000000003</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
         <v>139.629288</v>
       </c>
-      <c r="H32">
+      <c r="H40">
         <v>35.477051000000003</v>
       </c>
-      <c r="I32">
+      <c r="I40">
         <v>139.629288</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="12"/>
+      <c r="C41" t="str">
+        <f t="shared" si="15"/>
         <v>広島県広島市佐伯区五日市町</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="14"/>
+      <c r="E41" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県広島市佐伯区五日市町&lt;/query&gt;
@@ -2234,38 +2643,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
         <v>34.361728999999997</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
         <v>132.37535099999999</v>
       </c>
-      <c r="H33">
+      <c r="H41">
         <v>34.361728999999997</v>
       </c>
-      <c r="I33">
+      <c r="I41">
         <v>132.37535099999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
+      <c r="C42" t="str">
+        <f t="shared" si="15"/>
         <v>千葉県千葉市美浜区</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
+      <c r="E42" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県千葉市美浜区&lt;/query&gt;
@@ -2281,37 +2690,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
         <v>35.640552999999997</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
         <v>140.06303399999999</v>
       </c>
-      <c r="H34">
+      <c r="H42">
         <v>35.640552999999997</v>
       </c>
-      <c r="I34">
+      <c r="I42">
         <v>140.06303399999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="15"/>
         <v>群馬県伊勢崎市除ケ町</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D43" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%B4%8E%E5%B8%82%E9%99%A4%E3%82%B1%E7%94%BA</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2328,37 +2737,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
         <v>36.283253000000002</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
         <v>139.19224500000001</v>
       </c>
-      <c r="H35">
+      <c r="H43">
         <v>36.283253000000002</v>
       </c>
-      <c r="I35">
+      <c r="I43">
         <v>139.19224500000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="15"/>
         <v>東京都大田区多摩川2-24-62</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D44" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D2-24-62</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2375,37 +2784,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
         <v>35.555843000000003</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
         <v>139.70198099999999</v>
       </c>
-      <c r="H36">
+      <c r="H44">
         <v>35.555843000000003</v>
       </c>
-      <c r="I36">
+      <c r="I44">
         <v>139.70198099999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D45" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2422,37 +2831,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G37" cm="1">
-        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H37">
+      <c r="H45">
         <v>34.799816</v>
       </c>
-      <c r="I37">
+      <c r="I45">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>32</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区子安台</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D46" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA%E5%AD%90%E5%AE%89%E5%8F%B0</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2469,37 +2878,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
         <v>35.491627000000001</v>
       </c>
-      <c r="G38" cm="1">
-        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
         <v>139.658829</v>
       </c>
-      <c r="H38">
+      <c r="H46">
         <v>35.491627000000001</v>
       </c>
-      <c r="I38">
+      <c r="I46">
         <v>139.658829</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D47" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2516,37 +2925,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G39" cm="1">
-        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H39">
+      <c r="H47">
         <v>34.759402999999999</v>
       </c>
-      <c r="I39">
+      <c r="I47">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="15"/>
         <v>熊本県葦北郡津奈木町福浜</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D48" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E6%B4%A5%E5%A5%88%E6%9C%A8%E7%94%BA%E7%A6%8F%E6%B5%9C</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2563,37 +2972,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
         <v>32.268051</v>
       </c>
-      <c r="G40" cm="1">
-        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
         <v>130.45193499999999</v>
       </c>
-      <c r="H40">
+      <c r="H48">
         <v>32.268051</v>
       </c>
-      <c r="I40">
+      <c r="I48">
         <v>130.45193499999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="15"/>
         <v>秋田県秋田市</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D49" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A7%8B%E7%94%B0%E7%9C%8C%E7%A7%8B%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2610,37 +3019,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
         <v>39.719929</v>
       </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
         <v>140.102509</v>
       </c>
-      <c r="H41">
+      <c r="H49">
         <v>39.719929</v>
       </c>
-      <c r="I41">
+      <c r="I49">
         <v>140.102509</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>32</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B50" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県川崎市中原区新丸子東</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D50" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E4%B8%AD%E5%8E%9F%E5%8C%BA%E6%96%B0%E4%B8%B8%E5%AD%90%E6%9D%B1</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2657,37 +3066,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
         <v>35.580086000000001</v>
       </c>
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
         <v>139.66317699999999</v>
       </c>
-      <c r="H42">
+      <c r="H50">
         <v>35.580086000000001</v>
       </c>
-      <c r="I42">
+      <c r="I50">
         <v>139.66317699999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="15"/>
         <v>大阪府寝屋川市点野</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%9D%E5%B1%8B%E5%B7%9D%E5%B8%82%E7%82%B9%E9%87%8E</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2704,37 +3113,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
         <v>34.780231000000001</v>
       </c>
-      <c r="G43" cm="1">
-        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
         <v>135.605133</v>
       </c>
-      <c r="H43">
+      <c r="H51">
         <v>34.780231000000001</v>
       </c>
-      <c r="I43">
+      <c r="I51">
         <v>135.605133</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="15"/>
         <v>岡山県岡山市南区福富西2丁目</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%B2%A1%E5%B1%B1%E5%B8%82%E5%8D%97%E5%8C%BA%E7%A6%8F%E5%AF%8C%E8%A5%BF2%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2751,37 +3160,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
         <v>34.621516999999997</v>
       </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
         <v>133.93177800000001</v>
       </c>
-      <c r="H44">
+      <c r="H52">
         <v>34.621516999999997</v>
       </c>
-      <c r="I44">
+      <c r="I52">
         <v>133.93177800000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B53" t="s">
         <v>57</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="15"/>
         <v>東京都品川区東五反田</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA%E6%9D%B1%E4%BA%94%E5%8F%8D%E7%94%B0</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2798,37 +3207,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
         <v>35.627761999999997</v>
       </c>
-      <c r="G45" cm="1">
-        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
         <v>139.72642500000001</v>
       </c>
-      <c r="H45">
+      <c r="H53">
         <v>35.627761999999997</v>
       </c>
-      <c r="I45">
+      <c r="I53">
         <v>139.72642500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="15"/>
         <v>長野県長野市川中島町上氷鉋</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D54" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E5%B7%9D%E4%B8%AD%E5%B3%B6%E7%94%BA%E4%B8%8A%E6%B0%B7%E9%89%8B</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2845,37 +3254,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
         <v>36.611911999999997</v>
       </c>
-      <c r="G46" cm="1">
-        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
         <v>138.157059</v>
       </c>
-      <c r="H46">
+      <c r="H54">
         <v>36.611911999999997</v>
       </c>
-      <c r="I46">
+      <c r="I54">
         <v>138.157059</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市安佐南区長束西</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E5%AE%89%E4%BD%90%E5%8D%97%E5%8C%BA%E9%95%B7%E6%9D%9F%E8%A5%BF</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2892,37 +3301,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
         <v>34.427909999999997</v>
       </c>
-      <c r="G47" cm="1">
-        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
         <v>132.450165</v>
       </c>
-      <c r="H47">
+      <c r="H55">
         <v>34.427909999999997</v>
       </c>
-      <c r="I47">
+      <c r="I55">
         <v>132.450165</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>13</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B56" t="s">
         <v>17</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="15"/>
         <v>新潟県新潟市中央区明石</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E6%96%B0%E6%BD%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E6%98%8E%E7%9F%B3</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2939,37 +3348,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
         <v>37.916012000000002</v>
       </c>
-      <c r="G48" cm="1">
-        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
         <v>139.065506</v>
       </c>
-      <c r="H48">
+      <c r="H56">
         <v>37.916012000000002</v>
       </c>
-      <c r="I48">
+      <c r="I56">
         <v>139.065506</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>9</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県秩父市熊木町</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D57" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%A7%A9%E7%88%B6%E5%B8%82%E7%86%8A%E6%9C%A8%E7%94%BA</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2986,37 +3395,131 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
         <v>35.991272000000002</v>
       </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
         <v>139.08822599999999</v>
       </c>
-      <c r="H49">
+      <c r="H57">
         <v>35.991272000000002</v>
       </c>
-      <c r="I49">
+      <c r="I57">
         <v>139.08822599999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="15"/>
+        <v>大阪府大阪市</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市&lt;/address&gt;
+&lt;longitude&gt;135.502045&lt;/longitude&gt;
+&lt;latitude&gt;34.693890&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+        <v>34.693890000000003</v>
+      </c>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+        <v>135.50204500000001</v>
+      </c>
+      <c r="H58">
+        <v>34.693890000000003</v>
+      </c>
+      <c r="I58">
+        <v>135.50204500000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="15"/>
+        <v>埼玉県春日部市備後西</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E6%98%A5%E6%97%A5%E9%83%A8%E5%B8%82%E5%82%99%E5%BE%8C%E8%A5%BF</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県春日部市備後西&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県春日部市備後西&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/春日部市/備後西&lt;/address&gt;
+&lt;longitude&gt;139.766632&lt;/longitude&gt;
+&lt;latitude&gt;35.959019&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+        <v>35.959018999999998</v>
+      </c>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+        <v>139.76663199999999</v>
+      </c>
+      <c r="H59">
+        <v>35.959018999999998</v>
+      </c>
+      <c r="I59">
+        <v>139.76663199999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>10</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B60" t="s">
         <v>18</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="15"/>
         <v>愛知県安城市緑町</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D60" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%AE%89%E5%9F%8E%E5%B8%82%E7%B7%91%E7%94%BA</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3033,309 +3536,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
         <v>34.973072000000002</v>
       </c>
-      <c r="G50" cm="1">
-        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
         <v>137.05100999999999</v>
       </c>
-      <c r="H50">
+      <c r="H60">
         <v>34.973072000000002</v>
       </c>
-      <c r="I50">
+      <c r="I60">
         <v>137.05100999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C51" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D51" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F51" t="e" cm="1">
-        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" t="e" cm="1">
-        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C52" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F52" t="e" cm="1">
-        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" t="e" cm="1">
-        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C53" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D53" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F53" t="e" cm="1">
-        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" t="e" cm="1">
-        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C54" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F54" t="e" cm="1">
-        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" t="e" cm="1">
-        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C55" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D55" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F55" t="e" cm="1">
-        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" t="e" cm="1">
-        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C56" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D56" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F56" t="e" cm="1">
-        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" t="e" cm="1">
-        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C57" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F57" t="e" cm="1">
-        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" t="e" cm="1">
-        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C58" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D58" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F58" t="e" cm="1">
-        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" t="e" cm="1">
-        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C59" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D59" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F59" t="e" cm="1">
-        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" t="e" cm="1">
-        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C60" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D60" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F60" t="e" cm="1">
-        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" t="e" cm="1">
-        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C8E38-F038-4E94-8875-C8A2CAAC0C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B836E340-3949-486F-8D2A-1BC92A5D5494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="3000" windowWidth="24690" windowHeight="14325" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="2730" yWindow="1320" windowWidth="25965" windowHeight="14880" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>jio0</t>
   </si>
@@ -328,6 +328,66 @@
   </si>
   <si>
     <t>春日部市備後西</t>
+  </si>
+  <si>
+    <t>愛知県みよし市打越町畦違289ー1</t>
+  </si>
+  <si>
+    <t>松山市</t>
+  </si>
+  <si>
+    <t>横浜市青葉区奈良町1566-123</t>
+  </si>
+  <si>
+    <t>世田谷区松原</t>
+  </si>
+  <si>
+    <t>岸和田市並松町</t>
+  </si>
+  <si>
+    <t>滋賀県</t>
+  </si>
+  <si>
+    <t>彦根市旭町</t>
+  </si>
+  <si>
+    <t>川西市東多田3丁目</t>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>静岡市駿河区</t>
+  </si>
+  <si>
+    <t>葦北郡芦北町湯浦</t>
+  </si>
+  <si>
+    <t>港区三田</t>
+  </si>
+  <si>
+    <t>加古川市市平岡町</t>
+  </si>
+  <si>
+    <t>さいたま市桜区</t>
+  </si>
+  <si>
+    <t>長野市檀田</t>
+  </si>
+  <si>
+    <t>宮城県</t>
+  </si>
+  <si>
+    <t>仙台宮城野区鶴ケ谷東</t>
+  </si>
+  <si>
+    <t>熊谷市新堀</t>
+  </si>
+  <si>
+    <t>北名古屋市沖村天花寺</t>
   </si>
 </sst>
 </file>
@@ -737,7 +797,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I60"/>
+      <selection activeCell="H2" sqref="H2:I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -779,22 +839,724 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>大阪府大阪市生野区巽東</v>
+        <v>愛知県みよし市打越町畦違289ー1</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E7%94%9F%E9%87%8E%E5%8C%BA%E5%B7%BD%E6%9D%B1</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%BF%E3%82%88%E3%81%97%E5%B8%82%E6%89%93%E8%B6%8A%E7%94%BA%E7%95%A6%E9%81%95289%E3%83%BC1</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県みよし市打越町畦違289ー1&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県みよし市打越町畦違&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/みよし市/打越町/畦違&lt;/address&gt;
+&lt;longitude&gt;137.089523&lt;/longitude&gt;
+&lt;latitude&gt;35.077637&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.077637000000003</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>137.08952300000001</v>
+      </c>
+      <c r="H2">
+        <v>35.077637000000003</v>
+      </c>
+      <c r="I2">
+        <v>137.08952300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>愛媛県松山市</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%9D%BE%E5%B1%B1%E5%B8%82</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛媛県松山市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛媛県松山市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛媛県/松山市&lt;/address&gt;
+&lt;longitude&gt;132.765549&lt;/longitude&gt;
+&lt;latitude&gt;33.839157&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>33.839157</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>132.76554899999999</v>
+      </c>
+      <c r="H3">
+        <v>33.839157</v>
+      </c>
+      <c r="I3">
+        <v>132.76554899999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>神奈川県横浜市青葉区奈良町1566-123</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%9D%92%E8%91%89%E5%8C%BA%E5%A5%88%E8%89%AF%E7%94%BA1566-123</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市青葉区奈良町1566-123&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市青葉区奈良町1566-&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/青葉区/奈良町/１５６６番地&lt;/address&gt;
+&lt;longitude&gt;139.476746&lt;/longitude&gt;
+&lt;latitude&gt;35.564983&lt;/latitude&gt;
+&lt;iLvl&gt;7&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.564982999999998</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>139.47674599999999</v>
+      </c>
+      <c r="H4">
+        <v>35.564982999999998</v>
+      </c>
+      <c r="I4">
+        <v>139.47674599999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>東京都世田谷区松原</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E6%9D%BE%E5%8E%9F</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都世田谷区松原&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都世田谷区松原&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/世田谷区/松原&lt;/address&gt;
+&lt;longitude&gt;139.653305&lt;/longitude&gt;
+&lt;latitude&gt;35.668163&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>35.668163</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>139.65330499999999</v>
+      </c>
+      <c r="H5">
+        <v>35.668163</v>
+      </c>
+      <c r="I5">
+        <v>139.65330499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>大阪府岸和田市並松町</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%B2%B8%E5%92%8C%E7%94%B0%E5%B8%82%E4%B8%A6%E6%9D%BE%E7%94%BA</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府岸和田市並松町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府岸和田市並松町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/岸和田市/並松町&lt;/address&gt;
+&lt;longitude&gt;135.375198&lt;/longitude&gt;
+&lt;latitude&gt;34.467651&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+        <v>34.467650999999996</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+        <v>135.37519800000001</v>
+      </c>
+      <c r="H6">
+        <v>34.467650999999996</v>
+      </c>
+      <c r="I6">
+        <v>135.37519800000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>東京都練馬区関町北</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都練馬区関町北&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都練馬区関町北&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/練馬区/関町北&lt;/address&gt;
+&lt;longitude&gt;139.578949&lt;/longitude&gt;
+&lt;latitude&gt;35.725349&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>35.725349000000001</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>139.57894899999999</v>
+      </c>
+      <c r="H7">
+        <v>35.725349000000001</v>
+      </c>
+      <c r="I7">
+        <v>139.57894899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
+        <v>滋賀県彦根市旭町</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%BD%A6%E6%A0%B9%E5%B8%82%E6%97%AD%E7%94%BA</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;滋賀県彦根市旭町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;滋賀県彦根市旭町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;滋賀県/彦根市/旭町&lt;/address&gt;
+&lt;longitude&gt;136.261871&lt;/longitude&gt;
+&lt;latitude&gt;35.273952&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+        <v>35.273952000000001</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+        <v>136.26187100000001</v>
+      </c>
+      <c r="H8">
+        <v>35.273952000000001</v>
+      </c>
+      <c r="I8">
+        <v>136.26187100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
+        <v>兵庫県川西市東多田3丁目</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B7%9D%E8%A5%BF%E5%B8%82%E6%9D%B1%E5%A4%9A%E7%94%B03%E4%B8%81%E7%9B%AE</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県川西市東多田3丁目&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県川西市東多田3丁目&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/川西市/東多田/三丁目&lt;/address&gt;
+&lt;longitude&gt;135.420609&lt;/longitude&gt;
+&lt;latitude&gt;34.861782&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+        <v>34.861781999999998</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+        <v>135.42060900000001</v>
+      </c>
+      <c r="H9">
+        <v>34.861781999999998</v>
+      </c>
+      <c r="I9">
+        <v>135.42060900000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
+        <v>熊本県熊本市西区</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E8%A5%BF%E5%8C%BA</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;熊本県熊本市西区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;熊本県熊本市西区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;熊本県/熊本市/西区&lt;/address&gt;
+&lt;longitude&gt;130.647568&lt;/longitude&gt;
+&lt;latitude&gt;32.776371&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+        <v>32.776370999999997</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+        <v>130.64756800000001</v>
+      </c>
+      <c r="H10">
+        <v>32.776370999999997</v>
+      </c>
+      <c r="I10">
+        <v>130.64756800000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
+        <v>静岡県静岡市駿河区</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E9%9D%99%E5%B2%A1%E5%B8%82%E9%A7%BF%E6%B2%B3%E5%8C%BA</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;静岡県静岡市駿河区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;静岡県静岡市駿河区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;静岡県/静岡市/駿河区&lt;/address&gt;
+&lt;longitude&gt;138.404053&lt;/longitude&gt;
+&lt;latitude&gt;34.960747&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+        <v>34.960746999999998</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+        <v>138.404053</v>
+      </c>
+      <c r="H11">
+        <v>34.960746999999998</v>
+      </c>
+      <c r="I11">
+        <v>138.404053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="9"/>
+        <v>熊本県葦北郡芦北町湯浦</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E8%8A%A6%E5%8C%97%E7%94%BA%E6%B9%AF%E6%B5%A6</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;熊本県葦北郡芦北町湯浦&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;熊本県葦北郡芦北町湯浦&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;熊本県/葦北郡/芦北町/湯浦&lt;/address&gt;
+&lt;longitude&gt;130.498367&lt;/longitude&gt;
+&lt;latitude&gt;32.269119&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+        <v>32.269119000000003</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+        <v>130.498367</v>
+      </c>
+      <c r="H12">
+        <v>32.269119000000003</v>
+      </c>
+      <c r="I12">
+        <v>130.498367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都港区三田</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%AF%E5%8C%BA%E4%B8%89%E7%94%B0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都港区三田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都港区三田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/港区/三田&lt;/address&gt;
+&lt;longitude&gt;139.741333&lt;/longitude&gt;
+&lt;latitude&gt;35.653812&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+        <v>35.653812000000002</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+        <v>139.741333</v>
+      </c>
+      <c r="H13">
+        <v>35.653812000000002</v>
+      </c>
+      <c r="I13">
+        <v>139.741333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="9"/>
+        <v>兵庫県加古川市市平岡町</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%8A%A0%E5%8F%A4%E5%B7%9D%E5%B8%82%E5%B8%82%E5%B9%B3%E5%B2%A1%E7%94%BA</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県加古川市市平岡町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県加古川市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/加古川市&lt;/address&gt;
+&lt;longitude&gt;134.840897&lt;/longitude&gt;
+&lt;latitude&gt;34.756618&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+        <v>34.756618000000003</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+        <v>134.84089700000001</v>
+      </c>
+      <c r="H14">
+        <v>34.756618000000003</v>
+      </c>
+      <c r="I14">
+        <v>134.84089700000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="9"/>
+        <v>埼玉県さいたま市桜区</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E6%A1%9C%E5%8C%BA</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県さいたま市桜区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県さいたま市桜区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/さいたま市/桜区&lt;/address&gt;
+&lt;longitude&gt;139.609772&lt;/longitude&gt;
+&lt;latitude&gt;35.855877&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+        <v>35.855877</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+        <v>139.60977199999999</v>
+      </c>
+      <c r="H15">
+        <v>35.855877</v>
+      </c>
+      <c r="I15">
+        <v>139.60977199999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="9"/>
+        <v>長野県長野市檀田</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E6%AA%80%E7%94%B0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長野県長野市檀田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長野県長野市檀田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長野県/長野市/檀田&lt;/address&gt;
+&lt;longitude&gt;138.205093&lt;/longitude&gt;
+&lt;latitude&gt;36.678818&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+        <v>36.678818</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+        <v>138.20509300000001</v>
+      </c>
+      <c r="H16">
+        <v>36.678818</v>
+      </c>
+      <c r="I16">
+        <v>138.20509300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="9"/>
+        <v>大阪府大阪市生野区巽東</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E7%94%9F%E9%87%8E%E5%8C%BA%E5%B7%BD%E6%9D%B1</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府大阪市生野区巽東&lt;/query&gt;
@@ -810,38 +1572,85 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>34.65081</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>135.55573999999999</v>
       </c>
-      <c r="H2">
+      <c r="H17">
         <v>34.65081</v>
       </c>
-      <c r="I2">
+      <c r="I17">
         <v>135.55573999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="9"/>
+        <v>宮城県仙台宮城野区鶴ケ谷東</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E4%BB%99%E5%8F%B0%E5%AE%AE%E5%9F%8E%E9%87%8E%E5%8C%BA%E9%B6%B4%E3%82%B1%E8%B0%B7%E6%9D%B1</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;宮城県仙台宮城野区鶴ケ谷東&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;宮城県仙台&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;宮城県/仙台市&lt;/address&gt;
+&lt;longitude&gt;140.869614&lt;/longitude&gt;
+&lt;latitude&gt;38.268009&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+        <v>38.268008999999999</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+        <v>140.86961400000001</v>
+      </c>
+      <c r="H18">
+        <v>38.268008999999999</v>
+      </c>
+      <c r="I18">
+        <v>140.86961400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C19" t="str">
+        <f t="shared" si="9"/>
         <v>兵庫県神戸市灘区六甲台町8-47</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E5%85%AD%E7%94%B2%E5%8F%B0%E7%94%BA8-47</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E19" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県神戸市灘区六甲台町8-47&lt;/query&gt;
@@ -857,38 +1666,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>34.730651999999999</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>135.23202499999999</v>
       </c>
-      <c r="H3">
+      <c r="H19">
         <v>34.730651999999999</v>
       </c>
-      <c r="I3">
+      <c r="I19">
         <v>135.23202499999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C20" t="str">
+        <f t="shared" si="9"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E20" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;茨城県日立市久慈町&lt;/query&gt;
@@ -904,38 +1713,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H4">
+      <c r="H20">
         <v>36.498386000000004</v>
       </c>
-      <c r="I4">
+      <c r="I20">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C21" t="str">
+        <f t="shared" si="9"/>
         <v>愛知県名古屋市緑区鏡田</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E9%8F%A1%E7%94%B0</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E21" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県名古屋市緑区鏡田&lt;/query&gt;
@@ -951,38 +1760,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.092872999999997</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>137.013138</v>
       </c>
-      <c r="H5">
+      <c r="H21">
         <v>35.092872999999997</v>
       </c>
-      <c r="I5">
+      <c r="I21">
         <v>137.013138</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C22" t="str">
+        <f t="shared" si="9"/>
         <v>東京都北区</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%8C%97%E5%8C%BA</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E22" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都北区&lt;/query&gt;
@@ -998,38 +1807,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>35.752803999999998</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>139.73365799999999</v>
       </c>
-      <c r="H6">
+      <c r="H22">
         <v>35.752803999999998</v>
       </c>
-      <c r="I6">
+      <c r="I22">
         <v>139.73365799999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C23" t="str">
+        <f t="shared" si="9"/>
         <v>兵庫県西宮市甲陽園若江町</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E8%A5%BF%E5%AE%AE%E5%B8%82%E7%94%B2%E9%99%BD%E5%9C%92%E8%8B%A5%E6%B1%9F%E7%94%BA</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E23" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県西宮市甲陽園若江町&lt;/query&gt;
@@ -1045,37 +1854,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>34.759025999999999</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>135.33090200000001</v>
       </c>
-      <c r="H7">
+      <c r="H23">
         <v>34.759025999999999</v>
       </c>
-      <c r="I7">
+      <c r="I23">
         <v>135.33090200000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県三田市</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E4%B8%89%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1092,38 +1901,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>34.889671</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>135.22529599999999</v>
       </c>
-      <c r="H8">
+      <c r="H24">
         <v>34.889671</v>
       </c>
-      <c r="I8">
+      <c r="I24">
         <v>135.22529599999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>北海道旭川市永山５条</v>
       </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%AD%E5%B7%9D%E5%B8%82%E6%B0%B8%E5%B1%B1%EF%BC%95%E6%9D%A1</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;北海道旭川市永山５条&lt;/query&gt;
@@ -1139,38 +1948,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>43.784568999999998</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>142.39909399999999</v>
       </c>
-      <c r="H9">
+      <c r="H25">
         <v>43.784568999999998</v>
       </c>
-      <c r="I9">
+      <c r="I25">
         <v>142.39909399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>岐阜県岐阜市弁天町２－１－２</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E5%BC%81%E5%A4%A9%E7%94%BA%EF%BC%92%EF%BC%8D%EF%BC%91%EF%BC%8D%EF%BC%92</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岐阜県岐阜市弁天町２−１−２&lt;/query&gt;
@@ -1186,38 +1995,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>35.420315000000002</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>136.74797100000001</v>
       </c>
-      <c r="H10">
+      <c r="H26">
         <v>35.420315000000002</v>
       </c>
-      <c r="I10">
+      <c r="I26">
         <v>136.74797100000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="9"/>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府吹田市&lt;/query&gt;
@@ -1233,38 +2042,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H11">
+      <c r="H27">
         <v>34.759402999999999</v>
       </c>
-      <c r="I11">
+      <c r="I27">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="9"/>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="11"/>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都稲城市若葉台&lt;/query&gt;
@@ -1280,38 +2089,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H12">
+      <c r="H28">
         <v>35.626038000000001</v>
       </c>
-      <c r="I12">
+      <c r="I28">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="9"/>
+      <c r="C29" t="str">
+        <f t="shared" si="12"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="11"/>
+      <c r="E29" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;香川県高松市川島東町&lt;/query&gt;
@@ -1327,38 +2136,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H13">
+      <c r="H29">
         <v>34.266705000000002</v>
       </c>
-      <c r="I13">
+      <c r="I29">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="9"/>
+      <c r="C30" t="str">
+        <f t="shared" si="12"/>
         <v>埼玉県越谷市</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="11"/>
+      <c r="E30" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県越谷市&lt;/query&gt;
@@ -1374,38 +2183,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>35.891086999999999</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>139.79093900000001</v>
       </c>
-      <c r="H14">
+      <c r="H30">
         <v>35.891086999999999</v>
       </c>
-      <c r="I14">
+      <c r="I30">
         <v>139.79093900000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="9"/>
+      <c r="C31" t="str">
+        <f t="shared" si="12"/>
         <v>広島県府中市出口町</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%9C%E4%B8%AD%E5%B8%82%E5%87%BA%E5%8F%A3%E7%94%BA</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="11"/>
+      <c r="E31" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県府中市出口町&lt;/query&gt;
@@ -1421,38 +2230,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
         <v>34.586570999999999</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
         <v>133.225449</v>
       </c>
-      <c r="H15">
+      <c r="H31">
         <v>34.586570999999999</v>
       </c>
-      <c r="I15">
+      <c r="I31">
         <v>133.225449</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="9"/>
+      <c r="C32" t="str">
+        <f t="shared" si="12"/>
         <v>愛知県名古屋市東区</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="11"/>
+      <c r="E32" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県名古屋市東区&lt;/query&gt;
@@ -1468,38 +2277,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>35.179313999999998</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>136.926041</v>
       </c>
-      <c r="H16">
+      <c r="H32">
         <v>35.179313999999998</v>
       </c>
-      <c r="I16">
+      <c r="I32">
         <v>136.926041</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="9"/>
+      <c r="C33" t="str">
+        <f t="shared" si="12"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="11"/>
+      <c r="E33" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市西区平沼&lt;/query&gt;
@@ -1515,38 +2324,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H17">
+      <c r="H33">
         <v>35.460503000000003</v>
       </c>
-      <c r="I17">
+      <c r="I33">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="9"/>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
         <v>愛媛県新居浜市八幡</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D34" s="2" t="str">
+        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%85%AB%E5%B9%A1</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="11"/>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛媛県新居浜市八幡&lt;/query&gt;
@@ -1562,38 +2371,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
         <v>33.978043</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
         <v>133.309921</v>
       </c>
-      <c r="H18">
+      <c r="H34">
         <v>33.978043</v>
       </c>
-      <c r="I18">
+      <c r="I34">
         <v>133.309921</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="9"/>
+      <c r="C35" t="str">
+        <f t="shared" si="15"/>
         <v>福岡県大野城市月の浦</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E5%A4%A7%E9%87%8E%E5%9F%8E%E5%B8%82%E6%9C%88%E3%81%AE%E6%B5%A6</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="11"/>
+      <c r="E35" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;福岡県大野城市月の浦&lt;/query&gt;
@@ -1609,38 +2418,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
         <v>33.500689999999999</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
         <v>130.46286000000001</v>
       </c>
-      <c r="H19">
+      <c r="H35">
         <v>33.500689999999999</v>
       </c>
-      <c r="I19">
+      <c r="I35">
         <v>130.46286000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="9"/>
+      <c r="C36" t="str">
+        <f t="shared" si="15"/>
         <v>大阪府高槻市芝谷町</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%8A%9D%E8%B0%B7%E7%94%BA</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="11"/>
+      <c r="E36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府高槻市芝谷町&lt;/query&gt;
@@ -1656,38 +2465,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
         <v>34.868862</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
         <v>135.607956</v>
       </c>
-      <c r="H20">
+      <c r="H36">
         <v>34.868862</v>
       </c>
-      <c r="I20">
+      <c r="I36">
         <v>135.607956</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
+      <c r="C37" t="str">
+        <f t="shared" si="15"/>
         <v>千葉県千葉市　美浜区　磯辺</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E3%80%80%E7%BE%8E%E6%B5%9C%E5%8C%BA%E3%80%80%E7%A3%AF%E8%BE%BA</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
+      <c r="E37" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県千葉市　美浜区　磯辺&lt;/query&gt;
@@ -1703,38 +2512,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
         <v>35.629711</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
         <v>140.06405599999999</v>
       </c>
-      <c r="H21">
+      <c r="H37">
         <v>35.629711</v>
       </c>
-      <c r="I21">
+      <c r="I37">
         <v>140.06405599999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C38" t="str">
+        <f t="shared" si="15"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E38" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府大阪市港区三先&lt;/query&gt;
@@ -1750,38 +2559,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H22">
+      <c r="H38">
         <v>34.660412000000001</v>
       </c>
-      <c r="I22">
+      <c r="I38">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+      <c r="C39" t="str">
+        <f t="shared" si="15"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E39" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;奈良県生駒市萩原町&lt;/query&gt;
@@ -1797,38 +2606,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>34.665543</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C40" t="str">
+        <f t="shared" si="15"/>
         <v>愛知県知多郡東浦町緒川</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E6%9D%B1%E6%B5%A6%E7%94%BA%E7%B7%92%E5%B7%9D</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E40" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県知多郡東浦町緒川&lt;/query&gt;
@@ -1844,38 +2653,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
         <v>34.972813000000002</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
         <v>136.936691</v>
       </c>
-      <c r="H24">
+      <c r="H40">
         <v>34.972813000000002</v>
       </c>
-      <c r="I24">
+      <c r="I40">
         <v>136.936691</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C41" t="str">
+        <f t="shared" si="15"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E41" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都練馬区関町北&lt;/query&gt;
@@ -1891,38 +2700,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H25">
+      <c r="H41">
         <v>35.725349000000001</v>
       </c>
-      <c r="I25">
+      <c r="I41">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="12"/>
+      <c r="C42" t="str">
+        <f t="shared" si="15"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="14"/>
+      <c r="E42" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岐阜県多治見市宝町&lt;/query&gt;
@@ -1938,38 +2747,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H26">
+      <c r="H42">
         <v>35.338383</v>
       </c>
-      <c r="I26">
+      <c r="I42">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="12"/>
+      <c r="C43" t="str">
+        <f t="shared" si="15"/>
         <v>千葉県浦安市</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E6%B5%A6%E5%AE%89%E5%B8%82</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="14"/>
+      <c r="E43" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県浦安市&lt;/query&gt;
@@ -1985,38 +2794,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
         <v>35.653987999999998</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
         <v>139.90219099999999</v>
       </c>
-      <c r="H27">
+      <c r="H43">
         <v>35.653987999999998</v>
       </c>
-      <c r="I27">
+      <c r="I43">
         <v>139.90219099999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="12"/>
+      <c r="C44" t="str">
+        <f t="shared" si="15"/>
         <v>京都府福知山市正明寺</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E7%A6%8F%E7%9F%A5%E5%B1%B1%E5%B8%82%E6%AD%A3%E6%98%8E%E5%AF%BA</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="14"/>
+      <c r="E44" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;京都府福知山市正明寺&lt;/query&gt;
@@ -2032,38 +2841,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
         <v>35.286715999999998</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
         <v>135.104187</v>
       </c>
-      <c r="H28">
+      <c r="H44">
         <v>35.286715999999998</v>
       </c>
-      <c r="I28">
+      <c r="I44">
         <v>135.104187</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="12"/>
+      <c r="C45" t="str">
+        <f t="shared" si="15"/>
         <v>群馬県太田市城西町</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E5%A4%AA%E7%94%B0%E5%B8%82%E5%9F%8E%E8%A5%BF%E7%94%BA</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="14"/>
+      <c r="E45" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;群馬県太田市城西町&lt;/query&gt;
@@ -2079,38 +2888,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
         <v>36.310654</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
         <v>139.33760100000001</v>
       </c>
-      <c r="H29">
+      <c r="H45">
         <v>36.310654</v>
       </c>
-      <c r="I29">
+      <c r="I45">
         <v>139.33760100000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="12"/>
+      <c r="C46" t="str">
+        <f t="shared" si="15"/>
         <v>東京都世田谷区岡本</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E5%B2%A1%E6%9C%AC</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="14"/>
+      <c r="E46" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都世田谷区岡本&lt;/query&gt;
@@ -2126,38 +2935,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
         <v>35.624980999999998</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
         <v>139.620575</v>
       </c>
-      <c r="H30">
+      <c r="H46">
         <v>35.624980999999998</v>
       </c>
-      <c r="I30">
+      <c r="I46">
         <v>139.620575</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="12"/>
+      <c r="C47" t="str">
+        <f t="shared" si="15"/>
         <v>大阪府堺市西区浜寺船尾町西1丁</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E8%A5%BF%E5%8C%BA%E6%B5%9C%E5%AF%BA%E8%88%B9%E5%B0%BE%E7%94%BA%E8%A5%BF1%E4%B8%81</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="14"/>
+      <c r="E47" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府堺市西区浜寺船尾町西1丁&lt;/query&gt;
@@ -2173,38 +2982,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
         <v>34.550938000000002</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
         <v>135.45600899999999</v>
       </c>
-      <c r="H31">
+      <c r="H47">
         <v>34.550938000000002</v>
       </c>
-      <c r="I31">
+      <c r="I47">
         <v>135.45600899999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B48" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="12"/>
+      <c r="C48" t="str">
+        <f t="shared" si="15"/>
         <v>愛知県名古屋市守山区青山台</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E5%AE%88%E5%B1%B1%E5%8C%BA%E9%9D%92%E5%B1%B1%E5%8F%B0</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="14"/>
+      <c r="E48" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県名古屋市守山区青山台&lt;/query&gt;
@@ -2220,38 +3029,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
         <v>35.229061000000002</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
         <v>137.01525899999999</v>
       </c>
-      <c r="H32">
+      <c r="H48">
         <v>35.229061000000002</v>
       </c>
-      <c r="I32">
+      <c r="I48">
         <v>137.01525899999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="12"/>
+      <c r="C49" t="str">
+        <f t="shared" si="15"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="14"/>
+      <c r="E49" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県船橋市&lt;/query&gt;
@@ -2267,38 +3076,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H33">
+      <c r="H49">
         <v>35.694710000000001</v>
       </c>
-      <c r="I33">
+      <c r="I49">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
+      <c r="C50" t="str">
+        <f t="shared" si="15"/>
         <v>高知県高知市長浜蒔絵台</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%95%B7%E6%B5%9C%E8%92%94%E7%B5%B5%E5%8F%B0</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
+      <c r="E50" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;高知県高知市長浜蒔絵台&lt;/query&gt;
@@ -2314,37 +3123,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
         <v>33.515532999999998</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
         <v>133.52641299999999</v>
       </c>
-      <c r="H34">
+      <c r="H50">
         <v>33.515532999999998</v>
       </c>
-      <c r="I34">
+      <c r="I50">
         <v>133.52641299999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2361,37 +3170,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H35">
+      <c r="H51">
         <v>34.799816</v>
       </c>
-      <c r="I35">
+      <c r="I51">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2408,37 +3217,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
         <v>35.646481000000001</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
         <v>139.65321399999999</v>
       </c>
-      <c r="H36">
+      <c r="H52">
         <v>35.646481000000001</v>
       </c>
-      <c r="I36">
+      <c r="I52">
         <v>139.65321399999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>27</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B53" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市浪速区桜川</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2455,37 +3264,84 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
         <v>34.666893000000002</v>
       </c>
-      <c r="G37" cm="1">
-        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
         <v>135.49284399999999</v>
       </c>
-      <c r="H37">
+      <c r="H53">
         <v>34.666893000000002</v>
       </c>
-      <c r="I37">
+      <c r="I53">
         <v>135.49284399999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="15"/>
+        <v>埼玉県熊谷市新堀</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県熊谷市新堀&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県熊谷市新堀&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/熊谷市/新堀&lt;/address&gt;
+&lt;longitude&gt;139.335297&lt;/longitude&gt;
+&lt;latitude&gt;36.175068&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+        <v>36.175068000000003</v>
+      </c>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+        <v>139.335297</v>
+      </c>
+      <c r="H54">
+        <v>36.175068000000003</v>
+      </c>
+      <c r="I54">
+        <v>139.335297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>19</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="15"/>
         <v>千葉県野田市親野井</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2502,37 +3358,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
         <v>36.040675999999998</v>
       </c>
-      <c r="G38" cm="1">
-        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
         <v>139.81359900000001</v>
       </c>
-      <c r="H38">
+      <c r="H55">
         <v>36.040675999999998</v>
       </c>
-      <c r="I38">
+      <c r="I55">
         <v>139.81359900000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>30</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B56" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県岐阜市須賀</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2549,37 +3405,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
         <v>35.386009000000001</v>
       </c>
-      <c r="G39" cm="1">
-        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
         <v>136.723984</v>
       </c>
-      <c r="H39">
+      <c r="H56">
         <v>35.386009000000001</v>
       </c>
-      <c r="I39">
+      <c r="I56">
         <v>136.723984</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B57" t="s">
         <v>33</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D57" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2596,37 +3452,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
         <v>35.477051000000003</v>
       </c>
-      <c r="G40" cm="1">
-        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
         <v>139.629288</v>
       </c>
-      <c r="H40">
+      <c r="H57">
         <v>35.477051000000003</v>
       </c>
-      <c r="I40">
+      <c r="I57">
         <v>139.629288</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B58" t="s">
         <v>34</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市佐伯区五日市町</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D58" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2643,37 +3499,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
         <v>34.361728999999997</v>
       </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
         <v>132.37535099999999</v>
       </c>
-      <c r="H41">
+      <c r="H58">
         <v>34.361728999999997</v>
       </c>
-      <c r="I41">
+      <c r="I58">
         <v>132.37535099999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>19</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B59" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市美浜区</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D59" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2690,37 +3546,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
         <v>35.640552999999997</v>
       </c>
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
         <v>140.06303399999999</v>
       </c>
-      <c r="H42">
+      <c r="H59">
         <v>35.640552999999997</v>
       </c>
-      <c r="I42">
+      <c r="I59">
         <v>140.06303399999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>54</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B60" t="s">
         <v>76</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="15"/>
         <v>群馬県伊勢崎市除ケ町</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D60" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%B4%8E%E5%B8%82%E9%99%A4%E3%82%B1%E7%94%BA</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2737,37 +3593,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
         <v>36.283253000000002</v>
       </c>
-      <c r="G43" cm="1">
-        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
         <v>139.19224500000001</v>
       </c>
-      <c r="H43">
+      <c r="H60">
         <v>36.283253000000002</v>
       </c>
-      <c r="I43">
+      <c r="I60">
         <v>139.19224500000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="15"/>
         <v>東京都大田区多摩川2-24-62</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D61" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D2-24-62</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2784,37 +3640,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
         <v>35.555843000000003</v>
       </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
+      <c r="G61" cm="1">
+        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
         <v>139.70198099999999</v>
       </c>
-      <c r="H44">
+      <c r="H61">
         <v>35.555843000000003</v>
       </c>
-      <c r="I44">
+      <c r="I61">
         <v>139.70198099999999</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>23</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B62" t="s">
         <v>24</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D62" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2831,37 +3687,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G45" cm="1">
-        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H45">
+      <c r="H62">
         <v>34.799816</v>
       </c>
-      <c r="I45">
+      <c r="I62">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>32</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B63" t="s">
         <v>36</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区子安台</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D63" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA%E5%AD%90%E5%AE%89%E5%8F%B0</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2878,37 +3734,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
         <v>35.491627000000001</v>
       </c>
-      <c r="G46" cm="1">
-        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
+      <c r="G63" cm="1">
+        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
         <v>139.658829</v>
       </c>
-      <c r="H46">
+      <c r="H63">
         <v>35.491627000000001</v>
       </c>
-      <c r="I46">
+      <c r="I63">
         <v>139.658829</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>27</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D64" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2925,37 +3781,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G47" cm="1">
-        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
+      <c r="G64" cm="1">
+        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H47">
+      <c r="H64">
         <v>34.759402999999999</v>
       </c>
-      <c r="I47">
+      <c r="I64">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>38</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B65" t="s">
         <v>39</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="15"/>
         <v>熊本県葦北郡津奈木町福浜</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D65" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E6%B4%A5%E5%A5%88%E6%9C%A8%E7%94%BA%E7%A6%8F%E6%B5%9C</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2972,37 +3828,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
         <v>32.268051</v>
       </c>
-      <c r="G48" cm="1">
-        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
+      <c r="G65" cm="1">
+        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
         <v>130.45193499999999</v>
       </c>
-      <c r="H48">
+      <c r="H65">
         <v>32.268051</v>
       </c>
-      <c r="I48">
+      <c r="I65">
         <v>130.45193499999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B66" t="s">
         <v>41</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="15"/>
         <v>秋田県秋田市</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D66" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A7%8B%E7%94%B0%E7%9C%8C%E7%A7%8B%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3019,37 +3875,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
         <v>39.719929</v>
       </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
         <v>140.102509</v>
       </c>
-      <c r="H49">
+      <c r="H66">
         <v>39.719929</v>
       </c>
-      <c r="I49">
+      <c r="I66">
         <v>140.102509</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B67" t="s">
         <v>42</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C67" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県川崎市中原区新丸子東</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D67" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E4%B8%AD%E5%8E%9F%E5%8C%BA%E6%96%B0%E4%B8%B8%E5%AD%90%E6%9D%B1</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E67" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3066,37 +3922,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
         <v>35.580086000000001</v>
       </c>
-      <c r="G50" cm="1">
-        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
+      <c r="G67" cm="1">
+        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
         <v>139.66317699999999</v>
       </c>
-      <c r="H50">
+      <c r="H67">
         <v>35.580086000000001</v>
       </c>
-      <c r="I50">
+      <c r="I67">
         <v>139.66317699999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>27</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B68" t="s">
         <v>43</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="15"/>
         <v>大阪府寝屋川市点野</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%9D%E5%B1%8B%E5%B7%9D%E5%B8%82%E7%82%B9%E9%87%8E</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E68" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3113,37 +3969,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
         <v>34.780231000000001</v>
       </c>
-      <c r="G51" cm="1">
-        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
+      <c r="G68" cm="1">
+        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
         <v>135.605133</v>
       </c>
-      <c r="H51">
+      <c r="H68">
         <v>34.780231000000001</v>
       </c>
-      <c r="I51">
+      <c r="I68">
         <v>135.605133</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
         <v>44</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="15"/>
         <v>岡山県岡山市南区福富西2丁目</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%B2%A1%E5%B1%B1%E5%B8%82%E5%8D%97%E5%8C%BA%E7%A6%8F%E5%AF%8C%E8%A5%BF2%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E69" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3160,37 +4016,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
         <v>34.621516999999997</v>
       </c>
-      <c r="G52" cm="1">
-        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
         <v>133.93177800000001</v>
       </c>
-      <c r="H52">
+      <c r="H69">
         <v>34.621516999999997</v>
       </c>
-      <c r="I52">
+      <c r="I69">
         <v>133.93177800000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>25</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B70" t="s">
         <v>57</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="15"/>
         <v>東京都品川区東五反田</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA%E6%9D%B1%E4%BA%94%E5%8F%8D%E7%94%B0</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E70" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3207,37 +4063,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
+      <c r="F70" cm="1">
+        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
         <v>35.627761999999997</v>
       </c>
-      <c r="G53" cm="1">
-        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
+      <c r="G70" cm="1">
+        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
         <v>139.72642500000001</v>
       </c>
-      <c r="H53">
+      <c r="H70">
         <v>35.627761999999997</v>
       </c>
-      <c r="I53">
+      <c r="I70">
         <v>139.72642500000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="15"/>
         <v>長野県長野市川中島町上氷鉋</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E5%B7%9D%E4%B8%AD%E5%B3%B6%E7%94%BA%E4%B8%8A%E6%B0%B7%E9%89%8B</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E71" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3254,37 +4110,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+      <c r="F71" cm="1">
+        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
         <v>36.611911999999997</v>
       </c>
-      <c r="G54" cm="1">
-        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+      <c r="G71" cm="1">
+        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
         <v>138.157059</v>
       </c>
-      <c r="H54">
+      <c r="H71">
         <v>36.611911999999997</v>
       </c>
-      <c r="I54">
+      <c r="I71">
         <v>138.157059</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>12</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市安佐南区長束西</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E5%AE%89%E4%BD%90%E5%8D%97%E5%8C%BA%E9%95%B7%E6%9D%9F%E8%A5%BF</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E72" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3301,37 +4157,84 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
         <v>34.427909999999997</v>
       </c>
-      <c r="G55" cm="1">
-        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
         <v>132.450165</v>
       </c>
-      <c r="H55">
+      <c r="H72">
         <v>34.427909999999997</v>
       </c>
-      <c r="I55">
+      <c r="I72">
         <v>132.450165</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="15"/>
+        <v>愛知県北名古屋市沖村天花寺</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%8C%97%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%B2%96%E6%9D%91%E5%A4%A9%E8%8A%B1%E5%AF%BA</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県北名古屋市沖村天花寺&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県北名古屋市沖村天花寺&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/北名古屋市/沖村/天花寺&lt;/address&gt;
+&lt;longitude&gt;136.862717&lt;/longitude&gt;
+&lt;latitude&gt;35.239273&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
+        <v>35.239272999999997</v>
+      </c>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
+        <v>136.862717</v>
+      </c>
+      <c r="H73">
+        <v>35.239272999999997</v>
+      </c>
+      <c r="I73">
+        <v>136.862717</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>13</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B74" t="s">
         <v>17</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C74" t="str">
         <f t="shared" si="15"/>
         <v>新潟県新潟市中央区明石</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E6%96%B0%E6%BD%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E6%98%8E%E7%9F%B3</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E74" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3348,37 +4251,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
         <v>37.916012000000002</v>
       </c>
-      <c r="G56" cm="1">
-        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
         <v>139.065506</v>
       </c>
-      <c r="H56">
+      <c r="H74">
         <v>37.916012000000002</v>
       </c>
-      <c r="I56">
+      <c r="I74">
         <v>139.065506</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>9</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県秩父市熊木町</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%A7%A9%E7%88%B6%E5%B8%82%E7%86%8A%E6%9C%A8%E7%94%BA</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E75" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3395,37 +4298,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
         <v>35.991272000000002</v>
       </c>
-      <c r="G57" cm="1">
-        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
         <v>139.08822599999999</v>
       </c>
-      <c r="H57">
+      <c r="H75">
         <v>35.991272000000002</v>
       </c>
-      <c r="I57">
+      <c r="I75">
         <v>139.08822599999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
         <v>27</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B76" t="s">
         <v>87</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E76" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3442,37 +4345,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F58" cm="1">
-        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
         <v>34.693890000000003</v>
       </c>
-      <c r="G58" cm="1">
-        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+      <c r="G76" cm="1">
+        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
         <v>135.50204500000001</v>
       </c>
-      <c r="H58">
+      <c r="H76">
         <v>34.693890000000003</v>
       </c>
-      <c r="I58">
+      <c r="I76">
         <v>135.50204500000001</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>9</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B77" t="s">
         <v>88</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県春日部市備後西</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E6%98%A5%E6%97%A5%E9%83%A8%E5%B8%82%E5%82%99%E5%BE%8C%E8%A5%BF</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E77" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3489,37 +4392,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F59" cm="1">
-        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+      <c r="F77" cm="1">
+        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
         <v>35.959018999999998</v>
       </c>
-      <c r="G59" cm="1">
-        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+      <c r="G77" cm="1">
+        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
         <v>139.76663199999999</v>
       </c>
-      <c r="H59">
+      <c r="H77">
         <v>35.959018999999998</v>
       </c>
-      <c r="I59">
+      <c r="I77">
         <v>139.76663199999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>10</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B78" t="s">
         <v>18</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C78" t="str">
         <f t="shared" si="15"/>
         <v>愛知県安城市緑町</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%AE%89%E5%9F%8E%E5%B8%82%E7%B7%91%E7%94%BA</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E78" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3536,544 +4439,22 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F60" cm="1">
-        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
+      <c r="F78" cm="1">
+        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
         <v>34.973072000000002</v>
       </c>
-      <c r="G60" cm="1">
-        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
+      <c r="G78" cm="1">
+        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
         <v>137.05100999999999</v>
       </c>
-      <c r="H60">
+      <c r="H78">
         <v>34.973072000000002</v>
       </c>
-      <c r="I60">
+      <c r="I78">
         <v>137.05100999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C61" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D61" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F61" t="e" cm="1">
-        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" t="e" cm="1">
-        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C62" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D62" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F62" t="e" cm="1">
-        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G62" t="e" cm="1">
-        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C63" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D63" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F63" t="e" cm="1">
-        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G63" t="e" cm="1">
-        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C64" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D64" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F64" t="e" cm="1">
-        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G64" t="e" cm="1">
-        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C65" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D65" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F65" t="e" cm="1">
-        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G65" t="e" cm="1">
-        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C66" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D66" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F66" t="e" cm="1">
-        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G66" t="e" cm="1">
-        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C67" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D67" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F67" t="e" cm="1">
-        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G67" t="e" cm="1">
-        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C68" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D68" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F68" t="e" cm="1">
-        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" t="e" cm="1">
-        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C69" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D69" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F69" t="e" cm="1">
-        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G69" t="e" cm="1">
-        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C70" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D70" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F70" t="e" cm="1">
-        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G70" t="e" cm="1">
-        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C71" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D71" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F71" t="e" cm="1">
-        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G71" t="e" cm="1">
-        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C72" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D72" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F72" t="e" cm="1">
-        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G72" t="e" cm="1">
-        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C73" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D73" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F73" t="e" cm="1">
-        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G73" t="e" cm="1">
-        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C74" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D74" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F74" t="e" cm="1">
-        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" t="e" cm="1">
-        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C75" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D75" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F75" t="e" cm="1">
-        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G75" t="e" cm="1">
-        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C76" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D76" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F76" t="e" cm="1">
-        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G76" t="e" cm="1">
-        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C77" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D77" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F77" t="e" cm="1">
-        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G77" t="e" cm="1">
-        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C78" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D78" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F78" t="e" cm="1">
-        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G78" t="e" cm="1">
-        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C79" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4102,7 +4483,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C80" t="str">
         <f t="shared" si="15"/>
         <v/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B836E340-3949-486F-8D2A-1BC92A5D5494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE302E-119E-4F4C-9D42-4EF3368EE89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1320" windowWidth="25965" windowHeight="14880" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="2340" yWindow="1590" windowWidth="25110" windowHeight="14610" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
   <si>
     <t>jio0</t>
   </si>
@@ -388,6 +388,36 @@
   </si>
   <si>
     <t>北名古屋市沖村天花寺</t>
+  </si>
+  <si>
+    <t>印西市</t>
+  </si>
+  <si>
+    <t>青森県</t>
+  </si>
+  <si>
+    <t>八戸市湊町下大久保道</t>
+  </si>
+  <si>
+    <t>あま市篠田</t>
+  </si>
+  <si>
+    <t>横浜市都筑区荏田南</t>
+  </si>
+  <si>
+    <t>豊島区東池袋</t>
+  </si>
+  <si>
+    <t>沖縄県</t>
+  </si>
+  <si>
+    <t>浦添市</t>
+  </si>
+  <si>
+    <t>平塚市南原</t>
+  </si>
+  <si>
+    <t>尼崎市武庫川町4丁目</t>
   </si>
 </sst>
 </file>
@@ -797,7 +827,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I78"/>
+      <selection activeCell="H2" sqref="H2:I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -839,19 +869,160 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>愛知県みよし市打越町畦違289ー1</v>
+        <v>千葉県印西市</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%BF%E3%82%88%E3%81%97%E5%B8%82%E6%89%93%E8%B6%8A%E7%94%BA%E7%95%A6%E9%81%95289%E3%83%BC1</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県印西市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県印西市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/印西市&lt;/address&gt;
+&lt;longitude&gt;140.145767&lt;/longitude&gt;
+&lt;latitude&gt;35.832333&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.832332999999998</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>140.14576700000001</v>
+      </c>
+      <c r="H2">
+        <v>35.832332999999998</v>
+      </c>
+      <c r="I2">
+        <v>140.14576700000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>青森県八戸市湊町下大久保道</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%92%E6%A3%AE%E7%9C%8C%E5%85%AB%E6%88%B8%E5%B8%82%E6%B9%8A%E7%94%BA%E4%B8%8B%E5%A4%A7%E4%B9%85%E4%BF%9D%E9%81%93</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;青森県八戸市湊町下大久保道&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;青森県八戸市湊町下大久保道&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;青森県/八戸市/大字湊町/下大久保道&lt;/address&gt;
+&lt;longitude&gt;141.541733&lt;/longitude&gt;
+&lt;latitude&gt;40.511375&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>40.511375000000001</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>141.54173299999999</v>
+      </c>
+      <c r="H3">
+        <v>40.511375000000001</v>
+      </c>
+      <c r="I3">
+        <v>141.54173299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>愛知県あま市篠田</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%82%E3%81%BE%E5%B8%82%E7%AF%A0%E7%94%B0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県あま市篠田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県あま市篠田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/あま市/篠田&lt;/address&gt;
+&lt;longitude&gt;136.790543&lt;/longitude&gt;
+&lt;latitude&gt;35.183472&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.183472000000002</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>136.79054300000001</v>
+      </c>
+      <c r="H4">
+        <v>35.183472000000002</v>
+      </c>
+      <c r="I4">
+        <v>136.79054300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>愛知県みよし市打越町畦違289ー1</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%BF%E3%82%88%E3%81%97%E5%B8%82%E6%89%93%E8%B6%8A%E7%94%BA%E7%95%A6%E9%81%95289%E3%83%BC1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県みよし市打越町畦違289ー1&lt;/query&gt;
@@ -867,38 +1038,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
         <v>35.077637000000003</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
         <v>137.08952300000001</v>
       </c>
-      <c r="H2">
+      <c r="H5">
         <v>35.077637000000003</v>
       </c>
-      <c r="I2">
+      <c r="I5">
         <v>137.08952300000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
         <v>愛媛県松山市</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%9D%BE%E5%B1%B1%E5%B8%82</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛媛県松山市&lt;/query&gt;
@@ -914,38 +1085,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>33.839157</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>132.76554899999999</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>33.839157</v>
       </c>
-      <c r="I3">
+      <c r="I6">
         <v>132.76554899999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
         <v>神奈川県横浜市青葉区奈良町1566-123</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%9D%92%E8%91%89%E5%8C%BA%E5%A5%88%E8%89%AF%E7%94%BA1566-123</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市青葉区奈良町1566-123&lt;/query&gt;
@@ -961,38 +1132,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
         <v>35.564982999999998</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
         <v>139.47674599999999</v>
       </c>
-      <c r="H4">
+      <c r="H7">
         <v>35.564982999999998</v>
       </c>
-      <c r="I4">
+      <c r="I7">
         <v>139.47674599999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
         <v>東京都世田谷区松原</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E6%9D%BE%E5%8E%9F</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都世田谷区松原&lt;/query&gt;
@@ -1008,38 +1179,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>35.668163</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>139.65330499999999</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>35.668163</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>139.65330499999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>大阪府岸和田市並松町</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%B2%B8%E5%92%8C%E7%94%B0%E5%B8%82%E4%B8%A6%E6%9D%BE%E7%94%BA</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府岸和田市並松町&lt;/query&gt;
@@ -1055,38 +1226,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>34.467650999999996</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>135.37519800000001</v>
       </c>
-      <c r="H6">
+      <c r="H9">
         <v>34.467650999999996</v>
       </c>
-      <c r="I6">
+      <c r="I9">
         <v>135.37519800000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都練馬区関町北&lt;/query&gt;
@@ -1102,37 +1273,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>35.725349000000001</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="9"/>
         <v>滋賀県彦根市旭町</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%BD%A6%E6%A0%B9%E5%B8%82%E6%97%AD%E7%94%BA</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1149,37 +1320,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.273952000000001</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>136.26187100000001</v>
       </c>
-      <c r="H8">
+      <c r="H11">
         <v>35.273952000000001</v>
       </c>
-      <c r="I8">
+      <c r="I11">
         <v>136.26187100000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県川西市東多田3丁目</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B7%9D%E8%A5%BF%E5%B8%82%E6%9D%B1%E5%A4%9A%E7%94%B03%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1196,37 +1367,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>34.861781999999998</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>135.42060900000001</v>
       </c>
-      <c r="H9">
+      <c r="H12">
         <v>34.861781999999998</v>
       </c>
-      <c r="I9">
+      <c r="I12">
         <v>135.42060900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>熊本県熊本市西区</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E8%A5%BF%E5%8C%BA</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1243,37 +1414,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>32.776370999999997</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>130.64756800000001</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <v>32.776370999999997</v>
       </c>
-      <c r="I10">
+      <c r="I13">
         <v>130.64756800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>静岡県静岡市駿河区</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E9%9D%99%E5%B2%A1%E5%B8%82%E9%A7%BF%E6%B2%B3%E5%8C%BA</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1290,37 +1461,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>34.960746999999998</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>138.404053</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>34.960746999999998</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>138.404053</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>熊本県葦北郡芦北町湯浦</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E8%8A%A6%E5%8C%97%E7%94%BA%E6%B9%AF%E6%B5%A6</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1337,37 +1508,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>32.269119000000003</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>130.498367</v>
       </c>
-      <c r="H12">
+      <c r="H15">
         <v>32.269119000000003</v>
       </c>
-      <c r="I12">
+      <c r="I15">
         <v>130.498367</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>東京都港区三田</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%AF%E5%8C%BA%E4%B8%89%E7%94%B0</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1384,37 +1555,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>35.653812000000002</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>139.741333</v>
       </c>
-      <c r="H13">
+      <c r="H16">
         <v>35.653812000000002</v>
       </c>
-      <c r="I13">
+      <c r="I16">
         <v>139.741333</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県加古川市市平岡町</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%8A%A0%E5%8F%A4%E5%B7%9D%E5%B8%82%E5%B8%82%E5%B9%B3%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1431,37 +1602,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>34.756618000000003</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>134.84089700000001</v>
       </c>
-      <c r="H14">
+      <c r="H17">
         <v>34.756618000000003</v>
       </c>
-      <c r="I14">
+      <c r="I17">
         <v>134.84089700000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>埼玉県さいたま市桜区</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E6%A1%9C%E5%8C%BA</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1478,37 +1649,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>35.855877</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>139.60977199999999</v>
       </c>
-      <c r="H15">
+      <c r="H18">
         <v>35.855877</v>
       </c>
-      <c r="I15">
+      <c r="I18">
         <v>139.60977199999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>長野県長野市檀田</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E6%AA%80%E7%94%B0</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1525,37 +1696,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>36.678818</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>138.20509300000001</v>
       </c>
-      <c r="H16">
+      <c r="H19">
         <v>36.678818</v>
       </c>
-      <c r="I16">
+      <c r="I19">
         <v>138.20509300000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>大阪府大阪市生野区巽東</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E7%94%9F%E9%87%8E%E5%8C%BA%E5%B7%BD%E6%9D%B1</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1572,37 +1743,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>34.65081</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>135.55573999999999</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>34.65081</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>135.55573999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>宮城県仙台宮城野区鶴ケ谷東</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E4%BB%99%E5%8F%B0%E5%AE%AE%E5%9F%8E%E9%87%8E%E5%8C%BA%E9%B6%B4%E3%82%B1%E8%B0%B7%E6%9D%B1</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1619,37 +1790,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>38.268008999999999</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>140.86961400000001</v>
       </c>
-      <c r="H18">
+      <c r="H21">
         <v>38.268008999999999</v>
       </c>
-      <c r="I18">
+      <c r="I21">
         <v>140.86961400000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県神戸市灘区六甲台町8-47</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E5%85%AD%E7%94%B2%E5%8F%B0%E7%94%BA8-47</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1666,37 +1837,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>34.730651999999999</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>135.23202499999999</v>
       </c>
-      <c r="H19">
+      <c r="H22">
         <v>34.730651999999999</v>
       </c>
-      <c r="I19">
+      <c r="I22">
         <v>135.23202499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1713,37 +1884,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H20">
+      <c r="H23">
         <v>36.498386000000004</v>
       </c>
-      <c r="I20">
+      <c r="I23">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>愛知県名古屋市緑区鏡田</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E9%8F%A1%E7%94%B0</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1760,38 +1931,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>35.092872999999997</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>137.013138</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>35.092872999999997</v>
       </c>
-      <c r="I21">
+      <c r="I24">
         <v>137.013138</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>東京都北区</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%8C%97%E5%8C%BA</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都北区&lt;/query&gt;
@@ -1807,38 +1978,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>35.752803999999998</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>139.73365799999999</v>
       </c>
-      <c r="H22">
+      <c r="H25">
         <v>35.752803999999998</v>
       </c>
-      <c r="I22">
+      <c r="I25">
         <v>139.73365799999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>兵庫県西宮市甲陽園若江町</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E8%A5%BF%E5%AE%AE%E5%B8%82%E7%94%B2%E9%99%BD%E5%9C%92%E8%8B%A5%E6%B1%9F%E7%94%BA</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県西宮市甲陽園若江町&lt;/query&gt;
@@ -1854,38 +2025,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>34.759025999999999</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>135.33090200000001</v>
       </c>
-      <c r="H23">
+      <c r="H26">
         <v>34.759025999999999</v>
       </c>
-      <c r="I23">
+      <c r="I26">
         <v>135.33090200000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>兵庫県三田市</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E4%B8%89%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県三田市&lt;/query&gt;
@@ -1901,38 +2072,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>34.889671</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>135.22529599999999</v>
       </c>
-      <c r="H24">
+      <c r="H27">
         <v>34.889671</v>
       </c>
-      <c r="I24">
+      <c r="I27">
         <v>135.22529599999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
         <v>北海道旭川市永山５条</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%AD%E5%B7%9D%E5%B8%82%E6%B0%B8%E5%B1%B1%EF%BC%95%E6%9D%A1</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;北海道旭川市永山５条&lt;/query&gt;
@@ -1948,37 +2119,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>43.784568999999998</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>142.39909399999999</v>
       </c>
-      <c r="H25">
+      <c r="H28">
         <v>43.784568999999998</v>
       </c>
-      <c r="I25">
+      <c r="I28">
         <v>142.39909399999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="12"/>
         <v>岐阜県岐阜市弁天町２－１－２</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D29" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E5%BC%81%E5%A4%A9%E7%94%BA%EF%BC%92%EF%BC%8D%EF%BC%91%EF%BC%8D%EF%BC%92</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1995,37 +2166,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>35.420315000000002</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>136.74797100000001</v>
       </c>
-      <c r="H26">
+      <c r="H29">
         <v>35.420315000000002</v>
       </c>
-      <c r="I26">
+      <c r="I29">
         <v>136.74797100000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="12"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D30" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2042,37 +2213,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H27">
+      <c r="H30">
         <v>34.759402999999999</v>
       </c>
-      <c r="I27">
+      <c r="I30">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="12"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D31" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2089,37 +2260,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H28">
+      <c r="H31">
         <v>35.626038000000001</v>
       </c>
-      <c r="I28">
+      <c r="I31">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="12"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D32" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2136,37 +2307,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H29">
+      <c r="H32">
         <v>34.266705000000002</v>
       </c>
-      <c r="I29">
+      <c r="I32">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="12"/>
         <v>埼玉県越谷市</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2183,38 +2354,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
         <v>35.891086999999999</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
         <v>139.79093900000001</v>
       </c>
-      <c r="H30">
+      <c r="H33">
         <v>35.891086999999999</v>
       </c>
-      <c r="I30">
+      <c r="I33">
         <v>139.79093900000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="12"/>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
         <v>広島県府中市出口町</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D34" s="2" t="str">
+        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%9C%E4%B8%AD%E5%B8%82%E5%87%BA%E5%8F%A3%E7%94%BA</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="14"/>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県府中市出口町&lt;/query&gt;
@@ -2230,38 +2401,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
         <v>34.586570999999999</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
         <v>133.225449</v>
       </c>
-      <c r="H31">
+      <c r="H34">
         <v>34.586570999999999</v>
       </c>
-      <c r="I31">
+      <c r="I34">
         <v>133.225449</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="12"/>
+      <c r="C35" t="str">
+        <f t="shared" si="15"/>
         <v>愛知県名古屋市東区</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="14"/>
+      <c r="E35" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県名古屋市東区&lt;/query&gt;
@@ -2277,38 +2448,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
         <v>35.179313999999998</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
         <v>136.926041</v>
       </c>
-      <c r="H32">
+      <c r="H35">
         <v>35.179313999999998</v>
       </c>
-      <c r="I32">
+      <c r="I35">
         <v>136.926041</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="12"/>
+      <c r="C36" t="str">
+        <f t="shared" si="15"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="14"/>
+      <c r="E36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市西区平沼&lt;/query&gt;
@@ -2324,38 +2495,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H33">
+      <c r="H36">
         <v>35.460503000000003</v>
       </c>
-      <c r="I33">
+      <c r="I36">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
+      <c r="C37" t="str">
+        <f t="shared" si="15"/>
         <v>愛媛県新居浜市八幡</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%85%AB%E5%B9%A1</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
+      <c r="E37" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛媛県新居浜市八幡&lt;/query&gt;
@@ -2371,37 +2542,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
         <v>33.978043</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
         <v>133.309921</v>
       </c>
-      <c r="H34">
+      <c r="H37">
         <v>33.978043</v>
       </c>
-      <c r="I34">
+      <c r="I37">
         <v>133.309921</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="15"/>
         <v>福岡県大野城市月の浦</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D38" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E5%A4%A7%E9%87%8E%E5%9F%8E%E5%B8%82%E6%9C%88%E3%81%AE%E6%B5%A6</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2418,37 +2589,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
         <v>33.500689999999999</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
         <v>130.46286000000001</v>
       </c>
-      <c r="H35">
+      <c r="H38">
         <v>33.500689999999999</v>
       </c>
-      <c r="I35">
+      <c r="I38">
         <v>130.46286000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="15"/>
         <v>大阪府高槻市芝谷町</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D39" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%8A%9D%E8%B0%B7%E7%94%BA</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2465,37 +2636,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
         <v>34.868862</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
         <v>135.607956</v>
       </c>
-      <c r="H36">
+      <c r="H39">
         <v>34.868862</v>
       </c>
-      <c r="I36">
+      <c r="I39">
         <v>135.607956</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市　美浜区　磯辺</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D40" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E3%80%80%E7%BE%8E%E6%B5%9C%E5%8C%BA%E3%80%80%E7%A3%AF%E8%BE%BA</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2512,37 +2683,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
         <v>35.629711</v>
       </c>
-      <c r="G37" cm="1">
-        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
         <v>140.06405599999999</v>
       </c>
-      <c r="H37">
+      <c r="H40">
         <v>35.629711</v>
       </c>
-      <c r="I37">
+      <c r="I40">
         <v>140.06405599999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D41" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2559,37 +2730,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G38" cm="1">
-        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H38">
+      <c r="H41">
         <v>34.660412000000001</v>
       </c>
-      <c r="I38">
+      <c r="I41">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="15"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D42" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2606,37 +2777,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G39" cm="1">
-        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H39">
+      <c r="H42">
         <v>34.665543</v>
       </c>
-      <c r="I39">
+      <c r="I42">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="15"/>
         <v>愛知県知多郡東浦町緒川</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D43" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E6%9D%B1%E6%B5%A6%E7%94%BA%E7%B7%92%E5%B7%9D</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2653,37 +2824,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
         <v>34.972813000000002</v>
       </c>
-      <c r="G40" cm="1">
-        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
         <v>136.936691</v>
       </c>
-      <c r="H40">
+      <c r="H43">
         <v>34.972813000000002</v>
       </c>
-      <c r="I40">
+      <c r="I43">
         <v>136.936691</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="15"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D44" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2700,37 +2871,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H41">
+      <c r="H44">
         <v>35.725349000000001</v>
       </c>
-      <c r="I41">
+      <c r="I44">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>30</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D45" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2747,37 +2918,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H42">
+      <c r="H45">
         <v>35.338383</v>
       </c>
-      <c r="I42">
+      <c r="I45">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>19</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="15"/>
         <v>千葉県浦安市</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D46" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E6%B5%A6%E5%AE%89%E5%B8%82</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2794,37 +2965,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
         <v>35.653987999999998</v>
       </c>
-      <c r="G43" cm="1">
-        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
         <v>139.90219099999999</v>
       </c>
-      <c r="H43">
+      <c r="H46">
         <v>35.653987999999998</v>
       </c>
-      <c r="I43">
+      <c r="I46">
         <v>139.90219099999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="15"/>
         <v>京都府福知山市正明寺</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D47" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E7%A6%8F%E7%9F%A5%E5%B1%B1%E5%B8%82%E6%AD%A3%E6%98%8E%E5%AF%BA</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2841,37 +3012,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
         <v>35.286715999999998</v>
       </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
         <v>135.104187</v>
       </c>
-      <c r="H44">
+      <c r="H47">
         <v>35.286715999999998</v>
       </c>
-      <c r="I44">
+      <c r="I47">
         <v>135.104187</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="15"/>
         <v>群馬県太田市城西町</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D48" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E5%A4%AA%E7%94%B0%E5%B8%82%E5%9F%8E%E8%A5%BF%E7%94%BA</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2888,37 +3059,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
         <v>36.310654</v>
       </c>
-      <c r="G45" cm="1">
-        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
         <v>139.33760100000001</v>
       </c>
-      <c r="H45">
+      <c r="H48">
         <v>36.310654</v>
       </c>
-      <c r="I45">
+      <c r="I48">
         <v>139.33760100000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>25</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>56</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区岡本</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D49" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E5%B2%A1%E6%9C%AC</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2935,37 +3106,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
         <v>35.624980999999998</v>
       </c>
-      <c r="G46" cm="1">
-        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
         <v>139.620575</v>
       </c>
-      <c r="H46">
+      <c r="H49">
         <v>35.624980999999998</v>
       </c>
-      <c r="I46">
+      <c r="I49">
         <v>139.620575</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>27</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="15"/>
         <v>大阪府堺市西区浜寺船尾町西1丁</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D50" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E8%A5%BF%E5%8C%BA%E6%B5%9C%E5%AF%BA%E8%88%B9%E5%B0%BE%E7%94%BA%E8%A5%BF1%E4%B8%81</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2982,37 +3153,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
         <v>34.550938000000002</v>
       </c>
-      <c r="G47" cm="1">
-        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
         <v>135.45600899999999</v>
       </c>
-      <c r="H47">
+      <c r="H50">
         <v>34.550938000000002</v>
       </c>
-      <c r="I47">
+      <c r="I50">
         <v>135.45600899999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>75</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市守山区青山台</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E5%AE%88%E5%B1%B1%E5%8C%BA%E9%9D%92%E5%B1%B1%E5%8F%B0</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3029,37 +3200,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
         <v>35.229061000000002</v>
       </c>
-      <c r="G48" cm="1">
-        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
         <v>137.01525899999999</v>
       </c>
-      <c r="H48">
+      <c r="H51">
         <v>35.229061000000002</v>
       </c>
-      <c r="I48">
+      <c r="I51">
         <v>137.01525899999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>19</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="15"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3076,37 +3247,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H49">
+      <c r="H52">
         <v>35.694710000000001</v>
       </c>
-      <c r="I49">
+      <c r="I52">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>22</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="15"/>
         <v>高知県高知市長浜蒔絵台</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%95%B7%E6%B5%9C%E8%92%94%E7%B5%B5%E5%8F%B0</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3123,37 +3294,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
         <v>33.515532999999998</v>
       </c>
-      <c r="G50" cm="1">
-        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
         <v>133.52641299999999</v>
       </c>
-      <c r="H50">
+      <c r="H53">
         <v>33.515532999999998</v>
       </c>
-      <c r="I50">
+      <c r="I53">
         <v>133.52641299999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>23</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D54" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3170,37 +3341,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G51" cm="1">
-        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H51">
+      <c r="H54">
         <v>34.799816</v>
       </c>
-      <c r="I51">
+      <c r="I54">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>25</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>26</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3217,37 +3388,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
         <v>35.646481000000001</v>
       </c>
-      <c r="G52" cm="1">
-        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
         <v>139.65321399999999</v>
       </c>
-      <c r="H52">
+      <c r="H55">
         <v>35.646481000000001</v>
       </c>
-      <c r="I52">
+      <c r="I55">
         <v>139.65321399999999</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市浪速区桜川</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3264,37 +3435,272 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
         <v>34.666893000000002</v>
       </c>
-      <c r="G53" cm="1">
-        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
         <v>135.49284399999999</v>
       </c>
-      <c r="H53">
+      <c r="H56">
         <v>34.666893000000002</v>
       </c>
-      <c r="I53">
+      <c r="I56">
         <v>135.49284399999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="15"/>
+        <v>神奈川県横浜市都筑区荏田南</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%83%BD%E7%AD%91%E5%8C%BA%E8%8D%8F%E7%94%B0%E5%8D%97</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市都筑区荏田南&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市都筑区荏田南&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/都筑区/荏田南&lt;/address&gt;
+&lt;longitude&gt;139.560120&lt;/longitude&gt;
+&lt;latitude&gt;35.541790&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
+        <v>35.541789999999999</v>
+      </c>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
+        <v>139.56012000000001</v>
+      </c>
+      <c r="H57">
+        <v>35.541789999999999</v>
+      </c>
+      <c r="I57">
+        <v>139.56012000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="15"/>
+        <v>東京都豊島区東池袋</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E6%9D%B1%E6%B1%A0%E8%A2%8B</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都豊島区東池袋&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都豊島区東池袋&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/豊島区/東池袋&lt;/address&gt;
+&lt;longitude&gt;139.715302&lt;/longitude&gt;
+&lt;latitude&gt;35.731373&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+        <v>35.731372999999998</v>
+      </c>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+        <v>139.71530200000001</v>
+      </c>
+      <c r="H58">
+        <v>35.731372999999998</v>
+      </c>
+      <c r="I58">
+        <v>139.71530200000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="15"/>
+        <v>沖縄県浦添市</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E6%B5%A6%E6%B7%BB%E5%B8%82</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県浦添市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県浦添市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/浦添市&lt;/address&gt;
+&lt;longitude&gt;127.721802&lt;/longitude&gt;
+&lt;latitude&gt;26.245815&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+        <v>26.245815</v>
+      </c>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+        <v>127.721802</v>
+      </c>
+      <c r="H59">
+        <v>26.245815</v>
+      </c>
+      <c r="I59">
+        <v>127.721802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="15"/>
+        <v>神奈川県平塚市南原</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県平塚市南原&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県平塚市南原&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/平塚市/南原&lt;/address&gt;
+&lt;longitude&gt;139.326263&lt;/longitude&gt;
+&lt;latitude&gt;35.337265&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
+        <v>35.337265000000002</v>
+      </c>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
+        <v>139.32626300000001</v>
+      </c>
+      <c r="H60">
+        <v>35.337265000000002</v>
+      </c>
+      <c r="I60">
+        <v>139.32626300000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="15"/>
+        <v>兵庫県尼崎市武庫川町4丁目</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E6%AD%A6%E5%BA%AB%E5%B7%9D%E7%94%BA4%E4%B8%81%E7%9B%AE</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県尼崎市武庫川町4丁目&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県尼崎市武庫川町4丁目&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/尼崎市/武庫川町/四丁目&lt;/address&gt;
+&lt;longitude&gt;135.383438&lt;/longitude&gt;
+&lt;latitude&gt;34.716335&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
+        <v>34.716335000000001</v>
+      </c>
+      <c r="G61" cm="1">
+        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
+        <v>135.38343800000001</v>
+      </c>
+      <c r="H61">
+        <v>34.716335000000001</v>
+      </c>
+      <c r="I61">
+        <v>135.38343800000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>9</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B62" t="s">
         <v>107</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県熊谷市新堀</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D62" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3311,37 +3717,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
         <v>36.175068000000003</v>
       </c>
-      <c r="G54" cm="1">
-        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
         <v>139.335297</v>
       </c>
-      <c r="H54">
+      <c r="H62">
         <v>36.175068000000003</v>
       </c>
-      <c r="I54">
+      <c r="I62">
         <v>139.335297</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>19</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="15"/>
         <v>千葉県野田市親野井</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D63" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3358,37 +3764,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
         <v>36.040675999999998</v>
       </c>
-      <c r="G55" cm="1">
-        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
+      <c r="G63" cm="1">
+        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
         <v>139.81359900000001</v>
       </c>
-      <c r="H55">
+      <c r="H63">
         <v>36.040675999999998</v>
       </c>
-      <c r="I55">
+      <c r="I63">
         <v>139.81359900000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>30</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B64" t="s">
         <v>31</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県岐阜市須賀</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D64" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3405,37 +3811,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
         <v>35.386009000000001</v>
       </c>
-      <c r="G56" cm="1">
-        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
+      <c r="G64" cm="1">
+        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
         <v>136.723984</v>
       </c>
-      <c r="H56">
+      <c r="H64">
         <v>35.386009000000001</v>
       </c>
-      <c r="I56">
+      <c r="I64">
         <v>136.723984</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>32</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D65" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3452,37 +3858,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
         <v>35.477051000000003</v>
       </c>
-      <c r="G57" cm="1">
-        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
+      <c r="G65" cm="1">
+        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
         <v>139.629288</v>
       </c>
-      <c r="H57">
+      <c r="H65">
         <v>35.477051000000003</v>
       </c>
-      <c r="I57">
+      <c r="I65">
         <v>139.629288</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>12</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市佐伯区五日市町</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D66" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3499,37 +3905,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F58" cm="1">
-        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
         <v>34.361728999999997</v>
       </c>
-      <c r="G58" cm="1">
-        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
         <v>132.37535099999999</v>
       </c>
-      <c r="H58">
+      <c r="H66">
         <v>34.361728999999997</v>
       </c>
-      <c r="I58">
+      <c r="I66">
         <v>132.37535099999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>19</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B67" t="s">
         <v>35</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C67" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市美浜区</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D67" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E67" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3546,37 +3952,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F59" cm="1">
-        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
         <v>35.640552999999997</v>
       </c>
-      <c r="G59" cm="1">
-        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+      <c r="G67" cm="1">
+        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
         <v>140.06303399999999</v>
       </c>
-      <c r="H59">
+      <c r="H67">
         <v>35.640552999999997</v>
       </c>
-      <c r="I59">
+      <c r="I67">
         <v>140.06303399999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>54</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B68" t="s">
         <v>76</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="15"/>
         <v>群馬県伊勢崎市除ケ町</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%B4%8E%E5%B8%82%E9%99%A4%E3%82%B1%E7%94%BA</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E68" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3593,37 +3999,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F60" cm="1">
-        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
         <v>36.283253000000002</v>
       </c>
-      <c r="G60" cm="1">
-        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
+      <c r="G68" cm="1">
+        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
         <v>139.19224500000001</v>
       </c>
-      <c r="H60">
+      <c r="H68">
         <v>36.283253000000002</v>
       </c>
-      <c r="I60">
+      <c r="I68">
         <v>139.19224500000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
         <v>25</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="15"/>
         <v>東京都大田区多摩川2-24-62</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D2-24-62</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E69" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3640,37 +4046,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F61" cm="1">
-        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
         <v>35.555843000000003</v>
       </c>
-      <c r="G61" cm="1">
-        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
         <v>139.70198099999999</v>
       </c>
-      <c r="H61">
+      <c r="H69">
         <v>35.555843000000003</v>
       </c>
-      <c r="I61">
+      <c r="I69">
         <v>139.70198099999999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>23</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B70" t="s">
         <v>24</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E70" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3687,37 +4093,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F62" cm="1">
-        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
+      <c r="F70" cm="1">
+        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G62" cm="1">
-        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
+      <c r="G70" cm="1">
+        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H62">
+      <c r="H70">
         <v>34.799816</v>
       </c>
-      <c r="I62">
+      <c r="I70">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>32</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B71" t="s">
         <v>36</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区子安台</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA%E5%AD%90%E5%AE%89%E5%8F%B0</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E71" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3734,37 +4140,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F63" cm="1">
-        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
+      <c r="F71" cm="1">
+        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
         <v>35.491627000000001</v>
       </c>
-      <c r="G63" cm="1">
-        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
+      <c r="G71" cm="1">
+        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
         <v>139.658829</v>
       </c>
-      <c r="H63">
+      <c r="H71">
         <v>35.491627000000001</v>
       </c>
-      <c r="I63">
+      <c r="I71">
         <v>139.658829</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>27</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B72" t="s">
         <v>37</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E72" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3781,37 +4187,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F64" cm="1">
-        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G64" cm="1">
-        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H64">
+      <c r="H72">
         <v>34.759402999999999</v>
       </c>
-      <c r="I64">
+      <c r="I72">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>38</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B73" t="s">
         <v>39</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C73" t="str">
         <f t="shared" si="15"/>
         <v>熊本県葦北郡津奈木町福浜</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D73" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E6%B4%A5%E5%A5%88%E6%9C%A8%E7%94%BA%E7%A6%8F%E6%B5%9C</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E73" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3828,37 +4234,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F65" cm="1">
-        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
         <v>32.268051</v>
       </c>
-      <c r="G65" cm="1">
-        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
         <v>130.45193499999999</v>
       </c>
-      <c r="H65">
+      <c r="H73">
         <v>32.268051</v>
       </c>
-      <c r="I65">
+      <c r="I73">
         <v>130.45193499999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>40</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B74" t="s">
         <v>41</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C74" t="str">
         <f t="shared" si="15"/>
         <v>秋田県秋田市</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A7%8B%E7%94%B0%E7%9C%8C%E7%A7%8B%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E74" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3875,37 +4281,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F66" cm="1">
-        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
         <v>39.719929</v>
       </c>
-      <c r="G66" cm="1">
-        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
         <v>140.102509</v>
       </c>
-      <c r="H66">
+      <c r="H74">
         <v>39.719929</v>
       </c>
-      <c r="I66">
+      <c r="I74">
         <v>140.102509</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>32</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B75" t="s">
         <v>42</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県川崎市中原区新丸子東</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E4%B8%AD%E5%8E%9F%E5%8C%BA%E6%96%B0%E4%B8%B8%E5%AD%90%E6%9D%B1</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E75" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3922,37 +4328,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F67" cm="1">
-        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
         <v>35.580086000000001</v>
       </c>
-      <c r="G67" cm="1">
-        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
         <v>139.66317699999999</v>
       </c>
-      <c r="H67">
+      <c r="H75">
         <v>35.580086000000001</v>
       </c>
-      <c r="I67">
+      <c r="I75">
         <v>139.66317699999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
         <v>27</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B76" t="s">
         <v>43</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="15"/>
         <v>大阪府寝屋川市点野</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%9D%E5%B1%8B%E5%B7%9D%E5%B8%82%E7%82%B9%E9%87%8E</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E76" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3969,37 +4375,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F68" cm="1">
-        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
         <v>34.780231000000001</v>
       </c>
-      <c r="G68" cm="1">
-        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
+      <c r="G76" cm="1">
+        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
         <v>135.605133</v>
       </c>
-      <c r="H68">
+      <c r="H76">
         <v>34.780231000000001</v>
       </c>
-      <c r="I68">
+      <c r="I76">
         <v>135.605133</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>44</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B77" t="s">
         <v>45</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="15"/>
         <v>岡山県岡山市南区福富西2丁目</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%B2%A1%E5%B1%B1%E5%B8%82%E5%8D%97%E5%8C%BA%E7%A6%8F%E5%AF%8C%E8%A5%BF2%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E77" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4016,37 +4422,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F69" cm="1">
-        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
+      <c r="F77" cm="1">
+        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
         <v>34.621516999999997</v>
       </c>
-      <c r="G69" cm="1">
-        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
+      <c r="G77" cm="1">
+        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
         <v>133.93177800000001</v>
       </c>
-      <c r="H69">
+      <c r="H77">
         <v>34.621516999999997</v>
       </c>
-      <c r="I69">
+      <c r="I77">
         <v>133.93177800000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>25</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" t="s">
         <v>57</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C78" t="str">
         <f t="shared" si="15"/>
         <v>東京都品川区東五反田</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA%E6%9D%B1%E4%BA%94%E5%8F%8D%E7%94%B0</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E78" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4063,37 +4469,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F70" cm="1">
-        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
+      <c r="F78" cm="1">
+        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
         <v>35.627761999999997</v>
       </c>
-      <c r="G70" cm="1">
-        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
+      <c r="G78" cm="1">
+        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
         <v>139.72642500000001</v>
       </c>
-      <c r="H70">
+      <c r="H78">
         <v>35.627761999999997</v>
       </c>
-      <c r="I70">
+      <c r="I78">
         <v>139.72642500000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B79" t="s">
         <v>15</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C79" t="str">
         <f t="shared" si="15"/>
         <v>長野県長野市川中島町上氷鉋</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D79" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E5%B7%9D%E4%B8%AD%E5%B3%B6%E7%94%BA%E4%B8%8A%E6%B0%B7%E9%89%8B</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E79" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4110,37 +4516,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F71" cm="1">
-        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
+      <c r="F79" cm="1">
+        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
         <v>36.611911999999997</v>
       </c>
-      <c r="G71" cm="1">
-        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
+      <c r="G79" cm="1">
+        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
         <v>138.157059</v>
       </c>
-      <c r="H71">
+      <c r="H79">
         <v>36.611911999999997</v>
       </c>
-      <c r="I71">
+      <c r="I79">
         <v>138.157059</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>12</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B80" t="s">
         <v>16</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C80" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市安佐南区長束西</v>
       </c>
-      <c r="D72" s="2" t="str">
+      <c r="D80" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E5%AE%89%E4%BD%90%E5%8D%97%E5%8C%BA%E9%95%B7%E6%9D%9F%E8%A5%BF</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E80" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4157,37 +4563,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F72" cm="1">
-        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
+      <c r="F80" cm="1">
+        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
         <v>34.427909999999997</v>
       </c>
-      <c r="G72" cm="1">
-        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
+      <c r="G80" cm="1">
+        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
         <v>132.450165</v>
       </c>
-      <c r="H72">
+      <c r="H80">
         <v>34.427909999999997</v>
       </c>
-      <c r="I72">
+      <c r="I80">
         <v>132.450165</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B81" t="s">
         <v>108</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C81" t="str">
         <f t="shared" si="15"/>
         <v>愛知県北名古屋市沖村天花寺</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D81" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%8C%97%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%B2%96%E6%9D%91%E5%A4%A9%E8%8A%B1%E5%AF%BA</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E81" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4204,37 +4610,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F73" cm="1">
-        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
+      <c r="F81" cm="1">
+        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
         <v>35.239272999999997</v>
       </c>
-      <c r="G73" cm="1">
-        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
+      <c r="G81" cm="1">
+        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
         <v>136.862717</v>
       </c>
-      <c r="H73">
+      <c r="H81">
         <v>35.239272999999997</v>
       </c>
-      <c r="I73">
+      <c r="I81">
         <v>136.862717</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>13</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B82" t="s">
         <v>17</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C82" t="str">
         <f t="shared" si="15"/>
         <v>新潟県新潟市中央区明石</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D82" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E6%96%B0%E6%BD%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E6%98%8E%E7%9F%B3</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E82" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4251,37 +4657,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F74" cm="1">
-        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
+      <c r="F82" cm="1">
+        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
         <v>37.916012000000002</v>
       </c>
-      <c r="G74" cm="1">
-        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
+      <c r="G82" cm="1">
+        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
         <v>139.065506</v>
       </c>
-      <c r="H74">
+      <c r="H82">
         <v>37.916012000000002</v>
       </c>
-      <c r="I74">
+      <c r="I82">
         <v>139.065506</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
         <v>9</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C83" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県秩父市熊木町</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D83" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%A7%A9%E7%88%B6%E5%B8%82%E7%86%8A%E6%9C%A8%E7%94%BA</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E83" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4298,37 +4704,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F75" cm="1">
-        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
+      <c r="F83" cm="1">
+        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
         <v>35.991272000000002</v>
       </c>
-      <c r="G75" cm="1">
-        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
+      <c r="G83" cm="1">
+        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
         <v>139.08822599999999</v>
       </c>
-      <c r="H75">
+      <c r="H83">
         <v>35.991272000000002</v>
       </c>
-      <c r="I75">
+      <c r="I83">
         <v>139.08822599999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>27</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B84" t="s">
         <v>87</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C84" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D84" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E84" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4345,37 +4751,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F76" cm="1">
-        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
+      <c r="F84" cm="1">
+        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
         <v>34.693890000000003</v>
       </c>
-      <c r="G76" cm="1">
-        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
+      <c r="G84" cm="1">
+        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
         <v>135.50204500000001</v>
       </c>
-      <c r="H76">
+      <c r="H84">
         <v>34.693890000000003</v>
       </c>
-      <c r="I76">
+      <c r="I84">
         <v>135.50204500000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>9</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B85" t="s">
         <v>88</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C85" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県春日部市備後西</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D85" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E6%98%A5%E6%97%A5%E9%83%A8%E5%B8%82%E5%82%99%E5%BE%8C%E8%A5%BF</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E85" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4392,37 +4798,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F77" cm="1">
-        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
+      <c r="F85" cm="1">
+        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
         <v>35.959018999999998</v>
       </c>
-      <c r="G77" cm="1">
-        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
+      <c r="G85" cm="1">
+        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
         <v>139.76663199999999</v>
       </c>
-      <c r="H77">
+      <c r="H85">
         <v>35.959018999999998</v>
       </c>
-      <c r="I77">
+      <c r="I85">
         <v>139.76663199999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B86" t="s">
         <v>18</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C86" t="str">
         <f t="shared" si="15"/>
         <v>愛知県安城市緑町</v>
       </c>
-      <c r="D78" s="2" t="str">
+      <c r="D86" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%AE%89%E5%9F%8E%E5%B8%82%E7%B7%91%E7%94%BA</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E86" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4439,254 +4845,22 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F78" cm="1">
-        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
+      <c r="F86" cm="1">
+        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
         <v>34.973072000000002</v>
       </c>
-      <c r="G78" cm="1">
-        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
+      <c r="G86" cm="1">
+        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
         <v>137.05100999999999</v>
       </c>
-      <c r="H78">
+      <c r="H86">
         <v>34.973072000000002</v>
       </c>
-      <c r="I78">
+      <c r="I86">
         <v>137.05100999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C79" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D79" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F79" t="e" cm="1">
-        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G79" t="e" cm="1">
-        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C80" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D80" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F80" t="e" cm="1">
-        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G80" t="e" cm="1">
-        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C81" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D81" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F81" t="e" cm="1">
-        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G81" t="e" cm="1">
-        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C82" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D82" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F82" t="e" cm="1">
-        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G82" t="e" cm="1">
-        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C83" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D83" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F83" t="e" cm="1">
-        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G83" t="e" cm="1">
-        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C84" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F84" t="e" cm="1">
-        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G84" t="e" cm="1">
-        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C85" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D85" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F85" t="e" cm="1">
-        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G85" t="e" cm="1">
-        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C86" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F86" t="e" cm="1">
-        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G86" t="e" cm="1">
-        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C87" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4715,7 +4889,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C88" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4744,7 +4918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C89" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4773,7 +4947,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C90" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4802,7 +4976,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C91" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4831,7 +5005,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C92" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4860,7 +5034,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C93" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4889,7 +5063,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C94" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4918,7 +5092,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C95" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4947,7 +5121,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C96" t="str">
         <f t="shared" si="15"/>
         <v/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE302E-119E-4F4C-9D42-4EF3368EE89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703552B6-A74C-42DF-BDF4-8989452977BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1590" windowWidth="25110" windowHeight="14610" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="31335" yWindow="315" windowWidth="25110" windowHeight="14610" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>北名古屋市沖村天花寺</t>
   </si>
   <si>
-    <t>印西市</t>
-  </si>
-  <si>
     <t>青森県</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>尼崎市武庫川町4丁目</t>
+  </si>
+  <si>
+    <t>福岡市中央区荒戸</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I86"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -870,57 +870,57 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>千葉県印西市</v>
+        <v>福岡県福岡市中央区荒戸</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E7%A6%8F%E5%B2%A1%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E8%8D%92%E6%88%B8</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;千葉県印西市&lt;/query&gt;
+&lt;query&gt;福岡県福岡市中央区荒戸&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;千葉県印西市&lt;/converted&gt;
+&lt;converted&gt;福岡県福岡市中央区荒戸&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;千葉県/印西市&lt;/address&gt;
-&lt;longitude&gt;140.145767&lt;/longitude&gt;
-&lt;latitude&gt;35.832333&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;address&gt;福岡県/福岡市/中央区/荒戸&lt;/address&gt;
+&lt;longitude&gt;130.378296&lt;/longitude&gt;
+&lt;latitude&gt;33.592308&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>35.832332999999998</v>
+        <v>33.592308000000003</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>140.14576700000001</v>
+        <v>130.37829600000001</v>
       </c>
       <c r="H2">
-        <v>35.832332999999998</v>
+        <v>33.592308000000003</v>
       </c>
       <c r="I2">
-        <v>140.14576700000001</v>
+        <v>130.37829600000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
@@ -967,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="15"/>
@@ -3502,7 +3502,7 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="15"/>
@@ -3546,10 +3546,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="15"/>
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="15"/>
@@ -3643,7 +3643,7 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="15"/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703552B6-A74C-42DF-BDF4-8989452977BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E923E6-8750-4A5A-9151-D881CDAA4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31335" yWindow="315" windowWidth="25110" windowHeight="14610" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="3510" yWindow="3495" windowWidth="23550" windowHeight="12705" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,12 +390,6 @@
     <t>北名古屋市沖村天花寺</t>
   </si>
   <si>
-    <t>青森県</t>
-  </si>
-  <si>
-    <t>八戸市湊町下大久保道</t>
-  </si>
-  <si>
     <t>あま市篠田</t>
   </si>
   <si>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>福岡市中央区荒戸</t>
+  </si>
+  <si>
+    <t>福島県</t>
+  </si>
+  <si>
+    <t>郡山市富久山町久保田</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -873,7 +873,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
@@ -917,49 +917,49 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
-        <v>青森県八戸市湊町下大久保道</v>
+        <v>福島県郡山市富久山町久保田</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%92%E6%A3%AE%E7%9C%8C%E5%85%AB%E6%88%B8%E5%B8%82%E6%B9%8A%E7%94%BA%E4%B8%8B%E5%A4%A7%E4%B9%85%E4%BF%9D%E9%81%93</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E9%83%A1%E5%B1%B1%E5%B8%82%E5%AF%8C%E4%B9%85%E5%B1%B1%E7%94%BA%E4%B9%85%E4%BF%9D%E7%94%B0</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;青森県八戸市湊町下大久保道&lt;/query&gt;
+&lt;query&gt;福島県郡山市富久山町久保田&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;青森県八戸市湊町下大久保道&lt;/converted&gt;
+&lt;converted&gt;福島県郡山市富久山町久保田&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;青森県/八戸市/大字湊町/下大久保道&lt;/address&gt;
-&lt;longitude&gt;141.541733&lt;/longitude&gt;
-&lt;latitude&gt;40.511375&lt;/latitude&gt;
-&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;address&gt;福島県/郡山市/富久山町久保田&lt;/address&gt;
+&lt;longitude&gt;140.389374&lt;/longitude&gt;
+&lt;latitude&gt;37.411007&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
-        <v>40.511375000000001</v>
+        <v>37.411006999999998</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
-        <v>141.54173299999999</v>
+        <v>140.389374</v>
       </c>
       <c r="H3">
-        <v>40.511375000000001</v>
+        <v>37.411006999999998</v>
       </c>
       <c r="I3">
-        <v>141.54173299999999</v>
+        <v>140.389374</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -967,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3455,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="15"/>
@@ -3502,7 +3502,7 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="15"/>
@@ -3546,10 +3546,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="15"/>
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="15"/>
@@ -3643,7 +3643,7 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="15"/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E923E6-8750-4A5A-9151-D881CDAA4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5077F4-17A4-4CF1-B1F3-FCAF40BE2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3495" windowWidth="23550" windowHeight="12705" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="31140" yWindow="1425" windowWidth="26175" windowHeight="14775" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>jio0</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>新潟市中央区明石</t>
-  </si>
-  <si>
-    <t>安城市緑町</t>
   </si>
   <si>
     <t>千葉県</t>
@@ -294,9 +291,6 @@
     <t>伊勢崎市除ケ町</t>
   </si>
   <si>
-    <t>大田区多摩川2-24-62</t>
-  </si>
-  <si>
     <t>大阪市生野区巽東</t>
   </si>
   <si>
@@ -322,12 +316,6 @@
   </si>
   <si>
     <t>堺市西区浜寺船尾町西1丁</t>
-  </si>
-  <si>
-    <t>大阪市</t>
-  </si>
-  <si>
-    <t>春日部市備後西</t>
   </si>
   <si>
     <t>愛知県みよし市打越町畦違289ー1</t>
@@ -358,9 +346,6 @@
   </si>
   <si>
     <t>静岡県</t>
-  </si>
-  <si>
-    <t>静岡市駿河区</t>
   </si>
   <si>
     <t>葦北郡芦北町湯浦</t>
@@ -418,6 +403,45 @@
   </si>
   <si>
     <t>郡山市富久山町久保田</t>
+  </si>
+  <si>
+    <t>豊島区千早</t>
+  </si>
+  <si>
+    <t>守谷市百合ケ丘</t>
+  </si>
+  <si>
+    <t>川越市藤間</t>
+  </si>
+  <si>
+    <t>上伊那郡飯島町七久保</t>
+  </si>
+  <si>
+    <t>大田区多摩川</t>
+  </si>
+  <si>
+    <t>江東区森下</t>
+  </si>
+  <si>
+    <t>長崎県</t>
+  </si>
+  <si>
+    <t>諫早市白岩町</t>
+  </si>
+  <si>
+    <t>浜松市中央区入野町</t>
+  </si>
+  <si>
+    <t>横浜市鶴見区東寺尾</t>
+  </si>
+  <si>
+    <t>印西市</t>
+  </si>
+  <si>
+    <t>青森県</t>
+  </si>
+  <si>
+    <t>八戸市湊町下大久保道</t>
   </si>
 </sst>
 </file>
@@ -827,7 +851,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+      <selection activeCell="H2" sqref="H2:I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -870,21 +894,397 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>福岡県福岡市中央区荒戸</v>
+        <v>東京都豊島区千早</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E7%A6%8F%E5%B2%A1%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E8%8D%92%E6%88%B8</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E5%8D%83%E6%97%A9</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都豊島区千早&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都豊島区千早&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/豊島区/千早&lt;/address&gt;
+&lt;longitude&gt;139.695801&lt;/longitude&gt;
+&lt;latitude&gt;35.731419&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.731419000000002</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>139.69580099999999</v>
+      </c>
+      <c r="H2">
+        <v>35.731419000000002</v>
+      </c>
+      <c r="I2">
+        <v>139.69580099999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>茨城県守谷市百合ケ丘</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E5%AE%88%E8%B0%B7%E5%B8%82%E7%99%BE%E5%90%88%E3%82%B1%E4%B8%98</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;茨城県守谷市百合ケ丘&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;茨城県守谷市百合ケ丘&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;茨城県/守谷市/百合ケ丘&lt;/address&gt;
+&lt;longitude&gt;139.983795&lt;/longitude&gt;
+&lt;latitude&gt;35.956184&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>35.956184</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>139.98379499999999</v>
+      </c>
+      <c r="H3">
+        <v>35.956184</v>
+      </c>
+      <c r="I3">
+        <v>139.98379499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>埼玉県川越市藤間</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%B7%9D%E8%B6%8A%E5%B8%82%E8%97%A4%E9%96%93</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県川越市藤間&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県川越市藤間&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/川越市/藤間&lt;/address&gt;
+&lt;longitude&gt;139.496719&lt;/longitude&gt;
+&lt;latitude&gt;35.880058&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.880057999999998</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>139.49671900000001</v>
+      </c>
+      <c r="H4">
+        <v>35.880057999999998</v>
+      </c>
+      <c r="I4">
+        <v>139.49671900000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>長野県上伊那郡飯島町七久保</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長野県上伊那郡飯島町七久保&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長野県上伊那郡飯島町七久保&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長野県/上伊那郡/飯島町/七久保&lt;/address&gt;
+&lt;longitude&gt;137.890472&lt;/longitude&gt;
+&lt;latitude&gt;35.658588&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>35.658588000000002</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>137.89047199999999</v>
+      </c>
+      <c r="H5">
+        <v>35.658588000000002</v>
+      </c>
+      <c r="I5">
+        <v>137.89047199999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>東京都大田区多摩川</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都大田区多摩川&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都大田区多摩川&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/大田区/多摩川&lt;/address&gt;
+&lt;longitude&gt;139.699417&lt;/longitude&gt;
+&lt;latitude&gt;35.563114&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+        <v>35.563113999999999</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+        <v>139.69941700000001</v>
+      </c>
+      <c r="H6">
+        <v>35.563113999999999</v>
+      </c>
+      <c r="I6">
+        <v>139.69941700000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>東京都江東区森下</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%A3%AE%E4%B8%8B</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都江東区森下&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都江東区森下&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/江東区/森下&lt;/address&gt;
+&lt;longitude&gt;139.797424&lt;/longitude&gt;
+&lt;latitude&gt;35.687515&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>35.687514999999998</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>139.79742400000001</v>
+      </c>
+      <c r="H7">
+        <v>35.687514999999998</v>
+      </c>
+      <c r="I7">
+        <v>139.79742400000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
+        <v>長崎県諫早市白岩町</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E5%B4%8E%E7%9C%8C%E8%AB%AB%E6%97%A9%E5%B8%82%E7%99%BD%E5%B2%A9%E7%94%BA</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長崎県諫早市白岩町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長崎県諫早市白岩町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長崎県/諫早市/白岩町&lt;/address&gt;
+&lt;longitude&gt;130.021683&lt;/longitude&gt;
+&lt;latitude&gt;32.847935&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+        <v>32.847935</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+        <v>130.021683</v>
+      </c>
+      <c r="H8">
+        <v>32.847935</v>
+      </c>
+      <c r="I8">
+        <v>130.021683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
+        <v>福島県郡山市富久山町久保田</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E9%83%A1%E5%B1%B1%E5%B8%82%E5%AF%8C%E4%B9%85%E5%B1%B1%E7%94%BA%E4%B9%85%E4%BF%9D%E7%94%B0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;福島県郡山市富久山町久保田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;福島県郡山市富久山町久保田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;福島県/郡山市/富久山町久保田&lt;/address&gt;
+&lt;longitude&gt;140.389374&lt;/longitude&gt;
+&lt;latitude&gt;37.411007&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+        <v>37.411006999999998</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+        <v>140.389374</v>
+      </c>
+      <c r="H9">
+        <v>37.411006999999998</v>
+      </c>
+      <c r="I9">
+        <v>140.389374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
+        <v>福岡県福岡市中央区荒戸</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E7%A6%8F%E5%B2%A1%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E8%8D%92%E6%88%B8</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;福岡県福岡市中央区荒戸&lt;/query&gt;
@@ -900,85 +1300,226 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>33.592308000000003</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>130.37829600000001</v>
       </c>
-      <c r="H2">
+      <c r="H10">
         <v>33.592308000000003</v>
       </c>
-      <c r="I2">
+      <c r="I10">
         <v>130.37829600000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
-        <v>福島県郡山市富久山町久保田</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E9%83%A1%E5%B1%B1%E5%B8%82%E5%AF%8C%E4%B9%85%E5%B1%B1%E7%94%BA%E4%B9%85%E4%BF%9D%E7%94%B0</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;福島県郡山市富久山町久保田&lt;/query&gt;
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
+        <v>静岡県浜松市中央区入野町</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E6%B5%9C%E6%9D%BE%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%85%A5%E9%87%8E%E7%94%BA</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;静岡県浜松市中央区入野町&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;福島県郡山市富久山町久保田&lt;/converted&gt;
+&lt;converted&gt;静岡県浜松市中央区入野町&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;福島県/郡山市/富久山町久保田&lt;/address&gt;
-&lt;longitude&gt;140.389374&lt;/longitude&gt;
-&lt;latitude&gt;37.411007&lt;/latitude&gt;
+&lt;address&gt;静岡県/浜松市/中央区/入野町&lt;/address&gt;
+&lt;longitude&gt;137.682983&lt;/longitude&gt;
+&lt;latitude&gt;34.701485&lt;/latitude&gt;
 &lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
-        <v>37.411006999999998</v>
-      </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
-        <v>140.389374</v>
-      </c>
-      <c r="H3">
-        <v>37.411006999999998</v>
-      </c>
-      <c r="I3">
-        <v>140.389374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+        <v>34.701484999999998</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+        <v>137.68298300000001</v>
+      </c>
+      <c r="H11">
+        <v>34.701484999999998</v>
+      </c>
+      <c r="I11">
+        <v>137.68298300000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県横浜市鶴見区東寺尾</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%B6%B4%E8%A6%8B%E5%8C%BA%E6%9D%B1%E5%AF%BA%E5%B0%BE</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市鶴見区東寺尾&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市鶴見区東寺尾&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/鶴見区/東寺尾&lt;/address&gt;
+&lt;longitude&gt;139.649170&lt;/longitude&gt;
+&lt;latitude&gt;35.502663&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+        <v>35.502662999999998</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+        <v>139.64917</v>
+      </c>
+      <c r="H12">
+        <v>35.502662999999998</v>
+      </c>
+      <c r="I12">
+        <v>139.64917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="9"/>
+        <v>千葉県印西市</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県印西市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県印西市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/印西市&lt;/address&gt;
+&lt;longitude&gt;140.145767&lt;/longitude&gt;
+&lt;latitude&gt;35.832333&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+        <v>35.832332999999998</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+        <v>140.14576700000001</v>
+      </c>
+      <c r="H13">
+        <v>35.832332999999998</v>
+      </c>
+      <c r="I13">
+        <v>140.14576700000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="9"/>
+        <v>青森県八戸市湊町下大久保道</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%92%E6%A3%AE%E7%9C%8C%E5%85%AB%E6%88%B8%E5%B8%82%E6%B9%8A%E7%94%BA%E4%B8%8B%E5%A4%A7%E4%B9%85%E4%BF%9D%E9%81%93</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;青森県八戸市湊町下大久保道&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;青森県八戸市湊町下大久保道&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;青森県/八戸市/大字湊町/下大久保道&lt;/address&gt;
+&lt;longitude&gt;141.541733&lt;/longitude&gt;
+&lt;latitude&gt;40.511375&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+        <v>40.511375000000001</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+        <v>141.54173299999999</v>
+      </c>
+      <c r="H14">
+        <v>40.511375000000001</v>
+      </c>
+      <c r="I14">
+        <v>141.54173299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="9"/>
         <v>愛知県あま市篠田</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%82%E3%81%BE%E5%B8%82%E7%AF%A0%E7%94%B0</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E15" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県あま市篠田&lt;/query&gt;
@@ -994,35 +1535,35 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>35.183472000000002</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>136.79054300000001</v>
       </c>
-      <c r="H4">
+      <c r="H15">
         <v>35.183472000000002</v>
       </c>
-      <c r="I4">
+      <c r="I15">
         <v>136.79054300000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="9"/>
         <v>愛知県みよし市打越町畦違289ー1</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%BF%E3%82%88%E3%81%97%E5%B8%82%E6%89%93%E8%B6%8A%E7%94%BA%E7%95%A6%E9%81%95289%E3%83%BC1</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E16" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県みよし市打越町畦違289ー1&lt;/query&gt;
@@ -1038,38 +1579,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>35.077637000000003</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>137.08952300000001</v>
       </c>
-      <c r="H5">
+      <c r="H16">
         <v>35.077637000000003</v>
       </c>
-      <c r="I5">
+      <c r="I16">
         <v>137.08952300000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="9"/>
         <v>愛媛県松山市</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%9D%BE%E5%B1%B1%E5%B8%82</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E17" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛媛県松山市&lt;/query&gt;
@@ -1085,38 +1626,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>33.839157</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>132.76554899999999</v>
       </c>
-      <c r="H6">
+      <c r="H17">
         <v>33.839157</v>
       </c>
-      <c r="I6">
+      <c r="I17">
         <v>132.76554899999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="9"/>
         <v>神奈川県横浜市青葉区奈良町1566-123</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%9D%92%E8%91%89%E5%8C%BA%E5%A5%88%E8%89%AF%E7%94%BA1566-123</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E18" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市青葉区奈良町1566-123&lt;/query&gt;
@@ -1132,37 +1673,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>35.564982999999998</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>139.47674599999999</v>
       </c>
-      <c r="H7">
+      <c r="H18">
         <v>35.564982999999998</v>
       </c>
-      <c r="I7">
+      <c r="I18">
         <v>139.47674599999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="str">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>東京都世田谷区松原</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E6%9D%BE%E5%8E%9F</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1179,37 +1720,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>35.668163</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>139.65330499999999</v>
       </c>
-      <c r="H8">
+      <c r="H19">
         <v>35.668163</v>
       </c>
-      <c r="I8">
+      <c r="I19">
         <v>139.65330499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="str">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>大阪府岸和田市並松町</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%B2%B8%E5%92%8C%E7%94%B0%E5%B8%82%E4%B8%A6%E6%9D%BE%E7%94%BA</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1226,37 +1767,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>34.467650999999996</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>135.37519800000001</v>
       </c>
-      <c r="H9">
+      <c r="H20">
         <v>34.467650999999996</v>
       </c>
-      <c r="I9">
+      <c r="I20">
         <v>135.37519800000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="str">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1273,37 +1814,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H10">
+      <c r="H21">
         <v>35.725349000000001</v>
       </c>
-      <c r="I10">
+      <c r="I21">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="str">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>滋賀県彦根市旭町</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%BD%A6%E6%A0%B9%E5%B8%82%E6%97%AD%E7%94%BA</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1320,37 +1861,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>35.273952000000001</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>136.26187100000001</v>
       </c>
-      <c r="H11">
+      <c r="H22">
         <v>35.273952000000001</v>
       </c>
-      <c r="I11">
+      <c r="I22">
         <v>136.26187100000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="str">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県川西市東多田3丁目</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B7%9D%E8%A5%BF%E5%B8%82%E6%9D%B1%E5%A4%9A%E7%94%B03%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1367,37 +1908,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>34.861781999999998</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>135.42060900000001</v>
       </c>
-      <c r="H12">
+      <c r="H23">
         <v>34.861781999999998</v>
       </c>
-      <c r="I12">
+      <c r="I23">
         <v>135.42060900000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>熊本県熊本市西区</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E8%A5%BF%E5%8C%BA</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1414,85 +1955,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>32.776370999999997</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>130.64756800000001</v>
       </c>
-      <c r="H13">
+      <c r="H24">
         <v>32.776370999999997</v>
       </c>
-      <c r="I13">
+      <c r="I24">
         <v>130.64756800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="9"/>
-        <v>静岡県静岡市駿河区</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E9%9D%99%E5%B2%A1%E5%B8%82%E9%A7%BF%E6%B2%B3%E5%8C%BA</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;静岡県静岡市駿河区&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;静岡県静岡市駿河区&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;静岡県/静岡市/駿河区&lt;/address&gt;
-&lt;longitude&gt;138.404053&lt;/longitude&gt;
-&lt;latitude&gt;34.960747&lt;/latitude&gt;
-&lt;iLvl&gt;4&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
-        <v>34.960746999999998</v>
-      </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
-        <v>138.404053</v>
-      </c>
-      <c r="H14">
-        <v>34.960746999999998</v>
-      </c>
-      <c r="I14">
-        <v>138.404053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="9"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>熊本県葦北郡芦北町湯浦</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E8%8A%A6%E5%8C%97%E7%94%BA%E6%B9%AF%E6%B5%A6</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;熊本県葦北郡芦北町湯浦&lt;/query&gt;
@@ -1508,38 +2002,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>32.269119000000003</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>130.498367</v>
       </c>
-      <c r="H15">
+      <c r="H25">
         <v>32.269119000000003</v>
       </c>
-      <c r="I15">
+      <c r="I25">
         <v>130.498367</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="9"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>東京都港区三田</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%AF%E5%8C%BA%E4%B8%89%E7%94%B0</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都港区三田&lt;/query&gt;
@@ -1555,38 +2049,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>35.653812000000002</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>139.741333</v>
       </c>
-      <c r="H16">
+      <c r="H26">
         <v>35.653812000000002</v>
       </c>
-      <c r="I16">
+      <c r="I26">
         <v>139.741333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="9"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>兵庫県加古川市市平岡町</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%8A%A0%E5%8F%A4%E5%B7%9D%E5%B8%82%E5%B8%82%E5%B9%B3%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県加古川市市平岡町&lt;/query&gt;
@@ -1602,38 +2096,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>34.756618000000003</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>134.84089700000001</v>
       </c>
-      <c r="H17">
+      <c r="H27">
         <v>34.756618000000003</v>
       </c>
-      <c r="I17">
+      <c r="I27">
         <v>134.84089700000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="9"/>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
         <v>埼玉県さいたま市桜区</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E6%A1%9C%E5%8C%BA</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="11"/>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県さいたま市桜区&lt;/query&gt;
@@ -1649,38 +2143,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>35.855877</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>139.60977199999999</v>
       </c>
-      <c r="H18">
+      <c r="H28">
         <v>35.855877</v>
       </c>
-      <c r="I18">
+      <c r="I28">
         <v>139.60977199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="9"/>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="12"/>
         <v>長野県長野市檀田</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E6%AA%80%E7%94%B0</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="11"/>
+      <c r="E29" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;長野県長野市檀田&lt;/query&gt;
@@ -1696,38 +2190,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>36.678818</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>138.20509300000001</v>
       </c>
-      <c r="H19">
+      <c r="H29">
         <v>36.678818</v>
       </c>
-      <c r="I19">
+      <c r="I29">
         <v>138.20509300000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="9"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="12"/>
         <v>大阪府大阪市生野区巽東</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E7%94%9F%E9%87%8E%E5%8C%BA%E5%B7%BD%E6%9D%B1</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="11"/>
+      <c r="E30" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府大阪市生野区巽東&lt;/query&gt;
@@ -1743,38 +2237,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>34.65081</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>135.55573999999999</v>
       </c>
-      <c r="H20">
+      <c r="H30">
         <v>34.65081</v>
       </c>
-      <c r="I20">
+      <c r="I30">
         <v>135.55573999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="12"/>
         <v>宮城県仙台宮城野区鶴ケ谷東</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E4%BB%99%E5%8F%B0%E5%AE%AE%E5%9F%8E%E9%87%8E%E5%8C%BA%E9%B6%B4%E3%82%B1%E8%B0%B7%E6%9D%B1</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
+      <c r="E31" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;宮城県仙台宮城野区鶴ケ谷東&lt;/query&gt;
@@ -1790,38 +2284,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
         <v>38.268008999999999</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
         <v>140.86961400000001</v>
       </c>
-      <c r="H21">
+      <c r="H31">
         <v>38.268008999999999</v>
       </c>
-      <c r="I21">
+      <c r="I31">
         <v>140.86961400000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="12"/>
         <v>兵庫県神戸市灘区六甲台町8-47</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E5%85%AD%E7%94%B2%E5%8F%B0%E7%94%BA8-47</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E32" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県神戸市灘区六甲台町8-47&lt;/query&gt;
@@ -1837,38 +2331,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>34.730651999999999</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>135.23202499999999</v>
       </c>
-      <c r="H22">
+      <c r="H32">
         <v>34.730651999999999</v>
       </c>
-      <c r="I22">
+      <c r="I32">
         <v>135.23202499999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="12"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E33" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;茨城県日立市久慈町&lt;/query&gt;
@@ -1884,38 +2378,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H23">
+      <c r="H33">
         <v>36.498386000000004</v>
       </c>
-      <c r="I23">
+      <c r="I33">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
         <v>愛知県名古屋市緑区鏡田</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D34" s="2" t="str">
+        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E9%8F%A1%E7%94%B0</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県名古屋市緑区鏡田&lt;/query&gt;
@@ -1931,38 +2425,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
         <v>35.092872999999997</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
         <v>137.013138</v>
       </c>
-      <c r="H24">
+      <c r="H34">
         <v>35.092872999999997</v>
       </c>
-      <c r="I24">
+      <c r="I34">
         <v>137.013138</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="15"/>
         <v>東京都北区</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%8C%97%E5%8C%BA</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E35" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都北区&lt;/query&gt;
@@ -1978,38 +2472,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
         <v>35.752803999999998</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
         <v>139.73365799999999</v>
       </c>
-      <c r="H25">
+      <c r="H35">
         <v>35.752803999999998</v>
       </c>
-      <c r="I25">
+      <c r="I35">
         <v>139.73365799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="12"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="15"/>
         <v>兵庫県西宮市甲陽園若江町</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E8%A5%BF%E5%AE%AE%E5%B8%82%E7%94%B2%E9%99%BD%E5%9C%92%E8%8B%A5%E6%B1%9F%E7%94%BA</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="14"/>
+      <c r="E36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県西宮市甲陽園若江町&lt;/query&gt;
@@ -2025,38 +2519,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
         <v>34.759025999999999</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
         <v>135.33090200000001</v>
       </c>
-      <c r="H26">
+      <c r="H36">
         <v>34.759025999999999</v>
       </c>
-      <c r="I26">
+      <c r="I36">
         <v>135.33090200000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="12"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="15"/>
         <v>兵庫県三田市</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E4%B8%89%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="14"/>
+      <c r="E37" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県三田市&lt;/query&gt;
@@ -2072,38 +2566,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
         <v>34.889671</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
         <v>135.22529599999999</v>
       </c>
-      <c r="H27">
+      <c r="H37">
         <v>34.889671</v>
       </c>
-      <c r="I27">
+      <c r="I37">
         <v>135.22529599999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="12"/>
+      <c r="C38" t="str">
+        <f t="shared" si="15"/>
         <v>北海道旭川市永山５条</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%AD%E5%B7%9D%E5%B8%82%E6%B0%B8%E5%B1%B1%EF%BC%95%E6%9D%A1</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="14"/>
+      <c r="E38" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;北海道旭川市永山５条&lt;/query&gt;
@@ -2119,38 +2613,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
         <v>43.784568999999998</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
         <v>142.39909399999999</v>
       </c>
-      <c r="H28">
+      <c r="H38">
         <v>43.784568999999998</v>
       </c>
-      <c r="I28">
+      <c r="I38">
         <v>142.39909399999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="12"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="15"/>
         <v>岐阜県岐阜市弁天町２－１－２</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E5%BC%81%E5%A4%A9%E7%94%BA%EF%BC%92%EF%BC%8D%EF%BC%91%EF%BC%8D%EF%BC%92</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="14"/>
+      <c r="E39" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岐阜県岐阜市弁天町２−１−２&lt;/query&gt;
@@ -2166,38 +2660,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
         <v>35.420315000000002</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
         <v>136.74797100000001</v>
       </c>
-      <c r="H29">
+      <c r="H39">
         <v>35.420315000000002</v>
       </c>
-      <c r="I29">
+      <c r="I39">
         <v>136.74797100000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="12"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="14"/>
+      <c r="E40" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府吹田市&lt;/query&gt;
@@ -2213,38 +2707,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H30">
+      <c r="H40">
         <v>34.759402999999999</v>
       </c>
-      <c r="I30">
+      <c r="I40">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="12"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="15"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="14"/>
+      <c r="E41" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都稲城市若葉台&lt;/query&gt;
@@ -2260,38 +2754,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H31">
+      <c r="H41">
         <v>35.626038000000001</v>
       </c>
-      <c r="I31">
+      <c r="I41">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="12"/>
+      <c r="C42" t="str">
+        <f t="shared" si="15"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="14"/>
+      <c r="E42" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;香川県高松市川島東町&lt;/query&gt;
@@ -2307,38 +2801,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H32">
+      <c r="H42">
         <v>34.266705000000002</v>
       </c>
-      <c r="I32">
+      <c r="I42">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="12"/>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="15"/>
         <v>埼玉県越谷市</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="14"/>
+      <c r="E43" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県越谷市&lt;/query&gt;
@@ -2354,38 +2848,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
         <v>35.891086999999999</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
         <v>139.79093900000001</v>
       </c>
-      <c r="H33">
+      <c r="H43">
         <v>35.891086999999999</v>
       </c>
-      <c r="I33">
+      <c r="I43">
         <v>139.79093900000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="15"/>
         <v>広島県府中市出口町</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%9C%E4%B8%AD%E5%B8%82%E5%87%BA%E5%8F%A3%E7%94%BA</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
+      <c r="E44" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県府中市出口町&lt;/query&gt;
@@ -2401,37 +2895,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
         <v>34.586570999999999</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
         <v>133.225449</v>
       </c>
-      <c r="H34">
+      <c r="H44">
         <v>34.586570999999999</v>
       </c>
-      <c r="I34">
+      <c r="I44">
         <v>133.225449</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="str">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市東区</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D45" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2448,37 +2942,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
         <v>35.179313999999998</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
         <v>136.926041</v>
       </c>
-      <c r="H35">
+      <c r="H45">
         <v>35.179313999999998</v>
       </c>
-      <c r="I35">
+      <c r="I45">
         <v>136.926041</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="str">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D46" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2495,37 +2989,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H36">
+      <c r="H46">
         <v>35.460503000000003</v>
       </c>
-      <c r="I36">
+      <c r="I46">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="15"/>
         <v>愛媛県新居浜市八幡</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D47" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%85%AB%E5%B9%A1</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2542,37 +3036,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
         <v>33.978043</v>
       </c>
-      <c r="G37" cm="1">
-        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
         <v>133.309921</v>
       </c>
-      <c r="H37">
+      <c r="H47">
         <v>33.978043</v>
       </c>
-      <c r="I37">
+      <c r="I47">
         <v>133.309921</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="15"/>
         <v>福岡県大野城市月の浦</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D48" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E5%A4%A7%E9%87%8E%E5%9F%8E%E5%B8%82%E6%9C%88%E3%81%AE%E6%B5%A6</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2589,37 +3083,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
         <v>33.500689999999999</v>
       </c>
-      <c r="G38" cm="1">
-        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
         <v>130.46286000000001</v>
       </c>
-      <c r="H38">
+      <c r="H48">
         <v>33.500689999999999</v>
       </c>
-      <c r="I38">
+      <c r="I48">
         <v>130.46286000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="str">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="str">
         <f t="shared" si="15"/>
         <v>大阪府高槻市芝谷町</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D49" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%8A%9D%E8%B0%B7%E7%94%BA</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2636,37 +3130,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
         <v>34.868862</v>
       </c>
-      <c r="G39" cm="1">
-        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
         <v>135.607956</v>
       </c>
-      <c r="H39">
+      <c r="H49">
         <v>34.868862</v>
       </c>
-      <c r="I39">
+      <c r="I49">
         <v>135.607956</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="str">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市　美浜区　磯辺</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D50" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E3%80%80%E7%BE%8E%E6%B5%9C%E5%8C%BA%E3%80%80%E7%A3%AF%E8%BE%BA</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2683,37 +3177,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
         <v>35.629711</v>
       </c>
-      <c r="G40" cm="1">
-        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
         <v>140.06405599999999</v>
       </c>
-      <c r="H40">
+      <c r="H50">
         <v>35.629711</v>
       </c>
-      <c r="I40">
+      <c r="I50">
         <v>140.06405599999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="str">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2730,37 +3224,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H41">
+      <c r="H51">
         <v>34.660412000000001</v>
       </c>
-      <c r="I41">
+      <c r="I51">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="15"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2777,37 +3271,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H42">
+      <c r="H52">
         <v>34.665543</v>
       </c>
-      <c r="I42">
+      <c r="I52">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="str">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="str">
         <f t="shared" si="15"/>
         <v>愛知県知多郡東浦町緒川</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E6%9D%B1%E6%B5%A6%E7%94%BA%E7%B7%92%E5%B7%9D</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2824,37 +3318,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
         <v>34.972813000000002</v>
       </c>
-      <c r="G43" cm="1">
-        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
         <v>136.936691</v>
       </c>
-      <c r="H43">
+      <c r="H53">
         <v>34.972813000000002</v>
       </c>
-      <c r="I43">
+      <c r="I53">
         <v>136.936691</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="str">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="str">
         <f t="shared" si="15"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D54" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2871,37 +3365,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H44">
+      <c r="H54">
         <v>35.725349000000001</v>
       </c>
-      <c r="I44">
+      <c r="I54">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" t="str">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2918,37 +3412,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G45" cm="1">
-        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H45">
+      <c r="H55">
         <v>35.338383</v>
       </c>
-      <c r="I45">
+      <c r="I55">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="str">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="str">
         <f t="shared" si="15"/>
         <v>千葉県浦安市</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E6%B5%A6%E5%AE%89%E5%B8%82</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2965,37 +3459,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
         <v>35.653987999999998</v>
       </c>
-      <c r="G46" cm="1">
-        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
         <v>139.90219099999999</v>
       </c>
-      <c r="H46">
+      <c r="H56">
         <v>35.653987999999998</v>
       </c>
-      <c r="I46">
+      <c r="I56">
         <v>139.90219099999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="15"/>
         <v>京都府福知山市正明寺</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D57" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E7%A6%8F%E7%9F%A5%E5%B1%B1%E5%B8%82%E6%AD%A3%E6%98%8E%E5%AF%BA</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3012,37 +3506,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
         <v>35.286715999999998</v>
       </c>
-      <c r="G47" cm="1">
-        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
         <v>135.104187</v>
       </c>
-      <c r="H47">
+      <c r="H57">
         <v>35.286715999999998</v>
       </c>
-      <c r="I47">
+      <c r="I57">
         <v>135.104187</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="15"/>
         <v>群馬県太田市城西町</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D58" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E5%A4%AA%E7%94%B0%E5%B8%82%E5%9F%8E%E8%A5%BF%E7%94%BA</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3059,37 +3553,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
         <v>36.310654</v>
       </c>
-      <c r="G48" cm="1">
-        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
         <v>139.33760100000001</v>
       </c>
-      <c r="H48">
+      <c r="H58">
         <v>36.310654</v>
       </c>
-      <c r="I48">
+      <c r="I58">
         <v>139.33760100000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="str">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区岡本</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D59" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E5%B2%A1%E6%9C%AC</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3106,37 +3600,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
         <v>35.624980999999998</v>
       </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
         <v>139.620575</v>
       </c>
-      <c r="H49">
+      <c r="H59">
         <v>35.624980999999998</v>
       </c>
-      <c r="I49">
+      <c r="I59">
         <v>139.620575</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="str">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="str">
         <f t="shared" si="15"/>
         <v>大阪府堺市西区浜寺船尾町西1丁</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D60" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E8%A5%BF%E5%8C%BA%E6%B5%9C%E5%AF%BA%E8%88%B9%E5%B0%BE%E7%94%BA%E8%A5%BF1%E4%B8%81</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3153,37 +3647,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
         <v>34.550938000000002</v>
       </c>
-      <c r="G50" cm="1">
-        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
         <v>135.45600899999999</v>
       </c>
-      <c r="H50">
+      <c r="H60">
         <v>34.550938000000002</v>
       </c>
-      <c r="I50">
+      <c r="I60">
         <v>135.45600899999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>10</v>
       </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="str">
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市守山区青山台</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D61" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E5%AE%88%E5%B1%B1%E5%8C%BA%E9%9D%92%E5%B1%B1%E5%8F%B0</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3200,37 +3694,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
         <v>35.229061000000002</v>
       </c>
-      <c r="G51" cm="1">
-        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
+      <c r="G61" cm="1">
+        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
         <v>137.01525899999999</v>
       </c>
-      <c r="H51">
+      <c r="H61">
         <v>35.229061000000002</v>
       </c>
-      <c r="I51">
+      <c r="I61">
         <v>137.01525899999999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
         <v>19</v>
       </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="15"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D62" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3247,37 +3741,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G52" cm="1">
-        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H52">
+      <c r="H62">
         <v>35.694710000000001</v>
       </c>
-      <c r="I52">
+      <c r="I62">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
         <v>21</v>
       </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="15"/>
         <v>高知県高知市長浜蒔絵台</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D63" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%95%B7%E6%B5%9C%E8%92%94%E7%B5%B5%E5%8F%B0</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3294,37 +3788,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
         <v>33.515532999999998</v>
       </c>
-      <c r="G53" cm="1">
-        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
+      <c r="G63" cm="1">
+        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
         <v>133.52641299999999</v>
       </c>
-      <c r="H53">
+      <c r="H63">
         <v>33.515532999999998</v>
       </c>
-      <c r="I53">
+      <c r="I63">
         <v>133.52641299999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D64" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3341,37 +3835,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G54" cm="1">
-        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+      <c r="G64" cm="1">
+        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H54">
+      <c r="H64">
         <v>34.799816</v>
       </c>
-      <c r="I54">
+      <c r="I64">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
         <v>25</v>
       </c>
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D65" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3388,37 +3882,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
         <v>35.646481000000001</v>
       </c>
-      <c r="G55" cm="1">
-        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
+      <c r="G65" cm="1">
+        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
         <v>139.65321399999999</v>
       </c>
-      <c r="H55">
+      <c r="H65">
         <v>35.646481000000001</v>
       </c>
-      <c r="I55">
+      <c r="I65">
         <v>139.65321399999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
         <v>27</v>
       </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市浪速区桜川</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D66" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3435,37 +3929,84 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
         <v>34.666893000000002</v>
       </c>
-      <c r="G56" cm="1">
-        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
         <v>135.49284399999999</v>
       </c>
-      <c r="H56">
+      <c r="H66">
         <v>34.666893000000002</v>
       </c>
-      <c r="I56">
+      <c r="I66">
         <v>135.49284399999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" t="str">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="15"/>
+        <v>千葉県印西市</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;千葉県印西市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;千葉県印西市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;千葉県/印西市&lt;/address&gt;
+&lt;longitude&gt;140.145767&lt;/longitude&gt;
+&lt;latitude&gt;35.832333&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
+        <v>35.832332999999998</v>
+      </c>
+      <c r="G67" cm="1">
+        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
+        <v>140.14576700000001</v>
+      </c>
+      <c r="H67">
+        <v>35.832332999999998</v>
+      </c>
+      <c r="I67">
+        <v>140.14576700000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市都筑区荏田南</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%83%BD%E7%AD%91%E5%8C%BA%E8%8D%8F%E7%94%B0%E5%8D%97</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E68" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3482,37 +4023,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
         <v>35.541789999999999</v>
       </c>
-      <c r="G57" cm="1">
-        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
+      <c r="G68" cm="1">
+        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
         <v>139.56012000000001</v>
       </c>
-      <c r="H57">
+      <c r="H68">
         <v>35.541789999999999</v>
       </c>
-      <c r="I57">
+      <c r="I68">
         <v>139.56012000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" t="str">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="str">
         <f t="shared" si="15"/>
         <v>東京都豊島区東池袋</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E6%9D%B1%E6%B1%A0%E8%A2%8B</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E69" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3529,37 +4070,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F58" cm="1">
-        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
         <v>35.731372999999998</v>
       </c>
-      <c r="G58" cm="1">
-        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
         <v>139.71530200000001</v>
       </c>
-      <c r="H58">
+      <c r="H69">
         <v>35.731372999999998</v>
       </c>
-      <c r="I58">
+      <c r="I69">
         <v>139.71530200000001</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="str">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" t="str">
         <f t="shared" si="15"/>
         <v>沖縄県浦添市</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E6%B5%A6%E6%B7%BB%E5%B8%82</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E70" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3576,37 +4117,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F59" cm="1">
-        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+      <c r="F70" cm="1">
+        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
         <v>26.245815</v>
       </c>
-      <c r="G59" cm="1">
-        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+      <c r="G70" cm="1">
+        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
         <v>127.721802</v>
       </c>
-      <c r="H59">
+      <c r="H70">
         <v>26.245815</v>
       </c>
-      <c r="I59">
+      <c r="I70">
         <v>127.721802</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" t="str">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E71" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3623,37 +4164,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F60" cm="1">
-        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
+      <c r="F71" cm="1">
+        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G60" cm="1">
-        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
+      <c r="G71" cm="1">
+        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H60">
+      <c r="H71">
         <v>35.337265000000002</v>
       </c>
-      <c r="I60">
+      <c r="I71">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" t="str">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県尼崎市武庫川町4丁目</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E6%AD%A6%E5%BA%AB%E5%B7%9D%E7%94%BA4%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E72" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3670,37 +4211,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F61" cm="1">
-        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
         <v>34.716335000000001</v>
       </c>
-      <c r="G61" cm="1">
-        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
         <v>135.38343800000001</v>
       </c>
-      <c r="H61">
+      <c r="H72">
         <v>34.716335000000001</v>
       </c>
-      <c r="I61">
+      <c r="I72">
         <v>135.38343800000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" t="str">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県熊谷市新堀</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D73" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E73" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3717,37 +4258,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F62" cm="1">
-        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
         <v>36.175068000000003</v>
       </c>
-      <c r="G62" cm="1">
-        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
         <v>139.335297</v>
       </c>
-      <c r="H62">
+      <c r="H73">
         <v>36.175068000000003</v>
       </c>
-      <c r="I62">
+      <c r="I73">
         <v>139.335297</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="str">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="str">
         <f t="shared" si="15"/>
         <v>千葉県野田市親野井</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E74" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3764,37 +4305,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F63" cm="1">
-        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
         <v>36.040675999999998</v>
       </c>
-      <c r="G63" cm="1">
-        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
         <v>139.81359900000001</v>
       </c>
-      <c r="H63">
+      <c r="H74">
         <v>36.040675999999998</v>
       </c>
-      <c r="I63">
+      <c r="I74">
         <v>139.81359900000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
         <v>30</v>
       </c>
-      <c r="B64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県岐阜市須賀</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E75" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3811,37 +4352,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F64" cm="1">
-        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
         <v>35.386009000000001</v>
       </c>
-      <c r="G64" cm="1">
-        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
         <v>136.723984</v>
       </c>
-      <c r="H64">
+      <c r="H75">
         <v>35.386009000000001</v>
       </c>
-      <c r="I64">
+      <c r="I75">
         <v>136.723984</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E76" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3858,37 +4399,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F65" cm="1">
-        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
         <v>35.477051000000003</v>
       </c>
-      <c r="G65" cm="1">
-        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
+      <c r="G76" cm="1">
+        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
         <v>139.629288</v>
       </c>
-      <c r="H65">
+      <c r="H76">
         <v>35.477051000000003</v>
       </c>
-      <c r="I65">
+      <c r="I76">
         <v>139.629288</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" t="str">
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市佐伯区五日市町</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E77" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3905,37 +4446,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F66" cm="1">
-        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
+      <c r="F77" cm="1">
+        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
         <v>34.361728999999997</v>
       </c>
-      <c r="G66" cm="1">
-        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
+      <c r="G77" cm="1">
+        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
         <v>132.37535099999999</v>
       </c>
-      <c r="H66">
+      <c r="H77">
         <v>34.361728999999997</v>
       </c>
-      <c r="I66">
+      <c r="I77">
         <v>132.37535099999999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" t="str">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市美浜区</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E78" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3952,37 +4493,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F67" cm="1">
-        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
+      <c r="F78" cm="1">
+        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
         <v>35.640552999999997</v>
       </c>
-      <c r="G67" cm="1">
-        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
+      <c r="G78" cm="1">
+        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
         <v>140.06303399999999</v>
       </c>
-      <c r="H67">
+      <c r="H78">
         <v>35.640552999999997</v>
       </c>
-      <c r="I67">
+      <c r="I78">
         <v>140.06303399999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="str">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="str">
         <f t="shared" si="15"/>
         <v>群馬県伊勢崎市除ケ町</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D79" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%B4%8E%E5%B8%82%E9%99%A4%E3%82%B1%E7%94%BA</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E79" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3999,84 +4540,84 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F68" cm="1">
-        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
+      <c r="F79" cm="1">
+        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
         <v>36.283253000000002</v>
       </c>
-      <c r="G68" cm="1">
-        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
+      <c r="G79" cm="1">
+        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
         <v>139.19224500000001</v>
       </c>
-      <c r="H68">
+      <c r="H79">
         <v>36.283253000000002</v>
       </c>
-      <c r="I68">
+      <c r="I79">
         <v>139.19224500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="str">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" t="str">
         <f t="shared" si="15"/>
-        <v>東京都大田区多摩川2-24-62</v>
-      </c>
-      <c r="D69" s="2" t="str">
+        <v>東京都大田区多摩川</v>
+      </c>
+      <c r="D80" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D2-24-62</v>
-      </c>
-      <c r="E69" t="str">
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D</v>
+      </c>
+      <c r="E80" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;東京都大田区多摩川2-24-62&lt;/query&gt;
+&lt;query&gt;東京都大田区多摩川&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;東京都大田区多摩川2-24-62&lt;/converted&gt;
+&lt;converted&gt;東京都大田区多摩川&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;東京都/大田区/多摩川/二丁目/２４番/６２号&lt;/address&gt;
-&lt;longitude&gt;139.701981&lt;/longitude&gt;
-&lt;latitude&gt;35.555843&lt;/latitude&gt;
-&lt;iLvl&gt;8&lt;/iLvl&gt;
+&lt;address&gt;東京都/大田区/多摩川&lt;/address&gt;
+&lt;longitude&gt;139.699417&lt;/longitude&gt;
+&lt;latitude&gt;35.563114&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F69" cm="1">
-        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
-        <v>35.555843000000003</v>
-      </c>
-      <c r="G69" cm="1">
-        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
-        <v>139.70198099999999</v>
-      </c>
-      <c r="H69">
-        <v>35.555843000000003</v>
-      </c>
-      <c r="I69">
-        <v>139.70198099999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+      <c r="F80" cm="1">
+        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
+        <v>35.563113999999999</v>
+      </c>
+      <c r="G80" cm="1">
+        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
+        <v>139.69941700000001</v>
+      </c>
+      <c r="H80">
+        <v>35.563113999999999</v>
+      </c>
+      <c r="I80">
+        <v>139.69941700000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
         <v>23</v>
       </c>
-      <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" t="str">
+      <c r="C81" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D81" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E81" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4093,37 +4634,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F70" cm="1">
-        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
+      <c r="F81" cm="1">
+        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G70" cm="1">
-        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
+      <c r="G81" cm="1">
+        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H70">
+      <c r="H81">
         <v>34.799816</v>
       </c>
-      <c r="I70">
+      <c r="I81">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" t="str">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+      <c r="B82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区子安台</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D82" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA%E5%AD%90%E5%AE%89%E5%8F%B0</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E82" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4140,37 +4681,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F71" cm="1">
-        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
+      <c r="F82" cm="1">
+        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
         <v>35.491627000000001</v>
       </c>
-      <c r="G71" cm="1">
-        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
+      <c r="G82" cm="1">
+        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
         <v>139.658829</v>
       </c>
-      <c r="H71">
+      <c r="H82">
         <v>35.491627000000001</v>
       </c>
-      <c r="I71">
+      <c r="I82">
         <v>139.658829</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" t="str">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D72" s="2" t="str">
+      <c r="D83" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E83" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4187,37 +4728,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F72" cm="1">
-        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
+      <c r="F83" cm="1">
+        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G72" cm="1">
-        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
+      <c r="G83" cm="1">
+        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H72">
+      <c r="H83">
         <v>34.759402999999999</v>
       </c>
-      <c r="I72">
+      <c r="I83">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
         <v>38</v>
       </c>
-      <c r="B73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" t="str">
+      <c r="C84" t="str">
         <f t="shared" si="15"/>
         <v>熊本県葦北郡津奈木町福浜</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D84" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E6%B4%A5%E5%A5%88%E6%9C%A8%E7%94%BA%E7%A6%8F%E6%B5%9C</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E84" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4234,37 +4775,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F73" cm="1">
-        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
+      <c r="F84" cm="1">
+        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
         <v>32.268051</v>
       </c>
-      <c r="G73" cm="1">
-        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
+      <c r="G84" cm="1">
+        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
         <v>130.45193499999999</v>
       </c>
-      <c r="H73">
+      <c r="H84">
         <v>32.268051</v>
       </c>
-      <c r="I73">
+      <c r="I84">
         <v>130.45193499999999</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
         <v>40</v>
       </c>
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" t="str">
+      <c r="C85" t="str">
         <f t="shared" si="15"/>
         <v>秋田県秋田市</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D85" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A7%8B%E7%94%B0%E7%9C%8C%E7%A7%8B%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E85" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4281,37 +4822,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F74" cm="1">
-        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
+      <c r="F85" cm="1">
+        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
         <v>39.719929</v>
       </c>
-      <c r="G74" cm="1">
-        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
+      <c r="G85" cm="1">
+        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
         <v>140.102509</v>
       </c>
-      <c r="H74">
+      <c r="H85">
         <v>39.719929</v>
       </c>
-      <c r="I74">
+      <c r="I85">
         <v>140.102509</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" t="str">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県川崎市中原区新丸子東</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D86" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E4%B8%AD%E5%8E%9F%E5%8C%BA%E6%96%B0%E4%B8%B8%E5%AD%90%E6%9D%B1</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E86" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4328,37 +4869,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F75" cm="1">
-        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
+      <c r="F86" cm="1">
+        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
         <v>35.580086000000001</v>
       </c>
-      <c r="G75" cm="1">
-        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
+      <c r="G86" cm="1">
+        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
         <v>139.66317699999999</v>
       </c>
-      <c r="H75">
+      <c r="H86">
         <v>35.580086000000001</v>
       </c>
-      <c r="I75">
+      <c r="I86">
         <v>139.66317699999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" t="str">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="str">
         <f t="shared" si="15"/>
         <v>大阪府寝屋川市点野</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D87" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%9D%E5%B1%8B%E5%B7%9D%E5%B8%82%E7%82%B9%E9%87%8E</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E87" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4375,37 +4916,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F76" cm="1">
-        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
+      <c r="F87" cm="1">
+        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
         <v>34.780231000000001</v>
       </c>
-      <c r="G76" cm="1">
-        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
+      <c r="G87" cm="1">
+        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
         <v>135.605133</v>
       </c>
-      <c r="H76">
+      <c r="H87">
         <v>34.780231000000001</v>
       </c>
-      <c r="I76">
+      <c r="I87">
         <v>135.605133</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
         <v>44</v>
       </c>
-      <c r="B77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" t="str">
+      <c r="C88" t="str">
         <f t="shared" si="15"/>
         <v>岡山県岡山市南区福富西2丁目</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D88" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%B2%A1%E5%B1%B1%E5%B8%82%E5%8D%97%E5%8C%BA%E7%A6%8F%E5%AF%8C%E8%A5%BF2%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E88" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4422,37 +4963,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F77" cm="1">
-        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
+      <c r="F88" cm="1">
+        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
         <v>34.621516999999997</v>
       </c>
-      <c r="G77" cm="1">
-        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
+      <c r="G88" cm="1">
+        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
         <v>133.93177800000001</v>
       </c>
-      <c r="H77">
+      <c r="H88">
         <v>34.621516999999997</v>
       </c>
-      <c r="I77">
+      <c r="I88">
         <v>133.93177800000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" t="str">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="str">
         <f t="shared" si="15"/>
         <v>東京都品川区東五反田</v>
       </c>
-      <c r="D78" s="2" t="str">
+      <c r="D89" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA%E6%9D%B1%E4%BA%94%E5%8F%8D%E7%94%B0</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E89" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4469,37 +5010,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F78" cm="1">
-        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
+      <c r="F89" cm="1">
+        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
         <v>35.627761999999997</v>
       </c>
-      <c r="G78" cm="1">
-        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
+      <c r="G89" cm="1">
+        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
         <v>139.72642500000001</v>
       </c>
-      <c r="H78">
+      <c r="H89">
         <v>35.627761999999997</v>
       </c>
-      <c r="I78">
+      <c r="I89">
         <v>139.72642500000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C90" t="str">
         <f t="shared" si="15"/>
         <v>長野県長野市川中島町上氷鉋</v>
       </c>
-      <c r="D79" s="2" t="str">
+      <c r="D90" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E5%B7%9D%E4%B8%AD%E5%B3%B6%E7%94%BA%E4%B8%8A%E6%B0%B7%E9%89%8B</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E90" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4516,37 +5057,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F79" cm="1">
-        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
+      <c r="F90" cm="1">
+        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
         <v>36.611911999999997</v>
       </c>
-      <c r="G79" cm="1">
-        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
+      <c r="G90" cm="1">
+        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
         <v>138.157059</v>
       </c>
-      <c r="H79">
+      <c r="H90">
         <v>36.611911999999997</v>
       </c>
-      <c r="I79">
+      <c r="I90">
         <v>138.157059</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>12</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B91" t="s">
         <v>16</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C91" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市安佐南区長束西</v>
       </c>
-      <c r="D80" s="2" t="str">
+      <c r="D91" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E5%AE%89%E4%BD%90%E5%8D%97%E5%8C%BA%E9%95%B7%E6%9D%9F%E8%A5%BF</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E91" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4563,37 +5104,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F80" cm="1">
-        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
+      <c r="F91" cm="1">
+        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
         <v>34.427909999999997</v>
       </c>
-      <c r="G80" cm="1">
-        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
+      <c r="G91" cm="1">
+        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
         <v>132.450165</v>
       </c>
-      <c r="H80">
+      <c r="H91">
         <v>34.427909999999997</v>
       </c>
-      <c r="I80">
+      <c r="I91">
         <v>132.450165</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>10</v>
       </c>
-      <c r="B81" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" t="str">
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="str">
         <f t="shared" si="15"/>
         <v>愛知県北名古屋市沖村天花寺</v>
       </c>
-      <c r="D81" s="2" t="str">
+      <c r="D92" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%8C%97%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%B2%96%E6%9D%91%E5%A4%A9%E8%8A%B1%E5%AF%BA</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E92" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4610,37 +5151,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F81" cm="1">
-        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
+      <c r="F92" cm="1">
+        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
         <v>35.239272999999997</v>
       </c>
-      <c r="G81" cm="1">
-        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
+      <c r="G92" cm="1">
+        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
         <v>136.862717</v>
       </c>
-      <c r="H81">
+      <c r="H92">
         <v>35.239272999999997</v>
       </c>
-      <c r="I81">
+      <c r="I92">
         <v>136.862717</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
         <v>13</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B93" t="s">
         <v>17</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C93" t="str">
         <f t="shared" si="15"/>
         <v>新潟県新潟市中央区明石</v>
       </c>
-      <c r="D82" s="2" t="str">
+      <c r="D93" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E6%96%B0%E6%BD%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E6%98%8E%E7%9F%B3</v>
       </c>
-      <c r="E82" t="str">
+      <c r="E93" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4657,37 +5198,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F82" cm="1">
-        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
+      <c r="F93" cm="1">
+        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
         <v>37.916012000000002</v>
       </c>
-      <c r="G82" cm="1">
-        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
+      <c r="G93" cm="1">
+        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
         <v>139.065506</v>
       </c>
-      <c r="H82">
+      <c r="H93">
         <v>37.916012000000002</v>
       </c>
-      <c r="I82">
+      <c r="I93">
         <v>139.065506</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>9</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C94" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県秩父市熊木町</v>
       </c>
-      <c r="D83" s="2" t="str">
+      <c r="D94" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%A7%A9%E7%88%B6%E5%B8%82%E7%86%8A%E6%9C%A8%E7%94%BA</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E94" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4704,392 +5245,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F83" cm="1">
-        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
+      <c r="F94" cm="1">
+        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
         <v>35.991272000000002</v>
       </c>
-      <c r="G83" cm="1">
-        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
+      <c r="G94" cm="1">
+        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
         <v>139.08822599999999</v>
       </c>
-      <c r="H83">
+      <c r="H94">
         <v>35.991272000000002</v>
       </c>
-      <c r="I83">
+      <c r="I94">
         <v>139.08822599999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="15"/>
-        <v>大阪府大阪市</v>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;大阪府大阪市&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;大阪府大阪市&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;大阪府/大阪市&lt;/address&gt;
-&lt;longitude&gt;135.502045&lt;/longitude&gt;
-&lt;latitude&gt;34.693890&lt;/latitude&gt;
-&lt;iLvl&gt;3&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F84" cm="1">
-        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
-        <v>34.693890000000003</v>
-      </c>
-      <c r="G84" cm="1">
-        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
-        <v>135.50204500000001</v>
-      </c>
-      <c r="H84">
-        <v>34.693890000000003</v>
-      </c>
-      <c r="I84">
-        <v>135.50204500000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="15"/>
-        <v>埼玉県春日部市備後西</v>
-      </c>
-      <c r="D85" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E6%98%A5%E6%97%A5%E9%83%A8%E5%B8%82%E5%82%99%E5%BE%8C%E8%A5%BF</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;埼玉県春日部市備後西&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;埼玉県春日部市備後西&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;埼玉県/春日部市/備後西&lt;/address&gt;
-&lt;longitude&gt;139.766632&lt;/longitude&gt;
-&lt;latitude&gt;35.959019&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F85" cm="1">
-        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
-        <v>35.959018999999998</v>
-      </c>
-      <c r="G85" cm="1">
-        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
-        <v>139.76663199999999</v>
-      </c>
-      <c r="H85">
-        <v>35.959018999999998</v>
-      </c>
-      <c r="I85">
-        <v>139.76663199999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="15"/>
-        <v>愛知県安城市緑町</v>
-      </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%AE%89%E5%9F%8E%E5%B8%82%E7%B7%91%E7%94%BA</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;愛知県安城市緑町&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;愛知県安城市緑町&lt;/converted&gt;
-&lt;candidate&gt;
-&lt;address&gt;愛知県/安城市/緑町&lt;/address&gt;
-&lt;longitude&gt;137.051010&lt;/longitude&gt;
-&lt;latitude&gt;34.973072&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
-&lt;/candidate&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F86" cm="1">
-        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
-        <v>34.973072000000002</v>
-      </c>
-      <c r="G86" cm="1">
-        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
-        <v>137.05100999999999</v>
-      </c>
-      <c r="H86">
-        <v>34.973072000000002</v>
-      </c>
-      <c r="I86">
-        <v>137.05100999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C87" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F87" t="e" cm="1">
-        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G87" t="e" cm="1">
-        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C88" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D88" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F88" t="e" cm="1">
-        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G88" t="e" cm="1">
-        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C89" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D89" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F89" t="e" cm="1">
-        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" t="e" cm="1">
-        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C90" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D90" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F90" t="e" cm="1">
-        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G90" t="e" cm="1">
-        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C91" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D91" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F91" t="e" cm="1">
-        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G91" t="e" cm="1">
-        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C92" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D92" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F92" t="e" cm="1">
-        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G92" t="e" cm="1">
-        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C93" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D93" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F93" t="e" cm="1">
-        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G93" t="e" cm="1">
-        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C94" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F94" t="e" cm="1">
-        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G94" t="e" cm="1">
-        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5077F4-17A4-4CF1-B1F3-FCAF40BE2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089D6CD-472C-4D97-8FC3-93A686647787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="1425" windowWidth="26175" windowHeight="14775" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="1890" yWindow="4380" windowWidth="26175" windowHeight="13560" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
   <si>
     <t>jio0</t>
   </si>
@@ -442,6 +442,30 @@
   </si>
   <si>
     <t>八戸市湊町下大久保道</t>
+  </si>
+  <si>
+    <t>日進市梅森町新田</t>
+  </si>
+  <si>
+    <t>会津若松市</t>
+  </si>
+  <si>
+    <t>福山市山手町</t>
+  </si>
+  <si>
+    <t>東広島市黒瀬春日野</t>
+  </si>
+  <si>
+    <t>宜野湾市愛知2丁目</t>
+  </si>
+  <si>
+    <t>山梨県</t>
+  </si>
+  <si>
+    <t>甲府市蓬沢</t>
+  </si>
+  <si>
+    <t>神戸市兵庫区菊水町10-39-18</t>
   </si>
 </sst>
 </file>
@@ -851,7 +875,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I94"/>
+      <selection activeCell="H2" sqref="H2:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -894,21 +918,303 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>東京都豊島区千早</v>
+        <v>愛知県日進市梅森町新田</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E5%8D%83%E6%97%A9</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%97%A5%E9%80%B2%E5%B8%82%E6%A2%85%E6%A3%AE%E7%94%BA%E6%96%B0%E7%94%B0</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県日進市梅森町新田&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県日進市梅森町新田&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/日進市/梅森町/新田&lt;/address&gt;
+&lt;longitude&gt;137.018494&lt;/longitude&gt;
+&lt;latitude&gt;35.134468&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.134467999999998</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>137.018494</v>
+      </c>
+      <c r="H2">
+        <v>35.134467999999998</v>
+      </c>
+      <c r="I2">
+        <v>137.018494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>福島県会津若松市</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BC%9A%E6%B4%A5%E8%8B%A5%E6%9D%BE%E5%B8%82</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;福島県会津若松市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;福島県会津若松市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;福島県/会津若松市&lt;/address&gt;
+&lt;longitude&gt;139.929703&lt;/longitude&gt;
+&lt;latitude&gt;37.494843&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>37.494843000000003</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>139.92970299999999</v>
+      </c>
+      <c r="H3">
+        <v>37.494843000000003</v>
+      </c>
+      <c r="I3">
+        <v>139.92970299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>広島県福山市山手町</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E7%A6%8F%E5%B1%B1%E5%B8%82%E5%B1%B1%E6%89%8B%E7%94%BA</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;広島県福山市山手町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;広島県福山市山手町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;広島県/福山市/山手町&lt;/address&gt;
+&lt;longitude&gt;133.322586&lt;/longitude&gt;
+&lt;latitude&gt;34.498650&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>34.498649999999998</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>133.322586</v>
+      </c>
+      <c r="H4">
+        <v>34.498649999999998</v>
+      </c>
+      <c r="I4">
+        <v>133.322586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>広島県東広島市黒瀬春日野</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E6%9D%B1%E5%BA%83%E5%B3%B6%E5%B8%82%E9%BB%92%E7%80%AC%E6%98%A5%E6%97%A5%E9%87%8E</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;広島県東広島市黒瀬春日野&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;広島県東広島市黒瀬春日野&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;広島県/東広島市/黒瀬春日野&lt;/address&gt;
+&lt;longitude&gt;132.656479&lt;/longitude&gt;
+&lt;latitude&gt;34.331108&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>34.331108</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>132.65647899999999</v>
+      </c>
+      <c r="H5">
+        <v>34.331108</v>
+      </c>
+      <c r="I5">
+        <v>132.65647899999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>沖縄県宜野湾市愛知2丁目</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E5%AE%9C%E9%87%8E%E6%B9%BE%E5%B8%82%E6%84%9B%E7%9F%A52%E4%B8%81%E7%9B%AE</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;沖縄県宜野湾市愛知2丁目&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;沖縄県宜野湾市愛知2丁目&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;沖縄県/宜野湾市/愛知/二丁目&lt;/address&gt;
+&lt;longitude&gt;127.770950&lt;/longitude&gt;
+&lt;latitude&gt;26.268444&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+        <v>26.268443999999999</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+        <v>127.77095</v>
+      </c>
+      <c r="H6">
+        <v>26.268443999999999</v>
+      </c>
+      <c r="I6">
+        <v>127.77095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>山梨県甲府市蓬沢</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E6%A2%A8%E7%9C%8C%E7%94%B2%E5%BA%9C%E5%B8%82%E8%93%AC%E6%B2%A2</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;山梨県甲府市蓬沢&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;山梨県甲府市蓬沢&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;山梨県/甲府市/蓬沢&lt;/address&gt;
+&lt;longitude&gt;138.590469&lt;/longitude&gt;
+&lt;latitude&gt;35.642849&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>35.642848999999998</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>138.59046900000001</v>
+      </c>
+      <c r="H7">
+        <v>35.642848999999998</v>
+      </c>
+      <c r="I7">
+        <v>138.59046900000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都豊島区千早</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E5%8D%83%E6%97%A9</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都豊島区千早&lt;/query&gt;
@@ -924,38 +1230,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>35.731419000000002</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>139.69580099999999</v>
       </c>
-      <c r="H2">
+      <c r="H8">
         <v>35.731419000000002</v>
       </c>
-      <c r="I2">
+      <c r="I8">
         <v>139.69580099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>茨城県守谷市百合ケ丘</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E5%AE%88%E8%B0%B7%E5%B8%82%E7%99%BE%E5%90%88%E3%82%B1%E4%B8%98</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;茨城県守谷市百合ケ丘&lt;/query&gt;
@@ -971,38 +1277,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>35.956184</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>139.98379499999999</v>
       </c>
-      <c r="H3">
+      <c r="H9">
         <v>35.956184</v>
       </c>
-      <c r="I3">
+      <c r="I9">
         <v>139.98379499999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>埼玉県川越市藤間</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%B7%9D%E8%B6%8A%E5%B8%82%E8%97%A4%E9%96%93</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県川越市藤間&lt;/query&gt;
@@ -1018,38 +1324,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.880057999999998</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>139.49671900000001</v>
       </c>
-      <c r="H4">
+      <c r="H10">
         <v>35.880057999999998</v>
       </c>
-      <c r="I4">
+      <c r="I10">
         <v>139.49671900000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>117</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>長野県上伊那郡飯島町七久保</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;長野県上伊那郡飯島町七久保&lt;/query&gt;
@@ -1065,38 +1371,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.658588000000002</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>137.89047199999999</v>
       </c>
-      <c r="H5">
+      <c r="H11">
         <v>35.658588000000002</v>
       </c>
-      <c r="I5">
+      <c r="I11">
         <v>137.89047199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>118</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C12" t="str">
+        <f t="shared" si="9"/>
         <v>東京都大田区多摩川</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E12" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都大田区多摩川&lt;/query&gt;
@@ -1112,38 +1418,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>35.563113999999999</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>139.69941700000001</v>
       </c>
-      <c r="H6">
+      <c r="H12">
         <v>35.563113999999999</v>
       </c>
-      <c r="I6">
+      <c r="I12">
         <v>139.69941700000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C13" t="str">
+        <f t="shared" si="9"/>
         <v>東京都江東区森下</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%A3%AE%E4%B8%8B</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E13" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都江東区森下&lt;/query&gt;
@@ -1159,37 +1465,131 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>35.687514999999998</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>139.79742400000001</v>
       </c>
-      <c r="H7">
+      <c r="H13">
         <v>35.687514999999998</v>
       </c>
-      <c r="I7">
+      <c r="I13">
         <v>139.79742400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="9"/>
+        <v>兵庫県神戸市兵庫区菊水町10-39-18</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E5%85%B5%E5%BA%AB%E5%8C%BA%E8%8F%8A%E6%B0%B4%E7%94%BA10-39-18</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県神戸市兵庫区菊水町10-39-18&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県神戸市兵庫区菊水町10-39-&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/神戸市/兵庫区/菊水町/十丁目/３９番地&lt;/address&gt;
+&lt;longitude&gt;135.151794&lt;/longitude&gt;
+&lt;latitude&gt;34.682190&lt;/latitude&gt;
+&lt;iLvl&gt;7&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+        <v>34.682189999999999</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+        <v>135.151794</v>
+      </c>
+      <c r="H14">
+        <v>34.682189999999999</v>
+      </c>
+      <c r="I14">
+        <v>135.151794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="9"/>
+        <v>長野県上伊那郡飯島町七久保</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長野県上伊那郡飯島町七久保&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長野県上伊那郡飯島町七久保&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長野県/上伊那郡/飯島町/七久保&lt;/address&gt;
+&lt;longitude&gt;137.890472&lt;/longitude&gt;
+&lt;latitude&gt;35.658588&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+        <v>35.658588000000002</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+        <v>137.89047199999999</v>
+      </c>
+      <c r="H15">
+        <v>35.658588000000002</v>
+      </c>
+      <c r="I15">
+        <v>137.89047199999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>121</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>長崎県諫早市白岩町</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E5%B4%8E%E7%9C%8C%E8%AB%AB%E6%97%A9%E5%B8%82%E7%99%BD%E5%B2%A9%E7%94%BA</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1206,37 +1606,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>32.847935</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>130.021683</v>
       </c>
-      <c r="H8">
+      <c r="H16">
         <v>32.847935</v>
       </c>
-      <c r="I8">
+      <c r="I16">
         <v>130.021683</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>112</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17" t="s">
         <v>113</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>福島県郡山市富久山町久保田</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E9%83%A1%E5%B1%B1%E5%B8%82%E5%AF%8C%E4%B9%85%E5%B1%B1%E7%94%BA%E4%B9%85%E4%BF%9D%E7%94%B0</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1253,37 +1653,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>37.411006999999998</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>140.389374</v>
       </c>
-      <c r="H9">
+      <c r="H17">
         <v>37.411006999999998</v>
       </c>
-      <c r="I9">
+      <c r="I17">
         <v>140.389374</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>福岡県福岡市中央区荒戸</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E7%A6%8F%E5%B2%A1%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E8%8D%92%E6%88%B8</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1300,37 +1700,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>33.592308000000003</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>130.37829600000001</v>
       </c>
-      <c r="H10">
+      <c r="H18">
         <v>33.592308000000003</v>
       </c>
-      <c r="I10">
+      <c r="I18">
         <v>130.37829600000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
         <v>122</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>静岡県浜松市中央区入野町</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E6%B5%9C%E6%9D%BE%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%85%A5%E9%87%8E%E7%94%BA</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1347,37 +1747,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>34.701484999999998</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>137.68298300000001</v>
       </c>
-      <c r="H11">
+      <c r="H19">
         <v>34.701484999999998</v>
       </c>
-      <c r="I11">
+      <c r="I19">
         <v>137.68298300000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県横浜市鶴見区東寺尾</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%B6%B4%E8%A6%8B%E5%8C%BA%E6%9D%B1%E5%AF%BA%E5%B0%BE</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1394,37 +1794,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>35.502662999999998</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>139.64917</v>
       </c>
-      <c r="H12">
+      <c r="H20">
         <v>35.502662999999998</v>
       </c>
-      <c r="I12">
+      <c r="I20">
         <v>139.64917</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B21" t="s">
         <v>124</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>千葉県印西市</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1441,37 +1841,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.832332999999998</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>140.14576700000001</v>
       </c>
-      <c r="H13">
+      <c r="H21">
         <v>35.832332999999998</v>
       </c>
-      <c r="I13">
+      <c r="I21">
         <v>140.14576700000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
         <v>126</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>青森県八戸市湊町下大久保道</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%92%E6%A3%AE%E7%9C%8C%E5%85%AB%E6%88%B8%E5%B8%82%E6%B9%8A%E7%94%BA%E4%B8%8B%E5%A4%A7%E4%B9%85%E4%BF%9D%E9%81%93</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1488,37 +1888,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>40.511375000000001</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>141.54173299999999</v>
       </c>
-      <c r="H14">
+      <c r="H22">
         <v>40.511375000000001</v>
       </c>
-      <c r="I14">
+      <c r="I22">
         <v>141.54173299999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>愛知県あま市篠田</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%82%E3%81%BE%E5%B8%82%E7%AF%A0%E7%94%B0</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1535,34 +1935,34 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>35.183472000000002</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>136.79054300000001</v>
       </c>
-      <c r="H15">
+      <c r="H23">
         <v>35.183472000000002</v>
       </c>
-      <c r="I15">
+      <c r="I23">
         <v>136.79054300000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>85</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>愛知県みよし市打越町畦違289ー1</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%BF%E3%82%88%E3%81%97%E5%B8%82%E6%89%93%E8%B6%8A%E7%94%BA%E7%95%A6%E9%81%95289%E3%83%BC1</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1579,38 +1979,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>35.077637000000003</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>137.08952300000001</v>
       </c>
-      <c r="H16">
+      <c r="H24">
         <v>35.077637000000003</v>
       </c>
-      <c r="I16">
+      <c r="I24">
         <v>137.08952300000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>愛媛県松山市</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%9D%BE%E5%B1%B1%E5%B8%82</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛媛県松山市&lt;/query&gt;
@@ -1626,38 +2026,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>33.839157</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>132.76554899999999</v>
       </c>
-      <c r="H17">
+      <c r="H25">
         <v>33.839157</v>
       </c>
-      <c r="I17">
+      <c r="I25">
         <v>132.76554899999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>神奈川県横浜市青葉区奈良町1566-123</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%9D%92%E8%91%89%E5%8C%BA%E5%A5%88%E8%89%AF%E7%94%BA1566-123</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市青葉区奈良町1566-123&lt;/query&gt;
@@ -1673,38 +2073,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>35.564982999999998</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>139.47674599999999</v>
       </c>
-      <c r="H18">
+      <c r="H26">
         <v>35.564982999999998</v>
       </c>
-      <c r="I18">
+      <c r="I26">
         <v>139.47674599999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="9"/>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>東京都世田谷区松原</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E6%9D%BE%E5%8E%9F</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都世田谷区松原&lt;/query&gt;
@@ -1720,38 +2120,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>35.668163</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>139.65330499999999</v>
       </c>
-      <c r="H19">
+      <c r="H27">
         <v>35.668163</v>
       </c>
-      <c r="I19">
+      <c r="I27">
         <v>139.65330499999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>89</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="9"/>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
         <v>大阪府岸和田市並松町</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%B2%B8%E5%92%8C%E7%94%B0%E5%B8%82%E4%B8%A6%E6%9D%BE%E7%94%BA</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="11"/>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府岸和田市並松町&lt;/query&gt;
@@ -1767,38 +2167,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>34.467650999999996</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>135.37519800000001</v>
       </c>
-      <c r="H20">
+      <c r="H28">
         <v>34.467650999999996</v>
       </c>
-      <c r="I20">
+      <c r="I28">
         <v>135.37519800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
+      <c r="C29" t="str">
+        <f t="shared" si="12"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
+      <c r="E29" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都練馬区関町北&lt;/query&gt;
@@ -1814,38 +2214,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H21">
+      <c r="H29">
         <v>35.725349000000001</v>
       </c>
-      <c r="I21">
+      <c r="I29">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C30" t="str">
+        <f t="shared" si="12"/>
         <v>滋賀県彦根市旭町</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%BD%A6%E6%A0%B9%E5%B8%82%E6%97%AD%E7%94%BA</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E30" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;滋賀県彦根市旭町&lt;/query&gt;
@@ -1861,38 +2261,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>35.273952000000001</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>136.26187100000001</v>
       </c>
-      <c r="H22">
+      <c r="H30">
         <v>35.273952000000001</v>
       </c>
-      <c r="I22">
+      <c r="I30">
         <v>136.26187100000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+      <c r="C31" t="str">
+        <f t="shared" si="12"/>
         <v>兵庫県川西市東多田3丁目</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B7%9D%E8%A5%BF%E5%B8%82%E6%9D%B1%E5%A4%9A%E7%94%B03%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E31" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県川西市東多田3丁目&lt;/query&gt;
@@ -1908,38 +2308,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
         <v>34.861781999999998</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
         <v>135.42060900000001</v>
       </c>
-      <c r="H23">
+      <c r="H31">
         <v>34.861781999999998</v>
       </c>
-      <c r="I23">
+      <c r="I31">
         <v>135.42060900000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C32" t="str">
+        <f t="shared" si="12"/>
         <v>熊本県熊本市西区</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E8%A5%BF%E5%8C%BA</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E32" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;熊本県熊本市西区&lt;/query&gt;
@@ -1955,38 +2355,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>32.776370999999997</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>130.64756800000001</v>
       </c>
-      <c r="H24">
+      <c r="H32">
         <v>32.776370999999997</v>
       </c>
-      <c r="I24">
+      <c r="I32">
         <v>130.64756800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C33" t="str">
+        <f t="shared" si="12"/>
         <v>熊本県葦北郡芦北町湯浦</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E8%8A%A6%E5%8C%97%E7%94%BA%E6%B9%AF%E6%B5%A6</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E33" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;熊本県葦北郡芦北町湯浦&lt;/query&gt;
@@ -2002,38 +2402,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
         <v>32.269119000000003</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
         <v>130.498367</v>
       </c>
-      <c r="H25">
+      <c r="H33">
         <v>32.269119000000003</v>
       </c>
-      <c r="I25">
+      <c r="I33">
         <v>130.498367</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="12"/>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
         <v>東京都港区三田</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D34" s="2" t="str">
+        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%AF%E5%8C%BA%E4%B8%89%E7%94%B0</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="14"/>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都港区三田&lt;/query&gt;
@@ -2049,38 +2449,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
         <v>35.653812000000002</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
         <v>139.741333</v>
       </c>
-      <c r="H26">
+      <c r="H34">
         <v>35.653812000000002</v>
       </c>
-      <c r="I26">
+      <c r="I34">
         <v>139.741333</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B35" t="s">
         <v>97</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="12"/>
+      <c r="C35" t="str">
+        <f t="shared" si="15"/>
         <v>兵庫県加古川市市平岡町</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%8A%A0%E5%8F%A4%E5%B7%9D%E5%B8%82%E5%B8%82%E5%B9%B3%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="14"/>
+      <c r="E35" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県加古川市市平岡町&lt;/query&gt;
@@ -2096,38 +2496,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
         <v>34.756618000000003</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
         <v>134.84089700000001</v>
       </c>
-      <c r="H27">
+      <c r="H35">
         <v>34.756618000000003</v>
       </c>
-      <c r="I27">
+      <c r="I35">
         <v>134.84089700000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="12"/>
+      <c r="C36" t="str">
+        <f t="shared" si="15"/>
         <v>埼玉県さいたま市桜区</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E6%A1%9C%E5%8C%BA</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="14"/>
+      <c r="E36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県さいたま市桜区&lt;/query&gt;
@@ -2143,38 +2543,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
         <v>35.855877</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
         <v>139.60977199999999</v>
       </c>
-      <c r="H28">
+      <c r="H36">
         <v>35.855877</v>
       </c>
-      <c r="I28">
+      <c r="I36">
         <v>139.60977199999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="12"/>
+      <c r="C37" t="str">
+        <f t="shared" si="15"/>
         <v>長野県長野市檀田</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E6%AA%80%E7%94%B0</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="14"/>
+      <c r="E37" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;長野県長野市檀田&lt;/query&gt;
@@ -2190,38 +2590,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
         <v>36.678818</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
         <v>138.20509300000001</v>
       </c>
-      <c r="H29">
+      <c r="H37">
         <v>36.678818</v>
       </c>
-      <c r="I29">
+      <c r="I37">
         <v>138.20509300000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="12"/>
+      <c r="C38" t="str">
+        <f t="shared" si="15"/>
         <v>大阪府大阪市生野区巽東</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E7%94%9F%E9%87%8E%E5%8C%BA%E5%B7%BD%E6%9D%B1</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="14"/>
+      <c r="E38" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府大阪市生野区巽東&lt;/query&gt;
@@ -2237,38 +2637,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
         <v>34.65081</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
         <v>135.55573999999999</v>
       </c>
-      <c r="H30">
+      <c r="H38">
         <v>34.65081</v>
       </c>
-      <c r="I30">
+      <c r="I38">
         <v>135.55573999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="12"/>
+      <c r="C39" t="str">
+        <f t="shared" si="15"/>
         <v>宮城県仙台宮城野区鶴ケ谷東</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E4%BB%99%E5%8F%B0%E5%AE%AE%E5%9F%8E%E9%87%8E%E5%8C%BA%E9%B6%B4%E3%82%B1%E8%B0%B7%E6%9D%B1</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="14"/>
+      <c r="E39" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;宮城県仙台宮城野区鶴ケ谷東&lt;/query&gt;
@@ -2284,38 +2684,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
         <v>38.268008999999999</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
         <v>140.86961400000001</v>
       </c>
-      <c r="H31">
+      <c r="H39">
         <v>38.268008999999999</v>
       </c>
-      <c r="I31">
+      <c r="I39">
         <v>140.86961400000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="12"/>
+      <c r="C40" t="str">
+        <f t="shared" si="15"/>
         <v>兵庫県神戸市灘区六甲台町8-47</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E5%85%AD%E7%94%B2%E5%8F%B0%E7%94%BA8-47</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="14"/>
+      <c r="E40" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県神戸市灘区六甲台町8-47&lt;/query&gt;
@@ -2331,38 +2731,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
         <v>34.730651999999999</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
         <v>135.23202499999999</v>
       </c>
-      <c r="H32">
+      <c r="H40">
         <v>34.730651999999999</v>
       </c>
-      <c r="I32">
+      <c r="I40">
         <v>135.23202499999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="12"/>
+      <c r="C41" t="str">
+        <f t="shared" si="15"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="14"/>
+      <c r="E41" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;茨城県日立市久慈町&lt;/query&gt;
@@ -2378,38 +2778,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H33">
+      <c r="H41">
         <v>36.498386000000004</v>
       </c>
-      <c r="I33">
+      <c r="I41">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B42" t="s">
         <v>80</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
+      <c r="C42" t="str">
+        <f t="shared" si="15"/>
         <v>愛知県名古屋市緑区鏡田</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E9%8F%A1%E7%94%B0</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
+      <c r="E42" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県名古屋市緑区鏡田&lt;/query&gt;
@@ -2425,37 +2825,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
         <v>35.092872999999997</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
         <v>137.013138</v>
       </c>
-      <c r="H34">
+      <c r="H42">
         <v>35.092872999999997</v>
       </c>
-      <c r="I34">
+      <c r="I42">
         <v>137.013138</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="15"/>
         <v>東京都北区</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D43" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%8C%97%E5%8C%BA</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2472,37 +2872,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
         <v>35.752803999999998</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
         <v>139.73365799999999</v>
       </c>
-      <c r="H35">
+      <c r="H43">
         <v>35.752803999999998</v>
       </c>
-      <c r="I35">
+      <c r="I43">
         <v>139.73365799999999</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県西宮市甲陽園若江町</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D44" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E8%A5%BF%E5%AE%AE%E5%B8%82%E7%94%B2%E9%99%BD%E5%9C%92%E8%8B%A5%E6%B1%9F%E7%94%BA</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2519,37 +2919,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
         <v>34.759025999999999</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
         <v>135.33090200000001</v>
       </c>
-      <c r="H36">
+      <c r="H44">
         <v>34.759025999999999</v>
       </c>
-      <c r="I36">
+      <c r="I44">
         <v>135.33090200000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県三田市</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D45" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E4%B8%89%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2566,37 +2966,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
         <v>34.889671</v>
       </c>
-      <c r="G37" cm="1">
-        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
         <v>135.22529599999999</v>
       </c>
-      <c r="H37">
+      <c r="H45">
         <v>34.889671</v>
       </c>
-      <c r="I37">
+      <c r="I45">
         <v>135.22529599999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="15"/>
         <v>北海道旭川市永山５条</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D46" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%AD%E5%B7%9D%E5%B8%82%E6%B0%B8%E5%B1%B1%EF%BC%95%E6%9D%A1</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2613,37 +3013,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
         <v>43.784568999999998</v>
       </c>
-      <c r="G38" cm="1">
-        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
         <v>142.39909399999999</v>
       </c>
-      <c r="H38">
+      <c r="H46">
         <v>43.784568999999998</v>
       </c>
-      <c r="I38">
+      <c r="I46">
         <v>142.39909399999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>29</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県岐阜市弁天町２－１－２</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D47" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E5%BC%81%E5%A4%A9%E7%94%BA%EF%BC%92%EF%BC%8D%EF%BC%91%EF%BC%8D%EF%BC%92</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2660,37 +3060,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
         <v>35.420315000000002</v>
       </c>
-      <c r="G39" cm="1">
-        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
         <v>136.74797100000001</v>
       </c>
-      <c r="H39">
+      <c r="H47">
         <v>35.420315000000002</v>
       </c>
-      <c r="I39">
+      <c r="I47">
         <v>136.74797100000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>26</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D48" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2707,37 +3107,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G40" cm="1">
-        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H40">
+      <c r="H48">
         <v>34.759402999999999</v>
       </c>
-      <c r="I40">
+      <c r="I48">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>24</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="15"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D49" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2754,37 +3154,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H41">
+      <c r="H49">
         <v>35.626038000000001</v>
       </c>
-      <c r="I41">
+      <c r="I49">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B50" t="s">
         <v>62</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="15"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D50" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2801,37 +3201,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H42">
+      <c r="H50">
         <v>34.266705000000002</v>
       </c>
-      <c r="I42">
+      <c r="I50">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" t="s">
         <v>63</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県越谷市</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2848,37 +3248,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
         <v>35.891086999999999</v>
       </c>
-      <c r="G43" cm="1">
-        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
         <v>139.79093900000001</v>
       </c>
-      <c r="H43">
+      <c r="H51">
         <v>35.891086999999999</v>
       </c>
-      <c r="I43">
+      <c r="I51">
         <v>139.79093900000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B52" t="s">
         <v>64</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="15"/>
         <v>広島県府中市出口町</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%9C%E4%B8%AD%E5%B8%82%E5%87%BA%E5%8F%A3%E7%94%BA</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2895,37 +3295,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
         <v>34.586570999999999</v>
       </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
         <v>133.225449</v>
       </c>
-      <c r="H44">
+      <c r="H52">
         <v>34.586570999999999</v>
       </c>
-      <c r="I44">
+      <c r="I52">
         <v>133.225449</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B53" t="s">
         <v>65</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市東区</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2942,37 +3342,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
         <v>35.179313999999998</v>
       </c>
-      <c r="G45" cm="1">
-        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
         <v>136.926041</v>
       </c>
-      <c r="H45">
+      <c r="H53">
         <v>35.179313999999998</v>
       </c>
-      <c r="I45">
+      <c r="I53">
         <v>136.926041</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>31</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D54" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2989,37 +3389,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G46" cm="1">
-        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H46">
+      <c r="H54">
         <v>35.460503000000003</v>
       </c>
-      <c r="I46">
+      <c r="I54">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B55" t="s">
         <v>68</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="15"/>
         <v>愛媛県新居浜市八幡</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%85%AB%E5%B9%A1</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3036,37 +3436,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
         <v>33.978043</v>
       </c>
-      <c r="G47" cm="1">
-        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
         <v>133.309921</v>
       </c>
-      <c r="H47">
+      <c r="H55">
         <v>33.978043</v>
       </c>
-      <c r="I47">
+      <c r="I55">
         <v>133.309921</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="15"/>
         <v>福岡県大野城市月の浦</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E5%A4%A7%E9%87%8E%E5%9F%8E%E5%B8%82%E6%9C%88%E3%81%AE%E6%B5%A6</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3083,37 +3483,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
         <v>33.500689999999999</v>
       </c>
-      <c r="G48" cm="1">
-        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
         <v>130.46286000000001</v>
       </c>
-      <c r="H48">
+      <c r="H56">
         <v>33.500689999999999</v>
       </c>
-      <c r="I48">
+      <c r="I56">
         <v>130.46286000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>26</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B57" t="s">
         <v>71</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="15"/>
         <v>大阪府高槻市芝谷町</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D57" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%8A%9D%E8%B0%B7%E7%94%BA</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3130,37 +3530,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
         <v>34.868862</v>
       </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
         <v>135.607956</v>
       </c>
-      <c r="H49">
+      <c r="H57">
         <v>34.868862</v>
       </c>
-      <c r="I49">
+      <c r="I57">
         <v>135.607956</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>18</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B58" t="s">
         <v>72</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市　美浜区　磯辺</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D58" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E3%80%80%E7%BE%8E%E6%B5%9C%E5%8C%BA%E3%80%80%E7%A3%AF%E8%BE%BA</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3177,37 +3577,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
         <v>35.629711</v>
       </c>
-      <c r="G50" cm="1">
-        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
         <v>140.06405599999999</v>
       </c>
-      <c r="H50">
+      <c r="H58">
         <v>35.629711</v>
       </c>
-      <c r="I50">
+      <c r="I58">
         <v>140.06405599999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>26</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B59" t="s">
         <v>73</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D59" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3224,37 +3624,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G51" cm="1">
-        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H51">
+      <c r="H59">
         <v>34.660412000000001</v>
       </c>
-      <c r="I51">
+      <c r="I59">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>45</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B60" t="s">
         <v>46</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="15"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D60" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3271,37 +3671,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G52" cm="1">
-        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H52">
+      <c r="H60">
         <v>34.665543</v>
       </c>
-      <c r="I52">
+      <c r="I60">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B61" t="s">
         <v>47</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="15"/>
         <v>愛知県知多郡東浦町緒川</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D61" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E6%9D%B1%E6%B5%A6%E7%94%BA%E7%B7%92%E5%B7%9D</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3318,37 +3718,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
         <v>34.972813000000002</v>
       </c>
-      <c r="G53" cm="1">
-        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
+      <c r="G61" cm="1">
+        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
         <v>136.936691</v>
       </c>
-      <c r="H53">
+      <c r="H61">
         <v>34.972813000000002</v>
       </c>
-      <c r="I53">
+      <c r="I61">
         <v>136.936691</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>24</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B62" t="s">
         <v>48</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="15"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D62" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3365,37 +3765,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G54" cm="1">
-        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H54">
+      <c r="H62">
         <v>35.725349000000001</v>
       </c>
-      <c r="I54">
+      <c r="I62">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>29</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B63" t="s">
         <v>49</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D63" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3412,37 +3812,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G55" cm="1">
-        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
+      <c r="G63" cm="1">
+        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H55">
+      <c r="H63">
         <v>35.338383</v>
       </c>
-      <c r="I55">
+      <c r="I63">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>18</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B64" t="s">
         <v>50</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="15"/>
         <v>千葉県浦安市</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D64" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E6%B5%A6%E5%AE%89%E5%B8%82</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3459,37 +3859,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
         <v>35.653987999999998</v>
       </c>
-      <c r="G56" cm="1">
-        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
+      <c r="G64" cm="1">
+        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
         <v>139.90219099999999</v>
       </c>
-      <c r="H56">
+      <c r="H64">
         <v>35.653987999999998</v>
       </c>
-      <c r="I56">
+      <c r="I64">
         <v>139.90219099999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>51</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B65" t="s">
         <v>52</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="15"/>
         <v>京都府福知山市正明寺</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D65" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E7%A6%8F%E7%9F%A5%E5%B1%B1%E5%B8%82%E6%AD%A3%E6%98%8E%E5%AF%BA</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3506,37 +3906,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
         <v>35.286715999999998</v>
       </c>
-      <c r="G57" cm="1">
-        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
+      <c r="G65" cm="1">
+        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
         <v>135.104187</v>
       </c>
-      <c r="H57">
+      <c r="H65">
         <v>35.286715999999998</v>
       </c>
-      <c r="I57">
+      <c r="I65">
         <v>135.104187</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>53</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B66" t="s">
         <v>54</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="15"/>
         <v>群馬県太田市城西町</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D66" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E5%A4%AA%E7%94%B0%E5%B8%82%E5%9F%8E%E8%A5%BF%E7%94%BA</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3553,37 +3953,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F58" cm="1">
-        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
         <v>36.310654</v>
       </c>
-      <c r="G58" cm="1">
-        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
         <v>139.33760100000001</v>
       </c>
-      <c r="H58">
+      <c r="H66">
         <v>36.310654</v>
       </c>
-      <c r="I58">
+      <c r="I66">
         <v>139.33760100000001</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>24</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B67" t="s">
         <v>55</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C67" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区岡本</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D67" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E5%B2%A1%E6%9C%AC</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E67" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3600,37 +4000,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F59" cm="1">
-        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
         <v>35.624980999999998</v>
       </c>
-      <c r="G59" cm="1">
-        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+      <c r="G67" cm="1">
+        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
         <v>139.620575</v>
       </c>
-      <c r="H59">
+      <c r="H67">
         <v>35.624980999999998</v>
       </c>
-      <c r="I59">
+      <c r="I67">
         <v>139.620575</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>26</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B68" t="s">
         <v>84</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="15"/>
         <v>大阪府堺市西区浜寺船尾町西1丁</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E8%A5%BF%E5%8C%BA%E6%B5%9C%E5%AF%BA%E8%88%B9%E5%B0%BE%E7%94%BA%E8%A5%BF1%E4%B8%81</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E68" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3647,37 +4047,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F60" cm="1">
-        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
         <v>34.550938000000002</v>
       </c>
-      <c r="G60" cm="1">
-        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
+      <c r="G68" cm="1">
+        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
         <v>135.45600899999999</v>
       </c>
-      <c r="H60">
+      <c r="H68">
         <v>34.550938000000002</v>
       </c>
-      <c r="I60">
+      <c r="I68">
         <v>135.45600899999999</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市守山区青山台</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E5%AE%88%E5%B1%B1%E5%8C%BA%E9%9D%92%E5%B1%B1%E5%8F%B0</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E69" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3694,37 +4094,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F61" cm="1">
-        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
         <v>35.229061000000002</v>
       </c>
-      <c r="G61" cm="1">
-        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
         <v>137.01525899999999</v>
       </c>
-      <c r="H61">
+      <c r="H69">
         <v>35.229061000000002</v>
       </c>
-      <c r="I61">
+      <c r="I69">
         <v>137.01525899999999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B70" t="s">
         <v>19</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="15"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E70" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3741,37 +4141,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F62" cm="1">
-        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
+      <c r="F70" cm="1">
+        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G62" cm="1">
-        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
+      <c r="G70" cm="1">
+        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H62">
+      <c r="H70">
         <v>35.694710000000001</v>
       </c>
-      <c r="I62">
+      <c r="I70">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>20</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="15"/>
         <v>高知県高知市長浜蒔絵台</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%95%B7%E6%B5%9C%E8%92%94%E7%B5%B5%E5%8F%B0</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E71" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3788,37 +4188,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F63" cm="1">
-        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
+      <c r="F71" cm="1">
+        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
         <v>33.515532999999998</v>
       </c>
-      <c r="G63" cm="1">
-        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
+      <c r="G71" cm="1">
+        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
         <v>133.52641299999999</v>
       </c>
-      <c r="H63">
+      <c r="H71">
         <v>33.515532999999998</v>
       </c>
-      <c r="I63">
+      <c r="I71">
         <v>133.52641299999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>22</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B72" t="s">
         <v>23</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E72" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3835,37 +4235,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F64" cm="1">
-        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G64" cm="1">
-        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H64">
+      <c r="H72">
         <v>34.799816</v>
       </c>
-      <c r="I64">
+      <c r="I72">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>24</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B73" t="s">
         <v>25</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C73" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D73" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E73" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3882,37 +4282,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F65" cm="1">
-        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
         <v>35.646481000000001</v>
       </c>
-      <c r="G65" cm="1">
-        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
         <v>139.65321399999999</v>
       </c>
-      <c r="H65">
+      <c r="H73">
         <v>35.646481000000001</v>
       </c>
-      <c r="I65">
+      <c r="I73">
         <v>139.65321399999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>26</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B74" t="s">
         <v>27</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C74" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市浪速区桜川</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E74" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3929,37 +4329,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F66" cm="1">
-        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
         <v>34.666893000000002</v>
       </c>
-      <c r="G66" cm="1">
-        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
         <v>135.49284399999999</v>
       </c>
-      <c r="H66">
+      <c r="H74">
         <v>34.666893000000002</v>
       </c>
-      <c r="I66">
+      <c r="I74">
         <v>135.49284399999999</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>18</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B75" t="s">
         <v>124</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="15"/>
         <v>千葉県印西市</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E75" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3976,37 +4376,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F67" cm="1">
-        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
         <v>35.832332999999998</v>
       </c>
-      <c r="G67" cm="1">
-        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
         <v>140.14576700000001</v>
       </c>
-      <c r="H67">
+      <c r="H75">
         <v>35.832332999999998</v>
       </c>
-      <c r="I67">
+      <c r="I75">
         <v>140.14576700000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
         <v>31</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B76" t="s">
         <v>105</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市都筑区荏田南</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%83%BD%E7%AD%91%E5%8C%BA%E8%8D%8F%E7%94%B0%E5%8D%97</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E76" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4023,37 +4423,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F68" cm="1">
-        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
         <v>35.541789999999999</v>
       </c>
-      <c r="G68" cm="1">
-        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
+      <c r="G76" cm="1">
+        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
         <v>139.56012000000001</v>
       </c>
-      <c r="H68">
+      <c r="H76">
         <v>35.541789999999999</v>
       </c>
-      <c r="I68">
+      <c r="I76">
         <v>139.56012000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>24</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B77" t="s">
         <v>106</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="15"/>
         <v>東京都豊島区東池袋</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E6%9D%B1%E6%B1%A0%E8%A2%8B</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E77" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4070,37 +4470,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F69" cm="1">
-        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
+      <c r="F77" cm="1">
+        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
         <v>35.731372999999998</v>
       </c>
-      <c r="G69" cm="1">
-        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
+      <c r="G77" cm="1">
+        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
         <v>139.71530200000001</v>
       </c>
-      <c r="H69">
+      <c r="H77">
         <v>35.731372999999998</v>
       </c>
-      <c r="I69">
+      <c r="I77">
         <v>139.71530200000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>107</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" t="s">
         <v>108</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C78" t="str">
         <f t="shared" si="15"/>
         <v>沖縄県浦添市</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E6%B5%A6%E6%B7%BB%E5%B8%82</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E78" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4117,37 +4517,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F70" cm="1">
-        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
+      <c r="F78" cm="1">
+        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
         <v>26.245815</v>
       </c>
-      <c r="G70" cm="1">
-        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
+      <c r="G78" cm="1">
+        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
         <v>127.721802</v>
       </c>
-      <c r="H70">
+      <c r="H78">
         <v>26.245815</v>
       </c>
-      <c r="I70">
+      <c r="I78">
         <v>127.721802</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>31</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B79" t="s">
         <v>109</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C79" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D79" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E79" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4164,37 +4564,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F71" cm="1">
-        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
+      <c r="F79" cm="1">
+        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G71" cm="1">
-        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
+      <c r="G79" cm="1">
+        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H71">
+      <c r="H79">
         <v>35.337265000000002</v>
       </c>
-      <c r="I71">
+      <c r="I79">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>22</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B80" t="s">
         <v>110</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C80" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県尼崎市武庫川町4丁目</v>
       </c>
-      <c r="D72" s="2" t="str">
+      <c r="D80" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E6%AD%A6%E5%BA%AB%E5%B7%9D%E7%94%BA4%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E80" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4211,37 +4611,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F72" cm="1">
-        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
+      <c r="F80" cm="1">
+        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
         <v>34.716335000000001</v>
       </c>
-      <c r="G72" cm="1">
-        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
+      <c r="G80" cm="1">
+        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
         <v>135.38343800000001</v>
       </c>
-      <c r="H72">
+      <c r="H80">
         <v>34.716335000000001</v>
       </c>
-      <c r="I72">
+      <c r="I80">
         <v>135.38343800000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>9</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B81" t="s">
         <v>102</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C81" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県熊谷市新堀</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D81" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E81" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4258,37 +4658,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F73" cm="1">
-        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
+      <c r="F81" cm="1">
+        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
         <v>36.175068000000003</v>
       </c>
-      <c r="G73" cm="1">
-        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
+      <c r="G81" cm="1">
+        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
         <v>139.335297</v>
       </c>
-      <c r="H73">
+      <c r="H81">
         <v>36.175068000000003</v>
       </c>
-      <c r="I73">
+      <c r="I81">
         <v>139.335297</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>18</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B82" t="s">
         <v>28</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C82" t="str">
         <f t="shared" si="15"/>
         <v>千葉県野田市親野井</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D82" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E82" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4305,37 +4705,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F74" cm="1">
-        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
+      <c r="F82" cm="1">
+        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
         <v>36.040675999999998</v>
       </c>
-      <c r="G74" cm="1">
-        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
+      <c r="G82" cm="1">
+        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
         <v>139.81359900000001</v>
       </c>
-      <c r="H74">
+      <c r="H82">
         <v>36.040675999999998</v>
       </c>
-      <c r="I74">
+      <c r="I82">
         <v>139.81359900000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
         <v>29</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B83" t="s">
         <v>30</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C83" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県岐阜市須賀</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D83" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E83" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4352,37 +4752,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F75" cm="1">
-        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
+      <c r="F83" cm="1">
+        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
         <v>35.386009000000001</v>
       </c>
-      <c r="G75" cm="1">
-        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
+      <c r="G83" cm="1">
+        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
         <v>136.723984</v>
       </c>
-      <c r="H75">
+      <c r="H83">
         <v>35.386009000000001</v>
       </c>
-      <c r="I75">
+      <c r="I83">
         <v>136.723984</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B84" t="s">
         <v>32</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C84" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D84" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E84" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4399,37 +4799,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F76" cm="1">
-        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
+      <c r="F84" cm="1">
+        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
         <v>35.477051000000003</v>
       </c>
-      <c r="G76" cm="1">
-        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
+      <c r="G84" cm="1">
+        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
         <v>139.629288</v>
       </c>
-      <c r="H76">
+      <c r="H84">
         <v>35.477051000000003</v>
       </c>
-      <c r="I76">
+      <c r="I84">
         <v>139.629288</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>12</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B85" t="s">
         <v>33</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C85" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市佐伯区五日市町</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D85" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E85" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4446,37 +4846,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F77" cm="1">
-        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
+      <c r="F85" cm="1">
+        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
         <v>34.361728999999997</v>
       </c>
-      <c r="G77" cm="1">
-        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
+      <c r="G85" cm="1">
+        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
         <v>132.37535099999999</v>
       </c>
-      <c r="H77">
+      <c r="H85">
         <v>34.361728999999997</v>
       </c>
-      <c r="I77">
+      <c r="I85">
         <v>132.37535099999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>18</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B86" t="s">
         <v>34</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C86" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市美浜区</v>
       </c>
-      <c r="D78" s="2" t="str">
+      <c r="D86" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E86" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4493,37 +4893,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F78" cm="1">
-        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
+      <c r="F86" cm="1">
+        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
         <v>35.640552999999997</v>
       </c>
-      <c r="G78" cm="1">
-        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
+      <c r="G86" cm="1">
+        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
         <v>140.06303399999999</v>
       </c>
-      <c r="H78">
+      <c r="H86">
         <v>35.640552999999997</v>
       </c>
-      <c r="I78">
+      <c r="I86">
         <v>140.06303399999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>53</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B87" t="s">
         <v>75</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C87" t="str">
         <f t="shared" si="15"/>
         <v>群馬県伊勢崎市除ケ町</v>
       </c>
-      <c r="D79" s="2" t="str">
+      <c r="D87" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%B4%8E%E5%B8%82%E9%99%A4%E3%82%B1%E7%94%BA</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E87" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4540,37 +4940,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F79" cm="1">
-        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
+      <c r="F87" cm="1">
+        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
         <v>36.283253000000002</v>
       </c>
-      <c r="G79" cm="1">
-        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
+      <c r="G87" cm="1">
+        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
         <v>139.19224500000001</v>
       </c>
-      <c r="H79">
+      <c r="H87">
         <v>36.283253000000002</v>
       </c>
-      <c r="I79">
+      <c r="I87">
         <v>139.19224500000001</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>24</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B88" t="s">
         <v>118</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C88" t="str">
         <f t="shared" si="15"/>
         <v>東京都大田区多摩川</v>
       </c>
-      <c r="D80" s="2" t="str">
+      <c r="D88" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E88" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4587,37 +4987,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F80" cm="1">
-        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
+      <c r="F88" cm="1">
+        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
         <v>35.563113999999999</v>
       </c>
-      <c r="G80" cm="1">
-        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
+      <c r="G88" cm="1">
+        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
         <v>139.69941700000001</v>
       </c>
-      <c r="H80">
+      <c r="H88">
         <v>35.563113999999999</v>
       </c>
-      <c r="I80">
+      <c r="I88">
         <v>139.69941700000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
         <v>22</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B89" t="s">
         <v>23</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C89" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D81" s="2" t="str">
+      <c r="D89" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E89" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4634,37 +5034,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F81" cm="1">
-        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
+      <c r="F89" cm="1">
+        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G81" cm="1">
-        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
+      <c r="G89" cm="1">
+        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H81">
+      <c r="H89">
         <v>34.799816</v>
       </c>
-      <c r="I81">
+      <c r="I89">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B90" t="s">
         <v>35</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C90" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区子安台</v>
       </c>
-      <c r="D82" s="2" t="str">
+      <c r="D90" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA%E5%AD%90%E5%AE%89%E5%8F%B0</v>
       </c>
-      <c r="E82" t="str">
+      <c r="E90" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4681,37 +5081,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F82" cm="1">
-        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
+      <c r="F90" cm="1">
+        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
         <v>35.491627000000001</v>
       </c>
-      <c r="G82" cm="1">
-        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
+      <c r="G90" cm="1">
+        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
         <v>139.658829</v>
       </c>
-      <c r="H82">
+      <c r="H90">
         <v>35.491627000000001</v>
       </c>
-      <c r="I82">
+      <c r="I90">
         <v>139.658829</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>26</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B91" t="s">
         <v>36</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C91" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D83" s="2" t="str">
+      <c r="D91" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E91" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4728,37 +5128,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F83" cm="1">
-        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
+      <c r="F91" cm="1">
+        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G83" cm="1">
-        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
+      <c r="G91" cm="1">
+        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H83">
+      <c r="H91">
         <v>34.759402999999999</v>
       </c>
-      <c r="I83">
+      <c r="I91">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>37</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B92" t="s">
         <v>38</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C92" t="str">
         <f t="shared" si="15"/>
         <v>熊本県葦北郡津奈木町福浜</v>
       </c>
-      <c r="D84" s="2" t="str">
+      <c r="D92" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E6%B4%A5%E5%A5%88%E6%9C%A8%E7%94%BA%E7%A6%8F%E6%B5%9C</v>
       </c>
-      <c r="E84" t="str">
+      <c r="E92" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4775,37 +5175,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F84" cm="1">
-        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
+      <c r="F92" cm="1">
+        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
         <v>32.268051</v>
       </c>
-      <c r="G84" cm="1">
-        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
+      <c r="G92" cm="1">
+        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
         <v>130.45193499999999</v>
       </c>
-      <c r="H84">
+      <c r="H92">
         <v>32.268051</v>
       </c>
-      <c r="I84">
+      <c r="I92">
         <v>130.45193499999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
         <v>39</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B93" t="s">
         <v>40</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C93" t="str">
         <f t="shared" si="15"/>
         <v>秋田県秋田市</v>
       </c>
-      <c r="D85" s="2" t="str">
+      <c r="D93" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A7%8B%E7%94%B0%E7%9C%8C%E7%A7%8B%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E85" t="str">
+      <c r="E93" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4822,37 +5222,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F85" cm="1">
-        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
+      <c r="F93" cm="1">
+        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
         <v>39.719929</v>
       </c>
-      <c r="G85" cm="1">
-        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
+      <c r="G93" cm="1">
+        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
         <v>140.102509</v>
       </c>
-      <c r="H85">
+      <c r="H93">
         <v>39.719929</v>
       </c>
-      <c r="I85">
+      <c r="I93">
         <v>140.102509</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>31</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B94" t="s">
         <v>41</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C94" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県川崎市中原区新丸子東</v>
       </c>
-      <c r="D86" s="2" t="str">
+      <c r="D94" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E4%B8%AD%E5%8E%9F%E5%8C%BA%E6%96%B0%E4%B8%B8%E5%AD%90%E6%9D%B1</v>
       </c>
-      <c r="E86" t="str">
+      <c r="E94" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4869,37 +5269,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F86" cm="1">
-        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
+      <c r="F94" cm="1">
+        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
         <v>35.580086000000001</v>
       </c>
-      <c r="G86" cm="1">
-        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
+      <c r="G94" cm="1">
+        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
         <v>139.66317699999999</v>
       </c>
-      <c r="H86">
+      <c r="H94">
         <v>35.580086000000001</v>
       </c>
-      <c r="I86">
+      <c r="I94">
         <v>139.66317699999999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>26</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B95" t="s">
         <v>42</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C95" t="str">
         <f t="shared" si="15"/>
         <v>大阪府寝屋川市点野</v>
       </c>
-      <c r="D87" s="2" t="str">
+      <c r="D95" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%9D%E5%B1%8B%E5%B7%9D%E5%B8%82%E7%82%B9%E9%87%8E</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E95" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4916,37 +5316,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F87" cm="1">
-        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
+      <c r="F95" cm="1">
+        <f t="array" ref="F95">INDEX(_xlfn.FILTERXML(E95,"//latitude"),1)</f>
         <v>34.780231000000001</v>
       </c>
-      <c r="G87" cm="1">
-        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
+      <c r="G95" cm="1">
+        <f t="array" ref="G95">INDEX(_xlfn.FILTERXML(E95,"//longitude"),1)</f>
         <v>135.605133</v>
       </c>
-      <c r="H87">
+      <c r="H95">
         <v>34.780231000000001</v>
       </c>
-      <c r="I87">
+      <c r="I95">
         <v>135.605133</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>43</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B96" t="s">
         <v>44</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C96" t="str">
         <f t="shared" si="15"/>
         <v>岡山県岡山市南区福富西2丁目</v>
       </c>
-      <c r="D88" s="2" t="str">
+      <c r="D96" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%B2%A1%E5%B1%B1%E5%B8%82%E5%8D%97%E5%8C%BA%E7%A6%8F%E5%AF%8C%E8%A5%BF2%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E88" t="str">
+      <c r="E96" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4963,37 +5363,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F88" cm="1">
-        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
+      <c r="F96" cm="1">
+        <f t="array" ref="F96">INDEX(_xlfn.FILTERXML(E96,"//latitude"),1)</f>
         <v>34.621516999999997</v>
       </c>
-      <c r="G88" cm="1">
-        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
+      <c r="G96" cm="1">
+        <f t="array" ref="G96">INDEX(_xlfn.FILTERXML(E96,"//longitude"),1)</f>
         <v>133.93177800000001</v>
       </c>
-      <c r="H88">
+      <c r="H96">
         <v>34.621516999999997</v>
       </c>
-      <c r="I88">
+      <c r="I96">
         <v>133.93177800000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
         <v>24</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B97" t="s">
         <v>56</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C97" t="str">
         <f t="shared" si="15"/>
         <v>東京都品川区東五反田</v>
       </c>
-      <c r="D89" s="2" t="str">
+      <c r="D97" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA%E6%9D%B1%E4%BA%94%E5%8F%8D%E7%94%B0</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E97" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5010,38 +5410,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F89" cm="1">
-        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
+      <c r="F97" cm="1">
+        <f t="array" ref="F97">INDEX(_xlfn.FILTERXML(E97,"//latitude"),1)</f>
         <v>35.627761999999997</v>
       </c>
-      <c r="G89" cm="1">
-        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
+      <c r="G97" cm="1">
+        <f t="array" ref="G97">INDEX(_xlfn.FILTERXML(E97,"//longitude"),1)</f>
         <v>139.72642500000001</v>
       </c>
-      <c r="H89">
+      <c r="H97">
         <v>35.627761999999997</v>
       </c>
-      <c r="I89">
+      <c r="I97">
         <v>139.72642500000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B98" t="s">
         <v>15</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="15"/>
+      <c r="C98" t="str">
+        <f t="shared" ref="C98:C161" si="18">+A98&amp;B98</f>
         <v>長野県長野市川中島町上氷鉋</v>
       </c>
-      <c r="D90" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D98" s="2" t="str">
+        <f t="shared" ref="D98:D161" si="19" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C98)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E5%B7%9D%E4%B8%AD%E5%B3%B6%E7%94%BA%E4%B8%8A%E6%B0%B7%E9%89%8B</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="17"/>
+      <c r="E98" t="str">
+        <f t="shared" ref="E98:E161" si="20" xml:space="preserve"> _xlfn.WEBSERVICE(D98)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;長野県長野市川中島町上氷鉋&lt;/query&gt;
@@ -5057,38 +5457,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F90" cm="1">
-        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
+      <c r="F98" cm="1">
+        <f t="array" ref="F98">INDEX(_xlfn.FILTERXML(E98,"//latitude"),1)</f>
         <v>36.611911999999997</v>
       </c>
-      <c r="G90" cm="1">
-        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
+      <c r="G98" cm="1">
+        <f t="array" ref="G98">INDEX(_xlfn.FILTERXML(E98,"//longitude"),1)</f>
         <v>138.157059</v>
       </c>
-      <c r="H90">
+      <c r="H98">
         <v>36.611911999999997</v>
       </c>
-      <c r="I90">
+      <c r="I98">
         <v>138.157059</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>12</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B99" t="s">
         <v>16</v>
       </c>
-      <c r="C91" t="str">
-        <f t="shared" si="15"/>
+      <c r="C99" t="str">
+        <f t="shared" si="18"/>
         <v>広島県広島市安佐南区長束西</v>
       </c>
-      <c r="D91" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E5%AE%89%E4%BD%90%E5%8D%97%E5%8C%BA%E9%95%B7%E6%9D%9F%E8%A5%BF</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="17"/>
+      <c r="E99" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県広島市安佐南区長束西&lt;/query&gt;
@@ -5104,38 +5504,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F91" cm="1">
-        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
+      <c r="F99" cm="1">
+        <f t="array" ref="F99">INDEX(_xlfn.FILTERXML(E99,"//latitude"),1)</f>
         <v>34.427909999999997</v>
       </c>
-      <c r="G91" cm="1">
-        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
+      <c r="G99" cm="1">
+        <f t="array" ref="G99">INDEX(_xlfn.FILTERXML(E99,"//longitude"),1)</f>
         <v>132.450165</v>
       </c>
-      <c r="H91">
+      <c r="H99">
         <v>34.427909999999997</v>
       </c>
-      <c r="I91">
+      <c r="I99">
         <v>132.450165</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>10</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B100" t="s">
         <v>103</v>
       </c>
-      <c r="C92" t="str">
-        <f t="shared" si="15"/>
+      <c r="C100" t="str">
+        <f t="shared" si="18"/>
         <v>愛知県北名古屋市沖村天花寺</v>
       </c>
-      <c r="D92" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%8C%97%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%B2%96%E6%9D%91%E5%A4%A9%E8%8A%B1%E5%AF%BA</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="17"/>
+      <c r="E100" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県北名古屋市沖村天花寺&lt;/query&gt;
@@ -5151,38 +5551,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F92" cm="1">
-        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
+      <c r="F100" cm="1">
+        <f t="array" ref="F100">INDEX(_xlfn.FILTERXML(E100,"//latitude"),1)</f>
         <v>35.239272999999997</v>
       </c>
-      <c r="G92" cm="1">
-        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
+      <c r="G100" cm="1">
+        <f t="array" ref="G100">INDEX(_xlfn.FILTERXML(E100,"//longitude"),1)</f>
         <v>136.862717</v>
       </c>
-      <c r="H92">
+      <c r="H100">
         <v>35.239272999999997</v>
       </c>
-      <c r="I92">
+      <c r="I100">
         <v>136.862717</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>13</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B101" t="s">
         <v>17</v>
       </c>
-      <c r="C93" t="str">
-        <f t="shared" si="15"/>
+      <c r="C101" t="str">
+        <f t="shared" si="18"/>
         <v>新潟県新潟市中央区明石</v>
       </c>
-      <c r="D93" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D101" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E6%96%B0%E6%BD%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E6%98%8E%E7%9F%B3</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="17"/>
+      <c r="E101" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;新潟県新潟市中央区明石&lt;/query&gt;
@@ -5198,38 +5598,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F93" cm="1">
-        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
+      <c r="F101" cm="1">
+        <f t="array" ref="F101">INDEX(_xlfn.FILTERXML(E101,"//latitude"),1)</f>
         <v>37.916012000000002</v>
       </c>
-      <c r="G93" cm="1">
-        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
+      <c r="G101" cm="1">
+        <f t="array" ref="G101">INDEX(_xlfn.FILTERXML(E101,"//longitude"),1)</f>
         <v>139.065506</v>
       </c>
-      <c r="H93">
+      <c r="H101">
         <v>37.916012000000002</v>
       </c>
-      <c r="I93">
+      <c r="I101">
         <v>139.065506</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B102" t="s">
         <v>14</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" si="15"/>
+      <c r="C102" t="str">
+        <f t="shared" si="18"/>
         <v>埼玉県秩父市熊木町</v>
       </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D102" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%A7%A9%E7%88%B6%E5%B8%82%E7%86%8A%E6%9C%A8%E7%94%BA</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="17"/>
+      <c r="E102" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県秩父市熊木町&lt;/query&gt;
@@ -5245,254 +5645,22 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F94" cm="1">
-        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
+      <c r="F102" cm="1">
+        <f t="array" ref="F102">INDEX(_xlfn.FILTERXML(E102,"//latitude"),1)</f>
         <v>35.991272000000002</v>
       </c>
-      <c r="G94" cm="1">
-        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
+      <c r="G102" cm="1">
+        <f t="array" ref="G102">INDEX(_xlfn.FILTERXML(E102,"//longitude"),1)</f>
         <v>139.08822599999999</v>
       </c>
-      <c r="H94">
+      <c r="H102">
         <v>35.991272000000002</v>
       </c>
-      <c r="I94">
+      <c r="I102">
         <v>139.08822599999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C95" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D95" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F95" t="e" cm="1">
-        <f t="array" ref="F95">INDEX(_xlfn.FILTERXML(E95,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G95" t="e" cm="1">
-        <f t="array" ref="G95">INDEX(_xlfn.FILTERXML(E95,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C96" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D96" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F96" t="e" cm="1">
-        <f t="array" ref="F96">INDEX(_xlfn.FILTERXML(E96,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G96" t="e" cm="1">
-        <f t="array" ref="G96">INDEX(_xlfn.FILTERXML(E96,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C97" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="D97" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F97" t="e" cm="1">
-        <f t="array" ref="F97">INDEX(_xlfn.FILTERXML(E97,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G97" t="e" cm="1">
-        <f t="array" ref="G97">INDEX(_xlfn.FILTERXML(E97,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C98" t="str">
-        <f t="shared" ref="C98:C161" si="18">+A98&amp;B98</f>
-        <v/>
-      </c>
-      <c r="D98" s="2" t="str">
-        <f t="shared" ref="D98:D161" si="19" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C98)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" ref="E98:E161" si="20" xml:space="preserve"> _xlfn.WEBSERVICE(D98)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F98" t="e" cm="1">
-        <f t="array" ref="F98">INDEX(_xlfn.FILTERXML(E98,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G98" t="e" cm="1">
-        <f t="array" ref="G98">INDEX(_xlfn.FILTERXML(E98,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C99" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D99" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F99" t="e" cm="1">
-        <f t="array" ref="F99">INDEX(_xlfn.FILTERXML(E99,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G99" t="e" cm="1">
-        <f t="array" ref="G99">INDEX(_xlfn.FILTERXML(E99,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C100" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D100" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F100" t="e" cm="1">
-        <f t="array" ref="F100">INDEX(_xlfn.FILTERXML(E100,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G100" t="e" cm="1">
-        <f t="array" ref="G100">INDEX(_xlfn.FILTERXML(E100,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C101" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D101" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F101" t="e" cm="1">
-        <f t="array" ref="F101">INDEX(_xlfn.FILTERXML(E101,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G101" t="e" cm="1">
-        <f t="array" ref="G101">INDEX(_xlfn.FILTERXML(E101,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C102" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D102" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F102" t="e" cm="1">
-        <f t="array" ref="F102">INDEX(_xlfn.FILTERXML(E102,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G102" t="e" cm="1">
-        <f t="array" ref="G102">INDEX(_xlfn.FILTERXML(E102,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C103" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5521,7 +5689,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C104" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5550,7 +5718,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C105" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5579,7 +5747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C106" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5608,7 +5776,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C107" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5637,7 +5805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C108" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5666,7 +5834,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C109" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5695,7 +5863,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C110" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5724,7 +5892,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C111" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -5753,7 +5921,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C112" t="str">
         <f t="shared" si="18"/>
         <v/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089D6CD-472C-4D97-8FC3-93A686647787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9368182A-9682-4F77-9FCC-CC884A11DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="4380" windowWidth="26175" windowHeight="13560" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="4380" yWindow="3600" windowWidth="26175" windowHeight="13560" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="142">
   <si>
     <t>jio0</t>
   </si>
@@ -466,6 +466,27 @@
   </si>
   <si>
     <t>神戸市兵庫区菊水町10-39-18</t>
+  </si>
+  <si>
+    <t>吹田市千里丘中</t>
+  </si>
+  <si>
+    <t>江東区塩浜</t>
+  </si>
+  <si>
+    <t>名古屋市西区鳥見町</t>
+  </si>
+  <si>
+    <t>掛川市紅葉台</t>
+  </si>
+  <si>
+    <t>大阪市</t>
+  </si>
+  <si>
+    <t>春日部市備後西</t>
+  </si>
+  <si>
+    <t>安城市緑町</t>
   </si>
 </sst>
 </file>
@@ -875,7 +896,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I102"/>
+      <selection activeCell="H2" sqref="H2:I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -918,21 +939,209 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>愛知県日進市梅森町新田</v>
+        <v>大阪府吹田市千里丘中</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%97%A5%E9%80%B2%E5%B8%82%E6%A2%85%E6%A3%AE%E7%94%BA%E6%96%B0%E7%94%B0</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82%E5%8D%83%E9%87%8C%E4%B8%98%E4%B8%AD</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府吹田市千里丘中&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府吹田市千里丘中&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/吹田市/千里丘中&lt;/address&gt;
+&lt;longitude&gt;135.546082&lt;/longitude&gt;
+&lt;latitude&gt;34.797165&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>34.797165</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>135.54608200000001</v>
+      </c>
+      <c r="H2">
+        <v>34.797165</v>
+      </c>
+      <c r="I2">
+        <v>135.54608200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>東京都江東区塩浜</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E5%A1%A9%E6%B5%9C</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都江東区塩浜&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都江東区塩浜&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/江東区/塩浜&lt;/address&gt;
+&lt;longitude&gt;139.800018&lt;/longitude&gt;
+&lt;latitude&gt;35.661278&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>35.661278000000003</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>139.80001799999999</v>
+      </c>
+      <c r="H3">
+        <v>35.661278000000003</v>
+      </c>
+      <c r="I3">
+        <v>139.80001799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>愛知県名古屋市西区鳥見町</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E8%A5%BF%E5%8C%BA%E9%B3%A5%E8%A6%8B%E7%94%BA</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;愛知県名古屋市西区鳥見町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県名古屋市西区鳥見町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/名古屋市/西区/鳥見町&lt;/address&gt;
+&lt;longitude&gt;136.886322&lt;/longitude&gt;
+&lt;latitude&gt;35.201611&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.201611</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>136.88632200000001</v>
+      </c>
+      <c r="H4">
+        <v>35.201611</v>
+      </c>
+      <c r="I4">
+        <v>136.88632200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>静岡県掛川市紅葉台</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E6%8E%9B%E5%B7%9D%E5%B8%82%E7%B4%85%E8%91%89%E5%8F%B0</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;静岡県掛川市紅葉台&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;静岡県掛川市紅葉台&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;静岡県/掛川市/紅葉台&lt;/address&gt;
+&lt;longitude&gt;138.034058&lt;/longitude&gt;
+&lt;latitude&gt;34.769848&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>34.769848000000003</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>138.03405799999999</v>
+      </c>
+      <c r="H5">
+        <v>34.769848000000003</v>
+      </c>
+      <c r="I5">
+        <v>138.03405799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>愛知県日進市梅森町新田</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E6%97%A5%E9%80%B2%E5%B8%82%E6%A2%85%E6%A3%AE%E7%94%BA%E6%96%B0%E7%94%B0</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県日進市梅森町新田&lt;/query&gt;
@@ -948,38 +1157,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>35.134467999999998</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>137.018494</v>
       </c>
-      <c r="H2">
+      <c r="H6">
         <v>35.134467999999998</v>
       </c>
-      <c r="I2">
+      <c r="I6">
         <v>137.018494</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
         <v>福島県会津若松市</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E4%BC%9A%E6%B4%A5%E8%8B%A5%E6%9D%BE%E5%B8%82</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;福島県会津若松市&lt;/query&gt;
@@ -995,38 +1204,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
         <v>37.494843000000003</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
         <v>139.92970299999999</v>
       </c>
-      <c r="H3">
+      <c r="H7">
         <v>37.494843000000003</v>
       </c>
-      <c r="I3">
+      <c r="I7">
         <v>139.92970299999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>129</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
         <v>広島県福山市山手町</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E7%A6%8F%E5%B1%B1%E5%B8%82%E5%B1%B1%E6%89%8B%E7%94%BA</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県福山市山手町&lt;/query&gt;
@@ -1042,38 +1251,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>34.498649999999998</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>133.322586</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>34.498649999999998</v>
       </c>
-      <c r="I4">
+      <c r="I8">
         <v>133.322586</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>広島県東広島市黒瀬春日野</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E6%9D%B1%E5%BA%83%E5%B3%B6%E5%B8%82%E9%BB%92%E7%80%AC%E6%98%A5%E6%97%A5%E9%87%8E</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;広島県東広島市黒瀬春日野&lt;/query&gt;
@@ -1089,38 +1298,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>34.331108</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>132.65647899999999</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>34.331108</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>132.65647899999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>131</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>沖縄県宜野湾市愛知2丁目</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E5%AE%9C%E9%87%8E%E6%B9%BE%E5%B8%82%E6%84%9B%E7%9F%A52%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;沖縄県宜野湾市愛知2丁目&lt;/query&gt;
@@ -1136,38 +1345,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>26.268443999999999</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>127.77095</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>26.268443999999999</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>127.77095</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>山梨県甲府市蓬沢</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B1%B1%E6%A2%A8%E7%9C%8C%E7%94%B2%E5%BA%9C%E5%B8%82%E8%93%AC%E6%B2%A2</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;山梨県甲府市蓬沢&lt;/query&gt;
@@ -1183,37 +1392,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.642848999999998</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>138.59046900000001</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>35.642848999999998</v>
       </c>
-      <c r="I7">
+      <c r="I11">
         <v>138.59046900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="9"/>
         <v>東京都豊島区千早</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E5%8D%83%E6%97%A9</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1230,37 +1439,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>35.731419000000002</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>139.69580099999999</v>
       </c>
-      <c r="H8">
+      <c r="H12">
         <v>35.731419000000002</v>
       </c>
-      <c r="I8">
+      <c r="I12">
         <v>139.69580099999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>茨城県守谷市百合ケ丘</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E5%AE%88%E8%B0%B7%E5%B8%82%E7%99%BE%E5%90%88%E3%82%B1%E4%B8%98</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1277,37 +1486,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>35.956184</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>139.98379499999999</v>
       </c>
-      <c r="H9">
+      <c r="H13">
         <v>35.956184</v>
       </c>
-      <c r="I9">
+      <c r="I13">
         <v>139.98379499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>埼玉県川越市藤間</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E5%B7%9D%E8%B6%8A%E5%B8%82%E8%97%A4%E9%96%93</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1324,37 +1533,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>35.880057999999998</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>139.49671900000001</v>
       </c>
-      <c r="H10">
+      <c r="H14">
         <v>35.880057999999998</v>
       </c>
-      <c r="I10">
+      <c r="I14">
         <v>139.49671900000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>長野県上伊那郡飯島町七久保</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1371,37 +1580,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>35.658588000000002</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>137.89047199999999</v>
       </c>
-      <c r="H11">
+      <c r="H15">
         <v>35.658588000000002</v>
       </c>
-      <c r="I11">
+      <c r="I15">
         <v>137.89047199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>東京都大田区多摩川</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1418,37 +1627,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>35.563113999999999</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>139.69941700000001</v>
       </c>
-      <c r="H12">
+      <c r="H16">
         <v>35.563113999999999</v>
       </c>
-      <c r="I12">
+      <c r="I16">
         <v>139.69941700000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>東京都江東区森下</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%A3%AE%E4%B8%8B</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1465,37 +1674,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>35.687514999999998</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>139.79742400000001</v>
       </c>
-      <c r="H13">
+      <c r="H17">
         <v>35.687514999999998</v>
       </c>
-      <c r="I13">
+      <c r="I17">
         <v>139.79742400000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>134</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県神戸市兵庫区菊水町10-39-18</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E5%85%B5%E5%BA%AB%E5%8C%BA%E8%8F%8A%E6%B0%B4%E7%94%BA10-39-18</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1512,37 +1721,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>34.682189999999999</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>135.151794</v>
       </c>
-      <c r="H14">
+      <c r="H18">
         <v>34.682189999999999</v>
       </c>
-      <c r="I14">
+      <c r="I18">
         <v>135.151794</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>117</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>長野県上伊那郡飯島町七久保</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E4%B8%8A%E4%BC%8A%E9%82%A3%E9%83%A1%E9%A3%AF%E5%B3%B6%E7%94%BA%E4%B8%83%E4%B9%85%E4%BF%9D</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1559,37 +1768,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>35.658588000000002</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>137.89047199999999</v>
       </c>
-      <c r="H15">
+      <c r="H19">
         <v>35.658588000000002</v>
       </c>
-      <c r="I15">
+      <c r="I19">
         <v>137.89047199999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>120</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>121</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>長崎県諫早市白岩町</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E5%B4%8E%E7%9C%8C%E8%AB%AB%E6%97%A9%E5%B8%82%E7%99%BD%E5%B2%A9%E7%94%BA</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1606,37 +1815,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>32.847935</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>130.021683</v>
       </c>
-      <c r="H16">
+      <c r="H20">
         <v>32.847935</v>
       </c>
-      <c r="I16">
+      <c r="I20">
         <v>130.021683</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>112</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>113</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>福島県郡山市富久山町久保田</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B3%B6%E7%9C%8C%E9%83%A1%E5%B1%B1%E5%B8%82%E5%AF%8C%E4%B9%85%E5%B1%B1%E7%94%BA%E4%B9%85%E4%BF%9D%E7%94%B0</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1653,37 +1862,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>37.411006999999998</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>140.389374</v>
       </c>
-      <c r="H17">
+      <c r="H21">
         <v>37.411006999999998</v>
       </c>
-      <c r="I17">
+      <c r="I21">
         <v>140.389374</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>福岡県福岡市中央区荒戸</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E7%A6%8F%E5%B2%A1%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E8%8D%92%E6%88%B8</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1700,37 +1909,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>33.592308000000003</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>130.37829600000001</v>
       </c>
-      <c r="H18">
+      <c r="H22">
         <v>33.592308000000003</v>
       </c>
-      <c r="I18">
+      <c r="I22">
         <v>130.37829600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>静岡県浜松市中央区入野町</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%99%E5%B2%A1%E7%9C%8C%E6%B5%9C%E6%9D%BE%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E5%85%A5%E9%87%8E%E7%94%BA</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1747,37 +1956,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>34.701484999999998</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>137.68298300000001</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>34.701484999999998</v>
       </c>
-      <c r="I19">
+      <c r="I23">
         <v>137.68298300000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県横浜市鶴見区東寺尾</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%B6%B4%E8%A6%8B%E5%8C%BA%E6%9D%B1%E5%AF%BA%E5%B0%BE</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1794,38 +2003,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>35.502662999999998</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>139.64917</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>35.502662999999998</v>
       </c>
-      <c r="I20">
+      <c r="I24">
         <v>139.64917</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>124</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>千葉県印西市</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県印西市&lt;/query&gt;
@@ -1841,38 +2050,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>35.832332999999998</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>140.14576700000001</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>35.832332999999998</v>
       </c>
-      <c r="I21">
+      <c r="I25">
         <v>140.14576700000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>125</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>青森県八戸市湊町下大久保道</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%9D%92%E6%A3%AE%E7%9C%8C%E5%85%AB%E6%88%B8%E5%B8%82%E6%B9%8A%E7%94%BA%E4%B8%8B%E5%A4%A7%E4%B9%85%E4%BF%9D%E9%81%93</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;青森県八戸市湊町下大久保道&lt;/query&gt;
@@ -1888,38 +2097,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>40.511375000000001</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>141.54173299999999</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>40.511375000000001</v>
       </c>
-      <c r="I22">
+      <c r="I26">
         <v>141.54173299999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>104</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>愛知県あま市篠田</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%82%E3%81%BE%E5%B8%82%E7%AF%A0%E7%94%B0</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県あま市篠田&lt;/query&gt;
@@ -1935,35 +2144,35 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>35.183472000000002</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>136.79054300000001</v>
       </c>
-      <c r="H23">
+      <c r="H27">
         <v>35.183472000000002</v>
       </c>
-      <c r="I23">
+      <c r="I27">
         <v>136.79054300000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
         <v>愛知県みよし市打越町畦違289ー1</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E3%81%BF%E3%82%88%E3%81%97%E5%B8%82%E6%89%93%E8%B6%8A%E7%94%BA%E7%95%A6%E9%81%95289%E3%83%BC1</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛知県みよし市打越町畦違289ー1&lt;/query&gt;
@@ -1979,38 +2188,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>35.077637000000003</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>137.08952300000001</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>35.077637000000003</v>
       </c>
-      <c r="I24">
+      <c r="I28">
         <v>137.08952300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C29" t="str">
+        <f t="shared" si="12"/>
         <v>愛媛県松山市</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%9D%BE%E5%B1%B1%E5%B8%82</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E29" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;愛媛県松山市&lt;/query&gt;
@@ -2026,37 +2235,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>33.839157</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>132.76554899999999</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <v>33.839157</v>
       </c>
-      <c r="I25">
+      <c r="I29">
         <v>132.76554899999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="12"/>
         <v>神奈川県横浜市青葉区奈良町1566-123</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D30" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%9D%92%E8%91%89%E5%8C%BA%E5%A5%88%E8%89%AF%E7%94%BA1566-123</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2073,37 +2282,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>35.564982999999998</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>139.47674599999999</v>
       </c>
-      <c r="H26">
+      <c r="H30">
         <v>35.564982999999998</v>
       </c>
-      <c r="I26">
+      <c r="I30">
         <v>139.47674599999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="12"/>
         <v>東京都世田谷区松原</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D31" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E6%9D%BE%E5%8E%9F</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2120,37 +2329,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
         <v>35.668163</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
         <v>139.65330499999999</v>
       </c>
-      <c r="H27">
+      <c r="H31">
         <v>35.668163</v>
       </c>
-      <c r="I27">
+      <c r="I31">
         <v>139.65330499999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="12"/>
         <v>大阪府岸和田市並松町</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D32" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%B2%B8%E5%92%8C%E7%94%B0%E5%B8%82%E4%B8%A6%E6%9D%BE%E7%94%BA</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2167,37 +2376,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>34.467650999999996</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>135.37519800000001</v>
       </c>
-      <c r="H28">
+      <c r="H32">
         <v>34.467650999999996</v>
       </c>
-      <c r="I28">
+      <c r="I32">
         <v>135.37519800000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="12"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2214,38 +2423,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F33" cm="1">
+        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H29">
+      <c r="H33">
         <v>35.725349000000001</v>
       </c>
-      <c r="I29">
+      <c r="I33">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="12"/>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
         <v>滋賀県彦根市旭町</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D34" s="2" t="str">
+        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%BB%8B%E8%B3%80%E7%9C%8C%E5%BD%A6%E6%A0%B9%E5%B8%82%E6%97%AD%E7%94%BA</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="14"/>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;滋賀県彦根市旭町&lt;/query&gt;
@@ -2261,38 +2470,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+      <c r="F34" cm="1">
+        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
         <v>35.273952000000001</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
         <v>136.26187100000001</v>
       </c>
-      <c r="H30">
+      <c r="H34">
         <v>35.273952000000001</v>
       </c>
-      <c r="I30">
+      <c r="I34">
         <v>136.26187100000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="12"/>
+      <c r="C35" t="str">
+        <f t="shared" si="15"/>
         <v>兵庫県川西市東多田3丁目</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B7%9D%E8%A5%BF%E5%B8%82%E6%9D%B1%E5%A4%9A%E7%94%B03%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="14"/>
+      <c r="E35" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県川西市東多田3丁目&lt;/query&gt;
@@ -2308,38 +2517,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+      <c r="F35" cm="1">
+        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
         <v>34.861781999999998</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
         <v>135.42060900000001</v>
       </c>
-      <c r="H31">
+      <c r="H35">
         <v>34.861781999999998</v>
       </c>
-      <c r="I31">
+      <c r="I35">
         <v>135.42060900000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="12"/>
+      <c r="C36" t="str">
+        <f t="shared" si="15"/>
         <v>熊本県熊本市西区</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E8%A5%BF%E5%8C%BA</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="14"/>
+      <c r="E36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;熊本県熊本市西区&lt;/query&gt;
@@ -2355,38 +2564,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F32" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
+      <c r="F36" cm="1">
+        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
         <v>32.776370999999997</v>
       </c>
-      <c r="G32" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
         <v>130.64756800000001</v>
       </c>
-      <c r="H32">
+      <c r="H36">
         <v>32.776370999999997</v>
       </c>
-      <c r="I32">
+      <c r="I36">
         <v>130.64756800000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="12"/>
+      <c r="C37" t="str">
+        <f t="shared" si="15"/>
         <v>熊本県葦北郡芦北町湯浦</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E8%8A%A6%E5%8C%97%E7%94%BA%E6%B9%AF%E6%B5%A6</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="14"/>
+      <c r="E37" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;熊本県葦北郡芦北町湯浦&lt;/query&gt;
@@ -2402,38 +2611,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F33" cm="1">
-        <f t="array" ref="F33">INDEX(_xlfn.FILTERXML(E33,"//latitude"),1)</f>
+      <c r="F37" cm="1">
+        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
         <v>32.269119000000003</v>
       </c>
-      <c r="G33" cm="1">
-        <f t="array" ref="G33">INDEX(_xlfn.FILTERXML(E33,"//longitude"),1)</f>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
         <v>130.498367</v>
       </c>
-      <c r="H33">
+      <c r="H37">
         <v>32.269119000000003</v>
       </c>
-      <c r="I33">
+      <c r="I37">
         <v>130.498367</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C97" si="15">+A34&amp;B34</f>
+      <c r="C38" t="str">
+        <f t="shared" si="15"/>
         <v>東京都港区三田</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" ref="D34:D97" si="16" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C34)</f>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%AF%E5%8C%BA%E4%B8%89%E7%94%B0</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" ref="E34:E97" si="17" xml:space="preserve"> _xlfn.WEBSERVICE(D34)</f>
+      <c r="E38" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都港区三田&lt;/query&gt;
@@ -2449,37 +2658,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F34" cm="1">
-        <f t="array" ref="F34">INDEX(_xlfn.FILTERXML(E34,"//latitude"),1)</f>
+      <c r="F38" cm="1">
+        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
         <v>35.653812000000002</v>
       </c>
-      <c r="G34" cm="1">
-        <f t="array" ref="G34">INDEX(_xlfn.FILTERXML(E34,"//longitude"),1)</f>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
         <v>139.741333</v>
       </c>
-      <c r="H34">
+      <c r="H38">
         <v>35.653812000000002</v>
       </c>
-      <c r="I34">
+      <c r="I38">
         <v>139.741333</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県加古川市市平岡町</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D39" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%8A%A0%E5%8F%A4%E5%B7%9D%E5%B8%82%E5%B8%82%E5%B9%B3%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2496,37 +2705,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F35" cm="1">
-        <f t="array" ref="F35">INDEX(_xlfn.FILTERXML(E35,"//latitude"),1)</f>
+      <c r="F39" cm="1">
+        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
         <v>34.756618000000003</v>
       </c>
-      <c r="G35" cm="1">
-        <f t="array" ref="G35">INDEX(_xlfn.FILTERXML(E35,"//longitude"),1)</f>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
         <v>134.84089700000001</v>
       </c>
-      <c r="H35">
+      <c r="H39">
         <v>34.756618000000003</v>
       </c>
-      <c r="I35">
+      <c r="I39">
         <v>134.84089700000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県さいたま市桜区</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D40" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E3%81%95%E3%81%84%E3%81%9F%E3%81%BE%E5%B8%82%E6%A1%9C%E5%8C%BA</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2543,37 +2752,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F36" cm="1">
-        <f t="array" ref="F36">INDEX(_xlfn.FILTERXML(E36,"//latitude"),1)</f>
+      <c r="F40" cm="1">
+        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
         <v>35.855877</v>
       </c>
-      <c r="G36" cm="1">
-        <f t="array" ref="G36">INDEX(_xlfn.FILTERXML(E36,"//longitude"),1)</f>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
         <v>139.60977199999999</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>35.855877</v>
       </c>
-      <c r="I36">
+      <c r="I40">
         <v>139.60977199999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="15"/>
         <v>長野県長野市檀田</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D41" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E6%AA%80%E7%94%B0</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2590,37 +2799,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F37" cm="1">
-        <f t="array" ref="F37">INDEX(_xlfn.FILTERXML(E37,"//latitude"),1)</f>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
         <v>36.678818</v>
       </c>
-      <c r="G37" cm="1">
-        <f t="array" ref="G37">INDEX(_xlfn.FILTERXML(E37,"//longitude"),1)</f>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
         <v>138.20509300000001</v>
       </c>
-      <c r="H37">
+      <c r="H41">
         <v>36.678818</v>
       </c>
-      <c r="I37">
+      <c r="I41">
         <v>138.20509300000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市生野区巽東</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D42" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E7%94%9F%E9%87%8E%E5%8C%BA%E5%B7%BD%E6%9D%B1</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2637,37 +2846,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F38" cm="1">
-        <f t="array" ref="F38">INDEX(_xlfn.FILTERXML(E38,"//latitude"),1)</f>
+      <c r="F42" cm="1">
+        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
         <v>34.65081</v>
       </c>
-      <c r="G38" cm="1">
-        <f t="array" ref="G38">INDEX(_xlfn.FILTERXML(E38,"//longitude"),1)</f>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
         <v>135.55573999999999</v>
       </c>
-      <c r="H38">
+      <c r="H42">
         <v>34.65081</v>
       </c>
-      <c r="I38">
+      <c r="I42">
         <v>135.55573999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="15"/>
         <v>宮城県仙台宮城野区鶴ケ谷東</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D43" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E4%BB%99%E5%8F%B0%E5%AE%AE%E5%9F%8E%E9%87%8E%E5%8C%BA%E9%B6%B4%E3%82%B1%E8%B0%B7%E6%9D%B1</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2684,37 +2893,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F39" cm="1">
-        <f t="array" ref="F39">INDEX(_xlfn.FILTERXML(E39,"//latitude"),1)</f>
+      <c r="F43" cm="1">
+        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
         <v>38.268008999999999</v>
       </c>
-      <c r="G39" cm="1">
-        <f t="array" ref="G39">INDEX(_xlfn.FILTERXML(E39,"//longitude"),1)</f>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
         <v>140.86961400000001</v>
       </c>
-      <c r="H39">
+      <c r="H43">
         <v>38.268008999999999</v>
       </c>
-      <c r="I39">
+      <c r="I43">
         <v>140.86961400000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県神戸市灘区六甲台町8-47</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D44" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E7%A5%9E%E6%88%B8%E5%B8%82%E7%81%98%E5%8C%BA%E5%85%AD%E7%94%B2%E5%8F%B0%E7%94%BA8-47</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2731,37 +2940,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F40" cm="1">
-        <f t="array" ref="F40">INDEX(_xlfn.FILTERXML(E40,"//latitude"),1)</f>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
         <v>34.730651999999999</v>
       </c>
-      <c r="G40" cm="1">
-        <f t="array" ref="G40">INDEX(_xlfn.FILTERXML(E40,"//longitude"),1)</f>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
         <v>135.23202499999999</v>
       </c>
-      <c r="H40">
+      <c r="H44">
         <v>34.730651999999999</v>
       </c>
-      <c r="I40">
+      <c r="I44">
         <v>135.23202499999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>79</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="15"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D45" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2778,37 +2987,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">INDEX(_xlfn.FILTERXML(E41,"//latitude"),1)</f>
+      <c r="F45" cm="1">
+        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">INDEX(_xlfn.FILTERXML(E41,"//longitude"),1)</f>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H41">
+      <c r="H45">
         <v>36.498386000000004</v>
       </c>
-      <c r="I41">
+      <c r="I45">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市緑区鏡田</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D46" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E7%B7%91%E5%8C%BA%E9%8F%A1%E7%94%B0</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2825,37 +3034,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F42" cm="1">
-        <f t="array" ref="F42">INDEX(_xlfn.FILTERXML(E42,"//latitude"),1)</f>
+      <c r="F46" cm="1">
+        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
         <v>35.092872999999997</v>
       </c>
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">INDEX(_xlfn.FILTERXML(E42,"//longitude"),1)</f>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
         <v>137.013138</v>
       </c>
-      <c r="H42">
+      <c r="H46">
         <v>35.092872999999997</v>
       </c>
-      <c r="I42">
+      <c r="I46">
         <v>137.013138</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>81</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="15"/>
         <v>東京都北区</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D47" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%8C%97%E5%8C%BA</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2872,37 +3081,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F43" cm="1">
-        <f t="array" ref="F43">INDEX(_xlfn.FILTERXML(E43,"//latitude"),1)</f>
+      <c r="F47" cm="1">
+        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
         <v>35.752803999999998</v>
       </c>
-      <c r="G43" cm="1">
-        <f t="array" ref="G43">INDEX(_xlfn.FILTERXML(E43,"//longitude"),1)</f>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
         <v>139.73365799999999</v>
       </c>
-      <c r="H43">
+      <c r="H47">
         <v>35.752803999999998</v>
       </c>
-      <c r="I43">
+      <c r="I47">
         <v>139.73365799999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>82</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県西宮市甲陽園若江町</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D48" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E8%A5%BF%E5%AE%AE%E5%B8%82%E7%94%B2%E9%99%BD%E5%9C%92%E8%8B%A5%E6%B1%9F%E7%94%BA</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2919,37 +3128,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">INDEX(_xlfn.FILTERXML(E44,"//latitude"),1)</f>
+      <c r="F48" cm="1">
+        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
         <v>34.759025999999999</v>
       </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">INDEX(_xlfn.FILTERXML(E44,"//longitude"),1)</f>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
         <v>135.33090200000001</v>
       </c>
-      <c r="H44">
+      <c r="H48">
         <v>34.759025999999999</v>
       </c>
-      <c r="I44">
+      <c r="I48">
         <v>135.33090200000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県三田市</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D49" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E4%B8%89%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2966,37 +3175,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F45" cm="1">
-        <f t="array" ref="F45">INDEX(_xlfn.FILTERXML(E45,"//latitude"),1)</f>
+      <c r="F49" cm="1">
+        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
         <v>34.889671</v>
       </c>
-      <c r="G45" cm="1">
-        <f t="array" ref="G45">INDEX(_xlfn.FILTERXML(E45,"//longitude"),1)</f>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
         <v>135.22529599999999</v>
       </c>
-      <c r="H45">
+      <c r="H49">
         <v>34.889671</v>
       </c>
-      <c r="I45">
+      <c r="I49">
         <v>135.22529599999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>58</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="15"/>
         <v>北海道旭川市永山５条</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D50" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E6%97%AD%E5%B7%9D%E5%B8%82%E6%B0%B8%E5%B1%B1%EF%BC%95%E6%9D%A1</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3013,37 +3222,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F46" cm="1">
-        <f t="array" ref="F46">INDEX(_xlfn.FILTERXML(E46,"//latitude"),1)</f>
+      <c r="F50" cm="1">
+        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
         <v>43.784568999999998</v>
       </c>
-      <c r="G46" cm="1">
-        <f t="array" ref="G46">INDEX(_xlfn.FILTERXML(E46,"//longitude"),1)</f>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
         <v>142.39909399999999</v>
       </c>
-      <c r="H46">
+      <c r="H50">
         <v>43.784568999999998</v>
       </c>
-      <c r="I46">
+      <c r="I50">
         <v>142.39909399999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>29</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県岐阜市弁天町２－１－２</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E5%BC%81%E5%A4%A9%E7%94%BA%EF%BC%92%EF%BC%8D%EF%BC%91%EF%BC%8D%EF%BC%92</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3060,37 +3269,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F47" cm="1">
-        <f t="array" ref="F47">INDEX(_xlfn.FILTERXML(E47,"//latitude"),1)</f>
+      <c r="F51" cm="1">
+        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
         <v>35.420315000000002</v>
       </c>
-      <c r="G47" cm="1">
-        <f t="array" ref="G47">INDEX(_xlfn.FILTERXML(E47,"//longitude"),1)</f>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
         <v>136.74797100000001</v>
       </c>
-      <c r="H47">
+      <c r="H51">
         <v>35.420315000000002</v>
       </c>
-      <c r="I47">
+      <c r="I51">
         <v>136.74797100000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3107,37 +3316,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F48" cm="1">
-        <f t="array" ref="F48">INDEX(_xlfn.FILTERXML(E48,"//latitude"),1)</f>
+      <c r="F52" cm="1">
+        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G48" cm="1">
-        <f t="array" ref="G48">INDEX(_xlfn.FILTERXML(E48,"//longitude"),1)</f>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H48">
+      <c r="H52">
         <v>34.759402999999999</v>
       </c>
-      <c r="I48">
+      <c r="I52">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
         <v>60</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="15"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3154,37 +3363,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F49" cm="1">
-        <f t="array" ref="F49">INDEX(_xlfn.FILTERXML(E49,"//latitude"),1)</f>
+      <c r="F53" cm="1">
+        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G49" cm="1">
-        <f t="array" ref="G49">INDEX(_xlfn.FILTERXML(E49,"//longitude"),1)</f>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H49">
+      <c r="H53">
         <v>35.626038000000001</v>
       </c>
-      <c r="I49">
+      <c r="I53">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" t="s">
         <v>62</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="15"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D54" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3201,37 +3410,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F50" cm="1">
-        <f t="array" ref="F50">INDEX(_xlfn.FILTERXML(E50,"//latitude"),1)</f>
+      <c r="F54" cm="1">
+        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G50" cm="1">
-        <f t="array" ref="G50">INDEX(_xlfn.FILTERXML(E50,"//longitude"),1)</f>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H50">
+      <c r="H54">
         <v>34.266705000000002</v>
       </c>
-      <c r="I50">
+      <c r="I54">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>63</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県越谷市</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D55" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3248,37 +3457,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F51" cm="1">
-        <f t="array" ref="F51">INDEX(_xlfn.FILTERXML(E51,"//latitude"),1)</f>
+      <c r="F55" cm="1">
+        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
         <v>35.891086999999999</v>
       </c>
-      <c r="G51" cm="1">
-        <f t="array" ref="G51">INDEX(_xlfn.FILTERXML(E51,"//longitude"),1)</f>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
         <v>139.79093900000001</v>
       </c>
-      <c r="H51">
+      <c r="H55">
         <v>35.891086999999999</v>
       </c>
-      <c r="I51">
+      <c r="I55">
         <v>139.79093900000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>64</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="15"/>
         <v>広島県府中市出口町</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D56" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%9C%E4%B8%AD%E5%B8%82%E5%87%BA%E5%8F%A3%E7%94%BA</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3295,37 +3504,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F52" cm="1">
-        <f t="array" ref="F52">INDEX(_xlfn.FILTERXML(E52,"//latitude"),1)</f>
+      <c r="F56" cm="1">
+        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
         <v>34.586570999999999</v>
       </c>
-      <c r="G52" cm="1">
-        <f t="array" ref="G52">INDEX(_xlfn.FILTERXML(E52,"//longitude"),1)</f>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
         <v>133.225449</v>
       </c>
-      <c r="H52">
+      <c r="H56">
         <v>34.586570999999999</v>
       </c>
-      <c r="I52">
+      <c r="I56">
         <v>133.225449</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" t="s">
         <v>65</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市東区</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D57" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3342,37 +3551,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F53" cm="1">
-        <f t="array" ref="F53">INDEX(_xlfn.FILTERXML(E53,"//latitude"),1)</f>
+      <c r="F57" cm="1">
+        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
         <v>35.179313999999998</v>
       </c>
-      <c r="G53" cm="1">
-        <f t="array" ref="G53">INDEX(_xlfn.FILTERXML(E53,"//longitude"),1)</f>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
         <v>136.926041</v>
       </c>
-      <c r="H53">
+      <c r="H57">
         <v>35.179313999999998</v>
       </c>
-      <c r="I53">
+      <c r="I57">
         <v>136.926041</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>31</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D58" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3389,37 +3598,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F54" cm="1">
-        <f t="array" ref="F54">INDEX(_xlfn.FILTERXML(E54,"//latitude"),1)</f>
+      <c r="F58" cm="1">
+        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G54" cm="1">
-        <f t="array" ref="G54">INDEX(_xlfn.FILTERXML(E54,"//longitude"),1)</f>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H54">
+      <c r="H58">
         <v>35.460503000000003</v>
       </c>
-      <c r="I54">
+      <c r="I58">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="15"/>
         <v>愛媛県新居浜市八幡</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D59" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E5%AA%9B%E7%9C%8C%E6%96%B0%E5%B1%85%E6%B5%9C%E5%B8%82%E5%85%AB%E5%B9%A1</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3436,37 +3645,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F55" cm="1">
-        <f t="array" ref="F55">INDEX(_xlfn.FILTERXML(E55,"//latitude"),1)</f>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
         <v>33.978043</v>
       </c>
-      <c r="G55" cm="1">
-        <f t="array" ref="G55">INDEX(_xlfn.FILTERXML(E55,"//longitude"),1)</f>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
         <v>133.309921</v>
       </c>
-      <c r="H55">
+      <c r="H59">
         <v>33.978043</v>
       </c>
-      <c r="I55">
+      <c r="I59">
         <v>133.309921</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>69</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="15"/>
         <v>福岡県大野城市月の浦</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D60" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A6%8F%E5%B2%A1%E7%9C%8C%E5%A4%A7%E9%87%8E%E5%9F%8E%E5%B8%82%E6%9C%88%E3%81%AE%E6%B5%A6</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3483,37 +3692,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F56" cm="1">
-        <f t="array" ref="F56">INDEX(_xlfn.FILTERXML(E56,"//latitude"),1)</f>
+      <c r="F60" cm="1">
+        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
         <v>33.500689999999999</v>
       </c>
-      <c r="G56" cm="1">
-        <f t="array" ref="G56">INDEX(_xlfn.FILTERXML(E56,"//longitude"),1)</f>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
         <v>130.46286000000001</v>
       </c>
-      <c r="H56">
+      <c r="H60">
         <v>33.500689999999999</v>
       </c>
-      <c r="I56">
+      <c r="I60">
         <v>130.46286000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>26</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="15"/>
         <v>大阪府高槻市芝谷町</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D61" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E9%AB%98%E6%A7%BB%E5%B8%82%E8%8A%9D%E8%B0%B7%E7%94%BA</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3530,37 +3739,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F57" cm="1">
-        <f t="array" ref="F57">INDEX(_xlfn.FILTERXML(E57,"//latitude"),1)</f>
+      <c r="F61" cm="1">
+        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
         <v>34.868862</v>
       </c>
-      <c r="G57" cm="1">
-        <f t="array" ref="G57">INDEX(_xlfn.FILTERXML(E57,"//longitude"),1)</f>
+      <c r="G61" cm="1">
+        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
         <v>135.607956</v>
       </c>
-      <c r="H57">
+      <c r="H61">
         <v>34.868862</v>
       </c>
-      <c r="I57">
+      <c r="I61">
         <v>135.607956</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>18</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" t="s">
         <v>72</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市　美浜区　磯辺</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D62" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E3%80%80%E7%BE%8E%E6%B5%9C%E5%8C%BA%E3%80%80%E7%A3%AF%E8%BE%BA</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3577,37 +3786,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F58" cm="1">
-        <f t="array" ref="F58">INDEX(_xlfn.FILTERXML(E58,"//latitude"),1)</f>
+      <c r="F62" cm="1">
+        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
         <v>35.629711</v>
       </c>
-      <c r="G58" cm="1">
-        <f t="array" ref="G58">INDEX(_xlfn.FILTERXML(E58,"//longitude"),1)</f>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
         <v>140.06405599999999</v>
       </c>
-      <c r="H58">
+      <c r="H62">
         <v>35.629711</v>
       </c>
-      <c r="I58">
+      <c r="I62">
         <v>140.06405599999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" t="s">
         <v>73</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D63" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3624,37 +3833,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F59" cm="1">
-        <f t="array" ref="F59">INDEX(_xlfn.FILTERXML(E59,"//latitude"),1)</f>
+      <c r="F63" cm="1">
+        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G59" cm="1">
-        <f t="array" ref="G59">INDEX(_xlfn.FILTERXML(E59,"//longitude"),1)</f>
+      <c r="G63" cm="1">
+        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H59">
+      <c r="H63">
         <v>34.660412000000001</v>
       </c>
-      <c r="I59">
+      <c r="I63">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" t="s">
         <v>46</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="15"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D64" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3671,37 +3880,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F60" cm="1">
-        <f t="array" ref="F60">INDEX(_xlfn.FILTERXML(E60,"//latitude"),1)</f>
+      <c r="F64" cm="1">
+        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G60" cm="1">
-        <f t="array" ref="G60">INDEX(_xlfn.FILTERXML(E60,"//longitude"),1)</f>
+      <c r="G64" cm="1">
+        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H60">
+      <c r="H64">
         <v>34.665543</v>
       </c>
-      <c r="I60">
+      <c r="I64">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>47</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="15"/>
         <v>愛知県知多郡東浦町緒川</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D65" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E7%9F%A5%E5%A4%9A%E9%83%A1%E6%9D%B1%E6%B5%A6%E7%94%BA%E7%B7%92%E5%B7%9D</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3718,37 +3927,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F61" cm="1">
-        <f t="array" ref="F61">INDEX(_xlfn.FILTERXML(E61,"//latitude"),1)</f>
+      <c r="F65" cm="1">
+        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
         <v>34.972813000000002</v>
       </c>
-      <c r="G61" cm="1">
-        <f t="array" ref="G61">INDEX(_xlfn.FILTERXML(E61,"//longitude"),1)</f>
+      <c r="G65" cm="1">
+        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
         <v>136.936691</v>
       </c>
-      <c r="H61">
+      <c r="H65">
         <v>34.972813000000002</v>
       </c>
-      <c r="I61">
+      <c r="I65">
         <v>136.936691</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>24</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" t="s">
         <v>48</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="15"/>
         <v>東京都練馬区関町北</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D66" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%B7%B4%E9%A6%AC%E5%8C%BA%E9%96%A2%E7%94%BA%E5%8C%97</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3765,37 +3974,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F62" cm="1">
-        <f t="array" ref="F62">INDEX(_xlfn.FILTERXML(E62,"//latitude"),1)</f>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
         <v>35.725349000000001</v>
       </c>
-      <c r="G62" cm="1">
-        <f t="array" ref="G62">INDEX(_xlfn.FILTERXML(E62,"//longitude"),1)</f>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
         <v>139.57894899999999</v>
       </c>
-      <c r="H62">
+      <c r="H66">
         <v>35.725349000000001</v>
       </c>
-      <c r="I62">
+      <c r="I66">
         <v>139.57894899999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>29</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C67" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D67" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E67" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3812,37 +4021,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F63" cm="1">
-        <f t="array" ref="F63">INDEX(_xlfn.FILTERXML(E63,"//latitude"),1)</f>
+      <c r="F67" cm="1">
+        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G63" cm="1">
-        <f t="array" ref="G63">INDEX(_xlfn.FILTERXML(E63,"//longitude"),1)</f>
+      <c r="G67" cm="1">
+        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H63">
+      <c r="H67">
         <v>35.338383</v>
       </c>
-      <c r="I63">
+      <c r="I67">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>18</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" t="s">
         <v>50</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="15"/>
         <v>千葉県浦安市</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E6%B5%A6%E5%AE%89%E5%B8%82</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E68" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3859,37 +4068,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F64" cm="1">
-        <f t="array" ref="F64">INDEX(_xlfn.FILTERXML(E64,"//latitude"),1)</f>
+      <c r="F68" cm="1">
+        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
         <v>35.653987999999998</v>
       </c>
-      <c r="G64" cm="1">
-        <f t="array" ref="G64">INDEX(_xlfn.FILTERXML(E64,"//longitude"),1)</f>
+      <c r="G68" cm="1">
+        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
         <v>139.90219099999999</v>
       </c>
-      <c r="H64">
+      <c r="H68">
         <v>35.653987999999998</v>
       </c>
-      <c r="I64">
+      <c r="I68">
         <v>139.90219099999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
         <v>51</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" t="s">
         <v>52</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="15"/>
         <v>京都府福知山市正明寺</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E7%A6%8F%E7%9F%A5%E5%B1%B1%E5%B8%82%E6%AD%A3%E6%98%8E%E5%AF%BA</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E69" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3906,37 +4115,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F65" cm="1">
-        <f t="array" ref="F65">INDEX(_xlfn.FILTERXML(E65,"//latitude"),1)</f>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
         <v>35.286715999999998</v>
       </c>
-      <c r="G65" cm="1">
-        <f t="array" ref="G65">INDEX(_xlfn.FILTERXML(E65,"//longitude"),1)</f>
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
         <v>135.104187</v>
       </c>
-      <c r="H65">
+      <c r="H69">
         <v>35.286715999999998</v>
       </c>
-      <c r="I65">
+      <c r="I69">
         <v>135.104187</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>53</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" t="s">
         <v>54</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="15"/>
         <v>群馬県太田市城西町</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E5%A4%AA%E7%94%B0%E5%B8%82%E5%9F%8E%E8%A5%BF%E7%94%BA</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E70" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -3953,37 +4162,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F66" cm="1">
-        <f t="array" ref="F66">INDEX(_xlfn.FILTERXML(E66,"//latitude"),1)</f>
+      <c r="F70" cm="1">
+        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
         <v>36.310654</v>
       </c>
-      <c r="G66" cm="1">
-        <f t="array" ref="G66">INDEX(_xlfn.FILTERXML(E66,"//longitude"),1)</f>
+      <c r="G70" cm="1">
+        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
         <v>139.33760100000001</v>
       </c>
-      <c r="H66">
+      <c r="H70">
         <v>36.310654</v>
       </c>
-      <c r="I66">
+      <c r="I70">
         <v>139.33760100000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>24</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" t="s">
         <v>55</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区岡本</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA%E5%B2%A1%E6%9C%AC</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E71" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4000,37 +4209,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F67" cm="1">
-        <f t="array" ref="F67">INDEX(_xlfn.FILTERXML(E67,"//latitude"),1)</f>
+      <c r="F71" cm="1">
+        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
         <v>35.624980999999998</v>
       </c>
-      <c r="G67" cm="1">
-        <f t="array" ref="G67">INDEX(_xlfn.FILTERXML(E67,"//longitude"),1)</f>
+      <c r="G71" cm="1">
+        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
         <v>139.620575</v>
       </c>
-      <c r="H67">
+      <c r="H71">
         <v>35.624980999999998</v>
       </c>
-      <c r="I67">
+      <c r="I71">
         <v>139.620575</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>26</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>84</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="15"/>
         <v>大阪府堺市西区浜寺船尾町西1丁</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E8%A5%BF%E5%8C%BA%E6%B5%9C%E5%AF%BA%E8%88%B9%E5%B0%BE%E7%94%BA%E8%A5%BF1%E4%B8%81</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E72" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4047,37 +4256,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F68" cm="1">
-        <f t="array" ref="F68">INDEX(_xlfn.FILTERXML(E68,"//latitude"),1)</f>
+      <c r="F72" cm="1">
+        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
         <v>34.550938000000002</v>
       </c>
-      <c r="G68" cm="1">
-        <f t="array" ref="G68">INDEX(_xlfn.FILTERXML(E68,"//longitude"),1)</f>
+      <c r="G72" cm="1">
+        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
         <v>135.45600899999999</v>
       </c>
-      <c r="H68">
+      <c r="H72">
         <v>34.550938000000002</v>
       </c>
-      <c r="I68">
+      <c r="I72">
         <v>135.45600899999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C73" t="str">
         <f t="shared" si="15"/>
         <v>愛知県名古屋市守山区青山台</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D73" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E5%AE%88%E5%B1%B1%E5%8C%BA%E9%9D%92%E5%B1%B1%E5%8F%B0</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E73" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4094,37 +4303,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F69" cm="1">
-        <f t="array" ref="F69">INDEX(_xlfn.FILTERXML(E69,"//latitude"),1)</f>
+      <c r="F73" cm="1">
+        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
         <v>35.229061000000002</v>
       </c>
-      <c r="G69" cm="1">
-        <f t="array" ref="G69">INDEX(_xlfn.FILTERXML(E69,"//longitude"),1)</f>
+      <c r="G73" cm="1">
+        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
         <v>137.01525899999999</v>
       </c>
-      <c r="H69">
+      <c r="H73">
         <v>35.229061000000002</v>
       </c>
-      <c r="I69">
+      <c r="I73">
         <v>137.01525899999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>18</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>19</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C74" t="str">
         <f t="shared" si="15"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E74" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4141,37 +4350,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F70" cm="1">
-        <f t="array" ref="F70">INDEX(_xlfn.FILTERXML(E70,"//latitude"),1)</f>
+      <c r="F74" cm="1">
+        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G70" cm="1">
-        <f t="array" ref="G70">INDEX(_xlfn.FILTERXML(E70,"//longitude"),1)</f>
+      <c r="G74" cm="1">
+        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H70">
+      <c r="H74">
         <v>35.694710000000001</v>
       </c>
-      <c r="I70">
+      <c r="I74">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
         <v>21</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="15"/>
         <v>高知県高知市長浜蒔絵台</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%AB%98%E7%9F%A5%E7%9C%8C%E9%AB%98%E7%9F%A5%E5%B8%82%E9%95%B7%E6%B5%9C%E8%92%94%E7%B5%B5%E5%8F%B0</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E75" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4188,37 +4397,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F71" cm="1">
-        <f t="array" ref="F71">INDEX(_xlfn.FILTERXML(E71,"//latitude"),1)</f>
+      <c r="F75" cm="1">
+        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
         <v>33.515532999999998</v>
       </c>
-      <c r="G71" cm="1">
-        <f t="array" ref="G71">INDEX(_xlfn.FILTERXML(E71,"//longitude"),1)</f>
+      <c r="G75" cm="1">
+        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
         <v>133.52641299999999</v>
       </c>
-      <c r="H71">
+      <c r="H75">
         <v>33.515532999999998</v>
       </c>
-      <c r="I71">
+      <c r="I75">
         <v>133.52641299999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
         <v>22</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>23</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D72" s="2" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E76" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4235,37 +4444,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F72" cm="1">
-        <f t="array" ref="F72">INDEX(_xlfn.FILTERXML(E72,"//latitude"),1)</f>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G72" cm="1">
-        <f t="array" ref="G72">INDEX(_xlfn.FILTERXML(E72,"//longitude"),1)</f>
+      <c r="G76" cm="1">
+        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H72">
+      <c r="H76">
         <v>34.799816</v>
       </c>
-      <c r="I72">
+      <c r="I76">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>24</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>25</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="15"/>
         <v>東京都世田谷区</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D77" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E4%B8%96%E7%94%B0%E8%B0%B7%E5%8C%BA</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E77" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4282,37 +4491,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F73" cm="1">
-        <f t="array" ref="F73">INDEX(_xlfn.FILTERXML(E73,"//latitude"),1)</f>
+      <c r="F77" cm="1">
+        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
         <v>35.646481000000001</v>
       </c>
-      <c r="G73" cm="1">
-        <f t="array" ref="G73">INDEX(_xlfn.FILTERXML(E73,"//longitude"),1)</f>
+      <c r="G77" cm="1">
+        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
         <v>139.65321399999999</v>
       </c>
-      <c r="H73">
+      <c r="H77">
         <v>35.646481000000001</v>
       </c>
-      <c r="I73">
+      <c r="I77">
         <v>139.65321399999999</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>26</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" t="s">
         <v>27</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C78" t="str">
         <f t="shared" si="15"/>
         <v>大阪府大阪市浪速区桜川</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D78" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B5%AA%E9%80%9F%E5%8C%BA%E6%A1%9C%E5%B7%9D</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E78" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4329,37 +4538,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F74" cm="1">
-        <f t="array" ref="F74">INDEX(_xlfn.FILTERXML(E74,"//latitude"),1)</f>
+      <c r="F78" cm="1">
+        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
         <v>34.666893000000002</v>
       </c>
-      <c r="G74" cm="1">
-        <f t="array" ref="G74">INDEX(_xlfn.FILTERXML(E74,"//longitude"),1)</f>
+      <c r="G78" cm="1">
+        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
         <v>135.49284399999999</v>
       </c>
-      <c r="H74">
+      <c r="H78">
         <v>34.666893000000002</v>
       </c>
-      <c r="I74">
+      <c r="I78">
         <v>135.49284399999999</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>18</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" t="s">
         <v>124</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C79" t="str">
         <f t="shared" si="15"/>
         <v>千葉県印西市</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D79" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%B0%E8%A5%BF%E5%B8%82</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E79" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4376,37 +4585,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F75" cm="1">
-        <f t="array" ref="F75">INDEX(_xlfn.FILTERXML(E75,"//latitude"),1)</f>
+      <c r="F79" cm="1">
+        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
         <v>35.832332999999998</v>
       </c>
-      <c r="G75" cm="1">
-        <f t="array" ref="G75">INDEX(_xlfn.FILTERXML(E75,"//longitude"),1)</f>
+      <c r="G79" cm="1">
+        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
         <v>140.14576700000001</v>
       </c>
-      <c r="H75">
+      <c r="H79">
         <v>35.832332999999998</v>
       </c>
-      <c r="I75">
+      <c r="I79">
         <v>140.14576700000001</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>31</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" t="s">
         <v>105</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C80" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市都筑区荏田南</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D80" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E9%83%BD%E7%AD%91%E5%8C%BA%E8%8D%8F%E7%94%B0%E5%8D%97</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E80" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4423,37 +4632,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F76" cm="1">
-        <f t="array" ref="F76">INDEX(_xlfn.FILTERXML(E76,"//latitude"),1)</f>
+      <c r="F80" cm="1">
+        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
         <v>35.541789999999999</v>
       </c>
-      <c r="G76" cm="1">
-        <f t="array" ref="G76">INDEX(_xlfn.FILTERXML(E76,"//longitude"),1)</f>
+      <c r="G80" cm="1">
+        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
         <v>139.56012000000001</v>
       </c>
-      <c r="H76">
+      <c r="H80">
         <v>35.541789999999999</v>
       </c>
-      <c r="I76">
+      <c r="I80">
         <v>139.56012000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>24</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B81" t="s">
         <v>106</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C81" t="str">
         <f t="shared" si="15"/>
         <v>東京都豊島区東池袋</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D81" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E6%9D%B1%E6%B1%A0%E8%A2%8B</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E81" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4470,37 +4679,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F77" cm="1">
-        <f t="array" ref="F77">INDEX(_xlfn.FILTERXML(E77,"//latitude"),1)</f>
+      <c r="F81" cm="1">
+        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
         <v>35.731372999999998</v>
       </c>
-      <c r="G77" cm="1">
-        <f t="array" ref="G77">INDEX(_xlfn.FILTERXML(E77,"//longitude"),1)</f>
+      <c r="G81" cm="1">
+        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
         <v>139.71530200000001</v>
       </c>
-      <c r="H77">
+      <c r="H81">
         <v>35.731372999999998</v>
       </c>
-      <c r="I77">
+      <c r="I81">
         <v>139.71530200000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>107</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B82" t="s">
         <v>108</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C82" t="str">
         <f t="shared" si="15"/>
         <v>沖縄県浦添市</v>
       </c>
-      <c r="D78" s="2" t="str">
+      <c r="D82" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%B2%96%E7%B8%84%E7%9C%8C%E6%B5%A6%E6%B7%BB%E5%B8%82</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E82" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4517,37 +4726,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F78" cm="1">
-        <f t="array" ref="F78">INDEX(_xlfn.FILTERXML(E78,"//latitude"),1)</f>
+      <c r="F82" cm="1">
+        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
         <v>26.245815</v>
       </c>
-      <c r="G78" cm="1">
-        <f t="array" ref="G78">INDEX(_xlfn.FILTERXML(E78,"//longitude"),1)</f>
+      <c r="G82" cm="1">
+        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
         <v>127.721802</v>
       </c>
-      <c r="H78">
+      <c r="H82">
         <v>26.245815</v>
       </c>
-      <c r="I78">
+      <c r="I82">
         <v>127.721802</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
         <v>31</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B83" t="s">
         <v>109</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C83" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D79" s="2" t="str">
+      <c r="D83" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E83" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4564,37 +4773,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F79" cm="1">
-        <f t="array" ref="F79">INDEX(_xlfn.FILTERXML(E79,"//latitude"),1)</f>
+      <c r="F83" cm="1">
+        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G79" cm="1">
-        <f t="array" ref="G79">INDEX(_xlfn.FILTERXML(E79,"//longitude"),1)</f>
+      <c r="G83" cm="1">
+        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H79">
+      <c r="H83">
         <v>35.337265000000002</v>
       </c>
-      <c r="I79">
+      <c r="I83">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>22</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B84" t="s">
         <v>110</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C84" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県尼崎市武庫川町4丁目</v>
       </c>
-      <c r="D80" s="2" t="str">
+      <c r="D84" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%B0%BC%E5%B4%8E%E5%B8%82%E6%AD%A6%E5%BA%AB%E5%B7%9D%E7%94%BA4%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E84" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4611,37 +4820,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F80" cm="1">
-        <f t="array" ref="F80">INDEX(_xlfn.FILTERXML(E80,"//latitude"),1)</f>
+      <c r="F84" cm="1">
+        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
         <v>34.716335000000001</v>
       </c>
-      <c r="G80" cm="1">
-        <f t="array" ref="G80">INDEX(_xlfn.FILTERXML(E80,"//longitude"),1)</f>
+      <c r="G84" cm="1">
+        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
         <v>135.38343800000001</v>
       </c>
-      <c r="H80">
+      <c r="H84">
         <v>34.716335000000001</v>
       </c>
-      <c r="I80">
+      <c r="I84">
         <v>135.38343800000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>9</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" t="s">
         <v>102</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C85" t="str">
         <f t="shared" si="15"/>
         <v>埼玉県熊谷市新堀</v>
       </c>
-      <c r="D81" s="2" t="str">
+      <c r="D85" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E85" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4658,37 +4867,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F81" cm="1">
-        <f t="array" ref="F81">INDEX(_xlfn.FILTERXML(E81,"//latitude"),1)</f>
+      <c r="F85" cm="1">
+        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
         <v>36.175068000000003</v>
       </c>
-      <c r="G81" cm="1">
-        <f t="array" ref="G81">INDEX(_xlfn.FILTERXML(E81,"//longitude"),1)</f>
+      <c r="G85" cm="1">
+        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
         <v>139.335297</v>
       </c>
-      <c r="H81">
+      <c r="H85">
         <v>36.175068000000003</v>
       </c>
-      <c r="I81">
+      <c r="I85">
         <v>139.335297</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>18</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B86" t="s">
         <v>28</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C86" t="str">
         <f t="shared" si="15"/>
         <v>千葉県野田市親野井</v>
       </c>
-      <c r="D82" s="2" t="str">
+      <c r="D86" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E9%87%8E%E7%94%B0%E5%B8%82%E8%A6%AA%E9%87%8E%E4%BA%95</v>
       </c>
-      <c r="E82" t="str">
+      <c r="E86" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4705,37 +4914,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F82" cm="1">
-        <f t="array" ref="F82">INDEX(_xlfn.FILTERXML(E82,"//latitude"),1)</f>
+      <c r="F86" cm="1">
+        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
         <v>36.040675999999998</v>
       </c>
-      <c r="G82" cm="1">
-        <f t="array" ref="G82">INDEX(_xlfn.FILTERXML(E82,"//longitude"),1)</f>
+      <c r="G86" cm="1">
+        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
         <v>139.81359900000001</v>
       </c>
-      <c r="H82">
+      <c r="H86">
         <v>36.040675999999998</v>
       </c>
-      <c r="I82">
+      <c r="I86">
         <v>139.81359900000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>29</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" t="s">
         <v>30</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C87" t="str">
         <f t="shared" si="15"/>
         <v>岐阜県岐阜市須賀</v>
       </c>
-      <c r="D83" s="2" t="str">
+      <c r="D87" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E87" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4752,37 +4961,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F83" cm="1">
-        <f t="array" ref="F83">INDEX(_xlfn.FILTERXML(E83,"//latitude"),1)</f>
+      <c r="F87" cm="1">
+        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
         <v>35.386009000000001</v>
       </c>
-      <c r="G83" cm="1">
-        <f t="array" ref="G83">INDEX(_xlfn.FILTERXML(E83,"//longitude"),1)</f>
+      <c r="G87" cm="1">
+        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
         <v>136.723984</v>
       </c>
-      <c r="H83">
+      <c r="H87">
         <v>35.386009000000001</v>
       </c>
-      <c r="I83">
+      <c r="I87">
         <v>136.723984</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>31</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B88" t="s">
         <v>32</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C88" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区</v>
       </c>
-      <c r="D84" s="2" t="str">
+      <c r="D88" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA</v>
       </c>
-      <c r="E84" t="str">
+      <c r="E88" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4799,37 +5008,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F84" cm="1">
-        <f t="array" ref="F84">INDEX(_xlfn.FILTERXML(E84,"//latitude"),1)</f>
+      <c r="F88" cm="1">
+        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
         <v>35.477051000000003</v>
       </c>
-      <c r="G84" cm="1">
-        <f t="array" ref="G84">INDEX(_xlfn.FILTERXML(E84,"//longitude"),1)</f>
+      <c r="G88" cm="1">
+        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
         <v>139.629288</v>
       </c>
-      <c r="H84">
+      <c r="H88">
         <v>35.477051000000003</v>
       </c>
-      <c r="I84">
+      <c r="I88">
         <v>139.629288</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
         <v>12</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B89" t="s">
         <v>33</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C89" t="str">
         <f t="shared" si="15"/>
         <v>広島県広島市佐伯区五日市町</v>
       </c>
-      <c r="D85" s="2" t="str">
+      <c r="D89" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E4%BD%90%E4%BC%AF%E5%8C%BA%E4%BA%94%E6%97%A5%E5%B8%82%E7%94%BA</v>
       </c>
-      <c r="E85" t="str">
+      <c r="E89" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4846,37 +5055,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F85" cm="1">
-        <f t="array" ref="F85">INDEX(_xlfn.FILTERXML(E85,"//latitude"),1)</f>
+      <c r="F89" cm="1">
+        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
         <v>34.361728999999997</v>
       </c>
-      <c r="G85" cm="1">
-        <f t="array" ref="G85">INDEX(_xlfn.FILTERXML(E85,"//longitude"),1)</f>
+      <c r="G89" cm="1">
+        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
         <v>132.37535099999999</v>
       </c>
-      <c r="H85">
+      <c r="H89">
         <v>34.361728999999997</v>
       </c>
-      <c r="I85">
+      <c r="I89">
         <v>132.37535099999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>18</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B90" t="s">
         <v>34</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C90" t="str">
         <f t="shared" si="15"/>
         <v>千葉県千葉市美浜区</v>
       </c>
-      <c r="D86" s="2" t="str">
+      <c r="D90" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%8D%83%E8%91%89%E5%B8%82%E7%BE%8E%E6%B5%9C%E5%8C%BA</v>
       </c>
-      <c r="E86" t="str">
+      <c r="E90" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4893,37 +5102,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F86" cm="1">
-        <f t="array" ref="F86">INDEX(_xlfn.FILTERXML(E86,"//latitude"),1)</f>
+      <c r="F90" cm="1">
+        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
         <v>35.640552999999997</v>
       </c>
-      <c r="G86" cm="1">
-        <f t="array" ref="G86">INDEX(_xlfn.FILTERXML(E86,"//longitude"),1)</f>
+      <c r="G90" cm="1">
+        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
         <v>140.06303399999999</v>
       </c>
-      <c r="H86">
+      <c r="H90">
         <v>35.640552999999997</v>
       </c>
-      <c r="I86">
+      <c r="I90">
         <v>140.06303399999999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>53</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B91" t="s">
         <v>75</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C91" t="str">
         <f t="shared" si="15"/>
         <v>群馬県伊勢崎市除ケ町</v>
       </c>
-      <c r="D87" s="2" t="str">
+      <c r="D91" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%BE%A4%E9%A6%AC%E7%9C%8C%E4%BC%8A%E5%8B%A2%E5%B4%8E%E5%B8%82%E9%99%A4%E3%82%B1%E7%94%BA</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E91" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4940,37 +5149,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F87" cm="1">
-        <f t="array" ref="F87">INDEX(_xlfn.FILTERXML(E87,"//latitude"),1)</f>
+      <c r="F91" cm="1">
+        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
         <v>36.283253000000002</v>
       </c>
-      <c r="G87" cm="1">
-        <f t="array" ref="G87">INDEX(_xlfn.FILTERXML(E87,"//longitude"),1)</f>
+      <c r="G91" cm="1">
+        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
         <v>139.19224500000001</v>
       </c>
-      <c r="H87">
+      <c r="H91">
         <v>36.283253000000002</v>
       </c>
-      <c r="I87">
+      <c r="I91">
         <v>139.19224500000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>24</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B92" t="s">
         <v>118</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C92" t="str">
         <f t="shared" si="15"/>
         <v>東京都大田区多摩川</v>
       </c>
-      <c r="D88" s="2" t="str">
+      <c r="D92" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%A4%A7%E7%94%B0%E5%8C%BA%E5%A4%9A%E6%91%A9%E5%B7%9D</v>
       </c>
-      <c r="E88" t="str">
+      <c r="E92" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -4987,37 +5196,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F88" cm="1">
-        <f t="array" ref="F88">INDEX(_xlfn.FILTERXML(E88,"//latitude"),1)</f>
+      <c r="F92" cm="1">
+        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
         <v>35.563113999999999</v>
       </c>
-      <c r="G88" cm="1">
-        <f t="array" ref="G88">INDEX(_xlfn.FILTERXML(E88,"//longitude"),1)</f>
+      <c r="G92" cm="1">
+        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
         <v>139.69941700000001</v>
       </c>
-      <c r="H88">
+      <c r="H92">
         <v>35.563113999999999</v>
       </c>
-      <c r="I88">
+      <c r="I92">
         <v>139.69941700000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
         <v>22</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B93" t="s">
         <v>23</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C93" t="str">
         <f t="shared" si="15"/>
         <v>兵庫県宝塚市</v>
       </c>
-      <c r="D89" s="2" t="str">
+      <c r="D93" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E93" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5034,37 +5243,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F89" cm="1">
-        <f t="array" ref="F89">INDEX(_xlfn.FILTERXML(E89,"//latitude"),1)</f>
+      <c r="F93" cm="1">
+        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
         <v>34.799816</v>
       </c>
-      <c r="G89" cm="1">
-        <f t="array" ref="G89">INDEX(_xlfn.FILTERXML(E89,"//longitude"),1)</f>
+      <c r="G93" cm="1">
+        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
         <v>135.36009200000001</v>
       </c>
-      <c r="H89">
+      <c r="H93">
         <v>34.799816</v>
       </c>
-      <c r="I89">
+      <c r="I93">
         <v>135.36009200000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
         <v>31</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B94" t="s">
         <v>35</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C94" t="str">
         <f t="shared" si="15"/>
         <v>神奈川県横浜市神奈川区子安台</v>
       </c>
-      <c r="D90" s="2" t="str">
+      <c r="D94" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8C%BA%E5%AD%90%E5%AE%89%E5%8F%B0</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E94" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5081,37 +5290,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F90" cm="1">
-        <f t="array" ref="F90">INDEX(_xlfn.FILTERXML(E90,"//latitude"),1)</f>
+      <c r="F94" cm="1">
+        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
         <v>35.491627000000001</v>
       </c>
-      <c r="G90" cm="1">
-        <f t="array" ref="G90">INDEX(_xlfn.FILTERXML(E90,"//longitude"),1)</f>
+      <c r="G94" cm="1">
+        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
         <v>139.658829</v>
       </c>
-      <c r="H90">
+      <c r="H94">
         <v>35.491627000000001</v>
       </c>
-      <c r="I90">
+      <c r="I94">
         <v>139.658829</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>26</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" t="s">
         <v>36</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C95" t="str">
         <f t="shared" si="15"/>
         <v>大阪府吹田市</v>
       </c>
-      <c r="D91" s="2" t="str">
+      <c r="D95" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%90%B9%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E95" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5128,37 +5337,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F91" cm="1">
-        <f t="array" ref="F91">INDEX(_xlfn.FILTERXML(E91,"//latitude"),1)</f>
+      <c r="F95" cm="1">
+        <f t="array" ref="F95">INDEX(_xlfn.FILTERXML(E95,"//latitude"),1)</f>
         <v>34.759402999999999</v>
       </c>
-      <c r="G91" cm="1">
-        <f t="array" ref="G91">INDEX(_xlfn.FILTERXML(E91,"//longitude"),1)</f>
+      <c r="G95" cm="1">
+        <f t="array" ref="G95">INDEX(_xlfn.FILTERXML(E95,"//longitude"),1)</f>
         <v>135.51679999999999</v>
       </c>
-      <c r="H91">
+      <c r="H95">
         <v>34.759402999999999</v>
       </c>
-      <c r="I91">
+      <c r="I95">
         <v>135.51679999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>37</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B96" t="s">
         <v>38</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C96" t="str">
         <f t="shared" si="15"/>
         <v>熊本県葦北郡津奈木町福浜</v>
       </c>
-      <c r="D92" s="2" t="str">
+      <c r="D96" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E8%91%A6%E5%8C%97%E9%83%A1%E6%B4%A5%E5%A5%88%E6%9C%A8%E7%94%BA%E7%A6%8F%E6%B5%9C</v>
       </c>
-      <c r="E92" t="str">
+      <c r="E96" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5175,37 +5384,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F92" cm="1">
-        <f t="array" ref="F92">INDEX(_xlfn.FILTERXML(E92,"//latitude"),1)</f>
+      <c r="F96" cm="1">
+        <f t="array" ref="F96">INDEX(_xlfn.FILTERXML(E96,"//latitude"),1)</f>
         <v>32.268051</v>
       </c>
-      <c r="G92" cm="1">
-        <f t="array" ref="G92">INDEX(_xlfn.FILTERXML(E92,"//longitude"),1)</f>
+      <c r="G96" cm="1">
+        <f t="array" ref="G96">INDEX(_xlfn.FILTERXML(E96,"//longitude"),1)</f>
         <v>130.45193499999999</v>
       </c>
-      <c r="H92">
+      <c r="H96">
         <v>32.268051</v>
       </c>
-      <c r="I92">
+      <c r="I96">
         <v>130.45193499999999</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
         <v>39</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B97" t="s">
         <v>40</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C97" t="str">
         <f t="shared" si="15"/>
         <v>秋田県秋田市</v>
       </c>
-      <c r="D93" s="2" t="str">
+      <c r="D97" s="2" t="str">
         <f t="shared" si="16"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A7%8B%E7%94%B0%E7%9C%8C%E7%A7%8B%E7%94%B0%E5%B8%82</v>
       </c>
-      <c r="E93" t="str">
+      <c r="E97" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5222,38 +5431,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F93" cm="1">
-        <f t="array" ref="F93">INDEX(_xlfn.FILTERXML(E93,"//latitude"),1)</f>
+      <c r="F97" cm="1">
+        <f t="array" ref="F97">INDEX(_xlfn.FILTERXML(E97,"//latitude"),1)</f>
         <v>39.719929</v>
       </c>
-      <c r="G93" cm="1">
-        <f t="array" ref="G93">INDEX(_xlfn.FILTERXML(E93,"//longitude"),1)</f>
+      <c r="G97" cm="1">
+        <f t="array" ref="G97">INDEX(_xlfn.FILTERXML(E97,"//longitude"),1)</f>
         <v>140.102509</v>
       </c>
-      <c r="H93">
+      <c r="H97">
         <v>39.719929</v>
       </c>
-      <c r="I93">
+      <c r="I97">
         <v>140.102509</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
         <v>31</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B98" t="s">
         <v>41</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" si="15"/>
+      <c r="C98" t="str">
+        <f t="shared" ref="C98:C161" si="18">+A98&amp;B98</f>
         <v>神奈川県川崎市中原区新丸子東</v>
       </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D98" s="2" t="str">
+        <f t="shared" ref="D98:D161" si="19" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C98)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B7%9D%E5%B4%8E%E5%B8%82%E4%B8%AD%E5%8E%9F%E5%8C%BA%E6%96%B0%E4%B8%B8%E5%AD%90%E6%9D%B1</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="17"/>
+      <c r="E98" t="str">
+        <f t="shared" ref="E98:E161" si="20" xml:space="preserve"> _xlfn.WEBSERVICE(D98)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県川崎市中原区新丸子東&lt;/query&gt;
@@ -5269,38 +5478,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F94" cm="1">
-        <f t="array" ref="F94">INDEX(_xlfn.FILTERXML(E94,"//latitude"),1)</f>
+      <c r="F98" cm="1">
+        <f t="array" ref="F98">INDEX(_xlfn.FILTERXML(E98,"//latitude"),1)</f>
         <v>35.580086000000001</v>
       </c>
-      <c r="G94" cm="1">
-        <f t="array" ref="G94">INDEX(_xlfn.FILTERXML(E94,"//longitude"),1)</f>
+      <c r="G98" cm="1">
+        <f t="array" ref="G98">INDEX(_xlfn.FILTERXML(E98,"//longitude"),1)</f>
         <v>139.66317699999999</v>
       </c>
-      <c r="H94">
+      <c r="H98">
         <v>35.580086000000001</v>
       </c>
-      <c r="I94">
+      <c r="I98">
         <v>139.66317699999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>26</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" t="s">
         <v>42</v>
       </c>
-      <c r="C95" t="str">
-        <f t="shared" si="15"/>
+      <c r="C99" t="str">
+        <f t="shared" si="18"/>
         <v>大阪府寝屋川市点野</v>
       </c>
-      <c r="D95" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%AF%9D%E5%B1%8B%E5%B7%9D%E5%B8%82%E7%82%B9%E9%87%8E</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="17"/>
+      <c r="E99" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府寝屋川市点野&lt;/query&gt;
@@ -5316,38 +5525,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F95" cm="1">
-        <f t="array" ref="F95">INDEX(_xlfn.FILTERXML(E95,"//latitude"),1)</f>
+      <c r="F99" cm="1">
+        <f t="array" ref="F99">INDEX(_xlfn.FILTERXML(E99,"//latitude"),1)</f>
         <v>34.780231000000001</v>
       </c>
-      <c r="G95" cm="1">
-        <f t="array" ref="G95">INDEX(_xlfn.FILTERXML(E95,"//longitude"),1)</f>
+      <c r="G99" cm="1">
+        <f t="array" ref="G99">INDEX(_xlfn.FILTERXML(E99,"//longitude"),1)</f>
         <v>135.605133</v>
       </c>
-      <c r="H95">
+      <c r="H99">
         <v>34.780231000000001</v>
       </c>
-      <c r="I95">
+      <c r="I99">
         <v>135.605133</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>43</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" t="s">
         <v>44</v>
       </c>
-      <c r="C96" t="str">
-        <f t="shared" si="15"/>
+      <c r="C100" t="str">
+        <f t="shared" si="18"/>
         <v>岡山県岡山市南区福富西2丁目</v>
       </c>
-      <c r="D96" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%A1%E5%B1%B1%E7%9C%8C%E5%B2%A1%E5%B1%B1%E5%B8%82%E5%8D%97%E5%8C%BA%E7%A6%8F%E5%AF%8C%E8%A5%BF2%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="17"/>
+      <c r="E100" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岡山県岡山市南区福富西2丁目&lt;/query&gt;
@@ -5363,38 +5572,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F96" cm="1">
-        <f t="array" ref="F96">INDEX(_xlfn.FILTERXML(E96,"//latitude"),1)</f>
+      <c r="F100" cm="1">
+        <f t="array" ref="F100">INDEX(_xlfn.FILTERXML(E100,"//latitude"),1)</f>
         <v>34.621516999999997</v>
       </c>
-      <c r="G96" cm="1">
-        <f t="array" ref="G96">INDEX(_xlfn.FILTERXML(E96,"//longitude"),1)</f>
+      <c r="G100" cm="1">
+        <f t="array" ref="G100">INDEX(_xlfn.FILTERXML(E100,"//longitude"),1)</f>
         <v>133.93177800000001</v>
       </c>
-      <c r="H96">
+      <c r="H100">
         <v>34.621516999999997</v>
       </c>
-      <c r="I96">
+      <c r="I100">
         <v>133.93177800000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>24</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" t="s">
         <v>56</v>
       </c>
-      <c r="C97" t="str">
-        <f t="shared" si="15"/>
+      <c r="C101" t="str">
+        <f t="shared" si="18"/>
         <v>東京都品川区東五反田</v>
       </c>
-      <c r="D97" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="D101" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%93%81%E5%B7%9D%E5%8C%BA%E6%9D%B1%E4%BA%94%E5%8F%8D%E7%94%B0</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="17"/>
+      <c r="E101" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都品川区東五反田&lt;/query&gt;
@@ -5410,38 +5619,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F97" cm="1">
-        <f t="array" ref="F97">INDEX(_xlfn.FILTERXML(E97,"//latitude"),1)</f>
+      <c r="F101" cm="1">
+        <f t="array" ref="F101">INDEX(_xlfn.FILTERXML(E101,"//latitude"),1)</f>
         <v>35.627761999999997</v>
       </c>
-      <c r="G97" cm="1">
-        <f t="array" ref="G97">INDEX(_xlfn.FILTERXML(E97,"//longitude"),1)</f>
+      <c r="G101" cm="1">
+        <f t="array" ref="G101">INDEX(_xlfn.FILTERXML(E101,"//longitude"),1)</f>
         <v>139.72642500000001</v>
       </c>
-      <c r="H97">
+      <c r="H101">
         <v>35.627761999999997</v>
       </c>
-      <c r="I97">
+      <c r="I101">
         <v>139.72642500000001</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="C98" t="str">
-        <f t="shared" ref="C98:C161" si="18">+A98&amp;B98</f>
+      <c r="C102" t="str">
+        <f t="shared" si="18"/>
         <v>長野県長野市川中島町上氷鉋</v>
       </c>
-      <c r="D98" s="2" t="str">
-        <f t="shared" ref="D98:D161" si="19" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C98)</f>
+      <c r="D102" s="2" t="str">
+        <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E9%87%8E%E7%9C%8C%E9%95%B7%E9%87%8E%E5%B8%82%E5%B7%9D%E4%B8%AD%E5%B3%B6%E7%94%BA%E4%B8%8A%E6%B0%B7%E9%89%8B</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" ref="E98:E161" si="20" xml:space="preserve"> _xlfn.WEBSERVICE(D98)</f>
+      <c r="E102" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;長野県長野市川中島町上氷鉋&lt;/query&gt;
@@ -5457,37 +5666,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F98" cm="1">
-        <f t="array" ref="F98">INDEX(_xlfn.FILTERXML(E98,"//latitude"),1)</f>
+      <c r="F102" cm="1">
+        <f t="array" ref="F102">INDEX(_xlfn.FILTERXML(E102,"//latitude"),1)</f>
         <v>36.611911999999997</v>
       </c>
-      <c r="G98" cm="1">
-        <f t="array" ref="G98">INDEX(_xlfn.FILTERXML(E98,"//longitude"),1)</f>
+      <c r="G102" cm="1">
+        <f t="array" ref="G102">INDEX(_xlfn.FILTERXML(E102,"//longitude"),1)</f>
         <v>138.157059</v>
       </c>
-      <c r="H98">
+      <c r="H102">
         <v>36.611911999999997</v>
       </c>
-      <c r="I98">
+      <c r="I102">
         <v>138.157059</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
         <v>12</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C103" t="str">
         <f t="shared" si="18"/>
         <v>広島県広島市安佐南区長束西</v>
       </c>
-      <c r="D99" s="2" t="str">
+      <c r="D103" s="2" t="str">
         <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%BA%83%E5%B3%B6%E7%9C%8C%E5%BA%83%E5%B3%B6%E5%B8%82%E5%AE%89%E4%BD%90%E5%8D%97%E5%8C%BA%E9%95%B7%E6%9D%9F%E8%A5%BF</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E103" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5504,37 +5713,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F99" cm="1">
-        <f t="array" ref="F99">INDEX(_xlfn.FILTERXML(E99,"//latitude"),1)</f>
+      <c r="F103" cm="1">
+        <f t="array" ref="F103">INDEX(_xlfn.FILTERXML(E103,"//latitude"),1)</f>
         <v>34.427909999999997</v>
       </c>
-      <c r="G99" cm="1">
-        <f t="array" ref="G99">INDEX(_xlfn.FILTERXML(E99,"//longitude"),1)</f>
+      <c r="G103" cm="1">
+        <f t="array" ref="G103">INDEX(_xlfn.FILTERXML(E103,"//longitude"),1)</f>
         <v>132.450165</v>
       </c>
-      <c r="H99">
+      <c r="H103">
         <v>34.427909999999997</v>
       </c>
-      <c r="I99">
+      <c r="I103">
         <v>132.450165</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B104" t="s">
         <v>103</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C104" t="str">
         <f t="shared" si="18"/>
         <v>愛知県北名古屋市沖村天花寺</v>
       </c>
-      <c r="D100" s="2" t="str">
+      <c r="D104" s="2" t="str">
         <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%8C%97%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82%E6%B2%96%E6%9D%91%E5%A4%A9%E8%8A%B1%E5%AF%BA</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E104" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5551,41 +5760,41 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F100" cm="1">
-        <f t="array" ref="F100">INDEX(_xlfn.FILTERXML(E100,"//latitude"),1)</f>
+      <c r="F104" cm="1">
+        <f t="array" ref="F104">INDEX(_xlfn.FILTERXML(E104,"//latitude"),1)</f>
         <v>35.239272999999997</v>
       </c>
-      <c r="G100" cm="1">
-        <f t="array" ref="G100">INDEX(_xlfn.FILTERXML(E100,"//longitude"),1)</f>
+      <c r="G104" cm="1">
+        <f t="array" ref="G104">INDEX(_xlfn.FILTERXML(E104,"//longitude"),1)</f>
         <v>136.862717</v>
       </c>
-      <c r="H100">
+      <c r="H104">
         <v>35.239272999999997</v>
       </c>
-      <c r="I100">
+      <c r="I104">
         <v>136.862717</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>13</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B105" t="s">
         <v>17</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C105" t="str">
         <f t="shared" si="18"/>
         <v>新潟県新潟市中央区明石</v>
       </c>
-      <c r="D101" s="2" t="str">
+      <c r="D105" s="2" t="str">
         <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%96%B0%E6%BD%9F%E7%9C%8C%E6%96%B0%E6%BD%9F%E5%B8%82%E4%B8%AD%E5%A4%AE%E5%8C%BA%E6%98%8E%E7%9F%B3</v>
       </c>
-      <c r="E101" t="str">
+      <c r="E105" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;新潟県新潟市中央区明石&lt;/query&gt;
+&lt;query&gt;新潟県新潟市中央区明&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
 &lt;converted&gt;新潟県新潟市中央区明石&lt;/converted&gt;
@@ -5598,37 +5807,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F101" cm="1">
-        <f t="array" ref="F101">INDEX(_xlfn.FILTERXML(E101,"//latitude"),1)</f>
+      <c r="F105" cm="1">
+        <f t="array" ref="F105">INDEX(_xlfn.FILTERXML(E105,"//latitude"),1)</f>
         <v>37.916012000000002</v>
       </c>
-      <c r="G101" cm="1">
-        <f t="array" ref="G101">INDEX(_xlfn.FILTERXML(E101,"//longitude"),1)</f>
+      <c r="G105" cm="1">
+        <f t="array" ref="G105">INDEX(_xlfn.FILTERXML(E105,"//longitude"),1)</f>
         <v>139.065506</v>
       </c>
-      <c r="H101">
+      <c r="H105">
         <v>37.916012000000002</v>
       </c>
-      <c r="I101">
+      <c r="I105">
         <v>139.065506</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" t="s">
         <v>14</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C106" t="str">
         <f t="shared" si="18"/>
         <v>埼玉県秩父市熊木町</v>
       </c>
-      <c r="D102" s="2" t="str">
+      <c r="D106" s="2" t="str">
         <f t="shared" si="19"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%A7%A9%E7%88%B6%E5%B8%82%E7%86%8A%E6%9C%A8%E7%94%BA</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E106" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -5645,222 +5854,160 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F102" cm="1">
-        <f t="array" ref="F102">INDEX(_xlfn.FILTERXML(E102,"//latitude"),1)</f>
+      <c r="F106" cm="1">
+        <f t="array" ref="F106">INDEX(_xlfn.FILTERXML(E106,"//latitude"),1)</f>
         <v>35.991272000000002</v>
       </c>
-      <c r="G102" cm="1">
-        <f t="array" ref="G102">INDEX(_xlfn.FILTERXML(E102,"//longitude"),1)</f>
+      <c r="G106" cm="1">
+        <f t="array" ref="G106">INDEX(_xlfn.FILTERXML(E106,"//longitude"),1)</f>
         <v>139.08822599999999</v>
       </c>
-      <c r="H102">
+      <c r="H106">
         <v>35.991272000000002</v>
       </c>
-      <c r="I102">
+      <c r="I106">
         <v>139.08822599999999</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C103" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D103" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F103" t="e" cm="1">
-        <f t="array" ref="F103">INDEX(_xlfn.FILTERXML(E103,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G103" t="e" cm="1">
-        <f t="array" ref="G103">INDEX(_xlfn.FILTERXML(E103,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C104" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D104" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F104" t="e" cm="1">
-        <f t="array" ref="F104">INDEX(_xlfn.FILTERXML(E104,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G104" t="e" cm="1">
-        <f t="array" ref="G104">INDEX(_xlfn.FILTERXML(E104,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C105" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D105" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F105" t="e" cm="1">
-        <f t="array" ref="F105">INDEX(_xlfn.FILTERXML(E105,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" t="e" cm="1">
-        <f t="array" ref="G105">INDEX(_xlfn.FILTERXML(E105,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C106" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="D106" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F106" t="e" cm="1">
-        <f t="array" ref="F106">INDEX(_xlfn.FILTERXML(E106,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G106" t="e" cm="1">
-        <f t="array" ref="G106">INDEX(_xlfn.FILTERXML(E106,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
       <c r="C107" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>大阪府大阪市</v>
       </c>
       <c r="D107" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F107" t="e" cm="1">
+&lt;query&gt;大阪府大阪市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市&lt;/address&gt;
+&lt;longitude&gt;135.502045&lt;/longitude&gt;
+&lt;latitude&gt;34.693890&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F107" cm="1">
         <f t="array" ref="F107">INDEX(_xlfn.FILTERXML(E107,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G107" t="e" cm="1">
+        <v>34.693890000000003</v>
+      </c>
+      <c r="G107" cm="1">
         <f t="array" ref="G107">INDEX(_xlfn.FILTERXML(E107,"//longitude"),1)</f>
-        <v>#VALUE!</v>
+        <v>135.50204500000001</v>
+      </c>
+      <c r="H107">
+        <v>34.693890000000003</v>
+      </c>
+      <c r="I107">
+        <v>135.50204500000001</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>140</v>
+      </c>
       <c r="C108" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>埼玉県春日部市備後西</v>
       </c>
       <c r="D108" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E6%98%A5%E6%97%A5%E9%83%A8%E5%B8%82%E5%82%99%E5%BE%8C%E8%A5%BF</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F108" t="e" cm="1">
+&lt;query&gt;埼玉県春日部市備後西&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県春日部市備後西&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/春日部市/備後西&lt;/address&gt;
+&lt;longitude&gt;139.766632&lt;/longitude&gt;
+&lt;latitude&gt;35.959019&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F108" cm="1">
         <f t="array" ref="F108">INDEX(_xlfn.FILTERXML(E108,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G108" t="e" cm="1">
+        <v>35.959018999999998</v>
+      </c>
+      <c r="G108" cm="1">
         <f t="array" ref="G108">INDEX(_xlfn.FILTERXML(E108,"//longitude"),1)</f>
-        <v>#VALUE!</v>
+        <v>139.76663199999999</v>
+      </c>
+      <c r="H108">
+        <v>35.959018999999998</v>
+      </c>
+      <c r="I108">
+        <v>139.76663199999999</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
       <c r="C109" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>愛知県安城市緑町</v>
       </c>
       <c r="D109" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%84%9B%E7%9F%A5%E7%9C%8C%E5%AE%89%E5%9F%8E%E5%B8%82%E7%B7%91%E7%94%BA</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F109" t="e" cm="1">
+&lt;query&gt;愛知県安城市緑町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;愛知県安城市緑町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;愛知県/安城市/緑町&lt;/address&gt;
+&lt;longitude&gt;137.051010&lt;/longitude&gt;
+&lt;latitude&gt;34.973072&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F109" cm="1">
         <f t="array" ref="F109">INDEX(_xlfn.FILTERXML(E109,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G109" t="e" cm="1">
+        <v>34.973072000000002</v>
+      </c>
+      <c r="G109" cm="1">
         <f t="array" ref="G109">INDEX(_xlfn.FILTERXML(E109,"//longitude"),1)</f>
-        <v>#VALUE!</v>
+        <v>137.05100999999999</v>
+      </c>
+      <c r="H109">
+        <v>34.973072000000002</v>
+      </c>
+      <c r="I109">
+        <v>137.05100999999999</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F7A04-C4B2-49A7-BB2B-FAB682949728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE319393-FA64-45F8-852F-BFC2E30076DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="585" windowWidth="23040" windowHeight="15240" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="32310" yWindow="960" windowWidth="23040" windowHeight="15240" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>jio0</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>足立区加平</t>
+  </si>
+  <si>
+    <t>渋谷区渋谷</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I4"/>
+      <selection activeCell="H2" sqref="H2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -552,21 +555,68 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>千葉県船橋市</v>
+        <v>東京都渋谷区渋谷</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都渋谷区渋谷&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都渋谷区渋谷&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/渋谷区/渋谷&lt;/address&gt;
+&lt;longitude&gt;139.704285&lt;/longitude&gt;
+&lt;latitude&gt;35.661812&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.661811999999998</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>139.704285</v>
+      </c>
+      <c r="H2">
+        <v>35.661811999999998</v>
+      </c>
+      <c r="I2">
+        <v>139.704285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>千葉県船橋市</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県船橋市&lt;/query&gt;
@@ -582,38 +632,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>35.694710000000001</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都足立区加平&lt;/query&gt;
@@ -629,38 +679,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>35.775902000000002</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都足立区加平&lt;/query&gt;
@@ -676,54 +726,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>35.775902000000002</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>139.82685900000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
-        <v/>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F5" t="e" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" t="e" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5">
-        <v>35.117122999999999</v>
-      </c>
-      <c r="I5">
-        <v>137.021759</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE319393-FA64-45F8-852F-BFC2E30076DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F763FD-729F-4113-AFB2-842FA1561612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="960" windowWidth="23040" windowHeight="15240" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="29910" yWindow="2145" windowWidth="23040" windowHeight="15240" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>jio0</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>渋谷区渋谷</t>
+  </si>
+  <si>
+    <t>熊本県</t>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+  </si>
+  <si>
+    <t>平塚市南原</t>
+  </si>
+  <si>
+    <t>文京区湯島</t>
+  </si>
+  <si>
+    <t>江東区有明1-5-2</t>
+  </si>
+  <si>
+    <t>三重県</t>
+  </si>
+  <si>
+    <t>四日市市白須賀</t>
+  </si>
+  <si>
+    <t>大阪府</t>
+  </si>
+  <si>
+    <t>堺市北区金岡町</t>
   </si>
 </sst>
 </file>
@@ -512,7 +542,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I5"/>
+      <selection activeCell="H2" sqref="H2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -555,21 +585,303 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>東京都渋谷区渋谷</v>
+        <v>熊本県熊本市東区</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;熊本県熊本市東区&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;熊本県熊本市東区&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;熊本県/熊本市/東区&lt;/address&gt;
+&lt;longitude&gt;130.768066&lt;/longitude&gt;
+&lt;latitude&gt;32.780529&lt;/latitude&gt;
+&lt;iLvl&gt;4&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>32.780529000000001</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>130.768066</v>
+      </c>
+      <c r="H2">
+        <v>32.780529000000001</v>
+      </c>
+      <c r="I2">
+        <v>130.768066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>神奈川県平塚市南原</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県平塚市南原&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県平塚市南原&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/平塚市/南原&lt;/address&gt;
+&lt;longitude&gt;139.326263&lt;/longitude&gt;
+&lt;latitude&gt;35.337265&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>35.337265000000002</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>139.32626300000001</v>
+      </c>
+      <c r="H3">
+        <v>35.337265000000002</v>
+      </c>
+      <c r="I3">
+        <v>139.32626300000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>東京都文京区湯島</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%B9%AF%E5%B3%B6</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都文京区湯島&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都文京区湯島&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/文京区/湯島&lt;/address&gt;
+&lt;longitude&gt;139.764618&lt;/longitude&gt;
+&lt;latitude&gt;35.701412&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.701411999999998</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>139.76461800000001</v>
+      </c>
+      <c r="H4">
+        <v>35.701411999999998</v>
+      </c>
+      <c r="I4">
+        <v>139.76461800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>東京都江東区有明1-5-2</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%9C%89%E6%98%8E1-5-2</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都江東区有明1-5-2&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都江東区有明1-5-2&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/江東区/有明/一丁目/５番/２号&lt;/address&gt;
+&lt;longitude&gt;139.783432&lt;/longitude&gt;
+&lt;latitude&gt;35.636200&lt;/latitude&gt;
+&lt;iLvl&gt;8&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>35.636200000000002</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>139.783432</v>
+      </c>
+      <c r="H5">
+        <v>35.636200000000002</v>
+      </c>
+      <c r="I5">
+        <v>139.783432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>三重県四日市市白須賀</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E5%9B%9B%E6%97%A5%E5%B8%82%E5%B8%82%E7%99%BD%E9%A0%88%E8%B3%80</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;三重県四日市市白須賀&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;三重県四日市市白須賀&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;三重県/四日市市/白須賀&lt;/address&gt;
+&lt;longitude&gt;136.643173&lt;/longitude&gt;
+&lt;latitude&gt;34.989986&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+        <v>34.989986000000002</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+        <v>136.64317299999999</v>
+      </c>
+      <c r="H6">
+        <v>34.989986000000002</v>
+      </c>
+      <c r="I6">
+        <v>136.64317299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>大阪府堺市北区金岡町</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E5%8C%97%E5%8C%BA%E9%87%91%E5%B2%A1%E7%94%BA</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府堺市北区金岡町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府堺市北区金岡町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/堺市/北区/金岡町&lt;/address&gt;
+&lt;longitude&gt;135.518890&lt;/longitude&gt;
+&lt;latitude&gt;34.556915&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>34.556914999999996</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>135.51889</v>
+      </c>
+      <c r="H7">
+        <v>34.556914999999996</v>
+      </c>
+      <c r="I7">
+        <v>135.51889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都渋谷区渋谷</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都渋谷区渋谷&lt;/query&gt;
@@ -585,38 +897,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>35.661811999999998</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>139.704285</v>
       </c>
-      <c r="H2">
+      <c r="H8">
         <v>35.661811999999998</v>
       </c>
-      <c r="I2">
+      <c r="I8">
         <v>139.704285</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県船橋市&lt;/query&gt;
@@ -632,38 +944,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H3">
+      <c r="H9">
         <v>35.694710000000001</v>
       </c>
-      <c r="I3">
+      <c r="I9">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都足立区加平&lt;/query&gt;
@@ -679,38 +991,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H4">
+      <c r="H10">
         <v>35.775902000000002</v>
       </c>
-      <c r="I4">
+      <c r="I10">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都足立区加平&lt;/query&gt;
@@ -726,229 +1038,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H5">
+      <c r="H11">
         <v>35.775902000000002</v>
       </c>
-      <c r="I5">
+      <c r="I11">
         <v>139.82685900000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
-        <v/>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F6" t="e" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6">
-        <v>34.868172000000001</v>
-      </c>
-      <c r="I6">
-        <v>136.912384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
-        <v/>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F7" t="e" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7">
-        <v>34.463569999999997</v>
-      </c>
-      <c r="I7">
-        <v>135.40183999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C8" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F8" t="e" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" t="e" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H8">
-        <v>33.583351</v>
-      </c>
-      <c r="I8">
-        <v>130.41287199999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F9" t="e" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" t="e" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9">
-        <v>35.725349000000001</v>
-      </c>
-      <c r="I9">
-        <v>139.57894899999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F10" t="e" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" t="e" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10">
-        <v>36.383808000000002</v>
-      </c>
-      <c r="I10">
-        <v>136.45155299999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F11" t="e" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" t="e" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11">
-        <v>35.758189999999999</v>
-      </c>
-      <c r="I11">
-        <v>139.859421</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F763FD-729F-4113-AFB2-842FA1561612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10462A03-D4C6-4A1D-BF01-40719F45B92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29910" yWindow="2145" windowWidth="23040" windowHeight="15240" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="24840" yWindow="2925" windowWidth="27075" windowHeight="14490" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>jio0</t>
   </si>
@@ -133,6 +133,57 @@
   </si>
   <si>
     <t>堺市北区金岡町</t>
+  </si>
+  <si>
+    <t>文京区本駒込</t>
+  </si>
+  <si>
+    <t>兵庫県</t>
+  </si>
+  <si>
+    <t>宝塚市すみれが丘3丁目</t>
+  </si>
+  <si>
+    <t>小田原市酒匂</t>
+  </si>
+  <si>
+    <t>宮城県</t>
+  </si>
+  <si>
+    <t>岩沼市</t>
+  </si>
+  <si>
+    <t>茨城県</t>
+  </si>
+  <si>
+    <t>日立市久慈町</t>
+  </si>
+  <si>
+    <t>稲城市若葉台</t>
+  </si>
+  <si>
+    <t>香川県</t>
+  </si>
+  <si>
+    <t>高松市川島東町</t>
+  </si>
+  <si>
+    <t>横浜市西区平沼</t>
+  </si>
+  <si>
+    <t>大阪市港区三先</t>
+  </si>
+  <si>
+    <t>奈良県</t>
+  </si>
+  <si>
+    <t>生駒市萩原町</t>
+  </si>
+  <si>
+    <t>岐阜県</t>
+  </si>
+  <si>
+    <t>多治見市宝町</t>
   </si>
 </sst>
 </file>
@@ -542,7 +593,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I11"/>
+      <selection activeCell="H2" sqref="H2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -585,21 +636,115 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>熊本県熊本市東区</v>
+        <v>東京都文京区本駒込</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都文京区本駒込&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都文京区本駒込&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/文京区/本駒込&lt;/address&gt;
+&lt;longitude&gt;139.751480&lt;/longitude&gt;
+&lt;latitude&gt;35.725502&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.725501999999999</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>139.75147999999999</v>
+      </c>
+      <c r="H2">
+        <v>35.725501999999999</v>
+      </c>
+      <c r="I2">
+        <v>139.75147999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>兵庫県宝塚市すみれが丘3丁目</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82%E3%81%99%E3%81%BF%E3%82%8C%E3%81%8C%E4%B8%983%E4%B8%81%E7%9B%AE</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県宝塚市すみれが丘3丁目&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県宝塚市すみれが丘3丁目&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/宝塚市/すみれガ丘/三丁目&lt;/address&gt;
+&lt;longitude&gt;135.345490&lt;/longitude&gt;
+&lt;latitude&gt;34.825718&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>34.825718000000002</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>135.34549000000001</v>
+      </c>
+      <c r="H3">
+        <v>34.825718000000002</v>
+      </c>
+      <c r="I3">
+        <v>135.34549000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>熊本県熊本市東区</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;熊本県熊本市東区&lt;/query&gt;
@@ -615,38 +760,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
         <v>32.780529000000001</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
         <v>130.768066</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>32.780529000000001</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>130.768066</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県平塚市南原&lt;/query&gt;
@@ -662,38 +807,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>35.337265000000002</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
         <v>東京都文京区湯島</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%B9%AF%E5%B3%B6</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都文京区湯島&lt;/query&gt;
@@ -709,38 +854,132 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>35.701411999999998</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>139.76461800000001</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>35.701411999999998</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>139.76461800000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>神奈川県小田原市酒匂</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B0%8F%E7%94%B0%E5%8E%9F%E5%B8%82%E9%85%92%E5%8C%82</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県小田原市酒匂&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県小田原市酒匂&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/小田原市/酒匂&lt;/address&gt;
+&lt;longitude&gt;139.186783&lt;/longitude&gt;
+&lt;latitude&gt;35.274521&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>35.274521</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>139.18678299999999</v>
+      </c>
+      <c r="H7">
+        <v>35.274521</v>
+      </c>
+      <c r="I7">
+        <v>139.18678299999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
+        <v>宮城県岩沼市</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E5%B2%A9%E6%B2%BC%E5%B8%82</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;宮城県岩沼市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;宮城県岩沼市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;宮城県/岩沼市&lt;/address&gt;
+&lt;longitude&gt;140.869949&lt;/longitude&gt;
+&lt;latitude&gt;38.104301&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+        <v>38.104301</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+        <v>140.86994899999999</v>
+      </c>
+      <c r="H8">
+        <v>38.104301</v>
+      </c>
+      <c r="I8">
+        <v>140.86994899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>東京都江東区有明1-5-2</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%9C%89%E6%98%8E1-5-2</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都江東区有明1-5-2&lt;/query&gt;
@@ -756,38 +995,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>35.636200000000002</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>139.783432</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>35.636200000000002</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>139.783432</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>三重県四日市市白須賀</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E5%9B%9B%E6%97%A5%E5%B8%82%E5%B8%82%E7%99%BD%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;三重県四日市市白須賀&lt;/query&gt;
@@ -803,38 +1042,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>34.989986000000002</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>136.64317299999999</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>34.989986000000002</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>136.64317299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>大阪府堺市北区金岡町</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E5%8C%97%E5%8C%BA%E9%87%91%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府堺市北区金岡町&lt;/query&gt;
@@ -850,37 +1089,84 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>34.556914999999996</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>135.51889</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>34.556914999999996</v>
       </c>
-      <c r="I7">
+      <c r="I11">
         <v>135.51889</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="9"/>
+        <v>茨城県日立市久慈町</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;茨城県日立市久慈町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;茨城県日立市久慈町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;茨城県/日立市/久慈町&lt;/address&gt;
+&lt;longitude&gt;140.622589&lt;/longitude&gt;
+&lt;latitude&gt;36.498386&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+        <v>36.498386000000004</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+        <v>140.622589</v>
+      </c>
+      <c r="H12">
+        <v>36.498386000000004</v>
+      </c>
+      <c r="I12">
+        <v>140.622589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>東京都渋谷区渋谷</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -897,37 +1183,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>35.661811999999998</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>139.704285</v>
       </c>
-      <c r="H8">
+      <c r="H13">
         <v>35.661811999999998</v>
       </c>
-      <c r="I8">
+      <c r="I13">
         <v>139.704285</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -944,37 +1230,272 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H9">
+      <c r="H14">
         <v>35.694710000000001</v>
       </c>
-      <c r="I9">
+      <c r="I14">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都稲城市若葉台</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都稲城市若葉台&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都稲城市若葉台&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/稲城市/若葉台&lt;/address&gt;
+&lt;longitude&gt;139.476151&lt;/longitude&gt;
+&lt;latitude&gt;35.626038&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+        <v>35.626038000000001</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+        <v>139.47615099999999</v>
+      </c>
+      <c r="H15">
+        <v>35.626038000000001</v>
+      </c>
+      <c r="I15">
+        <v>139.47615099999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="9"/>
+        <v>香川県高松市川島東町</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;香川県高松市川島東町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;香川県高松市川島東町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;香川県/高松市/川島東町&lt;/address&gt;
+&lt;longitude&gt;134.092133&lt;/longitude&gt;
+&lt;latitude&gt;34.266705&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+        <v>34.266705000000002</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+        <v>134.09213299999999</v>
+      </c>
+      <c r="H16">
+        <v>34.266705000000002</v>
+      </c>
+      <c r="I16">
+        <v>134.09213299999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="9"/>
+        <v>神奈川県横浜市西区平沼</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県横浜市西区平沼&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県横浜市西区平沼&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/横浜市/西区/平沼&lt;/address&gt;
+&lt;longitude&gt;139.619644&lt;/longitude&gt;
+&lt;latitude&gt;35.460503&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+        <v>35.460503000000003</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+        <v>139.61964399999999</v>
+      </c>
+      <c r="H17">
+        <v>35.460503000000003</v>
+      </c>
+      <c r="I17">
+        <v>139.61964399999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="9"/>
+        <v>大阪府大阪市港区三先</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;大阪府大阪市港区三先&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;大阪府大阪市港区三先&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;大阪府/大阪市/港区/三先&lt;/address&gt;
+&lt;longitude&gt;135.455338&lt;/longitude&gt;
+&lt;latitude&gt;34.660412&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+        <v>34.660412000000001</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+        <v>135.45533800000001</v>
+      </c>
+      <c r="H18">
+        <v>34.660412000000001</v>
+      </c>
+      <c r="I18">
+        <v>135.45533800000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="9"/>
+        <v>奈良県生駒市萩原町</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;奈良県生駒市萩原町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;奈良県生駒市萩原町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;奈良県/生駒市/萩原町&lt;/address&gt;
+&lt;longitude&gt;135.702087&lt;/longitude&gt;
+&lt;latitude&gt;34.665543&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+        <v>34.665543</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+        <v>135.70208700000001</v>
+      </c>
+      <c r="H19">
+        <v>34.665543</v>
+      </c>
+      <c r="I19">
+        <v>135.70208700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -991,37 +1512,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H10">
+      <c r="H20">
         <v>35.775902000000002</v>
       </c>
-      <c r="I10">
+      <c r="I20">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1038,407 +1559,69 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H11">
+      <c r="H21">
         <v>35.775902000000002</v>
       </c>
-      <c r="I11">
+      <c r="I21">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C12" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F12" t="e" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" t="e" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12">
-        <v>35.741249000000003</v>
-      </c>
-      <c r="I12">
-        <v>139.611557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F13" t="e" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" t="e" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13">
-        <v>35.502662999999998</v>
-      </c>
-      <c r="I13">
-        <v>139.64917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F14" t="e" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" t="e" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14">
-        <v>36.069735999999999</v>
-      </c>
-      <c r="I14">
-        <v>140.095856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F15" t="e" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" t="e" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15">
-        <v>34.722068999999998</v>
-      </c>
-      <c r="I15">
-        <v>137.82182299999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C16" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F16" t="e" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" t="e" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16">
-        <v>35.714385999999998</v>
-      </c>
-      <c r="I16">
-        <v>139.93398999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F17" t="e" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" t="e" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17">
-        <v>34.727791000000003</v>
-      </c>
-      <c r="I17">
-        <v>135.23469499999999</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C18" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F18" t="e" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" t="e" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18">
-        <v>35.601962999999998</v>
-      </c>
-      <c r="I18">
-        <v>139.50810200000001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C19" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F19" t="e" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" t="e" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19">
-        <v>35.199032000000003</v>
-      </c>
-      <c r="I19">
-        <v>136.84873999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C20" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F20" t="e" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" t="e" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20">
-        <v>35.700394000000003</v>
-      </c>
-      <c r="I20">
-        <v>139.725525</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F21" t="e" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" t="e" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21">
-        <v>35.700394000000003</v>
-      </c>
-      <c r="I21">
-        <v>139.725525</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>岐阜県多治見市宝町</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F22" t="e" cm="1">
+&lt;query&gt;岐阜県多治見市宝町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;岐阜県多治見市宝町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;岐阜県/多治見市/宝町&lt;/address&gt;
+&lt;longitude&gt;137.113083&lt;/longitude&gt;
+&lt;latitude&gt;35.338383&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F22" cm="1">
         <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" t="e" cm="1">
+        <v>35.338383</v>
+      </c>
+      <c r="G22" cm="1">
         <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
-        <v>#VALUE!</v>
+        <v>137.11308299999999</v>
       </c>
       <c r="H22">
-        <v>35.409416</v>
+        <v>35.338383</v>
       </c>
       <c r="I22">
-        <v>136.84584000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+        <v>137.11308299999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -1473,7 +1656,7 @@
         <v>129.865433</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -1508,7 +1691,7 @@
         <v>135.50018299999999</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C25" t="str">
         <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v/>
@@ -1543,7 +1726,7 @@
         <v>139.52281199999999</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C26" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -1578,7 +1761,7 @@
         <v>135.357193</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C27" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -1613,7 +1796,7 @@
         <v>129.87789900000001</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C28" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -1648,7 +1831,7 @@
         <v>138.24023399999999</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C29" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -1683,7 +1866,7 @@
         <v>135.470383</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C30" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -1718,7 +1901,7 @@
         <v>134.671402</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C31" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -1753,7 +1936,7 @@
         <v>139.73558</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C32" t="str">
         <f t="shared" si="12"/>
         <v/>

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10462A03-D4C6-4A1D-BF01-40719F45B92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2A08F-493A-4427-939C-565648AFB445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="2925" windowWidth="27075" windowHeight="14490" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="1830" yWindow="735" windowWidth="27075" windowHeight="14490" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>jio0</t>
   </si>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>多治見市宝町</t>
+  </si>
+  <si>
+    <t>埼玉県</t>
+  </si>
+  <si>
+    <t>越谷市袋山２０２１－１</t>
+  </si>
+  <si>
+    <t>佐賀県</t>
+  </si>
+  <si>
+    <t>佐賀市</t>
+  </si>
+  <si>
+    <t>石川県</t>
+  </si>
+  <si>
+    <t>金沢市法島町</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>京都市下京区西橋詰町</t>
   </si>
 </sst>
 </file>
@@ -593,7 +617,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I22"/>
+      <selection activeCell="H2" sqref="H2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -636,21 +660,209 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>東京都文京区本駒込</v>
+        <v>埼玉県越谷市袋山２０２１－１</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%A2%8B%E5%B1%B1%EF%BC%92%EF%BC%90%EF%BC%92%EF%BC%91%EF%BC%8D%EF%BC%91</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;埼玉県越谷市袋山２０２１−１&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県越谷市袋山２０２１−&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/越谷市/袋山/２０２１番地&lt;/address&gt;
+&lt;longitude&gt;139.779617&lt;/longitude&gt;
+&lt;latitude&gt;35.922440&lt;/latitude&gt;
+&lt;iLvl&gt;7&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.922440000000002</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>139.779617</v>
+      </c>
+      <c r="H2">
+        <v>35.922440000000002</v>
+      </c>
+      <c r="I2">
+        <v>139.779617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>佐賀県佐賀市</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BD%90%E8%B3%80%E7%9C%8C%E4%BD%90%E8%B3%80%E5%B8%82</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;佐賀県佐賀市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;佐賀県佐賀市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;佐賀県/佐賀市&lt;/address&gt;
+&lt;longitude&gt;130.300842&lt;/longitude&gt;
+&lt;latitude&gt;33.263542&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>33.263542000000001</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>130.30084199999999</v>
+      </c>
+      <c r="H3">
+        <v>33.263542000000001</v>
+      </c>
+      <c r="I3">
+        <v>130.30084199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>石川県金沢市法島町</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82%E6%B3%95%E5%B3%B6%E7%94%BA</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;石川県金沢市法島町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;石川県金沢市法島町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;石川県/金沢市/法島町&lt;/address&gt;
+&lt;longitude&gt;136.663528&lt;/longitude&gt;
+&lt;latitude&gt;36.546051&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>36.546050999999999</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>136.66352800000001</v>
+      </c>
+      <c r="H4">
+        <v>36.546050999999999</v>
+      </c>
+      <c r="I4">
+        <v>136.66352800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>京都府京都市下京区西橋詰町</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E9%83%BD%E5%B8%82%E4%B8%8B%E4%BA%AC%E5%8C%BA%E8%A5%BF%E6%A9%8B%E8%A9%B0%E7%94%BA</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;京都府京都市下京区西橋詰町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;京都府京都市下京区西橋詰町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;京都府/京都市/下京区/西橋詰町&lt;/address&gt;
+&lt;longitude&gt;135.767090&lt;/longitude&gt;
+&lt;latitude&gt;34.996708&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>34.996707999999998</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>135.76709</v>
+      </c>
+      <c r="H5">
+        <v>34.996707999999998</v>
+      </c>
+      <c r="I5">
+        <v>135.76709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>東京都文京区本駒込</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都文京区本駒込&lt;/query&gt;
@@ -666,38 +878,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>35.725501999999999</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>139.75147999999999</v>
       </c>
-      <c r="H2">
+      <c r="H6">
         <v>35.725501999999999</v>
       </c>
-      <c r="I2">
+      <c r="I6">
         <v>139.75147999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
         <v>兵庫県宝塚市すみれが丘3丁目</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82%E3%81%99%E3%81%BF%E3%82%8C%E3%81%8C%E4%B8%983%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県宝塚市すみれが丘3丁目&lt;/query&gt;
@@ -713,38 +925,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
         <v>34.825718000000002</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
         <v>135.34549000000001</v>
       </c>
-      <c r="H3">
+      <c r="H7">
         <v>34.825718000000002</v>
       </c>
-      <c r="I3">
+      <c r="I7">
         <v>135.34549000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
         <v>熊本県熊本市東区</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;熊本県熊本市東区&lt;/query&gt;
@@ -760,38 +972,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>32.780529000000001</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>130.768066</v>
       </c>
-      <c r="H4">
+      <c r="H8">
         <v>32.780529000000001</v>
       </c>
-      <c r="I4">
+      <c r="I8">
         <v>130.768066</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県平塚市南原&lt;/query&gt;
@@ -807,38 +1019,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>35.337265000000002</v>
       </c>
-      <c r="I5">
+      <c r="I9">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>東京都文京区湯島</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%B9%AF%E5%B3%B6</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都文京区湯島&lt;/query&gt;
@@ -854,38 +1066,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.701411999999998</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>139.76461800000001</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>35.701411999999998</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>139.76461800000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>神奈川県小田原市酒匂</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B0%8F%E7%94%B0%E5%8E%9F%E5%B8%82%E9%85%92%E5%8C%82</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県小田原市酒匂&lt;/query&gt;
@@ -901,37 +1113,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.274521</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>139.18678299999999</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>35.274521</v>
       </c>
-      <c r="I7">
+      <c r="I11">
         <v>139.18678299999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="9"/>
         <v>宮城県岩沼市</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E5%B2%A9%E6%B2%BC%E5%B8%82</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -948,37 +1160,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>38.104301</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>140.86994899999999</v>
       </c>
-      <c r="H8">
+      <c r="H12">
         <v>38.104301</v>
       </c>
-      <c r="I8">
+      <c r="I12">
         <v>140.86994899999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>東京都江東区有明1-5-2</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%9C%89%E6%98%8E1-5-2</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -995,37 +1207,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>35.636200000000002</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>139.783432</v>
       </c>
-      <c r="H9">
+      <c r="H13">
         <v>35.636200000000002</v>
       </c>
-      <c r="I9">
+      <c r="I13">
         <v>139.783432</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>三重県四日市市白須賀</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E5%9B%9B%E6%97%A5%E5%B8%82%E5%B8%82%E7%99%BD%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1042,37 +1254,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>34.989986000000002</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>136.64317299999999</v>
       </c>
-      <c r="H10">
+      <c r="H14">
         <v>34.989986000000002</v>
       </c>
-      <c r="I10">
+      <c r="I14">
         <v>136.64317299999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>大阪府堺市北区金岡町</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E5%8C%97%E5%8C%BA%E9%87%91%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1089,37 +1301,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>34.556914999999996</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>135.51889</v>
       </c>
-      <c r="H11">
+      <c r="H15">
         <v>34.556914999999996</v>
       </c>
-      <c r="I11">
+      <c r="I15">
         <v>135.51889</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1136,37 +1348,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H12">
+      <c r="H16">
         <v>36.498386000000004</v>
       </c>
-      <c r="I12">
+      <c r="I16">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>東京都渋谷区渋谷</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1183,37 +1395,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>35.661811999999998</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>139.704285</v>
       </c>
-      <c r="H13">
+      <c r="H17">
         <v>35.661811999999998</v>
       </c>
-      <c r="I13">
+      <c r="I17">
         <v>139.704285</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1230,37 +1442,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H14">
+      <c r="H18">
         <v>35.694710000000001</v>
       </c>
-      <c r="I14">
+      <c r="I18">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1277,37 +1489,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H15">
+      <c r="H19">
         <v>35.626038000000001</v>
       </c>
-      <c r="I15">
+      <c r="I19">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1324,37 +1536,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H16">
+      <c r="H20">
         <v>34.266705000000002</v>
       </c>
-      <c r="I16">
+      <c r="I20">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1371,37 +1583,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H17">
+      <c r="H21">
         <v>35.460503000000003</v>
       </c>
-      <c r="I17">
+      <c r="I21">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1418,37 +1630,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H18">
+      <c r="H22">
         <v>34.660412000000001</v>
       </c>
-      <c r="I18">
+      <c r="I22">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1465,37 +1677,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>34.665543</v>
       </c>
-      <c r="I19">
+      <c r="I23">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1512,38 +1724,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>35.775902000000002</v>
       </c>
-      <c r="I20">
+      <c r="I24">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都足立区加平&lt;/query&gt;
@@ -1559,38 +1771,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>35.775902000000002</v>
       </c>
-      <c r="I21">
+      <c r="I25">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;岐阜県多治見市宝町&lt;/query&gt;
@@ -1606,159 +1818,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>35.338383</v>
       </c>
-      <c r="I22">
+      <c r="I26">
         <v>137.11308299999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F23" t="e" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" t="e" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23">
-        <v>33.442512999999998</v>
-      </c>
-      <c r="I23">
-        <v>129.865433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F24" t="e" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G24" t="e" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24">
-        <v>34.725250000000003</v>
-      </c>
-      <c r="I24">
-        <v>135.50018299999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
-        <v/>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F25" t="e" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G25" t="e" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25">
-        <v>35.50938</v>
-      </c>
-      <c r="I25">
-        <v>139.52281199999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C26" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F26" t="e" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" t="e" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26">
-        <v>34.762478000000002</v>
-      </c>
-      <c r="I26">
-        <v>135.357193</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2A08F-493A-4427-939C-565648AFB445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751FADC0-982F-4319-B74F-BF6F932A7F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="735" windowWidth="27075" windowHeight="14490" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="30885" yWindow="210" windowWidth="26505" windowHeight="14070" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>jio0</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>京都市下京区西橋詰町</t>
+  </si>
+  <si>
+    <t>藤沢市大庭</t>
+  </si>
+  <si>
+    <t>東村山市栄町</t>
+  </si>
+  <si>
+    <t>宇治市五ヶ庄広岡谷</t>
   </si>
 </sst>
 </file>
@@ -617,7 +626,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I26"/>
+      <selection activeCell="H2" sqref="H2:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -660,21 +669,162 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>埼玉県越谷市袋山２０２１－１</v>
+        <v>神奈川県藤沢市大庭</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%A2%8B%E5%B1%B1%EF%BC%92%EF%BC%90%EF%BC%92%EF%BC%91%EF%BC%8D%EF%BC%91</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E8%97%A4%E6%B2%A2%E5%B8%82%E5%A4%A7%E5%BA%AD</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;神奈川県藤沢市大庭&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;神奈川県藤沢市大庭&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;神奈川県/藤沢市/大庭&lt;/address&gt;
+&lt;longitude&gt;139.446350&lt;/longitude&gt;
+&lt;latitude&gt;35.360580&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.360579999999999</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>139.44635</v>
+      </c>
+      <c r="H2">
+        <v>35.360579999999999</v>
+      </c>
+      <c r="I2">
+        <v>139.44635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>東京都東村山市栄町</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%9D%B1%E6%9D%91%E5%B1%B1%E5%B8%82%E6%A0%84%E7%94%BA</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都東村山市栄町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都東村山市栄町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/東村山市/栄町&lt;/address&gt;
+&lt;longitude&gt;139.475479&lt;/longitude&gt;
+&lt;latitude&gt;35.751640&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>35.751640000000002</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>139.47547900000001</v>
+      </c>
+      <c r="H3">
+        <v>35.751640000000002</v>
+      </c>
+      <c r="I3">
+        <v>139.47547900000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>京都府宇治市五ヶ庄広岡谷</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E5%AE%87%E6%B2%BB%E5%B8%82%E4%BA%94%E3%83%B6%E5%BA%84%E5%BA%83%E5%B2%A1%E8%B0%B7</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;京都府宇治市五ヶ庄広岡谷&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;京都府宇治市五ヶ庄広岡谷&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;京都府/宇治市/五ケ庄/広岡谷&lt;/address&gt;
+&lt;longitude&gt;135.806473&lt;/longitude&gt;
+&lt;latitude&gt;34.917458&lt;/latitude&gt;
+&lt;iLvl&gt;6&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>34.917458000000003</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>135.80647300000001</v>
+      </c>
+      <c r="H4">
+        <v>34.917458000000003</v>
+      </c>
+      <c r="I4">
+        <v>135.80647300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>埼玉県越谷市袋山２０２１－１</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%A2%8B%E5%B1%B1%EF%BC%92%EF%BC%90%EF%BC%92%EF%BC%91%EF%BC%8D%EF%BC%91</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県越谷市袋山２０２１−１&lt;/query&gt;
@@ -690,38 +840,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
         <v>35.922440000000002</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
         <v>139.779617</v>
       </c>
-      <c r="H2">
+      <c r="H5">
         <v>35.922440000000002</v>
       </c>
-      <c r="I2">
+      <c r="I5">
         <v>139.779617</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
         <v>佐賀県佐賀市</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BD%90%E8%B3%80%E7%9C%8C%E4%BD%90%E8%B3%80%E5%B8%82</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;佐賀県佐賀市&lt;/query&gt;
@@ -737,38 +887,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>33.263542000000001</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>130.30084199999999</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>33.263542000000001</v>
       </c>
-      <c r="I3">
+      <c r="I6">
         <v>130.30084199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
         <v>石川県金沢市法島町</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82%E6%B3%95%E5%B3%B6%E7%94%BA</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;石川県金沢市法島町&lt;/query&gt;
@@ -784,38 +934,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
         <v>36.546050999999999</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
         <v>136.66352800000001</v>
       </c>
-      <c r="H4">
+      <c r="H7">
         <v>36.546050999999999</v>
       </c>
-      <c r="I4">
+      <c r="I7">
         <v>136.66352800000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
         <v>京都府京都市下京区西橋詰町</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E9%83%BD%E5%B8%82%E4%B8%8B%E4%BA%AC%E5%8C%BA%E8%A5%BF%E6%A9%8B%E8%A9%B0%E7%94%BA</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;京都府京都市下京区西橋詰町&lt;/query&gt;
@@ -831,38 +981,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>34.996707999999998</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>135.76709</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>34.996707999999998</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>135.76709</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>東京都文京区本駒込</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都文京区本駒込&lt;/query&gt;
@@ -878,38 +1028,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>35.725501999999999</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>139.75147999999999</v>
       </c>
-      <c r="H6">
+      <c r="H9">
         <v>35.725501999999999</v>
       </c>
-      <c r="I6">
+      <c r="I9">
         <v>139.75147999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>兵庫県宝塚市すみれが丘3丁目</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82%E3%81%99%E3%81%BF%E3%82%8C%E3%81%8C%E4%B8%983%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;兵庫県宝塚市すみれが丘3丁目&lt;/query&gt;
@@ -925,37 +1075,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>34.825718000000002</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>135.34549000000001</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>34.825718000000002</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>135.34549000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="9"/>
         <v>熊本県熊本市東区</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -972,37 +1122,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>32.780529000000001</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>130.768066</v>
       </c>
-      <c r="H8">
+      <c r="H11">
         <v>32.780529000000001</v>
       </c>
-      <c r="I8">
+      <c r="I11">
         <v>130.768066</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1019,37 +1169,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H9">
+      <c r="H12">
         <v>35.337265000000002</v>
       </c>
-      <c r="I9">
+      <c r="I12">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>東京都文京区湯島</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%B9%AF%E5%B3%B6</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1066,37 +1216,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>35.701411999999998</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>139.76461800000001</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <v>35.701411999999998</v>
       </c>
-      <c r="I10">
+      <c r="I13">
         <v>139.76461800000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県小田原市酒匂</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B0%8F%E7%94%B0%E5%8E%9F%E5%B8%82%E9%85%92%E5%8C%82</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1113,37 +1263,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>35.274521</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>139.18678299999999</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>35.274521</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>139.18678299999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>宮城県岩沼市</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E5%B2%A9%E6%B2%BC%E5%B8%82</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1160,37 +1310,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>38.104301</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>140.86994899999999</v>
       </c>
-      <c r="H12">
+      <c r="H15">
         <v>38.104301</v>
       </c>
-      <c r="I12">
+      <c r="I15">
         <v>140.86994899999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>東京都江東区有明1-5-2</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%9C%89%E6%98%8E1-5-2</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1207,37 +1357,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>35.636200000000002</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>139.783432</v>
       </c>
-      <c r="H13">
+      <c r="H16">
         <v>35.636200000000002</v>
       </c>
-      <c r="I13">
+      <c r="I16">
         <v>139.783432</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>三重県四日市市白須賀</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E5%9B%9B%E6%97%A5%E5%B8%82%E5%B8%82%E7%99%BD%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1254,37 +1404,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>34.989986000000002</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>136.64317299999999</v>
       </c>
-      <c r="H14">
+      <c r="H17">
         <v>34.989986000000002</v>
       </c>
-      <c r="I14">
+      <c r="I17">
         <v>136.64317299999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>大阪府堺市北区金岡町</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E5%8C%97%E5%8C%BA%E9%87%91%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1301,37 +1451,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>34.556914999999996</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>135.51889</v>
       </c>
-      <c r="H15">
+      <c r="H18">
         <v>34.556914999999996</v>
       </c>
-      <c r="I15">
+      <c r="I18">
         <v>135.51889</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1348,37 +1498,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H16">
+      <c r="H19">
         <v>36.498386000000004</v>
       </c>
-      <c r="I16">
+      <c r="I19">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>東京都渋谷区渋谷</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1395,37 +1545,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>35.661811999999998</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>139.704285</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>35.661811999999998</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>139.704285</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1442,37 +1592,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H18">
+      <c r="H21">
         <v>35.694710000000001</v>
       </c>
-      <c r="I18">
+      <c r="I21">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1489,37 +1639,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H19">
+      <c r="H22">
         <v>35.626038000000001</v>
       </c>
-      <c r="I19">
+      <c r="I22">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1536,37 +1686,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H20">
+      <c r="H23">
         <v>34.266705000000002</v>
       </c>
-      <c r="I20">
+      <c r="I23">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1583,38 +1733,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>35.460503000000003</v>
       </c>
-      <c r="I21">
+      <c r="I24">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府大阪市港区三先&lt;/query&gt;
@@ -1630,38 +1780,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H22">
+      <c r="H25">
         <v>34.660412000000001</v>
       </c>
-      <c r="I22">
+      <c r="I25">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="9"/>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="11"/>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;奈良県生駒市萩原町&lt;/query&gt;
@@ -1677,38 +1827,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H23">
+      <c r="H26">
         <v>34.665543</v>
       </c>
-      <c r="I23">
+      <c r="I26">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C27" t="str">
+        <f t="shared" si="12"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E27" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都足立区加平&lt;/query&gt;
@@ -1724,38 +1874,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H24">
+      <c r="H27">
         <v>35.775902000000002</v>
       </c>
-      <c r="I24">
+      <c r="I27">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C28" t="str">
+        <f t="shared" si="12"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E28" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都足立区加平&lt;/query&gt;
@@ -1771,37 +1921,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H25">
+      <c r="H28">
         <v>35.775902000000002</v>
       </c>
-      <c r="I25">
+      <c r="I28">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="12"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D29" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1818,124 +1968,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H26">
+      <c r="H29">
         <v>35.338383</v>
       </c>
-      <c r="I26">
+      <c r="I29">
         <v>137.11308299999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C27" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F27" t="e" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" t="e" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27">
-        <v>32.750312999999998</v>
-      </c>
-      <c r="I27">
-        <v>129.87789900000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C28" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F28" t="e" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" t="e" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28">
-        <v>37.975467999999999</v>
-      </c>
-      <c r="I28">
-        <v>138.24023399999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C29" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F29" t="e" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" t="e" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29">
-        <v>34.826926999999998</v>
-      </c>
-      <c r="I29">
-        <v>135.470383</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751FADC0-982F-4319-B74F-BF6F932A7F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBEC3C-51AA-412A-845B-B4DA4E7BA9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="210" windowWidth="26505" windowHeight="14070" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26910" windowHeight="14745" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>jio0</t>
   </si>
@@ -210,13 +210,22 @@
     <t>京都市下京区西橋詰町</t>
   </si>
   <si>
-    <t>藤沢市大庭</t>
-  </si>
-  <si>
     <t>東村山市栄町</t>
   </si>
   <si>
     <t>宇治市五ヶ庄広岡谷</t>
+  </si>
+  <si>
+    <t>市川市</t>
+  </si>
+  <si>
+    <t>長崎県</t>
+  </si>
+  <si>
+    <t>長崎市戸町</t>
+  </si>
+  <si>
+    <t>熊谷市新堀</t>
   </si>
 </sst>
 </file>
@@ -626,7 +635,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I29"/>
+      <selection activeCell="L7" sqref="L6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -669,49 +678,49 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>神奈川県藤沢市大庭</v>
+        <v>千葉県市川市</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E8%97%A4%E6%B2%A2%E5%B8%82%E5%A4%A7%E5%BA%AD</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%B8%82%E5%B7%9D%E5%B8%82</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;神奈川県藤沢市大庭&lt;/query&gt;
+&lt;query&gt;千葉県市川市&lt;/query&gt;
 &lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
 &lt;iConf&gt;5&lt;/iConf&gt;
-&lt;converted&gt;神奈川県藤沢市大庭&lt;/converted&gt;
+&lt;converted&gt;千葉県市川市&lt;/converted&gt;
 &lt;candidate&gt;
-&lt;address&gt;神奈川県/藤沢市/大庭&lt;/address&gt;
-&lt;longitude&gt;139.446350&lt;/longitude&gt;
-&lt;latitude&gt;35.360580&lt;/latitude&gt;
-&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;address&gt;千葉県/市川市&lt;/address&gt;
+&lt;longitude&gt;139.931015&lt;/longitude&gt;
+&lt;latitude&gt;35.721912&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
 &lt;/candidate&gt;
 &lt;/results&gt;
 </v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
-        <v>35.360579999999999</v>
+        <v>35.721912000000003</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
-        <v>139.44635</v>
+        <v>139.931015</v>
       </c>
       <c r="H2">
-        <v>35.360579999999999</v>
+        <v>35.721912000000003</v>
       </c>
       <c r="I2">
-        <v>139.44635</v>
+        <v>139.931015</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -719,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
@@ -766,7 +775,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -998,20 +1007,67 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="9"/>
-        <v>東京都文京区本駒込</v>
+        <v>長崎県長崎市戸町</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="10"/>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E5%B4%8E%E7%9C%8C%E9%95%B7%E5%B4%8E%E5%B8%82%E6%88%B8%E7%94%BA</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;長崎県長崎市戸町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;長崎県長崎市戸町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;長崎県/長崎市/戸町&lt;/address&gt;
+&lt;longitude&gt;129.860870&lt;/longitude&gt;
+&lt;latitude&gt;32.724579&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+        <v>32.724578999999999</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+        <v>129.86087000000001</v>
+      </c>
+      <c r="H9">
+        <v>32.724578999999999</v>
+      </c>
+      <c r="I9">
+        <v>129.86087000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
+        <v>東京都文京区本駒込</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1028,37 +1084,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>35.725501999999999</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>139.75147999999999</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>35.725501999999999</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>139.75147999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県宝塚市すみれが丘3丁目</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82%E3%81%99%E3%81%BF%E3%82%8C%E3%81%8C%E4%B8%983%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1075,37 +1131,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>34.825718000000002</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>135.34549000000001</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>34.825718000000002</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>135.34549000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="9"/>
         <v>熊本県熊本市東区</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1122,37 +1178,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>32.780529000000001</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>130.768066</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>32.780529000000001</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>130.768066</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1169,37 +1225,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>35.337265000000002</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>東京都文京区湯島</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%B9%AF%E5%B3%B6</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1216,37 +1272,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>35.701411999999998</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>139.76461800000001</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>35.701411999999998</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>139.76461800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県小田原市酒匂</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B0%8F%E7%94%B0%E5%8E%9F%E5%B8%82%E9%85%92%E5%8C%82</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1263,37 +1319,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>35.274521</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>139.18678299999999</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>35.274521</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>139.18678299999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>宮城県岩沼市</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E5%B2%A9%E6%B2%BC%E5%B8%82</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1310,37 +1366,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>38.104301</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>140.86994899999999</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>38.104301</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>140.86994899999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>東京都江東区有明1-5-2</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%9C%89%E6%98%8E1-5-2</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1357,37 +1413,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>35.636200000000002</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>139.783432</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>35.636200000000002</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>139.783432</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>三重県四日市市白須賀</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E5%9B%9B%E6%97%A5%E5%B8%82%E5%B8%82%E7%99%BD%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1404,37 +1460,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>34.989986000000002</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>136.64317299999999</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>34.989986000000002</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>136.64317299999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>大阪府堺市北区金岡町</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E5%8C%97%E5%8C%BA%E9%87%91%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1451,37 +1507,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>34.556914999999996</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>135.51889</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>34.556914999999996</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>135.51889</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1498,37 +1554,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>36.498386000000004</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>東京都渋谷区渋谷</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1545,37 +1601,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.661811999999998</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>139.704285</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>35.661811999999998</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>139.704285</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1592,37 +1648,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>35.694710000000001</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1639,37 +1695,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>35.626038000000001</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1686,38 +1742,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>34.266705000000002</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市西区平沼&lt;/query&gt;
@@ -1733,38 +1789,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>35.460503000000003</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;大阪府大阪市港区三先&lt;/query&gt;
@@ -1780,37 +1836,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>34.660412000000001</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="12"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D27" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1827,37 +1883,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>34.665543</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="12"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D28" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1874,37 +1930,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>35.775902000000002</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="12"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D29" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1921,37 +1977,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>35.775902000000002</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="12"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D30" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1968,89 +2024,66 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>35.338383</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C30" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F30" t="e" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" t="e" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30">
-        <v>34.848083000000003</v>
-      </c>
-      <c r="I30">
-        <v>134.671402</v>
-      </c>
-    </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
       <c r="C31" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>埼玉県熊谷市新堀</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F31" t="e" cm="1">
+&lt;query&gt;埼玉県熊谷市新堀&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;埼玉県熊谷市新堀&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;埼玉県/熊谷市/新堀&lt;/address&gt;
+&lt;longitude&gt;139.335297&lt;/longitude&gt;
+&lt;latitude&gt;36.175068&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F31" cm="1">
         <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" t="e" cm="1">
+        <v>36.175068000000003</v>
+      </c>
+      <c r="G31" cm="1">
         <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
-        <v>#VALUE!</v>
+        <v>139.335297</v>
       </c>
       <c r="H31">
-        <v>35.747855999999999</v>
+        <v>36.175068000000003</v>
       </c>
       <c r="I31">
-        <v>139.73558</v>
+        <v>139.335297</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABBEC3C-51AA-412A-845B-B4DA4E7BA9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0730C78-4391-42B6-8BD0-F592E939C673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26910" windowHeight="14745" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="27975" yWindow="3525" windowWidth="26670" windowHeight="14145" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>jio0</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>熊谷市新堀</t>
+  </si>
+  <si>
+    <t>石巻市茜平</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:I3761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L6:L7"/>
+      <selection activeCell="H2" sqref="H2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -678,21 +681,68 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>千葉県市川市</v>
+        <v>宮城県石巻市茜平</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%B8%82%E5%B7%9D%E5%B8%82</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E7%9F%B3%E5%B7%BB%E5%B8%82%E8%8C%9C%E5%B9%B3</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;宮城県石巻市茜平&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;宮城県石巻市茜平&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;宮城県/石巻市/茜平&lt;/address&gt;
+&lt;longitude&gt;141.268768&lt;/longitude&gt;
+&lt;latitude&gt;38.450005&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>38.450004999999997</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>141.26876799999999</v>
+      </c>
+      <c r="H2">
+        <v>38.450004999999997</v>
+      </c>
+      <c r="I2">
+        <v>141.26876799999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>千葉県市川市</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%B8%82%E5%B7%9D%E5%B8%82</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県市川市&lt;/query&gt;
@@ -708,38 +758,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
         <v>35.721912000000003</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
         <v>139.931015</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>35.721912000000003</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>139.931015</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
         <v>東京都東村山市栄町</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%9D%B1%E6%9D%91%E5%B1%B1%E5%B8%82%E6%A0%84%E7%94%BA</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都東村山市栄町&lt;/query&gt;
@@ -755,38 +805,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
         <v>35.751640000000002</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
         <v>139.47547900000001</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>35.751640000000002</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>139.47547900000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
         <v>京都府宇治市五ヶ庄広岡谷</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E5%AE%87%E6%B2%BB%E5%B8%82%E4%BA%94%E3%83%B6%E5%BA%84%E5%BA%83%E5%B2%A1%E8%B0%B7</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;京都府宇治市五ヶ庄広岡谷&lt;/query&gt;
@@ -802,38 +852,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
         <v>34.917458000000003</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
         <v>135.80647300000001</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>34.917458000000003</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>135.80647300000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
         <v>埼玉県越谷市袋山２０２１－１</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%A2%8B%E5%B1%B1%EF%BC%92%EF%BC%90%EF%BC%92%EF%BC%91%EF%BC%8D%EF%BC%91</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県越谷市袋山２０２１−１&lt;/query&gt;
@@ -849,38 +899,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>35.922440000000002</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>139.779617</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>35.922440000000002</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>139.779617</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
         <v>佐賀県佐賀市</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BD%90%E8%B3%80%E7%9C%8C%E4%BD%90%E8%B3%80%E5%B8%82</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;佐賀県佐賀市&lt;/query&gt;
@@ -896,38 +946,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
         <v>33.263542000000001</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
         <v>130.30084199999999</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>33.263542000000001</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>130.30084199999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
         <v>石川県金沢市法島町</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82%E6%B3%95%E5%B3%B6%E7%94%BA</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;石川県金沢市法島町&lt;/query&gt;
@@ -943,37 +993,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>36.546050999999999</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>136.66352800000001</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>36.546050999999999</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>136.66352800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="9"/>
         <v>京都府京都市下京区西橋詰町</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D9" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E9%83%BD%E5%B8%82%E4%B8%8B%E4%BA%AC%E5%8C%BA%E8%A5%BF%E6%A9%8B%E8%A9%B0%E7%94%BA</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -990,37 +1040,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>34.996707999999998</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>135.76709</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>34.996707999999998</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>135.76709</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="9"/>
         <v>長崎県長崎市戸町</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E5%B4%8E%E7%9C%8C%E9%95%B7%E5%B4%8E%E5%B8%82%E6%88%B8%E7%94%BA</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1037,37 +1087,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>32.724578999999999</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>129.86087000000001</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>32.724578999999999</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>129.86087000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="9"/>
         <v>東京都文京区本駒込</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1084,37 +1134,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.725501999999999</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>139.75147999999999</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>35.725501999999999</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>139.75147999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県宝塚市すみれが丘3丁目</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82%E3%81%99%E3%81%BF%E3%82%8C%E3%81%8C%E4%B8%983%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1131,37 +1181,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>34.825718000000002</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>135.34549000000001</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>34.825718000000002</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>135.34549000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>熊本県熊本市東区</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1178,37 +1228,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>32.780529000000001</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>130.768066</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>32.780529000000001</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>130.768066</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1225,37 +1275,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>35.337265000000002</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>東京都文京区湯島</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%B9%AF%E5%B3%B6</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1272,37 +1322,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>35.701411999999998</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>139.76461800000001</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>35.701411999999998</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>139.76461800000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県小田原市酒匂</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B0%8F%E7%94%B0%E5%8E%9F%E5%B8%82%E9%85%92%E5%8C%82</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1319,37 +1369,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>35.274521</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>139.18678299999999</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>35.274521</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>139.18678299999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>宮城県岩沼市</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E5%B2%A9%E6%B2%BC%E5%B8%82</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1366,37 +1416,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>38.104301</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>140.86994899999999</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>38.104301</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>140.86994899999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>東京都江東区有明1-5-2</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B1%9F%E6%9D%B1%E5%8C%BA%E6%9C%89%E6%98%8E1-5-2</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1413,37 +1463,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F17" cm="1">
-        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>35.636200000000002</v>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>139.783432</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>35.636200000000002</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>139.783432</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>三重県四日市市白須賀</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%B8%89%E9%87%8D%E7%9C%8C%E5%9B%9B%E6%97%A5%E5%B8%82%E5%B8%82%E7%99%BD%E9%A0%88%E8%B3%80</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1460,37 +1510,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F18" cm="1">
-        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>34.989986000000002</v>
       </c>
-      <c r="G18" cm="1">
-        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>136.64317299999999</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>34.989986000000002</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>136.64317299999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>大阪府堺市北区金岡町</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A0%BA%E5%B8%82%E5%8C%97%E5%8C%BA%E9%87%91%E5%B2%A1%E7%94%BA</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1507,37 +1557,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>34.556914999999996</v>
       </c>
-      <c r="G19" cm="1">
-        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>135.51889</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>34.556914999999996</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>135.51889</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>茨城県日立市久慈町</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E8%8C%A8%E5%9F%8E%E7%9C%8C%E6%97%A5%E7%AB%8B%E5%B8%82%E4%B9%85%E6%85%88%E7%94%BA</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1554,37 +1604,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>36.498386000000004</v>
       </c>
-      <c r="G20" cm="1">
-        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>140.622589</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>36.498386000000004</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>140.622589</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="9"/>
         <v>東京都渋谷区渋谷</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%B8%8B%E8%B0%B7%E5%8C%BA%E6%B8%8B%E8%B0%B7</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1601,37 +1651,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F21" cm="1">
-        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
         <v>35.661811999999998</v>
       </c>
-      <c r="G21" cm="1">
-        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
         <v>139.704285</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>35.661811999999998</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>139.704285</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="9"/>
         <v>千葉県船橋市</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E8%88%B9%E6%A9%8B%E5%B8%82</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1648,37 +1698,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F22" cm="1">
-        <f t="array" ref="F22">INDEX(_xlfn.FILTERXML(E22,"//latitude"),1)</f>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
         <v>35.694710000000001</v>
       </c>
-      <c r="G22" cm="1">
-        <f t="array" ref="G22">INDEX(_xlfn.FILTERXML(E22,"//longitude"),1)</f>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
         <v>139.98262</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>35.694710000000001</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>139.98262</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="9"/>
         <v>東京都稲城市若葉台</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E7%A8%B2%E5%9F%8E%E5%B8%82%E8%8B%A5%E8%91%89%E5%8F%B0</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1695,38 +1745,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F23" cm="1">
-        <f t="array" ref="F23">INDEX(_xlfn.FILTERXML(E23,"//latitude"),1)</f>
+      <c r="F24" cm="1">
+        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
         <v>35.626038000000001</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">INDEX(_xlfn.FILTERXML(E23,"//longitude"),1)</f>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
         <v>139.47615099999999</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>35.626038000000001</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>139.47615099999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="9"/>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
         <v>香川県高松市川島東町</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="D25" s="2" t="str">
+        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%A6%99%E5%B7%9D%E7%9C%8C%E9%AB%98%E6%9D%BE%E5%B8%82%E5%B7%9D%E5%B3%B6%E6%9D%B1%E7%94%BA</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="11"/>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;香川県高松市川島東町&lt;/query&gt;
@@ -1742,38 +1792,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F24" cm="1">
-        <f t="array" ref="F24">INDEX(_xlfn.FILTERXML(E24,"//latitude"),1)</f>
+      <c r="F25" cm="1">
+        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
         <v>34.266705000000002</v>
       </c>
-      <c r="G24" cm="1">
-        <f t="array" ref="G24">INDEX(_xlfn.FILTERXML(E24,"//longitude"),1)</f>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
         <v>134.09213299999999</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>34.266705000000002</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>134.09213299999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25:C33" si="12">+A25&amp;B25</f>
+      <c r="C26" t="str">
+        <f t="shared" si="12"/>
         <v>神奈川県横浜市西区平沼</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" ref="D25:D33" si="13" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C25)</f>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E6%A8%AA%E6%B5%9C%E5%B8%82%E8%A5%BF%E5%8C%BA%E5%B9%B3%E6%B2%BC</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" ref="E25:E33" si="14" xml:space="preserve"> _xlfn.WEBSERVICE(D25)</f>
+      <c r="E26" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;神奈川県横浜市西区平沼&lt;/query&gt;
@@ -1789,37 +1839,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F25" cm="1">
-        <f t="array" ref="F25">INDEX(_xlfn.FILTERXML(E25,"//latitude"),1)</f>
+      <c r="F26" cm="1">
+        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
         <v>35.460503000000003</v>
       </c>
-      <c r="G25" cm="1">
-        <f t="array" ref="G25">INDEX(_xlfn.FILTERXML(E25,"//longitude"),1)</f>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
         <v>139.61964399999999</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>35.460503000000003</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>139.61964399999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="12"/>
         <v>大阪府大阪市港区三先</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D27" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A4%A7%E9%98%AA%E5%BA%9C%E5%A4%A7%E9%98%AA%E5%B8%82%E6%B8%AF%E5%8C%BA%E4%B8%89%E5%85%88</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1836,37 +1886,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F26" cm="1">
-        <f t="array" ref="F26">INDEX(_xlfn.FILTERXML(E26,"//latitude"),1)</f>
+      <c r="F27" cm="1">
+        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
         <v>34.660412000000001</v>
       </c>
-      <c r="G26" cm="1">
-        <f t="array" ref="G26">INDEX(_xlfn.FILTERXML(E26,"//longitude"),1)</f>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
         <v>135.45533800000001</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>34.660412000000001</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>135.45533800000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="12"/>
         <v>奈良県生駒市萩原町</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D28" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%A5%88%E8%89%AF%E7%9C%8C%E7%94%9F%E9%A7%92%E5%B8%82%E8%90%A9%E5%8E%9F%E7%94%BA</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1883,37 +1933,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F27" cm="1">
-        <f t="array" ref="F27">INDEX(_xlfn.FILTERXML(E27,"//latitude"),1)</f>
+      <c r="F28" cm="1">
+        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
         <v>34.665543</v>
       </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27">INDEX(_xlfn.FILTERXML(E27,"//longitude"),1)</f>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
         <v>135.70208700000001</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>34.665543</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>135.70208700000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="12"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D29" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1930,37 +1980,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F28" cm="1">
-        <f t="array" ref="F28">INDEX(_xlfn.FILTERXML(E28,"//latitude"),1)</f>
+      <c r="F29" cm="1">
+        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G28" cm="1">
-        <f t="array" ref="G28">INDEX(_xlfn.FILTERXML(E28,"//longitude"),1)</f>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>35.775902000000002</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="12"/>
         <v>東京都足立区加平</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D30" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B6%B3%E7%AB%8B%E5%8C%BA%E5%8A%A0%E5%B9%B3</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1977,37 +2027,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F29" cm="1">
-        <f t="array" ref="F29">INDEX(_xlfn.FILTERXML(E29,"//latitude"),1)</f>
+      <c r="F30" cm="1">
+        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
         <v>35.775902000000002</v>
       </c>
-      <c r="G29" cm="1">
-        <f t="array" ref="G29">INDEX(_xlfn.FILTERXML(E29,"//longitude"),1)</f>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
         <v>139.82685900000001</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>35.775902000000002</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>139.82685900000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="12"/>
         <v>岐阜県多治見市宝町</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D31" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%A4%9A%E6%B2%BB%E8%A6%8B%E5%B8%82%E5%AE%9D%E7%94%BA</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2024,37 +2074,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F30" cm="1">
-        <f t="array" ref="F30">INDEX(_xlfn.FILTERXML(E30,"//latitude"),1)</f>
+      <c r="F31" cm="1">
+        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
         <v>35.338383</v>
       </c>
-      <c r="G30" cm="1">
-        <f t="array" ref="G30">INDEX(_xlfn.FILTERXML(E30,"//longitude"),1)</f>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
         <v>137.11308299999999</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>35.338383</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>137.11308299999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="12"/>
         <v>埼玉県熊谷市新堀</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D32" s="2" t="str">
         <f t="shared" si="13"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E7%86%8A%E8%B0%B7%E5%B8%82%E6%96%B0%E5%A0%80</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -2071,54 +2121,19 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F31" cm="1">
-        <f t="array" ref="F31">INDEX(_xlfn.FILTERXML(E31,"//latitude"),1)</f>
+      <c r="F32" cm="1">
+        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
         <v>36.175068000000003</v>
       </c>
-      <c r="G31" cm="1">
-        <f t="array" ref="G31">INDEX(_xlfn.FILTERXML(E31,"//longitude"),1)</f>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
         <v>139.335297</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>36.175068000000003</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>139.335297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
-&lt;results&gt;
-&lt;query&gt;&lt;/query&gt;
-&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
-&lt;iConf&gt;0&lt;/iConf&gt;
-&lt;converted&gt;&lt;/converted&gt;
-&lt;/results&gt;
-</v>
-      </c>
-      <c r="F32" t="e" cm="1">
-        <f t="array" ref="F32">INDEX(_xlfn.FILTERXML(E32,"//latitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" t="e" cm="1">
-        <f t="array" ref="G32">INDEX(_xlfn.FILTERXML(E32,"//longitude"),1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32">
-        <v>35.732436999999997</v>
-      </c>
-      <c r="I32">
-        <v>139.71546900000001</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.4">

--- a/ジオコーディング.xlsx
+++ b/ジオコーディング.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\ダッシュボード\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0730C78-4391-42B6-8BD0-F592E939C673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604DDD5-EB0C-4040-8A99-0D1BF14CBE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27975" yWindow="3525" windowWidth="26670" windowHeight="14145" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26670" windowHeight="14145" xr2:uid="{BB5B2B8E-421E-4F23-82A9-C171D1080EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>jio0</t>
   </si>
@@ -229,6 +229,27 @@
   </si>
   <si>
     <t>石巻市茜平</t>
+  </si>
+  <si>
+    <t>岐阜市弁天町</t>
+  </si>
+  <si>
+    <t>豊島区駒込</t>
+  </si>
+  <si>
+    <t>鳥取県</t>
+  </si>
+  <si>
+    <t>米子市淀江町佐陀</t>
+  </si>
+  <si>
+    <t>西宮市</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>苫小牧市豊川町</t>
   </si>
 </sst>
 </file>
@@ -637,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F783F1-693B-40FB-B54E-2CFAE0B1ADB5}">
   <dimension ref="A1:I3761"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -681,21 +702,209 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="str">
         <f>+A2&amp;B2</f>
-        <v>宮城県石巻市茜平</v>
+        <v>岐阜県岐阜市弁天町</v>
       </c>
       <c r="D2" s="2" t="str">
         <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C2)</f>
-        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E7%9F%B3%E5%B7%BB%E5%B8%82%E8%8C%9C%E5%B9%B3</v>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%B2%90%E9%98%9C%E7%9C%8C%E5%B2%90%E9%98%9C%E5%B8%82%E5%BC%81%E5%A4%A9%E7%94%BA</v>
       </c>
       <c r="E2" t="str">
         <f xml:space="preserve"> _xlfn.WEBSERVICE(D2)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;岐阜県岐阜市弁天町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;岐阜県岐阜市弁天町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;岐阜県/岐阜市/弁天町&lt;/address&gt;
+&lt;longitude&gt;136.749130&lt;/longitude&gt;
+&lt;latitude&gt;35.420223&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+        <v>35.420223</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+        <v>136.74913000000001</v>
+      </c>
+      <c r="H2">
+        <v>35.420223</v>
+      </c>
+      <c r="I2">
+        <v>136.74913000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+        <v>東京都豊島区駒込</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E8%B1%8A%E5%B3%B6%E5%8C%BA%E9%A7%92%E8%BE%BC</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;東京都豊島区駒込&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;東京都豊島区駒込&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;東京都/豊島区/駒込&lt;/address&gt;
+&lt;longitude&gt;139.749603&lt;/longitude&gt;
+&lt;latitude&gt;35.735039&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+        <v>35.735039</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+        <v>139.74960300000001</v>
+      </c>
+      <c r="H3">
+        <v>35.735039</v>
+      </c>
+      <c r="I3">
+        <v>139.74960300000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>鳥取県米子市淀江町佐陀</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%B3%A5%E5%8F%96%E7%9C%8C%E7%B1%B3%E5%AD%90%E5%B8%82%E6%B7%80%E6%B1%9F%E7%94%BA%E4%BD%90%E9%99%80</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;鳥取県米子市淀江町佐陀&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;鳥取県米子市淀江町佐陀&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;鳥取県/米子市/淀江町佐陀&lt;/address&gt;
+&lt;longitude&gt;133.395264&lt;/longitude&gt;
+&lt;latitude&gt;35.443062&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+        <v>35.443061999999998</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+        <v>133.395264</v>
+      </c>
+      <c r="H4">
+        <v>35.443061999999998</v>
+      </c>
+      <c r="I4">
+        <v>133.395264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+        <v>兵庫県西宮市</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E8%A5%BF%E5%AE%AE%E5%B8%82</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;兵庫県西宮市&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;兵庫県西宮市&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;兵庫県/西宮市&lt;/address&gt;
+&lt;longitude&gt;135.341827&lt;/longitude&gt;
+&lt;latitude&gt;34.737690&lt;/latitude&gt;
+&lt;iLvl&gt;3&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+        <v>34.737690000000001</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+        <v>135.34182699999999</v>
+      </c>
+      <c r="H5">
+        <v>34.737690000000001</v>
+      </c>
+      <c r="I5">
+        <v>135.34182699999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+        <v>宮城県石巻市茜平</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%AE%AE%E5%9F%8E%E7%9C%8C%E7%9F%B3%E5%B7%BB%E5%B8%82%E8%8C%9C%E5%B9%B3</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;宮城県石巻市茜平&lt;/query&gt;
@@ -711,38 +920,85 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(_xlfn.FILTERXML(E2,"//latitude"),1)</f>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
         <v>38.450004999999997</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(_xlfn.FILTERXML(E2,"//longitude"),1)</f>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
         <v>141.26876799999999</v>
       </c>
-      <c r="H2">
+      <c r="H6">
         <v>38.450004999999997</v>
       </c>
-      <c r="I2">
+      <c r="I6">
         <v>141.26876799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+        <v>北海道苫小牧市豊川町</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+        <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8C%97%E6%B5%B7%E9%81%93%E8%8B%AB%E5%B0%8F%E7%89%A7%E5%B8%82%E8%B1%8A%E5%B7%9D%E7%94%BA</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+        <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;results&gt;
+&lt;query&gt;北海道苫小牧市豊川町&lt;/query&gt;
+&lt;geodetic&gt;wgs1984&lt;/geodetic&gt;
+&lt;iConf&gt;5&lt;/iConf&gt;
+&lt;converted&gt;北海道苫小牧市豊川町&lt;/converted&gt;
+&lt;candidate&gt;
+&lt;address&gt;北海道/苫小牧市/豊川町&lt;/address&gt;
+&lt;longitude&gt;141.556732&lt;/longitude&gt;
+&lt;latitude&gt;42.635456&lt;/latitude&gt;
+&lt;iLvl&gt;5&lt;/iLvl&gt;
+&lt;/candidate&gt;
+&lt;/results&gt;
+</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+        <v>42.635455999999998</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+        <v>141.55673200000001</v>
+      </c>
+      <c r="H7">
+        <v>42.635455999999998</v>
+      </c>
+      <c r="I7">
+        <v>141.55673200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">+A3&amp;B3</f>
+      <c r="C8" t="str">
+        <f t="shared" si="9"/>
         <v>千葉県市川市</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3" si="1" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C3)</f>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%8D%83%E8%91%89%E7%9C%8C%E5%B8%82%E5%B7%9D%E5%B8%82</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="2" xml:space="preserve"> _xlfn.WEBSERVICE(D3)</f>
+      <c r="E8" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;千葉県市川市&lt;/query&gt;
@@ -758,38 +1014,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(_xlfn.FILTERXML(E3,"//latitude"),1)</f>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
         <v>35.721912000000003</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(_xlfn.FILTERXML(E3,"//longitude"),1)</f>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
         <v>139.931015</v>
       </c>
-      <c r="H3">
+      <c r="H8">
         <v>35.721912000000003</v>
       </c>
-      <c r="I3">
+      <c r="I8">
         <v>139.931015</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
+      <c r="C9" t="str">
+        <f t="shared" si="9"/>
         <v>東京都東村山市栄町</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C4)</f>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%9D%B1%E6%9D%91%E5%B1%B1%E5%B8%82%E6%A0%84%E7%94%BA</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="2"/>
+      <c r="E9" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;東京都東村山市栄町&lt;/query&gt;
@@ -805,38 +1061,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(_xlfn.FILTERXML(E4,"//latitude"),1)</f>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
         <v>35.751640000000002</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(_xlfn.FILTERXML(E4,"//longitude"),1)</f>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
         <v>139.47547900000001</v>
       </c>
-      <c r="H4">
+      <c r="H9">
         <v>35.751640000000002</v>
       </c>
-      <c r="I4">
+      <c r="I9">
         <v>139.47547900000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" ref="C5" si="3">+A5&amp;B5</f>
+      <c r="C10" t="str">
+        <f t="shared" si="9"/>
         <v>京都府宇治市五ヶ庄広岡谷</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5" si="4" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C5)</f>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E5%AE%87%E6%B2%BB%E5%B8%82%E4%BA%94%E3%83%B6%E5%BA%84%E5%BA%83%E5%B2%A1%E8%B0%B7</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" ref="E5" si="5" xml:space="preserve"> _xlfn.WEBSERVICE(D5)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;京都府宇治市五ヶ庄広岡谷&lt;/query&gt;
@@ -852,38 +1108,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(_xlfn.FILTERXML(E5,"//latitude"),1)</f>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
         <v>34.917458000000003</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(_xlfn.FILTERXML(E5,"//longitude"),1)</f>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
         <v>135.80647300000001</v>
       </c>
-      <c r="H5">
+      <c r="H10">
         <v>34.917458000000003</v>
       </c>
-      <c r="I5">
+      <c r="I10">
         <v>135.80647300000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6" si="6">+A6&amp;B6</f>
+      <c r="C11" t="str">
+        <f t="shared" si="9"/>
         <v>埼玉県越谷市袋山２０２１－１</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6" si="7" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C6)</f>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%9F%BC%E7%8E%89%E7%9C%8C%E8%B6%8A%E8%B0%B7%E5%B8%82%E8%A2%8B%E5%B1%B1%EF%BC%92%EF%BC%90%EF%BC%92%EF%BC%91%EF%BC%8D%EF%BC%91</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6" si="8" xml:space="preserve"> _xlfn.WEBSERVICE(D6)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;埼玉県越谷市袋山２０２１−１&lt;/query&gt;
@@ -899,38 +1155,38 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(_xlfn.FILTERXML(E6,"//latitude"),1)</f>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
         <v>35.922440000000002</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(_xlfn.FILTERXML(E6,"//longitude"),1)</f>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
         <v>139.779617</v>
       </c>
-      <c r="H6">
+      <c r="H11">
         <v>35.922440000000002</v>
       </c>
-      <c r="I6">
+      <c r="I11">
         <v>139.779617</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" ref="C7:C24" si="9">+A7&amp;B7</f>
+      <c r="C12" t="str">
+        <f t="shared" si="9"/>
         <v>佐賀県佐賀市</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D24" si="10" xml:space="preserve"> "http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=" &amp; _xlfn.ENCODEURL(C7)</f>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BD%90%E8%B3%80%E7%9C%8C%E4%BD%90%E8%B3%80%E5%B8%82</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="11" xml:space="preserve"> _xlfn.WEBSERVICE(D7)</f>
+      <c r="E12" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
 &lt;query&gt;佐賀県佐賀市&lt;/query&gt;
@@ -946,37 +1202,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(_xlfn.FILTERXML(E7,"//latitude"),1)</f>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
         <v>33.263542000000001</v>
       </c>
-      <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(_xlfn.FILTERXML(E7,"//longitude"),1)</f>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
         <v>130.30084199999999</v>
       </c>
-      <c r="H7">
+      <c r="H12">
         <v>33.263542000000001</v>
       </c>
-      <c r="I7">
+      <c r="I12">
         <v>130.30084199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="9"/>
         <v>石川県金沢市法島町</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%9F%B3%E5%B7%9D%E7%9C%8C%E9%87%91%E6%B2%A2%E5%B8%82%E6%B3%95%E5%B3%B6%E7%94%BA</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -993,37 +1249,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(_xlfn.FILTERXML(E8,"//latitude"),1)</f>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
         <v>36.546050999999999</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(_xlfn.FILTERXML(E8,"//longitude"),1)</f>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
         <v>136.66352800000001</v>
       </c>
-      <c r="H8">
+      <c r="H13">
         <v>36.546050999999999</v>
       </c>
-      <c r="I8">
+      <c r="I13">
         <v>136.66352800000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="9"/>
         <v>京都府京都市下京区西橋詰町</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E4%BA%AC%E9%83%BD%E5%BA%9C%E4%BA%AC%E9%83%BD%E5%B8%82%E4%B8%8B%E4%BA%AC%E5%8C%BA%E8%A5%BF%E6%A9%8B%E8%A9%B0%E7%94%BA</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1040,37 +1296,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(_xlfn.FILTERXML(E9,"//latitude"),1)</f>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
         <v>34.996707999999998</v>
       </c>
-      <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(_xlfn.FILTERXML(E9,"//longitude"),1)</f>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
         <v>135.76709</v>
       </c>
-      <c r="H9">
+      <c r="H14">
         <v>34.996707999999998</v>
       </c>
-      <c r="I9">
+      <c r="I14">
         <v>135.76709</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="9"/>
         <v>長崎県長崎市戸町</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E9%95%B7%E5%B4%8E%E7%9C%8C%E9%95%B7%E5%B4%8E%E5%B8%82%E6%88%B8%E7%94%BA</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1087,37 +1343,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(_xlfn.FILTERXML(E10,"//latitude"),1)</f>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
         <v>32.724578999999999</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(_xlfn.FILTERXML(E10,"//longitude"),1)</f>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
         <v>129.86087000000001</v>
       </c>
-      <c r="H10">
+      <c r="H15">
         <v>32.724578999999999</v>
       </c>
-      <c r="I10">
+      <c r="I15">
         <v>129.86087000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="9"/>
         <v>東京都文京区本駒込</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%9C%AC%E9%A7%92%E8%BE%BC</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1134,37 +1390,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(_xlfn.FILTERXML(E11,"//latitude"),1)</f>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
         <v>35.725501999999999</v>
       </c>
-      <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(_xlfn.FILTERXML(E11,"//longitude"),1)</f>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
         <v>139.75147999999999</v>
       </c>
-      <c r="H11">
+      <c r="H16">
         <v>35.725501999999999</v>
       </c>
-      <c r="I11">
+      <c r="I16">
         <v>139.75147999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="9"/>
         <v>兵庫県宝塚市すみれが丘3丁目</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E5%85%B5%E5%BA%AB%E7%9C%8C%E5%AE%9D%E5%A1%9A%E5%B8%82%E3%81%99%E3%81%BF%E3%82%8C%E3%81%8C%E4%B8%983%E4%B8%81%E7%9B%AE</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1181,37 +1437,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F12" cm="1">
-        <f t="array" ref="F12">INDEX(_xlfn.FILTERXML(E12,"//latitude"),1)</f>
+      <c r="F17" cm="1">
+        <f t="array" ref="F17">INDEX(_xlfn.FILTERXML(E17,"//latitude"),1)</f>
         <v>34.825718000000002</v>
       </c>
-      <c r="G12" cm="1">
-        <f t="array" ref="G12">INDEX(_xlfn.FILTERXML(E12,"//longitude"),1)</f>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">INDEX(_xlfn.FILTERXML(E17,"//longitude"),1)</f>
         <v>135.34549000000001</v>
       </c>
-      <c r="H12">
+      <c r="H17">
         <v>34.825718000000002</v>
       </c>
-      <c r="I12">
+      <c r="I17">
         <v>135.34549000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="9"/>
         <v>熊本県熊本市東区</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%86%8A%E6%9C%AC%E7%9C%8C%E7%86%8A%E6%9C%AC%E5%B8%82%E6%9D%B1%E5%8C%BA</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1228,37 +1484,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">INDEX(_xlfn.FILTERXML(E13,"//latitude"),1)</f>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">INDEX(_xlfn.FILTERXML(E18,"//latitude"),1)</f>
         <v>32.780529000000001</v>
       </c>
-      <c r="G13" cm="1">
-        <f t="array" ref="G13">INDEX(_xlfn.FILTERXML(E13,"//longitude"),1)</f>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">INDEX(_xlfn.FILTERXML(E18,"//longitude"),1)</f>
         <v>130.768066</v>
       </c>
-      <c r="H13">
+      <c r="H18">
         <v>32.780529000000001</v>
       </c>
-      <c r="I13">
+      <c r="I18">
         <v>130.768066</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県平塚市南原</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B9%B3%E5%A1%9A%E5%B8%82%E5%8D%97%E5%8E%9F</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1275,37 +1531,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F14" cm="1">
-        <f t="array" ref="F14">INDEX(_xlfn.FILTERXML(E14,"//latitude"),1)</f>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">INDEX(_xlfn.FILTERXML(E19,"//latitude"),1)</f>
         <v>35.337265000000002</v>
       </c>
-      <c r="G14" cm="1">
-        <f t="array" ref="G14">INDEX(_xlfn.FILTERXML(E14,"//longitude"),1)</f>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">INDEX(_xlfn.FILTERXML(E19,"//longitude"),1)</f>
         <v>139.32626300000001</v>
       </c>
-      <c r="H14">
+      <c r="H19">
         <v>35.337265000000002</v>
       </c>
-      <c r="I14">
+      <c r="I19">
         <v>139.32626300000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="9"/>
         <v>東京都文京区湯島</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E6%9D%B1%E4%BA%AC%E9%83%BD%E6%96%87%E4%BA%AC%E5%8C%BA%E6%B9%AF%E5%B3%B6</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1322,37 +1578,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F15" cm="1">
-        <f t="array" ref="F15">INDEX(_xlfn.FILTERXML(E15,"//latitude"),1)</f>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">INDEX(_xlfn.FILTERXML(E20,"//latitude"),1)</f>
         <v>35.701411999999998</v>
       </c>
-      <c r="G15" cm="1">
-        <f t="array" ref="G15">INDEX(_xlfn.FILTERXML(E15,"//longitude"),1)</f>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">INDEX(_xlfn.FILTERXML(E20,"//longitude"),1)</f>
         <v>139.76461800000001</v>
       </c>
-      <c r="H15">
+      <c r="H20">
         <v>35.701411999999998</v>
       </c>
-      <c r="I15">
+      <c r="I20">
         <v>139.76461800000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="9"/>
         <v>神奈川県小田原市酒匂</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="10"/>
         <v>http://geocode.csis.u-tokyo.ac.jp/cgi-bin/simple_geocode.cgi?charset=UTF8&amp;addr=%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%9C%8C%E5%B0%8F%E7%94%B0%E5%8E%9F%E5%B8%82%E9%85%92%E5%8C%82</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
 &lt;results&gt;
@@ -1369,37 +1625,37 @@
 &lt;/results&gt;
 </v>
       </c>
-      <c r="F16" cm="1">
-        <f t="array" ref="F16">INDEX(_xlfn.FILTERXML(E16,"//latitude"),1)</f>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">INDEX(_xlfn.FILTERXML(E21,"//latitude"),1)</f>
         <v>35.274521</v>
       </c>
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">INDEX(_xlfn.FILTERXML(E16,"//longitude"),1)</f>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">INDEX(_xlfn.FILTERXML(E21,"//longitude"),1)</f>
         <v>139.18678299999999</v>
       </c>
-      <c r="H16">
+      <c r="H21">
         <v>35.274521</v>
       </c>
-      <c r="I16">
+      <c r="I21">
         <v>139.18678299999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">